--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC590ED4-B0A8-4BB6-8B4D-386FAA840920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A94A58-0F5C-4D36-B488-71F18729910C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31005" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,6 +576,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,15 +595,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8004,85 +8004,85 @@
           <cell r="H246">
             <v>45899</v>
           </cell>
-          <cell r="I246" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J246" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K246" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L246" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I246">
+            <v>4.0599999999999997E-2</v>
+          </cell>
+          <cell r="J246">
+            <v>4.3799999999999999E-2</v>
+          </cell>
+          <cell r="K246">
+            <v>4.6300000000000001E-2</v>
+          </cell>
+          <cell r="L246">
+            <v>4.9000000000000002E-2</v>
           </cell>
         </row>
         <row r="247">
           <cell r="H247">
             <v>45900</v>
           </cell>
-          <cell r="I247" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J247" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K247" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L247" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I247">
+            <v>4.0599999999999997E-2</v>
+          </cell>
+          <cell r="J247">
+            <v>4.3799999999999999E-2</v>
+          </cell>
+          <cell r="K247">
+            <v>4.6300000000000001E-2</v>
+          </cell>
+          <cell r="L247">
+            <v>4.9000000000000002E-2</v>
           </cell>
         </row>
         <row r="248">
           <cell r="H248">
             <v>45901</v>
           </cell>
-          <cell r="I248" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J248" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K248" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L248" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I248">
+            <v>4.0599999999999997E-2</v>
+          </cell>
+          <cell r="J248">
+            <v>4.3799999999999999E-2</v>
+          </cell>
+          <cell r="K248">
+            <v>4.6300000000000001E-2</v>
+          </cell>
+          <cell r="L248">
+            <v>4.9000000000000002E-2</v>
           </cell>
         </row>
         <row r="249">
           <cell r="H249">
             <v>45902</v>
           </cell>
-          <cell r="I249" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J249" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K249" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L249" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I249">
+            <v>4.0599999999999997E-2</v>
+          </cell>
+          <cell r="J249">
+            <v>4.3799999999999999E-2</v>
+          </cell>
+          <cell r="K249">
+            <v>4.6300000000000001E-2</v>
+          </cell>
+          <cell r="L249">
+            <v>4.9000000000000002E-2</v>
           </cell>
         </row>
         <row r="250">
           <cell r="H250">
             <v>45903</v>
           </cell>
-          <cell r="I250" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J250" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K250" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L250" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I250">
+            <v>4.1200000000000001E-2</v>
+          </cell>
+          <cell r="J250">
+            <v>4.4499999999999998E-2</v>
+          </cell>
+          <cell r="K250">
+            <v>4.7100000000000003E-2</v>
+          </cell>
+          <cell r="L250">
+            <v>4.9700000000000001E-2</v>
           </cell>
         </row>
         <row r="251">
@@ -10422,7 +10422,7 @@
   <dimension ref="A1:E380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
@@ -15777,21 +15777,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H246</f>
         <v>45899</v>
       </c>
-      <c r="B245" s="17" t="str">
+      <c r="B245" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I246</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C245" s="48" t="str">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="C245" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J246</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D245" s="48" t="str">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="D245" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K246</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E245" s="5" t="str">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="E245" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L246</f>
-        <v xml:space="preserve"> </v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -15799,21 +15799,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H247</f>
         <v>45900</v>
       </c>
-      <c r="B246" s="17" t="str">
+      <c r="B246" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I247</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C246" s="48" t="str">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="C246" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J247</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D246" s="48" t="str">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="D246" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K247</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E246" s="5" t="str">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="E246" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L247</f>
-        <v xml:space="preserve"> </v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -15821,21 +15821,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H248</f>
         <v>45901</v>
       </c>
-      <c r="B247" s="17" t="str">
+      <c r="B247" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I248</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C247" s="48" t="str">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="C247" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J248</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D247" s="48" t="str">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="D247" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K248</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E247" s="5" t="str">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="E247" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L248</f>
-        <v xml:space="preserve"> </v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -15843,21 +15843,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H249</f>
         <v>45902</v>
       </c>
-      <c r="B248" s="17" t="str">
+      <c r="B248" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I249</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C248" s="48" t="str">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="C248" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J249</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D248" s="48" t="str">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="D248" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K249</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E248" s="5" t="str">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="E248" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L249</f>
-        <v xml:space="preserve"> </v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -15865,21 +15865,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H250</f>
         <v>45903</v>
       </c>
-      <c r="B249" s="17" t="str">
+      <c r="B249" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I250</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C249" s="48" t="str">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="C249" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J250</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D249" s="48" t="str">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="D249" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K250</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E249" s="5" t="str">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="E249" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L250</f>
-        <v xml:space="preserve"> </v>
+        <v>4.9700000000000001E-2</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -19390,182 +19390,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="str" cm="1">
+      <c r="A1" s="62" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="M1" s="66" t="str" cm="1">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="M1" s="62" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
-      <c r="Y1" s="66" t="str" cm="1">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
+      <c r="Y1" s="62" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="68"/>
-      <c r="AK1" s="66" t="str" cm="1">
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
+      <c r="AK1" s="62" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="68"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="str">
+      <c r="A2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="M2" s="62" t="str">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="M2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64"/>
-      <c r="Y2" s="62" t="str">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
+      <c r="Y2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="64"/>
-      <c r="AK2" s="62" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AK2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="64"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="67"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="65" t="s">
+      <c r="Z3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="65" t="s">
+      <c r="AL3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -25267,18 +25267,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AK1:AU1"/>
     <mergeCell ref="AK2:AU2"/>
     <mergeCell ref="AL3:AU3"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="Y2:AI2"/>
     <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A94A58-0F5C-4D36-B488-71F18729910C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F65E6D7-58F3-4897-A4BD-E31BBAC5AB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31005" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="10" windowWidth="18720" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -8089,17 +8089,17 @@
           <cell r="H251">
             <v>45904</v>
           </cell>
-          <cell r="I251" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J251" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K251" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L251" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I251">
+            <v>4.0800000000000003E-2</v>
+          </cell>
+          <cell r="J251">
+            <v>4.3900000000000002E-2</v>
+          </cell>
+          <cell r="K251">
+            <v>4.6399999999999997E-2</v>
+          </cell>
+          <cell r="L251">
+            <v>4.9000000000000002E-2</v>
           </cell>
         </row>
         <row r="252">
@@ -10423,19 +10423,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B244" sqref="B244"/>
+      <selection pane="bottomLeft" activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
       <c r="B1" s="52" t="s">
         <v>4</v>
@@ -10444,7 +10444,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +10453,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H5</f>
         <v>45658</v>
@@ -10492,7 +10492,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H6</f>
         <v>45659</v>
@@ -10514,7 +10514,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H7</f>
         <v>45660</v>
@@ -10536,7 +10536,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H8</f>
         <v>45661</v>
@@ -10558,7 +10558,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H9</f>
         <v>45662</v>
@@ -10580,7 +10580,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H10</f>
         <v>45663</v>
@@ -10602,7 +10602,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H11</f>
         <v>45664</v>
@@ -10624,7 +10624,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H12</f>
         <v>45665</v>
@@ -10646,7 +10646,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H13</f>
         <v>45666</v>
@@ -10668,7 +10668,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H14</f>
         <v>45667</v>
@@ -10690,7 +10690,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H15</f>
         <v>45668</v>
@@ -10712,7 +10712,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H16</f>
         <v>45669</v>
@@ -10734,7 +10734,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H17</f>
         <v>45670</v>
@@ -10756,7 +10756,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H18</f>
         <v>45671</v>
@@ -10778,7 +10778,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H19</f>
         <v>45672</v>
@@ -10800,7 +10800,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H20</f>
         <v>45673</v>
@@ -10822,7 +10822,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H21</f>
         <v>45674</v>
@@ -10844,7 +10844,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H22</f>
         <v>45675</v>
@@ -10866,7 +10866,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H23</f>
         <v>45676</v>
@@ -10888,7 +10888,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H24</f>
         <v>45677</v>
@@ -10910,7 +10910,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H25</f>
         <v>45678</v>
@@ -10932,7 +10932,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H26</f>
         <v>45679</v>
@@ -10954,7 +10954,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H27</f>
         <v>45680</v>
@@ -10976,7 +10976,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H28</f>
         <v>45681</v>
@@ -10998,7 +10998,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H29</f>
         <v>45682</v>
@@ -11020,7 +11020,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H30</f>
         <v>45683</v>
@@ -11042,7 +11042,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H31</f>
         <v>45684</v>
@@ -11064,7 +11064,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H32</f>
         <v>45685</v>
@@ -11086,7 +11086,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H33</f>
         <v>45686</v>
@@ -11108,7 +11108,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H34</f>
         <v>45687</v>
@@ -11130,7 +11130,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H35</f>
         <v>45688</v>
@@ -11152,7 +11152,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H36</f>
         <v>45689</v>
@@ -11174,7 +11174,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H37</f>
         <v>45690</v>
@@ -11196,7 +11196,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H38</f>
         <v>45691</v>
@@ -11218,7 +11218,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H39</f>
         <v>45692</v>
@@ -11240,7 +11240,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H40</f>
         <v>45693</v>
@@ -11262,7 +11262,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H41</f>
         <v>45694</v>
@@ -11284,7 +11284,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H42</f>
         <v>45695</v>
@@ -11306,7 +11306,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H43</f>
         <v>45696</v>
@@ -11328,7 +11328,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H44</f>
         <v>45697</v>
@@ -11350,7 +11350,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H45</f>
         <v>45698</v>
@@ -11372,7 +11372,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H46</f>
         <v>45699</v>
@@ -11394,7 +11394,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H47</f>
         <v>45700</v>
@@ -11416,7 +11416,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H48</f>
         <v>45701</v>
@@ -11438,7 +11438,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H49</f>
         <v>45702</v>
@@ -11460,7 +11460,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H50</f>
         <v>45703</v>
@@ -11482,7 +11482,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H51</f>
         <v>45704</v>
@@ -11504,7 +11504,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H52</f>
         <v>45705</v>
@@ -11526,7 +11526,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H53</f>
         <v>45706</v>
@@ -11548,7 +11548,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H54</f>
         <v>45707</v>
@@ -11570,7 +11570,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H55</f>
         <v>45708</v>
@@ -11592,7 +11592,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H56</f>
         <v>45709</v>
@@ -11614,7 +11614,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H57</f>
         <v>45710</v>
@@ -11636,7 +11636,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H58</f>
         <v>45711</v>
@@ -11658,7 +11658,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H59</f>
         <v>45712</v>
@@ -11680,7 +11680,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H60</f>
         <v>45713</v>
@@ -11702,7 +11702,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H61</f>
         <v>45714</v>
@@ -11724,7 +11724,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H62</f>
         <v>45715</v>
@@ -11746,7 +11746,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H63</f>
         <v>45716</v>
@@ -11768,7 +11768,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H64</f>
         <v>45717</v>
@@ -11790,7 +11790,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H65</f>
         <v>45718</v>
@@ -11812,7 +11812,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H66</f>
         <v>45719</v>
@@ -11834,7 +11834,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H67</f>
         <v>45720</v>
@@ -11856,7 +11856,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H68</f>
         <v>45721</v>
@@ -11878,7 +11878,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H69</f>
         <v>45722</v>
@@ -11900,7 +11900,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H70</f>
         <v>45723</v>
@@ -11922,7 +11922,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H71</f>
         <v>45724</v>
@@ -11944,7 +11944,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H72</f>
         <v>45725</v>
@@ -11966,7 +11966,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H73</f>
         <v>45726</v>
@@ -11988,7 +11988,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H74</f>
         <v>45727</v>
@@ -12010,7 +12010,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H75</f>
         <v>45728</v>
@@ -12032,7 +12032,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H76</f>
         <v>45729</v>
@@ -12054,7 +12054,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H77</f>
         <v>45730</v>
@@ -12076,7 +12076,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H78</f>
         <v>45731</v>
@@ -12098,7 +12098,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H79</f>
         <v>45732</v>
@@ -12120,7 +12120,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H80</f>
         <v>45733</v>
@@ -12142,7 +12142,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H81</f>
         <v>45734</v>
@@ -12164,7 +12164,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H82</f>
         <v>45735</v>
@@ -12186,7 +12186,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H83</f>
         <v>45736</v>
@@ -12208,7 +12208,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H84</f>
         <v>45737</v>
@@ -12230,7 +12230,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H85</f>
         <v>45738</v>
@@ -12252,7 +12252,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H86</f>
         <v>45739</v>
@@ -12274,7 +12274,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H87</f>
         <v>45740</v>
@@ -12296,7 +12296,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H88</f>
         <v>45741</v>
@@ -12318,7 +12318,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H89</f>
         <v>45742</v>
@@ -12340,7 +12340,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H90</f>
         <v>45743</v>
@@ -12362,7 +12362,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H91</f>
         <v>45744</v>
@@ -12384,7 +12384,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H92</f>
         <v>45745</v>
@@ -12406,7 +12406,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H93</f>
         <v>45746</v>
@@ -12428,7 +12428,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H94</f>
         <v>45747</v>
@@ -12450,7 +12450,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H95</f>
         <v>45748</v>
@@ -12472,7 +12472,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H96</f>
         <v>45749</v>
@@ -12494,7 +12494,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H97</f>
         <v>45750</v>
@@ -12516,7 +12516,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H98</f>
         <v>45751</v>
@@ -12538,7 +12538,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H99</f>
         <v>45752</v>
@@ -12560,7 +12560,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H100</f>
         <v>45753</v>
@@ -12582,7 +12582,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H101</f>
         <v>45754</v>
@@ -12604,7 +12604,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H102</f>
         <v>45755</v>
@@ -12626,7 +12626,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H103</f>
         <v>45756</v>
@@ -12648,7 +12648,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H104</f>
         <v>45757</v>
@@ -12670,7 +12670,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H105</f>
         <v>45758</v>
@@ -12692,7 +12692,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H106</f>
         <v>45759</v>
@@ -12714,7 +12714,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H107</f>
         <v>45760</v>
@@ -12736,7 +12736,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H108</f>
         <v>45761</v>
@@ -12758,7 +12758,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H109</f>
         <v>45762</v>
@@ -12780,7 +12780,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H110</f>
         <v>45763</v>
@@ -12802,7 +12802,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H111</f>
         <v>45764</v>
@@ -12824,7 +12824,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H112</f>
         <v>45765</v>
@@ -12846,7 +12846,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H113</f>
         <v>45766</v>
@@ -12868,7 +12868,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H114</f>
         <v>45767</v>
@@ -12890,7 +12890,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H115</f>
         <v>45768</v>
@@ -12912,7 +12912,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H116</f>
         <v>45769</v>
@@ -12934,7 +12934,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H117</f>
         <v>45770</v>
@@ -12956,7 +12956,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H118</f>
         <v>45771</v>
@@ -12978,7 +12978,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H119</f>
         <v>45772</v>
@@ -13000,7 +13000,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H120</f>
         <v>45773</v>
@@ -13022,7 +13022,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H121</f>
         <v>45774</v>
@@ -13044,7 +13044,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H122</f>
         <v>45775</v>
@@ -13066,7 +13066,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H123</f>
         <v>45776</v>
@@ -13088,7 +13088,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H124</f>
         <v>45777</v>
@@ -13110,7 +13110,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H125</f>
         <v>45778</v>
@@ -13132,7 +13132,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H126</f>
         <v>45779</v>
@@ -13154,7 +13154,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H127</f>
         <v>45780</v>
@@ -13176,7 +13176,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H128</f>
         <v>45781</v>
@@ -13198,7 +13198,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H129</f>
         <v>45782</v>
@@ -13220,7 +13220,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H130</f>
         <v>45783</v>
@@ -13242,7 +13242,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H131</f>
         <v>45784</v>
@@ -13264,7 +13264,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H132</f>
         <v>45785</v>
@@ -13286,7 +13286,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H133</f>
         <v>45786</v>
@@ -13308,7 +13308,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H134</f>
         <v>45787</v>
@@ -13330,7 +13330,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H135</f>
         <v>45788</v>
@@ -13352,7 +13352,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H136</f>
         <v>45789</v>
@@ -13374,7 +13374,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H137</f>
         <v>45790</v>
@@ -13396,7 +13396,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H138</f>
         <v>45791</v>
@@ -13418,7 +13418,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H139</f>
         <v>45792</v>
@@ -13440,7 +13440,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H140</f>
         <v>45793</v>
@@ -13462,7 +13462,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H141</f>
         <v>45794</v>
@@ -13484,7 +13484,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H142</f>
         <v>45795</v>
@@ -13506,7 +13506,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H143</f>
         <v>45796</v>
@@ -13528,7 +13528,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H144</f>
         <v>45797</v>
@@ -13550,7 +13550,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H145</f>
         <v>45798</v>
@@ -13572,7 +13572,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H146</f>
         <v>45799</v>
@@ -13594,7 +13594,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H147</f>
         <v>45800</v>
@@ -13616,7 +13616,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H148</f>
         <v>45801</v>
@@ -13638,7 +13638,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H149</f>
         <v>45802</v>
@@ -13660,7 +13660,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H150</f>
         <v>45803</v>
@@ -13682,7 +13682,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H151</f>
         <v>45804</v>
@@ -13704,7 +13704,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H152</f>
         <v>45805</v>
@@ -13726,7 +13726,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H153</f>
         <v>45806</v>
@@ -13748,7 +13748,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H154</f>
         <v>45807</v>
@@ -13770,7 +13770,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H155</f>
         <v>45808</v>
@@ -13792,7 +13792,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H156</f>
         <v>45809</v>
@@ -13814,7 +13814,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H157</f>
         <v>45810</v>
@@ -13836,7 +13836,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H158</f>
         <v>45811</v>
@@ -13858,7 +13858,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H159</f>
         <v>45812</v>
@@ -13880,7 +13880,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H160</f>
         <v>45813</v>
@@ -13902,7 +13902,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H161</f>
         <v>45814</v>
@@ -13924,7 +13924,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H162</f>
         <v>45815</v>
@@ -13946,7 +13946,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H163</f>
         <v>45816</v>
@@ -13968,7 +13968,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H164</f>
         <v>45817</v>
@@ -13990,7 +13990,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H165</f>
         <v>45818</v>
@@ -14012,7 +14012,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H166</f>
         <v>45819</v>
@@ -14034,7 +14034,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H167</f>
         <v>45820</v>
@@ -14056,7 +14056,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H168</f>
         <v>45821</v>
@@ -14078,7 +14078,7 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H169</f>
         <v>45822</v>
@@ -14100,7 +14100,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H170</f>
         <v>45823</v>
@@ -14122,7 +14122,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H171</f>
         <v>45824</v>
@@ -14144,7 +14144,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H172</f>
         <v>45825</v>
@@ -14166,7 +14166,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H173</f>
         <v>45826</v>
@@ -14188,7 +14188,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H174</f>
         <v>45827</v>
@@ -14210,7 +14210,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H175</f>
         <v>45828</v>
@@ -14232,7 +14232,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H176</f>
         <v>45829</v>
@@ -14254,7 +14254,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H177</f>
         <v>45830</v>
@@ -14276,7 +14276,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H178</f>
         <v>45831</v>
@@ -14298,7 +14298,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H179</f>
         <v>45832</v>
@@ -14320,7 +14320,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H180</f>
         <v>45833</v>
@@ -14342,7 +14342,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H181</f>
         <v>45834</v>
@@ -14364,7 +14364,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H182</f>
         <v>45835</v>
@@ -14386,7 +14386,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H183</f>
         <v>45836</v>
@@ -14408,7 +14408,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H184</f>
         <v>45837</v>
@@ -14430,7 +14430,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H185</f>
         <v>45838</v>
@@ -14452,7 +14452,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H186</f>
         <v>45839</v>
@@ -14474,7 +14474,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H187</f>
         <v>45840</v>
@@ -14496,7 +14496,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H188</f>
         <v>45841</v>
@@ -14518,7 +14518,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H189</f>
         <v>45842</v>
@@ -14540,7 +14540,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H190</f>
         <v>45843</v>
@@ -14562,7 +14562,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H191</f>
         <v>45844</v>
@@ -14584,7 +14584,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H192</f>
         <v>45845</v>
@@ -14606,7 +14606,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H193</f>
         <v>45846</v>
@@ -14628,7 +14628,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H194</f>
         <v>45847</v>
@@ -14650,7 +14650,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H195</f>
         <v>45848</v>
@@ -14672,7 +14672,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H196</f>
         <v>45849</v>
@@ -14694,7 +14694,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H197</f>
         <v>45850</v>
@@ -14716,7 +14716,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H198</f>
         <v>45851</v>
@@ -14738,7 +14738,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H199</f>
         <v>45852</v>
@@ -14760,7 +14760,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H200</f>
         <v>45853</v>
@@ -14782,7 +14782,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H201</f>
         <v>45854</v>
@@ -14804,7 +14804,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H202</f>
         <v>45855</v>
@@ -14826,7 +14826,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H203</f>
         <v>45856</v>
@@ -14848,7 +14848,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H204</f>
         <v>45857</v>
@@ -14870,7 +14870,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H205</f>
         <v>45858</v>
@@ -14892,7 +14892,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H206</f>
         <v>45859</v>
@@ -14914,7 +14914,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H207</f>
         <v>45860</v>
@@ -14936,7 +14936,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H208</f>
         <v>45861</v>
@@ -14958,7 +14958,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H209</f>
         <v>45862</v>
@@ -14980,7 +14980,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H210</f>
         <v>45863</v>
@@ -15002,7 +15002,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H211</f>
         <v>45864</v>
@@ -15024,7 +15024,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H212</f>
         <v>45865</v>
@@ -15046,7 +15046,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H213</f>
         <v>45866</v>
@@ -15068,7 +15068,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H214</f>
         <v>45867</v>
@@ -15090,7 +15090,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H215</f>
         <v>45868</v>
@@ -15112,7 +15112,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H216</f>
         <v>45869</v>
@@ -15134,7 +15134,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H217</f>
         <v>45870</v>
@@ -15156,7 +15156,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H218</f>
         <v>45871</v>
@@ -15178,7 +15178,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H219</f>
         <v>45872</v>
@@ -15200,7 +15200,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H220</f>
         <v>45873</v>
@@ -15222,7 +15222,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H221</f>
         <v>45874</v>
@@ -15244,7 +15244,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H222</f>
         <v>45875</v>
@@ -15266,7 +15266,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H223</f>
         <v>45876</v>
@@ -15288,7 +15288,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H224</f>
         <v>45877</v>
@@ -15310,7 +15310,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H225</f>
         <v>45878</v>
@@ -15332,7 +15332,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H226</f>
         <v>45879</v>
@@ -15354,7 +15354,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H227</f>
         <v>45880</v>
@@ -15376,7 +15376,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H228</f>
         <v>45881</v>
@@ -15398,7 +15398,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H229</f>
         <v>45882</v>
@@ -15420,7 +15420,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H230</f>
         <v>45883</v>
@@ -15442,7 +15442,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H231</f>
         <v>45884</v>
@@ -15464,7 +15464,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H232</f>
         <v>45885</v>
@@ -15486,7 +15486,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H233</f>
         <v>45886</v>
@@ -15508,7 +15508,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H234</f>
         <v>45887</v>
@@ -15530,7 +15530,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H235</f>
         <v>45888</v>
@@ -15552,7 +15552,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H236</f>
         <v>45889</v>
@@ -15574,7 +15574,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H237</f>
         <v>45890</v>
@@ -15596,7 +15596,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H238</f>
         <v>45891</v>
@@ -15618,7 +15618,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H239</f>
         <v>45892</v>
@@ -15640,7 +15640,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H240</f>
         <v>45893</v>
@@ -15662,7 +15662,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H241</f>
         <v>45894</v>
@@ -15684,7 +15684,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H242</f>
         <v>45895</v>
@@ -15706,7 +15706,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H243</f>
         <v>45896</v>
@@ -15728,7 +15728,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H244</f>
         <v>45897</v>
@@ -15750,7 +15750,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H245</f>
         <v>45898</v>
@@ -15772,7 +15772,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H246</f>
         <v>45899</v>
@@ -15794,7 +15794,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H247</f>
         <v>45900</v>
@@ -15816,7 +15816,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H248</f>
         <v>45901</v>
@@ -15838,7 +15838,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H249</f>
         <v>45902</v>
@@ -15860,7 +15860,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H250</f>
         <v>45903</v>
@@ -15882,29 +15882,29 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H251</f>
         <v>45904</v>
       </c>
-      <c r="B250" s="17" t="str">
+      <c r="B250" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I251</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C250" s="48" t="str">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="C250" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J251</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D250" s="48" t="str">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="D250" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K251</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E250" s="5" t="str">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="E250" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L251</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H252</f>
         <v>45905</v>
@@ -15926,7 +15926,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H253</f>
         <v>45906</v>
@@ -15948,7 +15948,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H254</f>
         <v>45907</v>
@@ -15970,7 +15970,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H255</f>
         <v>45908</v>
@@ -15992,7 +15992,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H256</f>
         <v>45909</v>
@@ -16014,7 +16014,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H257</f>
         <v>45910</v>
@@ -16036,7 +16036,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H258</f>
         <v>45911</v>
@@ -16058,7 +16058,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H259</f>
         <v>45912</v>
@@ -16080,7 +16080,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H260</f>
         <v>45913</v>
@@ -16102,7 +16102,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H261</f>
         <v>45914</v>
@@ -16124,7 +16124,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H262</f>
         <v>45915</v>
@@ -16146,7 +16146,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H263</f>
         <v>45916</v>
@@ -16168,7 +16168,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H264</f>
         <v>45917</v>
@@ -16190,7 +16190,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H265</f>
         <v>45918</v>
@@ -16212,7 +16212,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H266</f>
         <v>45919</v>
@@ -16234,7 +16234,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H267</f>
         <v>45920</v>
@@ -16256,7 +16256,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H268</f>
         <v>45921</v>
@@ -16278,7 +16278,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H269</f>
         <v>45922</v>
@@ -16300,7 +16300,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H270</f>
         <v>45923</v>
@@ -16322,7 +16322,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H271</f>
         <v>45924</v>
@@ -16344,7 +16344,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H272</f>
         <v>45925</v>
@@ -16366,7 +16366,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H273</f>
         <v>45926</v>
@@ -16388,7 +16388,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H274</f>
         <v>45927</v>
@@ -16410,7 +16410,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H275</f>
         <v>45928</v>
@@ -16432,7 +16432,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H276</f>
         <v>45929</v>
@@ -16454,7 +16454,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H277</f>
         <v>45930</v>
@@ -16476,7 +16476,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H278</f>
         <v>45931</v>
@@ -16498,7 +16498,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H279</f>
         <v>45932</v>
@@ -16520,7 +16520,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H280</f>
         <v>45933</v>
@@ -16542,7 +16542,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H281</f>
         <v>45934</v>
@@ -16564,7 +16564,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H282</f>
         <v>45935</v>
@@ -16586,7 +16586,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H283</f>
         <v>45936</v>
@@ -16608,7 +16608,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H284</f>
         <v>45937</v>
@@ -16630,7 +16630,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H285</f>
         <v>45938</v>
@@ -16652,7 +16652,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H286</f>
         <v>45939</v>
@@ -16674,7 +16674,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H287</f>
         <v>45940</v>
@@ -16696,7 +16696,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H288</f>
         <v>45941</v>
@@ -16718,7 +16718,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H289</f>
         <v>45942</v>
@@ -16740,7 +16740,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H290</f>
         <v>45943</v>
@@ -16762,7 +16762,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H291</f>
         <v>45944</v>
@@ -16784,7 +16784,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H292</f>
         <v>45945</v>
@@ -16806,7 +16806,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H293</f>
         <v>45946</v>
@@ -16828,7 +16828,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H294</f>
         <v>45947</v>
@@ -16850,7 +16850,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H295</f>
         <v>45948</v>
@@ -16872,7 +16872,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H296</f>
         <v>45949</v>
@@ -16894,7 +16894,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H297</f>
         <v>45950</v>
@@ -16916,7 +16916,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H298</f>
         <v>45951</v>
@@ -16938,7 +16938,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H299</f>
         <v>45952</v>
@@ -16960,7 +16960,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H300</f>
         <v>45953</v>
@@ -16982,7 +16982,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H301</f>
         <v>45954</v>
@@ -17004,7 +17004,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H302</f>
         <v>45955</v>
@@ -17026,7 +17026,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H303</f>
         <v>45956</v>
@@ -17048,7 +17048,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H304</f>
         <v>45957</v>
@@ -17070,7 +17070,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H305</f>
         <v>45958</v>
@@ -17092,7 +17092,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H306</f>
         <v>45959</v>
@@ -17114,7 +17114,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H307</f>
         <v>45960</v>
@@ -17136,7 +17136,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H308</f>
         <v>45961</v>
@@ -17158,7 +17158,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H309</f>
         <v>45962</v>
@@ -17180,7 +17180,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H310</f>
         <v>45963</v>
@@ -17202,7 +17202,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H311</f>
         <v>45964</v>
@@ -17224,7 +17224,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H312</f>
         <v>45965</v>
@@ -17246,7 +17246,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H313</f>
         <v>45966</v>
@@ -17268,7 +17268,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H314</f>
         <v>45967</v>
@@ -17290,7 +17290,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H315</f>
         <v>45968</v>
@@ -17312,7 +17312,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H316</f>
         <v>45969</v>
@@ -17334,7 +17334,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H317</f>
         <v>45970</v>
@@ -17356,7 +17356,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H318</f>
         <v>45971</v>
@@ -17378,7 +17378,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H319</f>
         <v>45972</v>
@@ -17400,7 +17400,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H320</f>
         <v>45973</v>
@@ -17422,7 +17422,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H321</f>
         <v>45974</v>
@@ -17444,7 +17444,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H322</f>
         <v>45975</v>
@@ -17466,7 +17466,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H323</f>
         <v>45976</v>
@@ -17488,7 +17488,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H324</f>
         <v>45977</v>
@@ -17510,7 +17510,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H325</f>
         <v>45978</v>
@@ -17532,7 +17532,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H326</f>
         <v>45979</v>
@@ -17554,7 +17554,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H327</f>
         <v>45980</v>
@@ -17576,7 +17576,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H328</f>
         <v>45981</v>
@@ -17598,7 +17598,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H329</f>
         <v>45982</v>
@@ -17620,7 +17620,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H330</f>
         <v>45983</v>
@@ -17642,7 +17642,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H331</f>
         <v>45984</v>
@@ -17664,7 +17664,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H332</f>
         <v>45985</v>
@@ -17686,7 +17686,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H333</f>
         <v>45986</v>
@@ -17708,7 +17708,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H334</f>
         <v>45987</v>
@@ -17730,7 +17730,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H335</f>
         <v>45988</v>
@@ -17752,7 +17752,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H336</f>
         <v>45989</v>
@@ -17774,7 +17774,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H337</f>
         <v>45990</v>
@@ -17796,7 +17796,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H338</f>
         <v>45991</v>
@@ -17818,7 +17818,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H339</f>
         <v>45992</v>
@@ -17840,7 +17840,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H340</f>
         <v>45993</v>
@@ -17862,7 +17862,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H341</f>
         <v>45994</v>
@@ -17884,7 +17884,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H342</f>
         <v>45995</v>
@@ -17906,7 +17906,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H343</f>
         <v>45996</v>
@@ -17928,7 +17928,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H344</f>
         <v>45997</v>
@@ -17950,7 +17950,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H345</f>
         <v>45998</v>
@@ -17972,7 +17972,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H346</f>
         <v>45999</v>
@@ -17994,7 +17994,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H347</f>
         <v>46000</v>
@@ -18016,7 +18016,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H348</f>
         <v>46001</v>
@@ -18038,7 +18038,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H349</f>
         <v>46002</v>
@@ -18060,7 +18060,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H350</f>
         <v>46003</v>
@@ -18082,7 +18082,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H351</f>
         <v>46004</v>
@@ -18104,7 +18104,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H352</f>
         <v>46005</v>
@@ -18126,7 +18126,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H353</f>
         <v>46006</v>
@@ -18148,7 +18148,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H354</f>
         <v>46007</v>
@@ -18170,7 +18170,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H355</f>
         <v>46008</v>
@@ -18192,7 +18192,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H356</f>
         <v>46009</v>
@@ -18214,7 +18214,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H357</f>
         <v>46010</v>
@@ -18236,7 +18236,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H358</f>
         <v>46011</v>
@@ -18258,7 +18258,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H359</f>
         <v>46012</v>
@@ -18280,7 +18280,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H360</f>
         <v>46013</v>
@@ -18302,7 +18302,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H361</f>
         <v>46014</v>
@@ -18324,7 +18324,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H362</f>
         <v>46015</v>
@@ -18346,7 +18346,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H363</f>
         <v>46016</v>
@@ -18368,7 +18368,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H364</f>
         <v>46017</v>
@@ -18390,7 +18390,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H365</f>
         <v>46018</v>
@@ -18412,7 +18412,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H366</f>
         <v>46019</v>
@@ -18434,7 +18434,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H367</f>
         <v>46020</v>
@@ -18456,7 +18456,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H368</f>
         <v>46021</v>
@@ -18478,7 +18478,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H369</f>
         <v>46022</v>
@@ -18500,7 +18500,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="46">
         <f>'[1]Jumbo Bus Date to PDD'!H370</f>
         <v>46023</v>
@@ -18522,37 +18522,37 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="15"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="15"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="15"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="15"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="15"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="15"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="15"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="15"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="15"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="15"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="15"/>
     </row>
   </sheetData>
@@ -18573,13 +18573,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="5" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
@@ -18588,14 +18588,14 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="52" t="s">
         <v>5</v>
@@ -18604,7 +18604,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="54"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -18613,7 +18613,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")</f>
         <v>1/1/2025 - 3/31/2025</v>
@@ -18652,7 +18652,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")</f>
         <v>4/1/2025 - 6/30/2025</v>
@@ -18674,7 +18674,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")</f>
         <v>7/1/2025 - 9/30/2025</v>
@@ -18696,7 +18696,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,10,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,12,31),"m/d/yyyy")</f>
         <v>10/1/2025 - 12/31/2025</v>
@@ -18718,7 +18718,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="49"/>
     </row>
   </sheetData>
@@ -18740,13 +18740,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>9</v>
       </c>
@@ -18755,7 +18755,7 @@
       <c r="D1" s="61"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
         <v>38</v>
       </c>
@@ -18764,12 +18764,12 @@
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
@@ -18778,7 +18778,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -18819,7 +18819,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -18843,7 +18843,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -18867,7 +18867,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
@@ -18891,7 +18891,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -18899,7 +18899,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -18907,7 +18907,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -18917,7 +18917,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
@@ -18927,7 +18927,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -19041,7 +19041,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -19049,7 +19049,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -19059,7 +19059,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
@@ -19069,7 +19069,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
@@ -19085,7 +19085,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>0</v>
       </c>
@@ -19105,7 +19105,7 @@
       <c r="F24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -19125,7 +19125,7 @@
       <c r="F25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
@@ -19145,7 +19145,7 @@
       <c r="F26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>3</v>
       </c>
@@ -19165,7 +19165,7 @@
       <c r="F27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -19174,7 +19174,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -19185,7 +19185,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="58" t="s">
         <v>10</v>
       </c>
@@ -19196,7 +19196,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
@@ -19254,7 +19254,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -19289,7 +19289,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>2</v>
       </c>
@@ -19324,7 +19324,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
@@ -19381,15 +19381,15 @@
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
@@ -19447,7 +19447,7 @@
       <c r="AT1" s="63"/>
       <c r="AU1" s="64"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
@@ -19505,7 +19505,7 @@
       <c r="AT2" s="66"/>
       <c r="AU2" s="67"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
@@ -19567,7 +19567,7 @@
       <c r="AT3" s="68"/>
       <c r="AU3" s="68"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="42">
         <v>3</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="42">
         <v>5</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="42">
         <v>6</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="42">
         <v>7</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="42">
         <v>8</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="42">
         <v>9</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>10</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
         <v>11</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="42">
         <v>12</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="42">
         <v>13</v>
       </c>
@@ -22133,7 +22133,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="42">
         <v>14</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="42">
         <v>15</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="42">
         <v>16</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="42">
         <v>17</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="42">
         <v>18</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="42">
         <v>19</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="42">
         <v>20</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="42">
         <v>21</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="42">
         <v>22</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="42">
         <v>23</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="42">
         <v>24</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="42">
         <v>25</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="42">
         <v>26</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="42">
         <v>27</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="42">
         <v>28</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="42">
         <v>29</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="42">
         <v>30</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="42" t="s">
         <v>37</v>
       </c>
@@ -25294,7 +25294,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <sheetProtection password="9690" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE7D71A-1EE9-495B-ACBB-9D09CE92A17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21EB0D9-4676-41EE-AEB4-FCC3DACB8265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,15 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,6 +586,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8174,17 +8174,17 @@
           <cell r="H256">
             <v>45909</v>
           </cell>
-          <cell r="I256" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J256" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K256" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L256" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I256">
+            <v>3.9300000000000002E-2</v>
+          </cell>
+          <cell r="J256">
+            <v>4.2200000000000001E-2</v>
+          </cell>
+          <cell r="K256">
+            <v>4.4499999999999998E-2</v>
+          </cell>
+          <cell r="L256">
+            <v>4.7E-2</v>
           </cell>
         </row>
         <row r="257">
@@ -10423,19 +10423,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E252" sqref="E252"/>
+      <selection pane="bottomLeft" activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="52" t="s">
         <v>4</v>
@@ -10444,7 +10444,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +10453,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H5</f>
         <v>45658</v>
@@ -10492,7 +10492,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H6</f>
         <v>45659</v>
@@ -10514,7 +10514,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H7</f>
         <v>45660</v>
@@ -10536,7 +10536,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H8</f>
         <v>45661</v>
@@ -10558,7 +10558,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H9</f>
         <v>45662</v>
@@ -10580,7 +10580,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H10</f>
         <v>45663</v>
@@ -10602,7 +10602,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H11</f>
         <v>45664</v>
@@ -10624,7 +10624,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H12</f>
         <v>45665</v>
@@ -10646,7 +10646,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H13</f>
         <v>45666</v>
@@ -10668,7 +10668,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H14</f>
         <v>45667</v>
@@ -10690,7 +10690,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H15</f>
         <v>45668</v>
@@ -10712,7 +10712,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H16</f>
         <v>45669</v>
@@ -10734,7 +10734,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H17</f>
         <v>45670</v>
@@ -10756,7 +10756,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H18</f>
         <v>45671</v>
@@ -10778,7 +10778,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H19</f>
         <v>45672</v>
@@ -10800,7 +10800,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H20</f>
         <v>45673</v>
@@ -10822,7 +10822,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H21</f>
         <v>45674</v>
@@ -10844,7 +10844,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H22</f>
         <v>45675</v>
@@ -10866,7 +10866,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H23</f>
         <v>45676</v>
@@ -10888,7 +10888,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H24</f>
         <v>45677</v>
@@ -10910,7 +10910,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H25</f>
         <v>45678</v>
@@ -10932,7 +10932,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H26</f>
         <v>45679</v>
@@ -10954,7 +10954,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H27</f>
         <v>45680</v>
@@ -10976,7 +10976,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H28</f>
         <v>45681</v>
@@ -10998,7 +10998,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H29</f>
         <v>45682</v>
@@ -11020,7 +11020,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H30</f>
         <v>45683</v>
@@ -11042,7 +11042,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H31</f>
         <v>45684</v>
@@ -11064,7 +11064,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H32</f>
         <v>45685</v>
@@ -11086,7 +11086,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H33</f>
         <v>45686</v>
@@ -11108,7 +11108,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H34</f>
         <v>45687</v>
@@ -11130,7 +11130,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H35</f>
         <v>45688</v>
@@ -11152,7 +11152,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H36</f>
         <v>45689</v>
@@ -11174,7 +11174,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H37</f>
         <v>45690</v>
@@ -11196,7 +11196,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H38</f>
         <v>45691</v>
@@ -11218,7 +11218,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H39</f>
         <v>45692</v>
@@ -11240,7 +11240,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H40</f>
         <v>45693</v>
@@ -11262,7 +11262,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H41</f>
         <v>45694</v>
@@ -11284,7 +11284,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H42</f>
         <v>45695</v>
@@ -11306,7 +11306,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H43</f>
         <v>45696</v>
@@ -11328,7 +11328,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H44</f>
         <v>45697</v>
@@ -11350,7 +11350,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H45</f>
         <v>45698</v>
@@ -11372,7 +11372,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H46</f>
         <v>45699</v>
@@ -11394,7 +11394,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H47</f>
         <v>45700</v>
@@ -11416,7 +11416,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H48</f>
         <v>45701</v>
@@ -11438,7 +11438,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H49</f>
         <v>45702</v>
@@ -11460,7 +11460,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H50</f>
         <v>45703</v>
@@ -11482,7 +11482,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H51</f>
         <v>45704</v>
@@ -11504,7 +11504,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H52</f>
         <v>45705</v>
@@ -11526,7 +11526,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H53</f>
         <v>45706</v>
@@ -11548,7 +11548,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H54</f>
         <v>45707</v>
@@ -11570,7 +11570,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H55</f>
         <v>45708</v>
@@ -11592,7 +11592,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H56</f>
         <v>45709</v>
@@ -11614,7 +11614,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H57</f>
         <v>45710</v>
@@ -11636,7 +11636,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H58</f>
         <v>45711</v>
@@ -11658,7 +11658,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H59</f>
         <v>45712</v>
@@ -11680,7 +11680,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H60</f>
         <v>45713</v>
@@ -11702,7 +11702,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H61</f>
         <v>45714</v>
@@ -11724,7 +11724,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H62</f>
         <v>45715</v>
@@ -11746,7 +11746,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H63</f>
         <v>45716</v>
@@ -11768,7 +11768,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H64</f>
         <v>45717</v>
@@ -11790,7 +11790,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H65</f>
         <v>45718</v>
@@ -11812,7 +11812,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H66</f>
         <v>45719</v>
@@ -11834,7 +11834,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H67</f>
         <v>45720</v>
@@ -11856,7 +11856,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H68</f>
         <v>45721</v>
@@ -11878,7 +11878,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H69</f>
         <v>45722</v>
@@ -11900,7 +11900,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H70</f>
         <v>45723</v>
@@ -11922,7 +11922,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H71</f>
         <v>45724</v>
@@ -11944,7 +11944,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H72</f>
         <v>45725</v>
@@ -11966,7 +11966,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H73</f>
         <v>45726</v>
@@ -11988,7 +11988,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H74</f>
         <v>45727</v>
@@ -12010,7 +12010,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H75</f>
         <v>45728</v>
@@ -12032,7 +12032,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H76</f>
         <v>45729</v>
@@ -12054,7 +12054,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H77</f>
         <v>45730</v>
@@ -12076,7 +12076,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H78</f>
         <v>45731</v>
@@ -12098,7 +12098,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H79</f>
         <v>45732</v>
@@ -12120,7 +12120,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H80</f>
         <v>45733</v>
@@ -12142,7 +12142,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H81</f>
         <v>45734</v>
@@ -12164,7 +12164,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H82</f>
         <v>45735</v>
@@ -12186,7 +12186,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H83</f>
         <v>45736</v>
@@ -12208,7 +12208,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H84</f>
         <v>45737</v>
@@ -12230,7 +12230,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H85</f>
         <v>45738</v>
@@ -12252,7 +12252,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H86</f>
         <v>45739</v>
@@ -12274,7 +12274,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H87</f>
         <v>45740</v>
@@ -12296,7 +12296,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H88</f>
         <v>45741</v>
@@ -12318,7 +12318,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H89</f>
         <v>45742</v>
@@ -12340,7 +12340,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H90</f>
         <v>45743</v>
@@ -12362,7 +12362,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H91</f>
         <v>45744</v>
@@ -12384,7 +12384,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H92</f>
         <v>45745</v>
@@ -12406,7 +12406,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H93</f>
         <v>45746</v>
@@ -12428,7 +12428,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H94</f>
         <v>45747</v>
@@ -12450,7 +12450,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H95</f>
         <v>45748</v>
@@ -12472,7 +12472,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H96</f>
         <v>45749</v>
@@ -12494,7 +12494,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H97</f>
         <v>45750</v>
@@ -12516,7 +12516,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H98</f>
         <v>45751</v>
@@ -12538,7 +12538,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H99</f>
         <v>45752</v>
@@ -12560,7 +12560,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H100</f>
         <v>45753</v>
@@ -12582,7 +12582,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H101</f>
         <v>45754</v>
@@ -12604,7 +12604,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H102</f>
         <v>45755</v>
@@ -12626,7 +12626,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H103</f>
         <v>45756</v>
@@ -12648,7 +12648,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H104</f>
         <v>45757</v>
@@ -12670,7 +12670,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H105</f>
         <v>45758</v>
@@ -12692,7 +12692,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H106</f>
         <v>45759</v>
@@ -12714,7 +12714,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H107</f>
         <v>45760</v>
@@ -12736,7 +12736,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H108</f>
         <v>45761</v>
@@ -12758,7 +12758,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H109</f>
         <v>45762</v>
@@ -12780,7 +12780,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H110</f>
         <v>45763</v>
@@ -12802,7 +12802,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H111</f>
         <v>45764</v>
@@ -12824,7 +12824,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H112</f>
         <v>45765</v>
@@ -12846,7 +12846,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H113</f>
         <v>45766</v>
@@ -12868,7 +12868,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H114</f>
         <v>45767</v>
@@ -12890,7 +12890,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H115</f>
         <v>45768</v>
@@ -12912,7 +12912,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H116</f>
         <v>45769</v>
@@ -12934,7 +12934,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H117</f>
         <v>45770</v>
@@ -12956,7 +12956,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H118</f>
         <v>45771</v>
@@ -12978,7 +12978,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H119</f>
         <v>45772</v>
@@ -13000,7 +13000,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H120</f>
         <v>45773</v>
@@ -13022,7 +13022,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H121</f>
         <v>45774</v>
@@ -13044,7 +13044,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H122</f>
         <v>45775</v>
@@ -13066,7 +13066,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H123</f>
         <v>45776</v>
@@ -13088,7 +13088,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H124</f>
         <v>45777</v>
@@ -13110,7 +13110,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H125</f>
         <v>45778</v>
@@ -13132,7 +13132,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H126</f>
         <v>45779</v>
@@ -13154,7 +13154,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H127</f>
         <v>45780</v>
@@ -13176,7 +13176,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H128</f>
         <v>45781</v>
@@ -13198,7 +13198,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H129</f>
         <v>45782</v>
@@ -13220,7 +13220,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H130</f>
         <v>45783</v>
@@ -13242,7 +13242,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H131</f>
         <v>45784</v>
@@ -13264,7 +13264,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H132</f>
         <v>45785</v>
@@ -13286,7 +13286,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H133</f>
         <v>45786</v>
@@ -13308,7 +13308,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H134</f>
         <v>45787</v>
@@ -13330,7 +13330,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H135</f>
         <v>45788</v>
@@ -13352,7 +13352,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H136</f>
         <v>45789</v>
@@ -13374,7 +13374,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H137</f>
         <v>45790</v>
@@ -13396,7 +13396,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H138</f>
         <v>45791</v>
@@ -13418,7 +13418,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H139</f>
         <v>45792</v>
@@ -13440,7 +13440,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H140</f>
         <v>45793</v>
@@ -13462,7 +13462,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H141</f>
         <v>45794</v>
@@ -13484,7 +13484,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H142</f>
         <v>45795</v>
@@ -13506,7 +13506,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H143</f>
         <v>45796</v>
@@ -13528,7 +13528,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H144</f>
         <v>45797</v>
@@ -13550,7 +13550,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H145</f>
         <v>45798</v>
@@ -13572,7 +13572,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H146</f>
         <v>45799</v>
@@ -13594,7 +13594,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H147</f>
         <v>45800</v>
@@ -13616,7 +13616,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H148</f>
         <v>45801</v>
@@ -13638,7 +13638,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H149</f>
         <v>45802</v>
@@ -13660,7 +13660,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H150</f>
         <v>45803</v>
@@ -13682,7 +13682,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H151</f>
         <v>45804</v>
@@ -13704,7 +13704,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H152</f>
         <v>45805</v>
@@ -13726,7 +13726,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H153</f>
         <v>45806</v>
@@ -13748,7 +13748,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H154</f>
         <v>45807</v>
@@ -13770,7 +13770,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H155</f>
         <v>45808</v>
@@ -13792,7 +13792,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H156</f>
         <v>45809</v>
@@ -13814,7 +13814,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H157</f>
         <v>45810</v>
@@ -13836,7 +13836,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H158</f>
         <v>45811</v>
@@ -13858,7 +13858,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H159</f>
         <v>45812</v>
@@ -13880,7 +13880,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H160</f>
         <v>45813</v>
@@ -13902,7 +13902,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H161</f>
         <v>45814</v>
@@ -13924,7 +13924,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H162</f>
         <v>45815</v>
@@ -13946,7 +13946,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H163</f>
         <v>45816</v>
@@ -13968,7 +13968,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H164</f>
         <v>45817</v>
@@ -13990,7 +13990,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H165</f>
         <v>45818</v>
@@ -14012,7 +14012,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H166</f>
         <v>45819</v>
@@ -14034,7 +14034,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H167</f>
         <v>45820</v>
@@ -14056,7 +14056,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H168</f>
         <v>45821</v>
@@ -14078,7 +14078,7 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H169</f>
         <v>45822</v>
@@ -14100,7 +14100,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H170</f>
         <v>45823</v>
@@ -14122,7 +14122,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H171</f>
         <v>45824</v>
@@ -14144,7 +14144,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H172</f>
         <v>45825</v>
@@ -14166,7 +14166,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H173</f>
         <v>45826</v>
@@ -14188,7 +14188,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H174</f>
         <v>45827</v>
@@ -14210,7 +14210,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H175</f>
         <v>45828</v>
@@ -14232,7 +14232,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H176</f>
         <v>45829</v>
@@ -14254,7 +14254,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H177</f>
         <v>45830</v>
@@ -14276,7 +14276,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H178</f>
         <v>45831</v>
@@ -14298,7 +14298,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H179</f>
         <v>45832</v>
@@ -14320,7 +14320,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H180</f>
         <v>45833</v>
@@ -14342,7 +14342,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H181</f>
         <v>45834</v>
@@ -14364,7 +14364,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H182</f>
         <v>45835</v>
@@ -14386,7 +14386,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H183</f>
         <v>45836</v>
@@ -14408,7 +14408,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H184</f>
         <v>45837</v>
@@ -14430,7 +14430,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H185</f>
         <v>45838</v>
@@ -14452,7 +14452,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H186</f>
         <v>45839</v>
@@ -14474,7 +14474,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H187</f>
         <v>45840</v>
@@ -14496,7 +14496,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H188</f>
         <v>45841</v>
@@ -14518,7 +14518,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H189</f>
         <v>45842</v>
@@ -14540,7 +14540,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H190</f>
         <v>45843</v>
@@ -14562,7 +14562,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H191</f>
         <v>45844</v>
@@ -14584,7 +14584,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H192</f>
         <v>45845</v>
@@ -14606,7 +14606,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H193</f>
         <v>45846</v>
@@ -14628,7 +14628,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H194</f>
         <v>45847</v>
@@ -14650,7 +14650,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H195</f>
         <v>45848</v>
@@ -14672,7 +14672,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H196</f>
         <v>45849</v>
@@ -14694,7 +14694,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H197</f>
         <v>45850</v>
@@ -14716,7 +14716,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H198</f>
         <v>45851</v>
@@ -14738,7 +14738,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H199</f>
         <v>45852</v>
@@ -14760,7 +14760,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H200</f>
         <v>45853</v>
@@ -14782,7 +14782,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H201</f>
         <v>45854</v>
@@ -14804,7 +14804,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H202</f>
         <v>45855</v>
@@ -14826,7 +14826,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H203</f>
         <v>45856</v>
@@ -14848,7 +14848,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H204</f>
         <v>45857</v>
@@ -14870,7 +14870,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H205</f>
         <v>45858</v>
@@ -14892,7 +14892,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H206</f>
         <v>45859</v>
@@ -14914,7 +14914,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H207</f>
         <v>45860</v>
@@ -14936,7 +14936,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H208</f>
         <v>45861</v>
@@ -14958,7 +14958,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H209</f>
         <v>45862</v>
@@ -14980,7 +14980,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H210</f>
         <v>45863</v>
@@ -15002,7 +15002,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H211</f>
         <v>45864</v>
@@ -15024,7 +15024,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H212</f>
         <v>45865</v>
@@ -15046,7 +15046,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H213</f>
         <v>45866</v>
@@ -15068,7 +15068,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H214</f>
         <v>45867</v>
@@ -15090,7 +15090,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H215</f>
         <v>45868</v>
@@ -15112,7 +15112,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H216</f>
         <v>45869</v>
@@ -15134,7 +15134,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H217</f>
         <v>45870</v>
@@ -15156,7 +15156,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H218</f>
         <v>45871</v>
@@ -15178,7 +15178,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H219</f>
         <v>45872</v>
@@ -15200,7 +15200,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H220</f>
         <v>45873</v>
@@ -15222,7 +15222,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H221</f>
         <v>45874</v>
@@ -15244,7 +15244,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H222</f>
         <v>45875</v>
@@ -15266,7 +15266,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H223</f>
         <v>45876</v>
@@ -15288,7 +15288,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H224</f>
         <v>45877</v>
@@ -15310,7 +15310,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H225</f>
         <v>45878</v>
@@ -15332,7 +15332,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H226</f>
         <v>45879</v>
@@ -15354,7 +15354,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H227</f>
         <v>45880</v>
@@ -15376,7 +15376,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H228</f>
         <v>45881</v>
@@ -15398,7 +15398,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H229</f>
         <v>45882</v>
@@ -15420,7 +15420,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H230</f>
         <v>45883</v>
@@ -15442,7 +15442,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H231</f>
         <v>45884</v>
@@ -15464,7 +15464,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H232</f>
         <v>45885</v>
@@ -15486,7 +15486,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H233</f>
         <v>45886</v>
@@ -15508,7 +15508,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H234</f>
         <v>45887</v>
@@ -15530,7 +15530,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H235</f>
         <v>45888</v>
@@ -15552,7 +15552,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H236</f>
         <v>45889</v>
@@ -15574,7 +15574,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H237</f>
         <v>45890</v>
@@ -15596,7 +15596,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H238</f>
         <v>45891</v>
@@ -15618,7 +15618,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H239</f>
         <v>45892</v>
@@ -15640,7 +15640,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H240</f>
         <v>45893</v>
@@ -15662,7 +15662,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H241</f>
         <v>45894</v>
@@ -15684,7 +15684,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H242</f>
         <v>45895</v>
@@ -15706,7 +15706,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H243</f>
         <v>45896</v>
@@ -15728,7 +15728,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H244</f>
         <v>45897</v>
@@ -15750,7 +15750,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H245</f>
         <v>45898</v>
@@ -15772,7 +15772,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H246</f>
         <v>45899</v>
@@ -15794,7 +15794,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H247</f>
         <v>45900</v>
@@ -15816,7 +15816,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H248</f>
         <v>45901</v>
@@ -15838,7 +15838,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H249</f>
         <v>45902</v>
@@ -15860,7 +15860,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H250</f>
         <v>45903</v>
@@ -15882,7 +15882,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H251</f>
         <v>45904</v>
@@ -15904,7 +15904,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H252</f>
         <v>45905</v>
@@ -15926,7 +15926,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H253</f>
         <v>45906</v>
@@ -15948,7 +15948,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H254</f>
         <v>45907</v>
@@ -15970,7 +15970,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H255</f>
         <v>45908</v>
@@ -15992,29 +15992,29 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H256</f>
         <v>45909</v>
       </c>
-      <c r="B255" s="17" t="str">
+      <c r="B255" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I256</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C255" s="48" t="str">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="C255" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J256</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D255" s="48" t="str">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="D255" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K256</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E255" s="5" t="str">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="E255" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L256</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H257</f>
         <v>45910</v>
@@ -16036,7 +16036,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H258</f>
         <v>45911</v>
@@ -16058,7 +16058,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H259</f>
         <v>45912</v>
@@ -16080,7 +16080,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H260</f>
         <v>45913</v>
@@ -16102,7 +16102,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H261</f>
         <v>45914</v>
@@ -16124,7 +16124,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H262</f>
         <v>45915</v>
@@ -16146,7 +16146,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H263</f>
         <v>45916</v>
@@ -16168,7 +16168,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H264</f>
         <v>45917</v>
@@ -16190,7 +16190,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H265</f>
         <v>45918</v>
@@ -16212,7 +16212,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H266</f>
         <v>45919</v>
@@ -16234,7 +16234,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H267</f>
         <v>45920</v>
@@ -16256,7 +16256,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H268</f>
         <v>45921</v>
@@ -16278,7 +16278,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H269</f>
         <v>45922</v>
@@ -16300,7 +16300,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H270</f>
         <v>45923</v>
@@ -16322,7 +16322,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H271</f>
         <v>45924</v>
@@ -16344,7 +16344,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H272</f>
         <v>45925</v>
@@ -16366,7 +16366,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H273</f>
         <v>45926</v>
@@ -16388,7 +16388,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H274</f>
         <v>45927</v>
@@ -16410,7 +16410,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H275</f>
         <v>45928</v>
@@ -16432,7 +16432,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H276</f>
         <v>45929</v>
@@ -16454,7 +16454,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H277</f>
         <v>45930</v>
@@ -16476,7 +16476,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H278</f>
         <v>45931</v>
@@ -16498,7 +16498,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H279</f>
         <v>45932</v>
@@ -16520,7 +16520,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H280</f>
         <v>45933</v>
@@ -16542,7 +16542,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H281</f>
         <v>45934</v>
@@ -16564,7 +16564,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H282</f>
         <v>45935</v>
@@ -16586,7 +16586,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H283</f>
         <v>45936</v>
@@ -16608,7 +16608,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H284</f>
         <v>45937</v>
@@ -16630,7 +16630,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H285</f>
         <v>45938</v>
@@ -16652,7 +16652,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H286</f>
         <v>45939</v>
@@ -16674,7 +16674,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H287</f>
         <v>45940</v>
@@ -16696,7 +16696,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H288</f>
         <v>45941</v>
@@ -16718,7 +16718,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H289</f>
         <v>45942</v>
@@ -16740,7 +16740,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H290</f>
         <v>45943</v>
@@ -16762,7 +16762,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H291</f>
         <v>45944</v>
@@ -16784,7 +16784,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H292</f>
         <v>45945</v>
@@ -16806,7 +16806,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H293</f>
         <v>45946</v>
@@ -16828,7 +16828,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H294</f>
         <v>45947</v>
@@ -16850,7 +16850,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H295</f>
         <v>45948</v>
@@ -16872,7 +16872,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H296</f>
         <v>45949</v>
@@ -16894,7 +16894,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H297</f>
         <v>45950</v>
@@ -16916,7 +16916,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H298</f>
         <v>45951</v>
@@ -16938,7 +16938,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H299</f>
         <v>45952</v>
@@ -16960,7 +16960,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H300</f>
         <v>45953</v>
@@ -16982,7 +16982,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H301</f>
         <v>45954</v>
@@ -17004,7 +17004,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H302</f>
         <v>45955</v>
@@ -17026,7 +17026,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H303</f>
         <v>45956</v>
@@ -17048,7 +17048,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H304</f>
         <v>45957</v>
@@ -17070,7 +17070,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H305</f>
         <v>45958</v>
@@ -17092,7 +17092,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H306</f>
         <v>45959</v>
@@ -17114,7 +17114,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H307</f>
         <v>45960</v>
@@ -17136,7 +17136,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H308</f>
         <v>45961</v>
@@ -17158,7 +17158,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H309</f>
         <v>45962</v>
@@ -17180,7 +17180,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H310</f>
         <v>45963</v>
@@ -17202,7 +17202,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H311</f>
         <v>45964</v>
@@ -17224,7 +17224,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H312</f>
         <v>45965</v>
@@ -17246,7 +17246,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H313</f>
         <v>45966</v>
@@ -17268,7 +17268,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H314</f>
         <v>45967</v>
@@ -17290,7 +17290,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H315</f>
         <v>45968</v>
@@ -17312,7 +17312,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H316</f>
         <v>45969</v>
@@ -17334,7 +17334,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H317</f>
         <v>45970</v>
@@ -17356,7 +17356,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H318</f>
         <v>45971</v>
@@ -17378,7 +17378,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H319</f>
         <v>45972</v>
@@ -17400,7 +17400,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H320</f>
         <v>45973</v>
@@ -17422,7 +17422,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H321</f>
         <v>45974</v>
@@ -17444,7 +17444,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H322</f>
         <v>45975</v>
@@ -17466,7 +17466,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H323</f>
         <v>45976</v>
@@ -17488,7 +17488,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H324</f>
         <v>45977</v>
@@ -17510,7 +17510,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H325</f>
         <v>45978</v>
@@ -17532,7 +17532,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H326</f>
         <v>45979</v>
@@ -17554,7 +17554,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H327</f>
         <v>45980</v>
@@ -17576,7 +17576,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H328</f>
         <v>45981</v>
@@ -17598,7 +17598,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H329</f>
         <v>45982</v>
@@ -17620,7 +17620,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H330</f>
         <v>45983</v>
@@ -17642,7 +17642,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H331</f>
         <v>45984</v>
@@ -17664,7 +17664,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H332</f>
         <v>45985</v>
@@ -17686,7 +17686,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H333</f>
         <v>45986</v>
@@ -17708,7 +17708,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H334</f>
         <v>45987</v>
@@ -17730,7 +17730,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H335</f>
         <v>45988</v>
@@ -17752,7 +17752,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H336</f>
         <v>45989</v>
@@ -17774,7 +17774,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H337</f>
         <v>45990</v>
@@ -17796,7 +17796,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H338</f>
         <v>45991</v>
@@ -17818,7 +17818,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H339</f>
         <v>45992</v>
@@ -17840,7 +17840,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H340</f>
         <v>45993</v>
@@ -17862,7 +17862,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H341</f>
         <v>45994</v>
@@ -17884,7 +17884,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H342</f>
         <v>45995</v>
@@ -17906,7 +17906,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H343</f>
         <v>45996</v>
@@ -17928,7 +17928,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H344</f>
         <v>45997</v>
@@ -17950,7 +17950,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H345</f>
         <v>45998</v>
@@ -17972,7 +17972,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H346</f>
         <v>45999</v>
@@ -17994,7 +17994,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H347</f>
         <v>46000</v>
@@ -18016,7 +18016,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H348</f>
         <v>46001</v>
@@ -18038,7 +18038,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H349</f>
         <v>46002</v>
@@ -18060,7 +18060,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H350</f>
         <v>46003</v>
@@ -18082,7 +18082,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H351</f>
         <v>46004</v>
@@ -18104,7 +18104,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H352</f>
         <v>46005</v>
@@ -18126,7 +18126,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H353</f>
         <v>46006</v>
@@ -18148,7 +18148,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H354</f>
         <v>46007</v>
@@ -18170,7 +18170,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H355</f>
         <v>46008</v>
@@ -18192,7 +18192,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H356</f>
         <v>46009</v>
@@ -18214,7 +18214,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H357</f>
         <v>46010</v>
@@ -18236,7 +18236,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H358</f>
         <v>46011</v>
@@ -18258,7 +18258,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H359</f>
         <v>46012</v>
@@ -18280,7 +18280,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H360</f>
         <v>46013</v>
@@ -18302,7 +18302,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H361</f>
         <v>46014</v>
@@ -18324,7 +18324,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H362</f>
         <v>46015</v>
@@ -18346,7 +18346,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H363</f>
         <v>46016</v>
@@ -18368,7 +18368,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H364</f>
         <v>46017</v>
@@ -18390,7 +18390,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H365</f>
         <v>46018</v>
@@ -18412,7 +18412,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H366</f>
         <v>46019</v>
@@ -18434,7 +18434,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H367</f>
         <v>46020</v>
@@ -18456,7 +18456,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H368</f>
         <v>46021</v>
@@ -18478,7 +18478,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H369</f>
         <v>46022</v>
@@ -18500,7 +18500,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="46">
         <f>'[1]Jumbo Bus Date to PDD'!H370</f>
         <v>46023</v>
@@ -18522,37 +18522,37 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="15"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="15"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="15"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="15"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="15"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="15"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="15"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="15"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="15"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="15"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="15"/>
     </row>
   </sheetData>
@@ -18573,13 +18573,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="5" width="13.26953125" customWidth="1"/>
+    <col min="2" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
@@ -18588,14 +18588,14 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="52" t="s">
         <v>5</v>
@@ -18604,7 +18604,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="54"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -18613,7 +18613,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")</f>
         <v>1/1/2025 - 3/31/2025</v>
@@ -18652,7 +18652,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")</f>
         <v>4/1/2025 - 6/30/2025</v>
@@ -18674,7 +18674,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")</f>
         <v>7/1/2025 - 9/30/2025</v>
@@ -18696,7 +18696,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,10,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,12,31),"m/d/yyyy")</f>
         <v>10/1/2025 - 12/31/2025</v>
@@ -18718,7 +18718,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
     </row>
   </sheetData>
@@ -18740,13 +18740,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>9</v>
       </c>
@@ -18755,7 +18755,7 @@
       <c r="D1" s="61"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>38</v>
       </c>
@@ -18764,12 +18764,12 @@
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
@@ -18778,7 +18778,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -18819,7 +18819,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -18843,7 +18843,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -18867,7 +18867,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
@@ -18891,7 +18891,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -18899,7 +18899,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -18907,7 +18907,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -18917,7 +18917,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
@@ -18927,7 +18927,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -19041,7 +19041,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -19049,7 +19049,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -19059,7 +19059,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
@@ -19069,7 +19069,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
@@ -19085,7 +19085,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>0</v>
       </c>
@@ -19105,7 +19105,7 @@
       <c r="F24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -19125,7 +19125,7 @@
       <c r="F25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
@@ -19145,7 +19145,7 @@
       <c r="F26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>3</v>
       </c>
@@ -19165,7 +19165,7 @@
       <c r="F27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -19174,7 +19174,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -19185,7 +19185,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
         <v>10</v>
       </c>
@@ -19196,7 +19196,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
@@ -19254,7 +19254,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -19289,7 +19289,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>2</v>
       </c>
@@ -19324,7 +19324,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
@@ -19381,193 +19381,193 @@
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="str" cm="1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="M1" s="62" t="str" cm="1">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="M1" s="66" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="64"/>
-      <c r="Y1" s="62" t="str" cm="1">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="68"/>
+      <c r="Y1" s="66" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="64"/>
-      <c r="AK1" s="62" t="str" cm="1">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="68"/>
+      <c r="AK1" s="66" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="str">
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="M2" s="65" t="str">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="M2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="67"/>
-      <c r="Y2" s="65" t="str">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="Y2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="67"/>
-      <c r="AK2" s="65" t="str">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64"/>
+      <c r="AK2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="67"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="64"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="68" t="s">
+      <c r="AL3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>3</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>5</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>6</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>7</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>8</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>9</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>10</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>11</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>12</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>13</v>
       </c>
@@ -22133,7 +22133,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>14</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>15</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>16</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>17</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>18</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>19</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>20</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>21</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>22</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>23</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>24</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>25</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>26</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>27</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>28</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>29</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>30</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>37</v>
       </c>
@@ -25267,18 +25267,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AK1:AU1"/>
+    <mergeCell ref="AK2:AU2"/>
+    <mergeCell ref="AL3:AU3"/>
+    <mergeCell ref="Y1:AI1"/>
+    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="Z3:AI3"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:W1"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="N3:W3"/>
-    <mergeCell ref="AK1:AU1"/>
-    <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="AL3:AU3"/>
-    <mergeCell ref="Y1:AI1"/>
-    <mergeCell ref="Y2:AI2"/>
-    <mergeCell ref="Z3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25294,7 +25294,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection password="9690" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21EB0D9-4676-41EE-AEB4-FCC3DACB8265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B7F855-F864-4FA3-921A-E2C3ACD55F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31980" yWindow="870" windowWidth="23385" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,6 +576,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,15 +595,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8191,17 +8191,17 @@
           <cell r="H257">
             <v>45910</v>
           </cell>
-          <cell r="I257" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J257" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K257" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L257" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I257">
+            <v>3.9699999999999999E-2</v>
+          </cell>
+          <cell r="J257">
+            <v>4.2599999999999999E-2</v>
+          </cell>
+          <cell r="K257">
+            <v>4.4900000000000002E-2</v>
+          </cell>
+          <cell r="L257">
+            <v>4.7300000000000002E-2</v>
           </cell>
         </row>
         <row r="258">
@@ -16019,21 +16019,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H257</f>
         <v>45910</v>
       </c>
-      <c r="B256" s="17" t="str">
+      <c r="B256" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I257</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C256" s="48" t="str">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="C256" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J257</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D256" s="48" t="str">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="D256" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K257</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E256" s="5" t="str">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="E256" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L257</f>
-        <v xml:space="preserve"> </v>
+        <v>4.7300000000000002E-2</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -19390,182 +19390,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="str" cm="1">
+      <c r="A1" s="62" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="M1" s="66" t="str" cm="1">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="M1" s="62" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
-      <c r="Y1" s="66" t="str" cm="1">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
+      <c r="Y1" s="62" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="68"/>
-      <c r="AK1" s="66" t="str" cm="1">
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
+      <c r="AK1" s="62" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="68"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="str">
+      <c r="A2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="M2" s="62" t="str">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="M2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64"/>
-      <c r="Y2" s="62" t="str">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
+      <c r="Y2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="64"/>
-      <c r="AK2" s="62" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AK2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="64"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="67"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="65" t="s">
+      <c r="Z3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="65" t="s">
+      <c r="AL3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -25267,18 +25267,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AK1:AU1"/>
     <mergeCell ref="AK2:AU2"/>
     <mergeCell ref="AL3:AU3"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="Y2:AI2"/>
     <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B7F855-F864-4FA3-921A-E2C3ACD55F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DBCCD1-49BD-4044-A29E-E6D62B956FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="870" windowWidth="23385" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,15 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,6 +586,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,8 +704,8 @@
       <definedName name="Year_of_Valuation" refersTo="='History Tables'!$D$1"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="D1">
@@ -713,10 +713,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="6">
           <cell r="Q6">
@@ -955,8 +955,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10">
         <row r="6">
           <cell r="N6">
@@ -3812,11 +3812,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="11">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>Sec. 3.C.4</v>
-          </cell>
-        </row>
         <row r="14">
           <cell r="D14">
             <v>4.4999999999999998E-2</v>
@@ -3898,10 +3893,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
       <sheetData sheetId="16">
         <row r="5">
           <cell r="H5">
@@ -8208,17 +8203,17 @@
           <cell r="H258">
             <v>45911</v>
           </cell>
-          <cell r="I258" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J258" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K258" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L258" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I258">
+            <v>3.9399999999999998E-2</v>
+          </cell>
+          <cell r="J258">
+            <v>4.2099999999999999E-2</v>
+          </cell>
+          <cell r="K258">
+            <v>4.4400000000000002E-2</v>
+          </cell>
+          <cell r="L258">
+            <v>4.6800000000000001E-2</v>
           </cell>
         </row>
         <row r="259">
@@ -10423,19 +10418,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A255" sqref="A255"/>
+      <selection pane="bottomLeft" activeCell="G245" sqref="G245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
       <c r="B1" s="52" t="s">
         <v>4</v>
@@ -10444,7 +10439,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +10448,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -10470,7 +10465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H5</f>
         <v>45658</v>
@@ -10492,7 +10487,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H6</f>
         <v>45659</v>
@@ -10514,7 +10509,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H7</f>
         <v>45660</v>
@@ -10536,7 +10531,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H8</f>
         <v>45661</v>
@@ -10558,7 +10553,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H9</f>
         <v>45662</v>
@@ -10580,7 +10575,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H10</f>
         <v>45663</v>
@@ -10602,7 +10597,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H11</f>
         <v>45664</v>
@@ -10624,7 +10619,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H12</f>
         <v>45665</v>
@@ -10646,7 +10641,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H13</f>
         <v>45666</v>
@@ -10668,7 +10663,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H14</f>
         <v>45667</v>
@@ -10690,7 +10685,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H15</f>
         <v>45668</v>
@@ -10712,7 +10707,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H16</f>
         <v>45669</v>
@@ -10734,7 +10729,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H17</f>
         <v>45670</v>
@@ -10756,7 +10751,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H18</f>
         <v>45671</v>
@@ -10778,7 +10773,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H19</f>
         <v>45672</v>
@@ -10800,7 +10795,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H20</f>
         <v>45673</v>
@@ -10822,7 +10817,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H21</f>
         <v>45674</v>
@@ -10844,7 +10839,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H22</f>
         <v>45675</v>
@@ -10866,7 +10861,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H23</f>
         <v>45676</v>
@@ -10888,7 +10883,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H24</f>
         <v>45677</v>
@@ -10910,7 +10905,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H25</f>
         <v>45678</v>
@@ -10932,7 +10927,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H26</f>
         <v>45679</v>
@@ -10954,7 +10949,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H27</f>
         <v>45680</v>
@@ -10976,7 +10971,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H28</f>
         <v>45681</v>
@@ -10998,7 +10993,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H29</f>
         <v>45682</v>
@@ -11020,7 +11015,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H30</f>
         <v>45683</v>
@@ -11042,7 +11037,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H31</f>
         <v>45684</v>
@@ -11064,7 +11059,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H32</f>
         <v>45685</v>
@@ -11086,7 +11081,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H33</f>
         <v>45686</v>
@@ -11108,7 +11103,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H34</f>
         <v>45687</v>
@@ -11130,7 +11125,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H35</f>
         <v>45688</v>
@@ -11152,7 +11147,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H36</f>
         <v>45689</v>
@@ -11174,7 +11169,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H37</f>
         <v>45690</v>
@@ -11196,7 +11191,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H38</f>
         <v>45691</v>
@@ -11218,7 +11213,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H39</f>
         <v>45692</v>
@@ -11240,7 +11235,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H40</f>
         <v>45693</v>
@@ -11262,7 +11257,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H41</f>
         <v>45694</v>
@@ -11284,7 +11279,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H42</f>
         <v>45695</v>
@@ -11306,7 +11301,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H43</f>
         <v>45696</v>
@@ -11328,7 +11323,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H44</f>
         <v>45697</v>
@@ -11350,7 +11345,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H45</f>
         <v>45698</v>
@@ -11372,7 +11367,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H46</f>
         <v>45699</v>
@@ -11394,7 +11389,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H47</f>
         <v>45700</v>
@@ -11416,7 +11411,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H48</f>
         <v>45701</v>
@@ -11438,7 +11433,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H49</f>
         <v>45702</v>
@@ -11460,7 +11455,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H50</f>
         <v>45703</v>
@@ -11482,7 +11477,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H51</f>
         <v>45704</v>
@@ -11504,7 +11499,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H52</f>
         <v>45705</v>
@@ -11526,7 +11521,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H53</f>
         <v>45706</v>
@@ -11548,7 +11543,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H54</f>
         <v>45707</v>
@@ -11570,7 +11565,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H55</f>
         <v>45708</v>
@@ -11592,7 +11587,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H56</f>
         <v>45709</v>
@@ -11614,7 +11609,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H57</f>
         <v>45710</v>
@@ -11636,7 +11631,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H58</f>
         <v>45711</v>
@@ -11658,7 +11653,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H59</f>
         <v>45712</v>
@@ -11680,7 +11675,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H60</f>
         <v>45713</v>
@@ -11702,7 +11697,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H61</f>
         <v>45714</v>
@@ -11724,7 +11719,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H62</f>
         <v>45715</v>
@@ -11746,7 +11741,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H63</f>
         <v>45716</v>
@@ -11768,7 +11763,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H64</f>
         <v>45717</v>
@@ -11790,7 +11785,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H65</f>
         <v>45718</v>
@@ -11812,7 +11807,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H66</f>
         <v>45719</v>
@@ -11834,7 +11829,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H67</f>
         <v>45720</v>
@@ -11856,7 +11851,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H68</f>
         <v>45721</v>
@@ -11878,7 +11873,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H69</f>
         <v>45722</v>
@@ -11900,7 +11895,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H70</f>
         <v>45723</v>
@@ -11922,7 +11917,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H71</f>
         <v>45724</v>
@@ -11944,7 +11939,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H72</f>
         <v>45725</v>
@@ -11966,7 +11961,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H73</f>
         <v>45726</v>
@@ -11988,7 +11983,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H74</f>
         <v>45727</v>
@@ -12010,7 +12005,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H75</f>
         <v>45728</v>
@@ -12032,7 +12027,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H76</f>
         <v>45729</v>
@@ -12054,7 +12049,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H77</f>
         <v>45730</v>
@@ -12076,7 +12071,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H78</f>
         <v>45731</v>
@@ -12098,7 +12093,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H79</f>
         <v>45732</v>
@@ -12120,7 +12115,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H80</f>
         <v>45733</v>
@@ -12142,7 +12137,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H81</f>
         <v>45734</v>
@@ -12164,7 +12159,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H82</f>
         <v>45735</v>
@@ -12186,7 +12181,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H83</f>
         <v>45736</v>
@@ -12208,7 +12203,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H84</f>
         <v>45737</v>
@@ -12230,7 +12225,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H85</f>
         <v>45738</v>
@@ -12252,7 +12247,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H86</f>
         <v>45739</v>
@@ -12274,7 +12269,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H87</f>
         <v>45740</v>
@@ -12296,7 +12291,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H88</f>
         <v>45741</v>
@@ -12318,7 +12313,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H89</f>
         <v>45742</v>
@@ -12340,7 +12335,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H90</f>
         <v>45743</v>
@@ -12362,7 +12357,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H91</f>
         <v>45744</v>
@@ -12384,7 +12379,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H92</f>
         <v>45745</v>
@@ -12406,7 +12401,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H93</f>
         <v>45746</v>
@@ -12428,7 +12423,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H94</f>
         <v>45747</v>
@@ -12450,7 +12445,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H95</f>
         <v>45748</v>
@@ -12472,7 +12467,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H96</f>
         <v>45749</v>
@@ -12494,7 +12489,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H97</f>
         <v>45750</v>
@@ -12516,7 +12511,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H98</f>
         <v>45751</v>
@@ -12538,7 +12533,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H99</f>
         <v>45752</v>
@@ -12560,7 +12555,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H100</f>
         <v>45753</v>
@@ -12582,7 +12577,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H101</f>
         <v>45754</v>
@@ -12604,7 +12599,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H102</f>
         <v>45755</v>
@@ -12626,7 +12621,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H103</f>
         <v>45756</v>
@@ -12648,7 +12643,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H104</f>
         <v>45757</v>
@@ -12670,7 +12665,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H105</f>
         <v>45758</v>
@@ -12692,7 +12687,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H106</f>
         <v>45759</v>
@@ -12714,7 +12709,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H107</f>
         <v>45760</v>
@@ -12736,7 +12731,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H108</f>
         <v>45761</v>
@@ -12758,7 +12753,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H109</f>
         <v>45762</v>
@@ -12780,7 +12775,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H110</f>
         <v>45763</v>
@@ -12802,7 +12797,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H111</f>
         <v>45764</v>
@@ -12824,7 +12819,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H112</f>
         <v>45765</v>
@@ -12846,7 +12841,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H113</f>
         <v>45766</v>
@@ -12868,7 +12863,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H114</f>
         <v>45767</v>
@@ -12890,7 +12885,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H115</f>
         <v>45768</v>
@@ -12912,7 +12907,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H116</f>
         <v>45769</v>
@@ -12934,7 +12929,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H117</f>
         <v>45770</v>
@@ -12956,7 +12951,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H118</f>
         <v>45771</v>
@@ -12978,7 +12973,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H119</f>
         <v>45772</v>
@@ -13000,7 +12995,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H120</f>
         <v>45773</v>
@@ -13022,7 +13017,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H121</f>
         <v>45774</v>
@@ -13044,7 +13039,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H122</f>
         <v>45775</v>
@@ -13066,7 +13061,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H123</f>
         <v>45776</v>
@@ -13088,7 +13083,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H124</f>
         <v>45777</v>
@@ -13110,7 +13105,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H125</f>
         <v>45778</v>
@@ -13132,7 +13127,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H126</f>
         <v>45779</v>
@@ -13154,7 +13149,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H127</f>
         <v>45780</v>
@@ -13176,7 +13171,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H128</f>
         <v>45781</v>
@@ -13198,7 +13193,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H129</f>
         <v>45782</v>
@@ -13220,7 +13215,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H130</f>
         <v>45783</v>
@@ -13242,7 +13237,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H131</f>
         <v>45784</v>
@@ -13264,7 +13259,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H132</f>
         <v>45785</v>
@@ -13286,7 +13281,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H133</f>
         <v>45786</v>
@@ -13308,7 +13303,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H134</f>
         <v>45787</v>
@@ -13330,7 +13325,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H135</f>
         <v>45788</v>
@@ -13352,7 +13347,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H136</f>
         <v>45789</v>
@@ -13374,7 +13369,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H137</f>
         <v>45790</v>
@@ -13396,7 +13391,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H138</f>
         <v>45791</v>
@@ -13418,7 +13413,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H139</f>
         <v>45792</v>
@@ -13440,7 +13435,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H140</f>
         <v>45793</v>
@@ -13462,7 +13457,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H141</f>
         <v>45794</v>
@@ -13484,7 +13479,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H142</f>
         <v>45795</v>
@@ -13506,7 +13501,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H143</f>
         <v>45796</v>
@@ -13528,7 +13523,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H144</f>
         <v>45797</v>
@@ -13550,7 +13545,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H145</f>
         <v>45798</v>
@@ -13572,7 +13567,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H146</f>
         <v>45799</v>
@@ -13594,7 +13589,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H147</f>
         <v>45800</v>
@@ -13616,7 +13611,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H148</f>
         <v>45801</v>
@@ -13638,7 +13633,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H149</f>
         <v>45802</v>
@@ -13660,7 +13655,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H150</f>
         <v>45803</v>
@@ -13682,7 +13677,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H151</f>
         <v>45804</v>
@@ -13704,7 +13699,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H152</f>
         <v>45805</v>
@@ -13726,7 +13721,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H153</f>
         <v>45806</v>
@@ -13748,7 +13743,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H154</f>
         <v>45807</v>
@@ -13770,7 +13765,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H155</f>
         <v>45808</v>
@@ -13792,7 +13787,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H156</f>
         <v>45809</v>
@@ -13814,7 +13809,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H157</f>
         <v>45810</v>
@@ -13836,7 +13831,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H158</f>
         <v>45811</v>
@@ -13858,7 +13853,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H159</f>
         <v>45812</v>
@@ -13880,7 +13875,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H160</f>
         <v>45813</v>
@@ -13902,7 +13897,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H161</f>
         <v>45814</v>
@@ -13924,7 +13919,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H162</f>
         <v>45815</v>
@@ -13946,7 +13941,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H163</f>
         <v>45816</v>
@@ -13968,7 +13963,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H164</f>
         <v>45817</v>
@@ -13990,7 +13985,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H165</f>
         <v>45818</v>
@@ -14012,7 +14007,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H166</f>
         <v>45819</v>
@@ -14034,7 +14029,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H167</f>
         <v>45820</v>
@@ -14056,7 +14051,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H168</f>
         <v>45821</v>
@@ -14078,7 +14073,7 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H169</f>
         <v>45822</v>
@@ -14100,7 +14095,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H170</f>
         <v>45823</v>
@@ -14122,7 +14117,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H171</f>
         <v>45824</v>
@@ -14144,7 +14139,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H172</f>
         <v>45825</v>
@@ -14166,7 +14161,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H173</f>
         <v>45826</v>
@@ -14188,7 +14183,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H174</f>
         <v>45827</v>
@@ -14210,7 +14205,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H175</f>
         <v>45828</v>
@@ -14232,7 +14227,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H176</f>
         <v>45829</v>
@@ -14254,7 +14249,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H177</f>
         <v>45830</v>
@@ -14276,7 +14271,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H178</f>
         <v>45831</v>
@@ -14298,7 +14293,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H179</f>
         <v>45832</v>
@@ -14320,7 +14315,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H180</f>
         <v>45833</v>
@@ -14342,7 +14337,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H181</f>
         <v>45834</v>
@@ -14364,7 +14359,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H182</f>
         <v>45835</v>
@@ -14386,7 +14381,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H183</f>
         <v>45836</v>
@@ -14408,7 +14403,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H184</f>
         <v>45837</v>
@@ -14430,7 +14425,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H185</f>
         <v>45838</v>
@@ -14452,7 +14447,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H186</f>
         <v>45839</v>
@@ -14474,7 +14469,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H187</f>
         <v>45840</v>
@@ -14496,7 +14491,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H188</f>
         <v>45841</v>
@@ -14518,7 +14513,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H189</f>
         <v>45842</v>
@@ -14540,7 +14535,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H190</f>
         <v>45843</v>
@@ -14562,7 +14557,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H191</f>
         <v>45844</v>
@@ -14584,7 +14579,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H192</f>
         <v>45845</v>
@@ -14606,7 +14601,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H193</f>
         <v>45846</v>
@@ -14628,7 +14623,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H194</f>
         <v>45847</v>
@@ -14650,7 +14645,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H195</f>
         <v>45848</v>
@@ -14672,7 +14667,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H196</f>
         <v>45849</v>
@@ -14694,7 +14689,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H197</f>
         <v>45850</v>
@@ -14716,7 +14711,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H198</f>
         <v>45851</v>
@@ -14738,7 +14733,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H199</f>
         <v>45852</v>
@@ -14760,7 +14755,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H200</f>
         <v>45853</v>
@@ -14782,7 +14777,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H201</f>
         <v>45854</v>
@@ -14804,7 +14799,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H202</f>
         <v>45855</v>
@@ -14826,7 +14821,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H203</f>
         <v>45856</v>
@@ -14848,7 +14843,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H204</f>
         <v>45857</v>
@@ -14870,7 +14865,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H205</f>
         <v>45858</v>
@@ -14892,7 +14887,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H206</f>
         <v>45859</v>
@@ -14914,7 +14909,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H207</f>
         <v>45860</v>
@@ -14936,7 +14931,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H208</f>
         <v>45861</v>
@@ -14958,7 +14953,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H209</f>
         <v>45862</v>
@@ -14980,7 +14975,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H210</f>
         <v>45863</v>
@@ -15002,7 +14997,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H211</f>
         <v>45864</v>
@@ -15024,7 +15019,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H212</f>
         <v>45865</v>
@@ -15046,7 +15041,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H213</f>
         <v>45866</v>
@@ -15068,7 +15063,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H214</f>
         <v>45867</v>
@@ -15090,7 +15085,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H215</f>
         <v>45868</v>
@@ -15112,7 +15107,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H216</f>
         <v>45869</v>
@@ -15134,7 +15129,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H217</f>
         <v>45870</v>
@@ -15156,7 +15151,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H218</f>
         <v>45871</v>
@@ -15178,7 +15173,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H219</f>
         <v>45872</v>
@@ -15200,7 +15195,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H220</f>
         <v>45873</v>
@@ -15222,7 +15217,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H221</f>
         <v>45874</v>
@@ -15244,7 +15239,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H222</f>
         <v>45875</v>
@@ -15266,7 +15261,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H223</f>
         <v>45876</v>
@@ -15288,7 +15283,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H224</f>
         <v>45877</v>
@@ -15310,7 +15305,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H225</f>
         <v>45878</v>
@@ -15332,7 +15327,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H226</f>
         <v>45879</v>
@@ -15354,7 +15349,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H227</f>
         <v>45880</v>
@@ -15376,7 +15371,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H228</f>
         <v>45881</v>
@@ -15398,7 +15393,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H229</f>
         <v>45882</v>
@@ -15420,7 +15415,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H230</f>
         <v>45883</v>
@@ -15442,7 +15437,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H231</f>
         <v>45884</v>
@@ -15464,7 +15459,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H232</f>
         <v>45885</v>
@@ -15486,7 +15481,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H233</f>
         <v>45886</v>
@@ -15508,7 +15503,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H234</f>
         <v>45887</v>
@@ -15530,7 +15525,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H235</f>
         <v>45888</v>
@@ -15552,7 +15547,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H236</f>
         <v>45889</v>
@@ -15574,7 +15569,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H237</f>
         <v>45890</v>
@@ -15596,7 +15591,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H238</f>
         <v>45891</v>
@@ -15618,7 +15613,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H239</f>
         <v>45892</v>
@@ -15640,7 +15635,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H240</f>
         <v>45893</v>
@@ -15662,7 +15657,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H241</f>
         <v>45894</v>
@@ -15684,7 +15679,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H242</f>
         <v>45895</v>
@@ -15706,7 +15701,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H243</f>
         <v>45896</v>
@@ -15728,7 +15723,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H244</f>
         <v>45897</v>
@@ -15750,7 +15745,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H245</f>
         <v>45898</v>
@@ -15772,7 +15767,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H246</f>
         <v>45899</v>
@@ -15794,7 +15789,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H247</f>
         <v>45900</v>
@@ -15816,7 +15811,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H248</f>
         <v>45901</v>
@@ -15838,7 +15833,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H249</f>
         <v>45902</v>
@@ -15860,7 +15855,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H250</f>
         <v>45903</v>
@@ -15882,7 +15877,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H251</f>
         <v>45904</v>
@@ -15904,7 +15899,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H252</f>
         <v>45905</v>
@@ -15926,7 +15921,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H253</f>
         <v>45906</v>
@@ -15948,7 +15943,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H254</f>
         <v>45907</v>
@@ -15970,7 +15965,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H255</f>
         <v>45908</v>
@@ -15992,7 +15987,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H256</f>
         <v>45909</v>
@@ -16014,7 +16009,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H257</f>
         <v>45910</v>
@@ -16036,29 +16031,29 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H258</f>
         <v>45911</v>
       </c>
-      <c r="B257" s="17" t="str">
+      <c r="B257" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I258</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C257" s="48" t="str">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="C257" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J258</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D257" s="48" t="str">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="D257" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K258</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E257" s="5" t="str">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="E257" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L258</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H259</f>
         <v>45912</v>
@@ -16080,7 +16075,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H260</f>
         <v>45913</v>
@@ -16102,7 +16097,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H261</f>
         <v>45914</v>
@@ -16124,7 +16119,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H262</f>
         <v>45915</v>
@@ -16146,7 +16141,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H263</f>
         <v>45916</v>
@@ -16168,7 +16163,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H264</f>
         <v>45917</v>
@@ -16190,7 +16185,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H265</f>
         <v>45918</v>
@@ -16212,7 +16207,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H266</f>
         <v>45919</v>
@@ -16234,7 +16229,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H267</f>
         <v>45920</v>
@@ -16256,7 +16251,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H268</f>
         <v>45921</v>
@@ -16278,7 +16273,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H269</f>
         <v>45922</v>
@@ -16300,7 +16295,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H270</f>
         <v>45923</v>
@@ -16322,7 +16317,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H271</f>
         <v>45924</v>
@@ -16344,7 +16339,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H272</f>
         <v>45925</v>
@@ -16366,7 +16361,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H273</f>
         <v>45926</v>
@@ -16388,7 +16383,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H274</f>
         <v>45927</v>
@@ -16410,7 +16405,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H275</f>
         <v>45928</v>
@@ -16432,7 +16427,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H276</f>
         <v>45929</v>
@@ -16454,7 +16449,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H277</f>
         <v>45930</v>
@@ -16476,7 +16471,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H278</f>
         <v>45931</v>
@@ -16498,7 +16493,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H279</f>
         <v>45932</v>
@@ -16520,7 +16515,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H280</f>
         <v>45933</v>
@@ -16542,7 +16537,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H281</f>
         <v>45934</v>
@@ -16564,7 +16559,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H282</f>
         <v>45935</v>
@@ -16586,7 +16581,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H283</f>
         <v>45936</v>
@@ -16608,7 +16603,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H284</f>
         <v>45937</v>
@@ -16630,7 +16625,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H285</f>
         <v>45938</v>
@@ -16652,7 +16647,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H286</f>
         <v>45939</v>
@@ -16674,7 +16669,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H287</f>
         <v>45940</v>
@@ -16696,7 +16691,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H288</f>
         <v>45941</v>
@@ -16718,7 +16713,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H289</f>
         <v>45942</v>
@@ -16740,7 +16735,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H290</f>
         <v>45943</v>
@@ -16762,7 +16757,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H291</f>
         <v>45944</v>
@@ -16784,7 +16779,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H292</f>
         <v>45945</v>
@@ -16806,7 +16801,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H293</f>
         <v>45946</v>
@@ -16828,7 +16823,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H294</f>
         <v>45947</v>
@@ -16850,7 +16845,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H295</f>
         <v>45948</v>
@@ -16872,7 +16867,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H296</f>
         <v>45949</v>
@@ -16894,7 +16889,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H297</f>
         <v>45950</v>
@@ -16916,7 +16911,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H298</f>
         <v>45951</v>
@@ -16938,7 +16933,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H299</f>
         <v>45952</v>
@@ -16960,7 +16955,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H300</f>
         <v>45953</v>
@@ -16982,7 +16977,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H301</f>
         <v>45954</v>
@@ -17004,7 +16999,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H302</f>
         <v>45955</v>
@@ -17026,7 +17021,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H303</f>
         <v>45956</v>
@@ -17048,7 +17043,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H304</f>
         <v>45957</v>
@@ -17070,7 +17065,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H305</f>
         <v>45958</v>
@@ -17092,7 +17087,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H306</f>
         <v>45959</v>
@@ -17114,7 +17109,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H307</f>
         <v>45960</v>
@@ -17136,7 +17131,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H308</f>
         <v>45961</v>
@@ -17158,7 +17153,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H309</f>
         <v>45962</v>
@@ -17180,7 +17175,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H310</f>
         <v>45963</v>
@@ -17202,7 +17197,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H311</f>
         <v>45964</v>
@@ -17224,7 +17219,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H312</f>
         <v>45965</v>
@@ -17246,7 +17241,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H313</f>
         <v>45966</v>
@@ -17268,7 +17263,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H314</f>
         <v>45967</v>
@@ -17290,7 +17285,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H315</f>
         <v>45968</v>
@@ -17312,7 +17307,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H316</f>
         <v>45969</v>
@@ -17334,7 +17329,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H317</f>
         <v>45970</v>
@@ -17356,7 +17351,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H318</f>
         <v>45971</v>
@@ -17378,7 +17373,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H319</f>
         <v>45972</v>
@@ -17400,7 +17395,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H320</f>
         <v>45973</v>
@@ -17422,7 +17417,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H321</f>
         <v>45974</v>
@@ -17444,7 +17439,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H322</f>
         <v>45975</v>
@@ -17466,7 +17461,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H323</f>
         <v>45976</v>
@@ -17488,7 +17483,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H324</f>
         <v>45977</v>
@@ -17510,7 +17505,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H325</f>
         <v>45978</v>
@@ -17532,7 +17527,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H326</f>
         <v>45979</v>
@@ -17554,7 +17549,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H327</f>
         <v>45980</v>
@@ -17576,7 +17571,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H328</f>
         <v>45981</v>
@@ -17598,7 +17593,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H329</f>
         <v>45982</v>
@@ -17620,7 +17615,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H330</f>
         <v>45983</v>
@@ -17642,7 +17637,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H331</f>
         <v>45984</v>
@@ -17664,7 +17659,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H332</f>
         <v>45985</v>
@@ -17686,7 +17681,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H333</f>
         <v>45986</v>
@@ -17708,7 +17703,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H334</f>
         <v>45987</v>
@@ -17730,7 +17725,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H335</f>
         <v>45988</v>
@@ -17752,7 +17747,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H336</f>
         <v>45989</v>
@@ -17774,7 +17769,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H337</f>
         <v>45990</v>
@@ -17796,7 +17791,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H338</f>
         <v>45991</v>
@@ -17818,7 +17813,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H339</f>
         <v>45992</v>
@@ -17840,7 +17835,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H340</f>
         <v>45993</v>
@@ -17862,7 +17857,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H341</f>
         <v>45994</v>
@@ -17884,7 +17879,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H342</f>
         <v>45995</v>
@@ -17906,7 +17901,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H343</f>
         <v>45996</v>
@@ -17928,7 +17923,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H344</f>
         <v>45997</v>
@@ -17950,7 +17945,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H345</f>
         <v>45998</v>
@@ -17972,7 +17967,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H346</f>
         <v>45999</v>
@@ -17994,7 +17989,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H347</f>
         <v>46000</v>
@@ -18016,7 +18011,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H348</f>
         <v>46001</v>
@@ -18038,7 +18033,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H349</f>
         <v>46002</v>
@@ -18060,7 +18055,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H350</f>
         <v>46003</v>
@@ -18082,7 +18077,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H351</f>
         <v>46004</v>
@@ -18104,7 +18099,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H352</f>
         <v>46005</v>
@@ -18126,7 +18121,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H353</f>
         <v>46006</v>
@@ -18148,7 +18143,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H354</f>
         <v>46007</v>
@@ -18170,7 +18165,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H355</f>
         <v>46008</v>
@@ -18192,7 +18187,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H356</f>
         <v>46009</v>
@@ -18214,7 +18209,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H357</f>
         <v>46010</v>
@@ -18236,7 +18231,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H358</f>
         <v>46011</v>
@@ -18258,7 +18253,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H359</f>
         <v>46012</v>
@@ -18280,7 +18275,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H360</f>
         <v>46013</v>
@@ -18302,7 +18297,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H361</f>
         <v>46014</v>
@@ -18324,7 +18319,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H362</f>
         <v>46015</v>
@@ -18346,7 +18341,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H363</f>
         <v>46016</v>
@@ -18368,7 +18363,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H364</f>
         <v>46017</v>
@@ -18390,7 +18385,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H365</f>
         <v>46018</v>
@@ -18412,7 +18407,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H366</f>
         <v>46019</v>
@@ -18434,7 +18429,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H367</f>
         <v>46020</v>
@@ -18456,7 +18451,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H368</f>
         <v>46021</v>
@@ -18478,7 +18473,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H369</f>
         <v>46022</v>
@@ -18500,7 +18495,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="46">
         <f>'[1]Jumbo Bus Date to PDD'!H370</f>
         <v>46023</v>
@@ -18522,37 +18517,37 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="15"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="15"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="15"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="15"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="15"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="15"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="15"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="15"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="15"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="15"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="15"/>
     </row>
   </sheetData>
@@ -18573,13 +18568,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="5" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
@@ -18588,14 +18583,14 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="52" t="s">
         <v>5</v>
@@ -18604,7 +18599,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="54"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -18613,7 +18608,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -18630,7 +18625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")</f>
         <v>1/1/2025 - 3/31/2025</v>
@@ -18652,7 +18647,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")</f>
         <v>4/1/2025 - 6/30/2025</v>
@@ -18674,7 +18669,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")</f>
         <v>7/1/2025 - 9/30/2025</v>
@@ -18696,7 +18691,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,10,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,12,31),"m/d/yyyy")</f>
         <v>10/1/2025 - 12/31/2025</v>
@@ -18718,7 +18713,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="49"/>
     </row>
   </sheetData>
@@ -18740,13 +18735,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>9</v>
       </c>
@@ -18755,7 +18750,7 @@
       <c r="D1" s="61"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
         <v>38</v>
       </c>
@@ -18764,12 +18759,12 @@
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
@@ -18778,7 +18773,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -18795,7 +18790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -18819,7 +18814,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -18843,7 +18838,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -18867,7 +18862,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
@@ -18891,7 +18886,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -18899,7 +18894,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -18907,7 +18902,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -18917,7 +18912,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
@@ -18927,7 +18922,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -18945,7 +18940,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -18967,7 +18962,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
@@ -18989,7 +18984,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -19011,7 +19006,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -19033,7 +19028,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -19041,7 +19036,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -19049,7 +19044,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -19059,7 +19054,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
@@ -19069,7 +19064,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
@@ -19085,7 +19080,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>0</v>
       </c>
@@ -19105,7 +19100,7 @@
       <c r="F24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -19125,7 +19120,7 @@
       <c r="F25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
@@ -19145,7 +19140,7 @@
       <c r="F26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>3</v>
       </c>
@@ -19165,7 +19160,7 @@
       <c r="F27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -19174,7 +19169,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -19185,7 +19180,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="58" t="s">
         <v>10</v>
       </c>
@@ -19196,7 +19191,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
@@ -19219,7 +19214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
@@ -19254,7 +19249,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -19289,7 +19284,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>2</v>
       </c>
@@ -19324,7 +19319,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
@@ -19381,193 +19376,193 @@
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="str" cm="1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="M1" s="62" t="str" cm="1">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="M1" s="66" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="64"/>
-      <c r="Y1" s="62" t="str" cm="1">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="68"/>
+      <c r="Y1" s="66" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="64"/>
-      <c r="AK1" s="62" t="str" cm="1">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="68"/>
+      <c r="AK1" s="66" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="str">
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="M2" s="65" t="str">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="M2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="67"/>
-      <c r="Y2" s="65" t="str">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="Y2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="67"/>
-      <c r="AK2" s="65" t="str">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64"/>
+      <c r="AK2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="67"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="64"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="68" t="s">
+      <c r="AL3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
@@ -19737,7 +19732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
@@ -19871,7 +19866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -20045,7 +20040,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -20219,7 +20214,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="42">
         <v>3</v>
       </c>
@@ -20393,7 +20388,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -20567,7 +20562,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="42">
         <v>5</v>
       </c>
@@ -20741,7 +20736,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="42">
         <v>6</v>
       </c>
@@ -20915,7 +20910,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="42">
         <v>7</v>
       </c>
@@ -21089,7 +21084,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="42">
         <v>8</v>
       </c>
@@ -21263,7 +21258,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="42">
         <v>9</v>
       </c>
@@ -21437,7 +21432,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>10</v>
       </c>
@@ -21611,7 +21606,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
         <v>11</v>
       </c>
@@ -21785,7 +21780,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="42">
         <v>12</v>
       </c>
@@ -21959,7 +21954,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="42">
         <v>13</v>
       </c>
@@ -22133,7 +22128,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="42">
         <v>14</v>
       </c>
@@ -22307,7 +22302,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="42">
         <v>15</v>
       </c>
@@ -22481,7 +22476,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="42">
         <v>16</v>
       </c>
@@ -22655,7 +22650,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="42">
         <v>17</v>
       </c>
@@ -22829,7 +22824,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="42">
         <v>18</v>
       </c>
@@ -23003,7 +22998,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="42">
         <v>19</v>
       </c>
@@ -23177,7 +23172,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="42">
         <v>20</v>
       </c>
@@ -23351,7 +23346,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="42">
         <v>21</v>
       </c>
@@ -23525,7 +23520,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="42">
         <v>22</v>
       </c>
@@ -23699,7 +23694,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="42">
         <v>23</v>
       </c>
@@ -23873,7 +23868,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="42">
         <v>24</v>
       </c>
@@ -24047,7 +24042,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="42">
         <v>25</v>
       </c>
@@ -24221,7 +24216,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="42">
         <v>26</v>
       </c>
@@ -24395,7 +24390,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="42">
         <v>27</v>
       </c>
@@ -24569,7 +24564,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="42">
         <v>28</v>
       </c>
@@ -24743,7 +24738,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="42">
         <v>29</v>
       </c>
@@ -24917,7 +24912,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="42">
         <v>30</v>
       </c>
@@ -25091,7 +25086,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="42" t="s">
         <v>37</v>
       </c>
@@ -25267,18 +25262,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AK1:AU1"/>
+    <mergeCell ref="AK2:AU2"/>
+    <mergeCell ref="AL3:AU3"/>
+    <mergeCell ref="Y1:AI1"/>
+    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="Z3:AI3"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:W1"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="N3:W3"/>
-    <mergeCell ref="AK1:AU1"/>
-    <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="AL3:AU3"/>
-    <mergeCell ref="Y1:AI1"/>
-    <mergeCell ref="Y2:AI2"/>
-    <mergeCell ref="Z3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25294,7 +25289,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <sheetProtection password="9690" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FDE1D-0228-4093-9F21-18E784733535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4A39C1-A2B3-4D12-93C1-E035EB372757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,6 +576,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,15 +595,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8293,17 +8293,17 @@
           <cell r="H263">
             <v>45916</v>
           </cell>
-          <cell r="I263" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J263" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K263" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L263" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I263">
+            <v>3.9E-2</v>
+          </cell>
+          <cell r="J263">
+            <v>4.1700000000000001E-2</v>
+          </cell>
+          <cell r="K263">
+            <v>4.3900000000000002E-2</v>
+          </cell>
+          <cell r="L263">
+            <v>4.6199999999999998E-2</v>
           </cell>
         </row>
         <row r="264">
@@ -10422,20 +10422,20 @@
   <dimension ref="A1:E380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E259" sqref="E259"/>
+      <pane ySplit="3" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="52" t="s">
         <v>4</v>
@@ -10444,7 +10444,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +10453,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H5</f>
         <v>45658</v>
@@ -10492,7 +10492,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H6</f>
         <v>45659</v>
@@ -10514,7 +10514,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H7</f>
         <v>45660</v>
@@ -10536,7 +10536,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H8</f>
         <v>45661</v>
@@ -10558,7 +10558,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H9</f>
         <v>45662</v>
@@ -10580,7 +10580,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H10</f>
         <v>45663</v>
@@ -10602,7 +10602,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H11</f>
         <v>45664</v>
@@ -10624,7 +10624,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H12</f>
         <v>45665</v>
@@ -10646,7 +10646,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H13</f>
         <v>45666</v>
@@ -10668,7 +10668,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H14</f>
         <v>45667</v>
@@ -10690,7 +10690,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H15</f>
         <v>45668</v>
@@ -10712,7 +10712,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H16</f>
         <v>45669</v>
@@ -10734,7 +10734,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H17</f>
         <v>45670</v>
@@ -10756,7 +10756,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H18</f>
         <v>45671</v>
@@ -10778,7 +10778,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H19</f>
         <v>45672</v>
@@ -10800,7 +10800,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H20</f>
         <v>45673</v>
@@ -10822,7 +10822,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H21</f>
         <v>45674</v>
@@ -10844,7 +10844,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H22</f>
         <v>45675</v>
@@ -10866,7 +10866,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H23</f>
         <v>45676</v>
@@ -10888,7 +10888,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H24</f>
         <v>45677</v>
@@ -10910,7 +10910,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H25</f>
         <v>45678</v>
@@ -10932,7 +10932,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H26</f>
         <v>45679</v>
@@ -10954,7 +10954,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H27</f>
         <v>45680</v>
@@ -10976,7 +10976,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H28</f>
         <v>45681</v>
@@ -10998,7 +10998,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H29</f>
         <v>45682</v>
@@ -11020,7 +11020,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H30</f>
         <v>45683</v>
@@ -11042,7 +11042,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H31</f>
         <v>45684</v>
@@ -11064,7 +11064,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H32</f>
         <v>45685</v>
@@ -11086,7 +11086,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H33</f>
         <v>45686</v>
@@ -11108,7 +11108,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H34</f>
         <v>45687</v>
@@ -11130,7 +11130,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H35</f>
         <v>45688</v>
@@ -11152,7 +11152,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H36</f>
         <v>45689</v>
@@ -11174,7 +11174,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H37</f>
         <v>45690</v>
@@ -11196,7 +11196,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H38</f>
         <v>45691</v>
@@ -11218,7 +11218,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H39</f>
         <v>45692</v>
@@ -11240,7 +11240,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H40</f>
         <v>45693</v>
@@ -11262,7 +11262,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H41</f>
         <v>45694</v>
@@ -11284,7 +11284,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H42</f>
         <v>45695</v>
@@ -11306,7 +11306,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H43</f>
         <v>45696</v>
@@ -11328,7 +11328,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H44</f>
         <v>45697</v>
@@ -11350,7 +11350,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H45</f>
         <v>45698</v>
@@ -11372,7 +11372,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H46</f>
         <v>45699</v>
@@ -11394,7 +11394,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H47</f>
         <v>45700</v>
@@ -11416,7 +11416,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H48</f>
         <v>45701</v>
@@ -11438,7 +11438,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H49</f>
         <v>45702</v>
@@ -11460,7 +11460,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H50</f>
         <v>45703</v>
@@ -11482,7 +11482,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H51</f>
         <v>45704</v>
@@ -11504,7 +11504,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H52</f>
         <v>45705</v>
@@ -11526,7 +11526,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H53</f>
         <v>45706</v>
@@ -11548,7 +11548,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H54</f>
         <v>45707</v>
@@ -11570,7 +11570,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H55</f>
         <v>45708</v>
@@ -11592,7 +11592,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H56</f>
         <v>45709</v>
@@ -11614,7 +11614,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H57</f>
         <v>45710</v>
@@ -11636,7 +11636,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H58</f>
         <v>45711</v>
@@ -11658,7 +11658,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H59</f>
         <v>45712</v>
@@ -11680,7 +11680,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H60</f>
         <v>45713</v>
@@ -11702,7 +11702,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H61</f>
         <v>45714</v>
@@ -11724,7 +11724,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H62</f>
         <v>45715</v>
@@ -11746,7 +11746,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H63</f>
         <v>45716</v>
@@ -11768,7 +11768,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H64</f>
         <v>45717</v>
@@ -11790,7 +11790,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H65</f>
         <v>45718</v>
@@ -11812,7 +11812,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H66</f>
         <v>45719</v>
@@ -11834,7 +11834,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H67</f>
         <v>45720</v>
@@ -11856,7 +11856,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H68</f>
         <v>45721</v>
@@ -11878,7 +11878,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H69</f>
         <v>45722</v>
@@ -11900,7 +11900,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H70</f>
         <v>45723</v>
@@ -11922,7 +11922,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H71</f>
         <v>45724</v>
@@ -11944,7 +11944,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H72</f>
         <v>45725</v>
@@ -11966,7 +11966,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H73</f>
         <v>45726</v>
@@ -11988,7 +11988,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H74</f>
         <v>45727</v>
@@ -12010,7 +12010,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H75</f>
         <v>45728</v>
@@ -12032,7 +12032,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H76</f>
         <v>45729</v>
@@ -12054,7 +12054,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H77</f>
         <v>45730</v>
@@ -12076,7 +12076,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H78</f>
         <v>45731</v>
@@ -12098,7 +12098,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H79</f>
         <v>45732</v>
@@ -12120,7 +12120,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H80</f>
         <v>45733</v>
@@ -12142,7 +12142,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H81</f>
         <v>45734</v>
@@ -12164,7 +12164,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H82</f>
         <v>45735</v>
@@ -12186,7 +12186,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H83</f>
         <v>45736</v>
@@ -12208,7 +12208,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H84</f>
         <v>45737</v>
@@ -12230,7 +12230,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H85</f>
         <v>45738</v>
@@ -12252,7 +12252,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H86</f>
         <v>45739</v>
@@ -12274,7 +12274,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H87</f>
         <v>45740</v>
@@ -12296,7 +12296,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H88</f>
         <v>45741</v>
@@ -12318,7 +12318,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H89</f>
         <v>45742</v>
@@ -12340,7 +12340,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H90</f>
         <v>45743</v>
@@ -12362,7 +12362,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H91</f>
         <v>45744</v>
@@ -12384,7 +12384,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H92</f>
         <v>45745</v>
@@ -12406,7 +12406,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H93</f>
         <v>45746</v>
@@ -12428,7 +12428,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H94</f>
         <v>45747</v>
@@ -12450,7 +12450,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H95</f>
         <v>45748</v>
@@ -12472,7 +12472,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H96</f>
         <v>45749</v>
@@ -12494,7 +12494,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H97</f>
         <v>45750</v>
@@ -12516,7 +12516,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H98</f>
         <v>45751</v>
@@ -12538,7 +12538,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H99</f>
         <v>45752</v>
@@ -12560,7 +12560,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H100</f>
         <v>45753</v>
@@ -12582,7 +12582,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H101</f>
         <v>45754</v>
@@ -12604,7 +12604,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H102</f>
         <v>45755</v>
@@ -12626,7 +12626,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H103</f>
         <v>45756</v>
@@ -12648,7 +12648,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H104</f>
         <v>45757</v>
@@ -12670,7 +12670,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H105</f>
         <v>45758</v>
@@ -12692,7 +12692,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H106</f>
         <v>45759</v>
@@ -12714,7 +12714,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H107</f>
         <v>45760</v>
@@ -12736,7 +12736,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H108</f>
         <v>45761</v>
@@ -12758,7 +12758,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H109</f>
         <v>45762</v>
@@ -12780,7 +12780,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H110</f>
         <v>45763</v>
@@ -12802,7 +12802,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H111</f>
         <v>45764</v>
@@ -12824,7 +12824,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H112</f>
         <v>45765</v>
@@ -12846,7 +12846,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H113</f>
         <v>45766</v>
@@ -12868,7 +12868,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H114</f>
         <v>45767</v>
@@ -12890,7 +12890,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H115</f>
         <v>45768</v>
@@ -12912,7 +12912,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H116</f>
         <v>45769</v>
@@ -12934,7 +12934,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H117</f>
         <v>45770</v>
@@ -12956,7 +12956,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H118</f>
         <v>45771</v>
@@ -12978,7 +12978,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H119</f>
         <v>45772</v>
@@ -13000,7 +13000,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H120</f>
         <v>45773</v>
@@ -13022,7 +13022,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H121</f>
         <v>45774</v>
@@ -13044,7 +13044,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H122</f>
         <v>45775</v>
@@ -13066,7 +13066,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H123</f>
         <v>45776</v>
@@ -13088,7 +13088,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H124</f>
         <v>45777</v>
@@ -13110,7 +13110,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H125</f>
         <v>45778</v>
@@ -13132,7 +13132,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H126</f>
         <v>45779</v>
@@ -13154,7 +13154,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H127</f>
         <v>45780</v>
@@ -13176,7 +13176,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H128</f>
         <v>45781</v>
@@ -13198,7 +13198,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H129</f>
         <v>45782</v>
@@ -13220,7 +13220,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H130</f>
         <v>45783</v>
@@ -13242,7 +13242,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H131</f>
         <v>45784</v>
@@ -13264,7 +13264,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H132</f>
         <v>45785</v>
@@ -13286,7 +13286,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H133</f>
         <v>45786</v>
@@ -13308,7 +13308,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H134</f>
         <v>45787</v>
@@ -13330,7 +13330,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H135</f>
         <v>45788</v>
@@ -13352,7 +13352,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H136</f>
         <v>45789</v>
@@ -13374,7 +13374,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H137</f>
         <v>45790</v>
@@ -13396,7 +13396,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H138</f>
         <v>45791</v>
@@ -13418,7 +13418,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H139</f>
         <v>45792</v>
@@ -13440,7 +13440,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H140</f>
         <v>45793</v>
@@ -13462,7 +13462,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H141</f>
         <v>45794</v>
@@ -13484,7 +13484,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H142</f>
         <v>45795</v>
@@ -13506,7 +13506,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H143</f>
         <v>45796</v>
@@ -13528,7 +13528,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H144</f>
         <v>45797</v>
@@ -13550,7 +13550,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H145</f>
         <v>45798</v>
@@ -13572,7 +13572,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H146</f>
         <v>45799</v>
@@ -13594,7 +13594,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H147</f>
         <v>45800</v>
@@ -13616,7 +13616,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H148</f>
         <v>45801</v>
@@ -13638,7 +13638,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H149</f>
         <v>45802</v>
@@ -13660,7 +13660,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H150</f>
         <v>45803</v>
@@ -13682,7 +13682,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H151</f>
         <v>45804</v>
@@ -13704,7 +13704,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H152</f>
         <v>45805</v>
@@ -13726,7 +13726,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H153</f>
         <v>45806</v>
@@ -13748,7 +13748,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H154</f>
         <v>45807</v>
@@ -13770,7 +13770,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H155</f>
         <v>45808</v>
@@ -13792,7 +13792,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H156</f>
         <v>45809</v>
@@ -13814,7 +13814,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H157</f>
         <v>45810</v>
@@ -13836,7 +13836,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H158</f>
         <v>45811</v>
@@ -13858,7 +13858,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H159</f>
         <v>45812</v>
@@ -13880,7 +13880,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H160</f>
         <v>45813</v>
@@ -13902,7 +13902,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H161</f>
         <v>45814</v>
@@ -13924,7 +13924,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H162</f>
         <v>45815</v>
@@ -13946,7 +13946,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H163</f>
         <v>45816</v>
@@ -13968,7 +13968,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H164</f>
         <v>45817</v>
@@ -13990,7 +13990,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H165</f>
         <v>45818</v>
@@ -14012,7 +14012,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H166</f>
         <v>45819</v>
@@ -14034,7 +14034,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H167</f>
         <v>45820</v>
@@ -14056,7 +14056,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H168</f>
         <v>45821</v>
@@ -14078,7 +14078,7 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H169</f>
         <v>45822</v>
@@ -14100,7 +14100,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H170</f>
         <v>45823</v>
@@ -14122,7 +14122,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H171</f>
         <v>45824</v>
@@ -14144,7 +14144,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H172</f>
         <v>45825</v>
@@ -14166,7 +14166,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H173</f>
         <v>45826</v>
@@ -14188,7 +14188,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H174</f>
         <v>45827</v>
@@ -14210,7 +14210,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H175</f>
         <v>45828</v>
@@ -14232,7 +14232,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H176</f>
         <v>45829</v>
@@ -14254,7 +14254,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H177</f>
         <v>45830</v>
@@ -14276,7 +14276,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H178</f>
         <v>45831</v>
@@ -14298,7 +14298,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H179</f>
         <v>45832</v>
@@ -14320,7 +14320,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H180</f>
         <v>45833</v>
@@ -14342,7 +14342,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H181</f>
         <v>45834</v>
@@ -14364,7 +14364,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H182</f>
         <v>45835</v>
@@ -14386,7 +14386,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H183</f>
         <v>45836</v>
@@ -14408,7 +14408,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H184</f>
         <v>45837</v>
@@ -14430,7 +14430,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H185</f>
         <v>45838</v>
@@ -14452,7 +14452,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H186</f>
         <v>45839</v>
@@ -14474,7 +14474,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H187</f>
         <v>45840</v>
@@ -14496,7 +14496,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H188</f>
         <v>45841</v>
@@ -14518,7 +14518,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H189</f>
         <v>45842</v>
@@ -14540,7 +14540,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H190</f>
         <v>45843</v>
@@ -14562,7 +14562,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H191</f>
         <v>45844</v>
@@ -14584,7 +14584,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H192</f>
         <v>45845</v>
@@ -14606,7 +14606,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H193</f>
         <v>45846</v>
@@ -14628,7 +14628,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H194</f>
         <v>45847</v>
@@ -14650,7 +14650,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H195</f>
         <v>45848</v>
@@ -14672,7 +14672,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H196</f>
         <v>45849</v>
@@ -14694,7 +14694,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H197</f>
         <v>45850</v>
@@ -14716,7 +14716,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H198</f>
         <v>45851</v>
@@ -14738,7 +14738,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H199</f>
         <v>45852</v>
@@ -14760,7 +14760,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H200</f>
         <v>45853</v>
@@ -14782,7 +14782,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H201</f>
         <v>45854</v>
@@ -14804,7 +14804,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H202</f>
         <v>45855</v>
@@ -14826,7 +14826,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H203</f>
         <v>45856</v>
@@ -14848,7 +14848,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H204</f>
         <v>45857</v>
@@ -14870,7 +14870,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H205</f>
         <v>45858</v>
@@ -14892,7 +14892,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H206</f>
         <v>45859</v>
@@ -14914,7 +14914,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H207</f>
         <v>45860</v>
@@ -14936,7 +14936,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H208</f>
         <v>45861</v>
@@ -14958,7 +14958,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H209</f>
         <v>45862</v>
@@ -14980,7 +14980,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H210</f>
         <v>45863</v>
@@ -15002,7 +15002,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H211</f>
         <v>45864</v>
@@ -15024,7 +15024,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H212</f>
         <v>45865</v>
@@ -15046,7 +15046,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H213</f>
         <v>45866</v>
@@ -15068,7 +15068,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H214</f>
         <v>45867</v>
@@ -15090,7 +15090,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H215</f>
         <v>45868</v>
@@ -15112,7 +15112,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H216</f>
         <v>45869</v>
@@ -15134,7 +15134,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H217</f>
         <v>45870</v>
@@ -15156,7 +15156,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H218</f>
         <v>45871</v>
@@ -15178,7 +15178,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H219</f>
         <v>45872</v>
@@ -15200,7 +15200,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H220</f>
         <v>45873</v>
@@ -15222,7 +15222,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H221</f>
         <v>45874</v>
@@ -15244,7 +15244,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H222</f>
         <v>45875</v>
@@ -15266,7 +15266,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H223</f>
         <v>45876</v>
@@ -15288,7 +15288,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H224</f>
         <v>45877</v>
@@ -15310,7 +15310,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H225</f>
         <v>45878</v>
@@ -15332,7 +15332,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H226</f>
         <v>45879</v>
@@ -15354,7 +15354,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H227</f>
         <v>45880</v>
@@ -15376,7 +15376,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H228</f>
         <v>45881</v>
@@ -15398,7 +15398,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H229</f>
         <v>45882</v>
@@ -15420,7 +15420,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H230</f>
         <v>45883</v>
@@ -15442,7 +15442,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H231</f>
         <v>45884</v>
@@ -15464,7 +15464,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H232</f>
         <v>45885</v>
@@ -15486,7 +15486,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H233</f>
         <v>45886</v>
@@ -15508,7 +15508,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H234</f>
         <v>45887</v>
@@ -15530,7 +15530,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H235</f>
         <v>45888</v>
@@ -15552,7 +15552,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H236</f>
         <v>45889</v>
@@ -15574,7 +15574,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H237</f>
         <v>45890</v>
@@ -15596,7 +15596,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H238</f>
         <v>45891</v>
@@ -15618,7 +15618,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H239</f>
         <v>45892</v>
@@ -15640,7 +15640,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H240</f>
         <v>45893</v>
@@ -15662,7 +15662,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H241</f>
         <v>45894</v>
@@ -15684,7 +15684,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H242</f>
         <v>45895</v>
@@ -15706,7 +15706,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H243</f>
         <v>45896</v>
@@ -15728,7 +15728,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H244</f>
         <v>45897</v>
@@ -15750,7 +15750,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H245</f>
         <v>45898</v>
@@ -15772,7 +15772,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H246</f>
         <v>45899</v>
@@ -15794,7 +15794,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H247</f>
         <v>45900</v>
@@ -15816,7 +15816,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H248</f>
         <v>45901</v>
@@ -15838,7 +15838,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H249</f>
         <v>45902</v>
@@ -15860,7 +15860,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H250</f>
         <v>45903</v>
@@ -15882,7 +15882,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H251</f>
         <v>45904</v>
@@ -15904,7 +15904,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H252</f>
         <v>45905</v>
@@ -15926,7 +15926,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H253</f>
         <v>45906</v>
@@ -15948,7 +15948,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H254</f>
         <v>45907</v>
@@ -15970,7 +15970,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H255</f>
         <v>45908</v>
@@ -15992,7 +15992,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H256</f>
         <v>45909</v>
@@ -16014,7 +16014,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H257</f>
         <v>45910</v>
@@ -16036,7 +16036,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H258</f>
         <v>45911</v>
@@ -16058,7 +16058,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H259</f>
         <v>45912</v>
@@ -16080,7 +16080,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H260</f>
         <v>45913</v>
@@ -16102,7 +16102,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H261</f>
         <v>45914</v>
@@ -16124,7 +16124,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H262</f>
         <v>45915</v>
@@ -16146,29 +16146,29 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H263</f>
         <v>45916</v>
       </c>
-      <c r="B262" s="17" t="str">
+      <c r="B262" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I263</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C262" s="48" t="str">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C262" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J263</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D262" s="48" t="str">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="D262" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K263</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E262" s="5" t="str">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="E262" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L263</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H264</f>
         <v>45917</v>
@@ -16190,7 +16190,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H265</f>
         <v>45918</v>
@@ -16212,7 +16212,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H266</f>
         <v>45919</v>
@@ -16234,7 +16234,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H267</f>
         <v>45920</v>
@@ -16256,7 +16256,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H268</f>
         <v>45921</v>
@@ -16278,7 +16278,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H269</f>
         <v>45922</v>
@@ -16300,7 +16300,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H270</f>
         <v>45923</v>
@@ -16322,7 +16322,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H271</f>
         <v>45924</v>
@@ -16344,7 +16344,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H272</f>
         <v>45925</v>
@@ -16366,7 +16366,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H273</f>
         <v>45926</v>
@@ -16388,7 +16388,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H274</f>
         <v>45927</v>
@@ -16410,7 +16410,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H275</f>
         <v>45928</v>
@@ -16432,7 +16432,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H276</f>
         <v>45929</v>
@@ -16454,7 +16454,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H277</f>
         <v>45930</v>
@@ -16476,7 +16476,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H278</f>
         <v>45931</v>
@@ -16498,7 +16498,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H279</f>
         <v>45932</v>
@@ -16520,7 +16520,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H280</f>
         <v>45933</v>
@@ -16542,7 +16542,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H281</f>
         <v>45934</v>
@@ -16564,7 +16564,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H282</f>
         <v>45935</v>
@@ -16586,7 +16586,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H283</f>
         <v>45936</v>
@@ -16608,7 +16608,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H284</f>
         <v>45937</v>
@@ -16630,7 +16630,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H285</f>
         <v>45938</v>
@@ -16652,7 +16652,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H286</f>
         <v>45939</v>
@@ -16674,7 +16674,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H287</f>
         <v>45940</v>
@@ -16696,7 +16696,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H288</f>
         <v>45941</v>
@@ -16718,7 +16718,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H289</f>
         <v>45942</v>
@@ -16740,7 +16740,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H290</f>
         <v>45943</v>
@@ -16762,7 +16762,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H291</f>
         <v>45944</v>
@@ -16784,7 +16784,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H292</f>
         <v>45945</v>
@@ -16806,7 +16806,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H293</f>
         <v>45946</v>
@@ -16828,7 +16828,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H294</f>
         <v>45947</v>
@@ -16850,7 +16850,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H295</f>
         <v>45948</v>
@@ -16872,7 +16872,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H296</f>
         <v>45949</v>
@@ -16894,7 +16894,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H297</f>
         <v>45950</v>
@@ -16916,7 +16916,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H298</f>
         <v>45951</v>
@@ -16938,7 +16938,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H299</f>
         <v>45952</v>
@@ -16960,7 +16960,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H300</f>
         <v>45953</v>
@@ -16982,7 +16982,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H301</f>
         <v>45954</v>
@@ -17004,7 +17004,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H302</f>
         <v>45955</v>
@@ -17026,7 +17026,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H303</f>
         <v>45956</v>
@@ -17048,7 +17048,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H304</f>
         <v>45957</v>
@@ -17070,7 +17070,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H305</f>
         <v>45958</v>
@@ -17092,7 +17092,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H306</f>
         <v>45959</v>
@@ -17114,7 +17114,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H307</f>
         <v>45960</v>
@@ -17136,7 +17136,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H308</f>
         <v>45961</v>
@@ -17158,7 +17158,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H309</f>
         <v>45962</v>
@@ -17180,7 +17180,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H310</f>
         <v>45963</v>
@@ -17202,7 +17202,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H311</f>
         <v>45964</v>
@@ -17224,7 +17224,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H312</f>
         <v>45965</v>
@@ -17246,7 +17246,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H313</f>
         <v>45966</v>
@@ -17268,7 +17268,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H314</f>
         <v>45967</v>
@@ -17290,7 +17290,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H315</f>
         <v>45968</v>
@@ -17312,7 +17312,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H316</f>
         <v>45969</v>
@@ -17334,7 +17334,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H317</f>
         <v>45970</v>
@@ -17356,7 +17356,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H318</f>
         <v>45971</v>
@@ -17378,7 +17378,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H319</f>
         <v>45972</v>
@@ -17400,7 +17400,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H320</f>
         <v>45973</v>
@@ -17422,7 +17422,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H321</f>
         <v>45974</v>
@@ -17444,7 +17444,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H322</f>
         <v>45975</v>
@@ -17466,7 +17466,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H323</f>
         <v>45976</v>
@@ -17488,7 +17488,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H324</f>
         <v>45977</v>
@@ -17510,7 +17510,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H325</f>
         <v>45978</v>
@@ -17532,7 +17532,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H326</f>
         <v>45979</v>
@@ -17554,7 +17554,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H327</f>
         <v>45980</v>
@@ -17576,7 +17576,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H328</f>
         <v>45981</v>
@@ -17598,7 +17598,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H329</f>
         <v>45982</v>
@@ -17620,7 +17620,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H330</f>
         <v>45983</v>
@@ -17642,7 +17642,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H331</f>
         <v>45984</v>
@@ -17664,7 +17664,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H332</f>
         <v>45985</v>
@@ -17686,7 +17686,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H333</f>
         <v>45986</v>
@@ -17708,7 +17708,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H334</f>
         <v>45987</v>
@@ -17730,7 +17730,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H335</f>
         <v>45988</v>
@@ -17752,7 +17752,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H336</f>
         <v>45989</v>
@@ -17774,7 +17774,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H337</f>
         <v>45990</v>
@@ -17796,7 +17796,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H338</f>
         <v>45991</v>
@@ -17818,7 +17818,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H339</f>
         <v>45992</v>
@@ -17840,7 +17840,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H340</f>
         <v>45993</v>
@@ -17862,7 +17862,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H341</f>
         <v>45994</v>
@@ -17884,7 +17884,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H342</f>
         <v>45995</v>
@@ -17906,7 +17906,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H343</f>
         <v>45996</v>
@@ -17928,7 +17928,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H344</f>
         <v>45997</v>
@@ -17950,7 +17950,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H345</f>
         <v>45998</v>
@@ -17972,7 +17972,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H346</f>
         <v>45999</v>
@@ -17994,7 +17994,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H347</f>
         <v>46000</v>
@@ -18016,7 +18016,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H348</f>
         <v>46001</v>
@@ -18038,7 +18038,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H349</f>
         <v>46002</v>
@@ -18060,7 +18060,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H350</f>
         <v>46003</v>
@@ -18082,7 +18082,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H351</f>
         <v>46004</v>
@@ -18104,7 +18104,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H352</f>
         <v>46005</v>
@@ -18126,7 +18126,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H353</f>
         <v>46006</v>
@@ -18148,7 +18148,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H354</f>
         <v>46007</v>
@@ -18170,7 +18170,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H355</f>
         <v>46008</v>
@@ -18192,7 +18192,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H356</f>
         <v>46009</v>
@@ -18214,7 +18214,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H357</f>
         <v>46010</v>
@@ -18236,7 +18236,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H358</f>
         <v>46011</v>
@@ -18258,7 +18258,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H359</f>
         <v>46012</v>
@@ -18280,7 +18280,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H360</f>
         <v>46013</v>
@@ -18302,7 +18302,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H361</f>
         <v>46014</v>
@@ -18324,7 +18324,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H362</f>
         <v>46015</v>
@@ -18346,7 +18346,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H363</f>
         <v>46016</v>
@@ -18368,7 +18368,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H364</f>
         <v>46017</v>
@@ -18390,7 +18390,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H365</f>
         <v>46018</v>
@@ -18412,7 +18412,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H366</f>
         <v>46019</v>
@@ -18434,7 +18434,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H367</f>
         <v>46020</v>
@@ -18456,7 +18456,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H368</f>
         <v>46021</v>
@@ -18478,7 +18478,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H369</f>
         <v>46022</v>
@@ -18500,7 +18500,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="46">
         <f>'[1]Jumbo Bus Date to PDD'!H370</f>
         <v>46023</v>
@@ -18522,37 +18522,37 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="15"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="15"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="15"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="15"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="15"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="15"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="15"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="15"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="15"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="15"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="15"/>
     </row>
   </sheetData>
@@ -18573,13 +18573,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="5" width="13.26953125" customWidth="1"/>
+    <col min="2" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
@@ -18588,14 +18588,14 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="52" t="s">
         <v>5</v>
@@ -18604,7 +18604,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="54"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -18613,7 +18613,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")</f>
         <v>1/1/2025 - 3/31/2025</v>
@@ -18652,7 +18652,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")</f>
         <v>4/1/2025 - 6/30/2025</v>
@@ -18674,7 +18674,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")</f>
         <v>7/1/2025 - 9/30/2025</v>
@@ -18696,7 +18696,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,10,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,12,31),"m/d/yyyy")</f>
         <v>10/1/2025 - 12/31/2025</v>
@@ -18718,7 +18718,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
     </row>
   </sheetData>
@@ -18740,13 +18740,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>9</v>
       </c>
@@ -18755,7 +18755,7 @@
       <c r="D1" s="61"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>38</v>
       </c>
@@ -18764,12 +18764,12 @@
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
@@ -18778,7 +18778,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -18819,7 +18819,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -18843,7 +18843,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -18867,7 +18867,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
@@ -18891,7 +18891,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -18899,7 +18899,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -18907,7 +18907,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -18917,7 +18917,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
@@ -18927,7 +18927,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -19041,7 +19041,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -19049,7 +19049,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -19059,7 +19059,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
@@ -19069,7 +19069,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
@@ -19085,7 +19085,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>0</v>
       </c>
@@ -19105,7 +19105,7 @@
       <c r="F24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -19125,7 +19125,7 @@
       <c r="F25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
@@ -19145,7 +19145,7 @@
       <c r="F26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>3</v>
       </c>
@@ -19165,7 +19165,7 @@
       <c r="F27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -19174,7 +19174,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -19185,7 +19185,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
         <v>10</v>
       </c>
@@ -19196,7 +19196,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
@@ -19254,7 +19254,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -19289,7 +19289,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>2</v>
       </c>
@@ -19324,7 +19324,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
@@ -19381,193 +19381,193 @@
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="str" cm="1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="M1" s="66" t="str" cm="1">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="M1" s="62" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
-      <c r="Y1" s="66" t="str" cm="1">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
+      <c r="Y1" s="62" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="68"/>
-      <c r="AK1" s="66" t="str" cm="1">
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
+      <c r="AK1" s="62" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="68"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="str">
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="M2" s="62" t="str">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="M2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64"/>
-      <c r="Y2" s="62" t="str">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
+      <c r="Y2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="64"/>
-      <c r="AK2" s="62" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AK2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="64"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="67"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="65" t="s">
+      <c r="Z3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="65" t="s">
+      <c r="AL3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>3</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>5</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>6</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>7</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>8</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>9</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>10</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>11</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>12</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>13</v>
       </c>
@@ -22133,7 +22133,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>14</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>15</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>16</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>17</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>18</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>19</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>20</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>21</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>22</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>23</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>24</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>25</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>26</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>27</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>28</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>29</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>30</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>37</v>
       </c>
@@ -25267,18 +25267,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AK1:AU1"/>
     <mergeCell ref="AK2:AU2"/>
     <mergeCell ref="AL3:AU3"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="Y2:AI2"/>
     <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25294,7 +25294,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection password="9690" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4A39C1-A2B3-4D12-93C1-E035EB372757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BD538D-D9DD-48C4-8D06-69BCC0F6F1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4188" yWindow="4188" windowWidth="22464" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,15 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,6 +586,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +628,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8310,17 +8310,17 @@
           <cell r="H264">
             <v>45917</v>
           </cell>
-          <cell r="I264" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J264" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K264" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L264" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I264">
+            <v>3.8800000000000001E-2</v>
+          </cell>
+          <cell r="J264">
+            <v>4.1599999999999998E-2</v>
+          </cell>
+          <cell r="K264">
+            <v>4.3799999999999999E-2</v>
+          </cell>
+          <cell r="L264">
+            <v>4.6199999999999998E-2</v>
           </cell>
         </row>
         <row r="265">
@@ -10426,16 +10426,16 @@
       <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
       <c r="B1" s="52" t="s">
         <v>4</v>
@@ -10444,7 +10444,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +10453,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H5</f>
         <v>45658</v>
@@ -10492,7 +10492,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H6</f>
         <v>45659</v>
@@ -10514,7 +10514,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H7</f>
         <v>45660</v>
@@ -10536,7 +10536,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H8</f>
         <v>45661</v>
@@ -10558,7 +10558,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H9</f>
         <v>45662</v>
@@ -10580,7 +10580,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H10</f>
         <v>45663</v>
@@ -10602,7 +10602,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H11</f>
         <v>45664</v>
@@ -10624,7 +10624,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H12</f>
         <v>45665</v>
@@ -10646,7 +10646,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H13</f>
         <v>45666</v>
@@ -10668,7 +10668,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H14</f>
         <v>45667</v>
@@ -10690,7 +10690,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H15</f>
         <v>45668</v>
@@ -10712,7 +10712,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H16</f>
         <v>45669</v>
@@ -10734,7 +10734,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H17</f>
         <v>45670</v>
@@ -10756,7 +10756,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H18</f>
         <v>45671</v>
@@ -10778,7 +10778,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H19</f>
         <v>45672</v>
@@ -10800,7 +10800,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H20</f>
         <v>45673</v>
@@ -10822,7 +10822,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H21</f>
         <v>45674</v>
@@ -10844,7 +10844,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H22</f>
         <v>45675</v>
@@ -10866,7 +10866,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H23</f>
         <v>45676</v>
@@ -10888,7 +10888,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H24</f>
         <v>45677</v>
@@ -10910,7 +10910,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H25</f>
         <v>45678</v>
@@ -10932,7 +10932,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H26</f>
         <v>45679</v>
@@ -10954,7 +10954,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H27</f>
         <v>45680</v>
@@ -10976,7 +10976,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H28</f>
         <v>45681</v>
@@ -10998,7 +10998,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H29</f>
         <v>45682</v>
@@ -11020,7 +11020,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H30</f>
         <v>45683</v>
@@ -11042,7 +11042,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H31</f>
         <v>45684</v>
@@ -11064,7 +11064,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H32</f>
         <v>45685</v>
@@ -11086,7 +11086,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H33</f>
         <v>45686</v>
@@ -11108,7 +11108,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H34</f>
         <v>45687</v>
@@ -11130,7 +11130,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H35</f>
         <v>45688</v>
@@ -11152,7 +11152,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H36</f>
         <v>45689</v>
@@ -11174,7 +11174,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H37</f>
         <v>45690</v>
@@ -11196,7 +11196,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H38</f>
         <v>45691</v>
@@ -11218,7 +11218,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H39</f>
         <v>45692</v>
@@ -11240,7 +11240,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H40</f>
         <v>45693</v>
@@ -11262,7 +11262,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H41</f>
         <v>45694</v>
@@ -11284,7 +11284,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H42</f>
         <v>45695</v>
@@ -11306,7 +11306,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H43</f>
         <v>45696</v>
@@ -11328,7 +11328,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H44</f>
         <v>45697</v>
@@ -11350,7 +11350,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H45</f>
         <v>45698</v>
@@ -11372,7 +11372,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H46</f>
         <v>45699</v>
@@ -11394,7 +11394,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H47</f>
         <v>45700</v>
@@ -11416,7 +11416,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H48</f>
         <v>45701</v>
@@ -11438,7 +11438,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H49</f>
         <v>45702</v>
@@ -11460,7 +11460,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H50</f>
         <v>45703</v>
@@ -11482,7 +11482,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H51</f>
         <v>45704</v>
@@ -11504,7 +11504,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H52</f>
         <v>45705</v>
@@ -11526,7 +11526,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H53</f>
         <v>45706</v>
@@ -11548,7 +11548,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H54</f>
         <v>45707</v>
@@ -11570,7 +11570,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H55</f>
         <v>45708</v>
@@ -11592,7 +11592,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H56</f>
         <v>45709</v>
@@ -11614,7 +11614,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H57</f>
         <v>45710</v>
@@ -11636,7 +11636,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H58</f>
         <v>45711</v>
@@ -11658,7 +11658,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H59</f>
         <v>45712</v>
@@ -11680,7 +11680,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H60</f>
         <v>45713</v>
@@ -11702,7 +11702,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H61</f>
         <v>45714</v>
@@ -11724,7 +11724,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H62</f>
         <v>45715</v>
@@ -11746,7 +11746,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H63</f>
         <v>45716</v>
@@ -11768,7 +11768,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H64</f>
         <v>45717</v>
@@ -11790,7 +11790,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H65</f>
         <v>45718</v>
@@ -11812,7 +11812,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H66</f>
         <v>45719</v>
@@ -11834,7 +11834,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H67</f>
         <v>45720</v>
@@ -11856,7 +11856,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H68</f>
         <v>45721</v>
@@ -11878,7 +11878,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H69</f>
         <v>45722</v>
@@ -11900,7 +11900,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H70</f>
         <v>45723</v>
@@ -11922,7 +11922,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H71</f>
         <v>45724</v>
@@ -11944,7 +11944,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H72</f>
         <v>45725</v>
@@ -11966,7 +11966,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H73</f>
         <v>45726</v>
@@ -11988,7 +11988,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H74</f>
         <v>45727</v>
@@ -12010,7 +12010,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H75</f>
         <v>45728</v>
@@ -12032,7 +12032,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H76</f>
         <v>45729</v>
@@ -12054,7 +12054,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H77</f>
         <v>45730</v>
@@ -12076,7 +12076,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H78</f>
         <v>45731</v>
@@ -12098,7 +12098,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H79</f>
         <v>45732</v>
@@ -12120,7 +12120,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H80</f>
         <v>45733</v>
@@ -12142,7 +12142,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H81</f>
         <v>45734</v>
@@ -12164,7 +12164,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H82</f>
         <v>45735</v>
@@ -12186,7 +12186,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H83</f>
         <v>45736</v>
@@ -12208,7 +12208,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H84</f>
         <v>45737</v>
@@ -12230,7 +12230,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H85</f>
         <v>45738</v>
@@ -12252,7 +12252,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H86</f>
         <v>45739</v>
@@ -12274,7 +12274,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H87</f>
         <v>45740</v>
@@ -12296,7 +12296,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H88</f>
         <v>45741</v>
@@ -12318,7 +12318,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H89</f>
         <v>45742</v>
@@ -12340,7 +12340,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H90</f>
         <v>45743</v>
@@ -12362,7 +12362,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H91</f>
         <v>45744</v>
@@ -12384,7 +12384,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H92</f>
         <v>45745</v>
@@ -12406,7 +12406,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H93</f>
         <v>45746</v>
@@ -12428,7 +12428,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H94</f>
         <v>45747</v>
@@ -12450,7 +12450,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H95</f>
         <v>45748</v>
@@ -12472,7 +12472,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H96</f>
         <v>45749</v>
@@ -12494,7 +12494,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H97</f>
         <v>45750</v>
@@ -12516,7 +12516,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H98</f>
         <v>45751</v>
@@ -12538,7 +12538,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H99</f>
         <v>45752</v>
@@ -12560,7 +12560,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H100</f>
         <v>45753</v>
@@ -12582,7 +12582,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H101</f>
         <v>45754</v>
@@ -12604,7 +12604,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H102</f>
         <v>45755</v>
@@ -12626,7 +12626,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H103</f>
         <v>45756</v>
@@ -12648,7 +12648,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H104</f>
         <v>45757</v>
@@ -12670,7 +12670,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H105</f>
         <v>45758</v>
@@ -12692,7 +12692,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H106</f>
         <v>45759</v>
@@ -12714,7 +12714,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H107</f>
         <v>45760</v>
@@ -12736,7 +12736,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H108</f>
         <v>45761</v>
@@ -12758,7 +12758,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H109</f>
         <v>45762</v>
@@ -12780,7 +12780,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H110</f>
         <v>45763</v>
@@ -12802,7 +12802,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H111</f>
         <v>45764</v>
@@ -12824,7 +12824,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H112</f>
         <v>45765</v>
@@ -12846,7 +12846,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H113</f>
         <v>45766</v>
@@ -12868,7 +12868,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H114</f>
         <v>45767</v>
@@ -12890,7 +12890,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H115</f>
         <v>45768</v>
@@ -12912,7 +12912,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H116</f>
         <v>45769</v>
@@ -12934,7 +12934,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H117</f>
         <v>45770</v>
@@ -12956,7 +12956,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H118</f>
         <v>45771</v>
@@ -12978,7 +12978,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H119</f>
         <v>45772</v>
@@ -13000,7 +13000,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H120</f>
         <v>45773</v>
@@ -13022,7 +13022,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H121</f>
         <v>45774</v>
@@ -13044,7 +13044,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H122</f>
         <v>45775</v>
@@ -13066,7 +13066,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H123</f>
         <v>45776</v>
@@ -13088,7 +13088,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H124</f>
         <v>45777</v>
@@ -13110,7 +13110,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H125</f>
         <v>45778</v>
@@ -13132,7 +13132,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H126</f>
         <v>45779</v>
@@ -13154,7 +13154,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H127</f>
         <v>45780</v>
@@ -13176,7 +13176,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H128</f>
         <v>45781</v>
@@ -13198,7 +13198,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H129</f>
         <v>45782</v>
@@ -13220,7 +13220,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H130</f>
         <v>45783</v>
@@ -13242,7 +13242,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H131</f>
         <v>45784</v>
@@ -13264,7 +13264,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H132</f>
         <v>45785</v>
@@ -13286,7 +13286,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H133</f>
         <v>45786</v>
@@ -13308,7 +13308,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H134</f>
         <v>45787</v>
@@ -13330,7 +13330,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H135</f>
         <v>45788</v>
@@ -13352,7 +13352,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H136</f>
         <v>45789</v>
@@ -13374,7 +13374,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H137</f>
         <v>45790</v>
@@ -13396,7 +13396,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H138</f>
         <v>45791</v>
@@ -13418,7 +13418,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H139</f>
         <v>45792</v>
@@ -13440,7 +13440,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H140</f>
         <v>45793</v>
@@ -13462,7 +13462,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H141</f>
         <v>45794</v>
@@ -13484,7 +13484,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H142</f>
         <v>45795</v>
@@ -13506,7 +13506,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H143</f>
         <v>45796</v>
@@ -13528,7 +13528,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H144</f>
         <v>45797</v>
@@ -13550,7 +13550,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H145</f>
         <v>45798</v>
@@ -13572,7 +13572,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H146</f>
         <v>45799</v>
@@ -13594,7 +13594,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H147</f>
         <v>45800</v>
@@ -13616,7 +13616,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H148</f>
         <v>45801</v>
@@ -13638,7 +13638,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H149</f>
         <v>45802</v>
@@ -13660,7 +13660,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H150</f>
         <v>45803</v>
@@ -13682,7 +13682,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H151</f>
         <v>45804</v>
@@ -13704,7 +13704,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H152</f>
         <v>45805</v>
@@ -13726,7 +13726,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H153</f>
         <v>45806</v>
@@ -13748,7 +13748,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H154</f>
         <v>45807</v>
@@ -13770,7 +13770,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H155</f>
         <v>45808</v>
@@ -13792,7 +13792,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H156</f>
         <v>45809</v>
@@ -13814,7 +13814,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H157</f>
         <v>45810</v>
@@ -13836,7 +13836,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H158</f>
         <v>45811</v>
@@ -13858,7 +13858,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H159</f>
         <v>45812</v>
@@ -13880,7 +13880,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H160</f>
         <v>45813</v>
@@ -13902,7 +13902,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H161</f>
         <v>45814</v>
@@ -13924,7 +13924,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H162</f>
         <v>45815</v>
@@ -13946,7 +13946,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H163</f>
         <v>45816</v>
@@ -13968,7 +13968,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H164</f>
         <v>45817</v>
@@ -13990,7 +13990,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H165</f>
         <v>45818</v>
@@ -14012,7 +14012,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H166</f>
         <v>45819</v>
@@ -14034,7 +14034,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H167</f>
         <v>45820</v>
@@ -14056,7 +14056,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H168</f>
         <v>45821</v>
@@ -14078,7 +14078,7 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H169</f>
         <v>45822</v>
@@ -14100,7 +14100,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H170</f>
         <v>45823</v>
@@ -14122,7 +14122,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H171</f>
         <v>45824</v>
@@ -14144,7 +14144,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H172</f>
         <v>45825</v>
@@ -14166,7 +14166,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H173</f>
         <v>45826</v>
@@ -14188,7 +14188,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H174</f>
         <v>45827</v>
@@ -14210,7 +14210,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H175</f>
         <v>45828</v>
@@ -14232,7 +14232,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H176</f>
         <v>45829</v>
@@ -14254,7 +14254,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H177</f>
         <v>45830</v>
@@ -14276,7 +14276,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H178</f>
         <v>45831</v>
@@ -14298,7 +14298,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H179</f>
         <v>45832</v>
@@ -14320,7 +14320,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H180</f>
         <v>45833</v>
@@ -14342,7 +14342,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H181</f>
         <v>45834</v>
@@ -14364,7 +14364,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H182</f>
         <v>45835</v>
@@ -14386,7 +14386,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H183</f>
         <v>45836</v>
@@ -14408,7 +14408,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H184</f>
         <v>45837</v>
@@ -14430,7 +14430,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H185</f>
         <v>45838</v>
@@ -14452,7 +14452,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H186</f>
         <v>45839</v>
@@ -14474,7 +14474,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H187</f>
         <v>45840</v>
@@ -14496,7 +14496,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H188</f>
         <v>45841</v>
@@ -14518,7 +14518,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H189</f>
         <v>45842</v>
@@ -14540,7 +14540,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H190</f>
         <v>45843</v>
@@ -14562,7 +14562,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H191</f>
         <v>45844</v>
@@ -14584,7 +14584,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H192</f>
         <v>45845</v>
@@ -14606,7 +14606,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H193</f>
         <v>45846</v>
@@ -14628,7 +14628,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H194</f>
         <v>45847</v>
@@ -14650,7 +14650,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H195</f>
         <v>45848</v>
@@ -14672,7 +14672,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H196</f>
         <v>45849</v>
@@ -14694,7 +14694,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H197</f>
         <v>45850</v>
@@ -14716,7 +14716,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H198</f>
         <v>45851</v>
@@ -14738,7 +14738,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H199</f>
         <v>45852</v>
@@ -14760,7 +14760,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H200</f>
         <v>45853</v>
@@ -14782,7 +14782,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H201</f>
         <v>45854</v>
@@ -14804,7 +14804,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H202</f>
         <v>45855</v>
@@ -14826,7 +14826,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H203</f>
         <v>45856</v>
@@ -14848,7 +14848,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H204</f>
         <v>45857</v>
@@ -14870,7 +14870,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H205</f>
         <v>45858</v>
@@ -14892,7 +14892,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H206</f>
         <v>45859</v>
@@ -14914,7 +14914,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H207</f>
         <v>45860</v>
@@ -14936,7 +14936,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H208</f>
         <v>45861</v>
@@ -14958,7 +14958,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H209</f>
         <v>45862</v>
@@ -14980,7 +14980,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H210</f>
         <v>45863</v>
@@ -15002,7 +15002,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H211</f>
         <v>45864</v>
@@ -15024,7 +15024,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H212</f>
         <v>45865</v>
@@ -15046,7 +15046,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H213</f>
         <v>45866</v>
@@ -15068,7 +15068,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H214</f>
         <v>45867</v>
@@ -15090,7 +15090,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H215</f>
         <v>45868</v>
@@ -15112,7 +15112,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H216</f>
         <v>45869</v>
@@ -15134,7 +15134,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H217</f>
         <v>45870</v>
@@ -15156,7 +15156,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H218</f>
         <v>45871</v>
@@ -15178,7 +15178,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H219</f>
         <v>45872</v>
@@ -15200,7 +15200,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H220</f>
         <v>45873</v>
@@ -15222,7 +15222,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H221</f>
         <v>45874</v>
@@ -15244,7 +15244,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H222</f>
         <v>45875</v>
@@ -15266,7 +15266,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H223</f>
         <v>45876</v>
@@ -15288,7 +15288,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H224</f>
         <v>45877</v>
@@ -15310,7 +15310,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H225</f>
         <v>45878</v>
@@ -15332,7 +15332,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H226</f>
         <v>45879</v>
@@ -15354,7 +15354,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H227</f>
         <v>45880</v>
@@ -15376,7 +15376,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H228</f>
         <v>45881</v>
@@ -15398,7 +15398,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H229</f>
         <v>45882</v>
@@ -15420,7 +15420,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H230</f>
         <v>45883</v>
@@ -15442,7 +15442,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H231</f>
         <v>45884</v>
@@ -15464,7 +15464,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H232</f>
         <v>45885</v>
@@ -15486,7 +15486,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H233</f>
         <v>45886</v>
@@ -15508,7 +15508,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H234</f>
         <v>45887</v>
@@ -15530,7 +15530,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H235</f>
         <v>45888</v>
@@ -15552,7 +15552,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H236</f>
         <v>45889</v>
@@ -15574,7 +15574,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H237</f>
         <v>45890</v>
@@ -15596,7 +15596,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H238</f>
         <v>45891</v>
@@ -15618,7 +15618,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H239</f>
         <v>45892</v>
@@ -15640,7 +15640,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H240</f>
         <v>45893</v>
@@ -15662,7 +15662,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H241</f>
         <v>45894</v>
@@ -15684,7 +15684,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H242</f>
         <v>45895</v>
@@ -15706,7 +15706,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H243</f>
         <v>45896</v>
@@ -15728,7 +15728,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H244</f>
         <v>45897</v>
@@ -15750,7 +15750,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H245</f>
         <v>45898</v>
@@ -15772,7 +15772,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H246</f>
         <v>45899</v>
@@ -15794,7 +15794,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H247</f>
         <v>45900</v>
@@ -15816,7 +15816,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H248</f>
         <v>45901</v>
@@ -15838,7 +15838,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H249</f>
         <v>45902</v>
@@ -15860,7 +15860,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H250</f>
         <v>45903</v>
@@ -15882,7 +15882,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H251</f>
         <v>45904</v>
@@ -15904,7 +15904,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H252</f>
         <v>45905</v>
@@ -15926,7 +15926,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H253</f>
         <v>45906</v>
@@ -15948,7 +15948,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H254</f>
         <v>45907</v>
@@ -15970,7 +15970,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H255</f>
         <v>45908</v>
@@ -15992,7 +15992,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H256</f>
         <v>45909</v>
@@ -16014,7 +16014,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H257</f>
         <v>45910</v>
@@ -16036,7 +16036,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H258</f>
         <v>45911</v>
@@ -16058,7 +16058,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H259</f>
         <v>45912</v>
@@ -16080,7 +16080,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H260</f>
         <v>45913</v>
@@ -16102,7 +16102,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H261</f>
         <v>45914</v>
@@ -16124,7 +16124,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H262</f>
         <v>45915</v>
@@ -16146,7 +16146,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H263</f>
         <v>45916</v>
@@ -16168,29 +16168,29 @@
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H264</f>
         <v>45917</v>
       </c>
-      <c r="B263" s="17" t="str">
+      <c r="B263" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I264</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C263" s="48" t="str">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="C263" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J264</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D263" s="48" t="str">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D263" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K264</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E263" s="5" t="str">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="E263" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L264</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H265</f>
         <v>45918</v>
@@ -16212,7 +16212,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H266</f>
         <v>45919</v>
@@ -16234,7 +16234,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H267</f>
         <v>45920</v>
@@ -16256,7 +16256,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H268</f>
         <v>45921</v>
@@ -16278,7 +16278,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H269</f>
         <v>45922</v>
@@ -16300,7 +16300,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H270</f>
         <v>45923</v>
@@ -16322,7 +16322,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H271</f>
         <v>45924</v>
@@ -16344,7 +16344,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H272</f>
         <v>45925</v>
@@ -16366,7 +16366,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H273</f>
         <v>45926</v>
@@ -16388,7 +16388,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H274</f>
         <v>45927</v>
@@ -16410,7 +16410,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H275</f>
         <v>45928</v>
@@ -16432,7 +16432,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H276</f>
         <v>45929</v>
@@ -16454,7 +16454,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H277</f>
         <v>45930</v>
@@ -16476,7 +16476,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H278</f>
         <v>45931</v>
@@ -16498,7 +16498,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H279</f>
         <v>45932</v>
@@ -16520,7 +16520,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H280</f>
         <v>45933</v>
@@ -16542,7 +16542,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H281</f>
         <v>45934</v>
@@ -16564,7 +16564,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H282</f>
         <v>45935</v>
@@ -16586,7 +16586,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H283</f>
         <v>45936</v>
@@ -16608,7 +16608,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H284</f>
         <v>45937</v>
@@ -16630,7 +16630,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H285</f>
         <v>45938</v>
@@ -16652,7 +16652,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H286</f>
         <v>45939</v>
@@ -16674,7 +16674,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H287</f>
         <v>45940</v>
@@ -16696,7 +16696,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H288</f>
         <v>45941</v>
@@ -16718,7 +16718,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H289</f>
         <v>45942</v>
@@ -16740,7 +16740,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H290</f>
         <v>45943</v>
@@ -16762,7 +16762,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H291</f>
         <v>45944</v>
@@ -16784,7 +16784,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H292</f>
         <v>45945</v>
@@ -16806,7 +16806,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H293</f>
         <v>45946</v>
@@ -16828,7 +16828,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H294</f>
         <v>45947</v>
@@ -16850,7 +16850,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H295</f>
         <v>45948</v>
@@ -16872,7 +16872,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H296</f>
         <v>45949</v>
@@ -16894,7 +16894,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H297</f>
         <v>45950</v>
@@ -16916,7 +16916,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H298</f>
         <v>45951</v>
@@ -16938,7 +16938,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H299</f>
         <v>45952</v>
@@ -16960,7 +16960,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H300</f>
         <v>45953</v>
@@ -16982,7 +16982,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H301</f>
         <v>45954</v>
@@ -17004,7 +17004,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H302</f>
         <v>45955</v>
@@ -17026,7 +17026,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H303</f>
         <v>45956</v>
@@ -17048,7 +17048,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H304</f>
         <v>45957</v>
@@ -17070,7 +17070,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H305</f>
         <v>45958</v>
@@ -17092,7 +17092,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H306</f>
         <v>45959</v>
@@ -17114,7 +17114,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H307</f>
         <v>45960</v>
@@ -17136,7 +17136,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H308</f>
         <v>45961</v>
@@ -17158,7 +17158,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H309</f>
         <v>45962</v>
@@ -17180,7 +17180,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H310</f>
         <v>45963</v>
@@ -17202,7 +17202,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H311</f>
         <v>45964</v>
@@ -17224,7 +17224,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H312</f>
         <v>45965</v>
@@ -17246,7 +17246,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H313</f>
         <v>45966</v>
@@ -17268,7 +17268,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H314</f>
         <v>45967</v>
@@ -17290,7 +17290,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H315</f>
         <v>45968</v>
@@ -17312,7 +17312,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H316</f>
         <v>45969</v>
@@ -17334,7 +17334,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H317</f>
         <v>45970</v>
@@ -17356,7 +17356,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H318</f>
         <v>45971</v>
@@ -17378,7 +17378,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H319</f>
         <v>45972</v>
@@ -17400,7 +17400,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H320</f>
         <v>45973</v>
@@ -17422,7 +17422,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H321</f>
         <v>45974</v>
@@ -17444,7 +17444,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H322</f>
         <v>45975</v>
@@ -17466,7 +17466,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H323</f>
         <v>45976</v>
@@ -17488,7 +17488,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H324</f>
         <v>45977</v>
@@ -17510,7 +17510,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H325</f>
         <v>45978</v>
@@ -17532,7 +17532,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H326</f>
         <v>45979</v>
@@ -17554,7 +17554,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H327</f>
         <v>45980</v>
@@ -17576,7 +17576,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H328</f>
         <v>45981</v>
@@ -17598,7 +17598,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H329</f>
         <v>45982</v>
@@ -17620,7 +17620,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H330</f>
         <v>45983</v>
@@ -17642,7 +17642,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H331</f>
         <v>45984</v>
@@ -17664,7 +17664,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H332</f>
         <v>45985</v>
@@ -17686,7 +17686,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H333</f>
         <v>45986</v>
@@ -17708,7 +17708,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H334</f>
         <v>45987</v>
@@ -17730,7 +17730,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H335</f>
         <v>45988</v>
@@ -17752,7 +17752,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H336</f>
         <v>45989</v>
@@ -17774,7 +17774,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H337</f>
         <v>45990</v>
@@ -17796,7 +17796,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H338</f>
         <v>45991</v>
@@ -17818,7 +17818,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H339</f>
         <v>45992</v>
@@ -17840,7 +17840,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H340</f>
         <v>45993</v>
@@ -17862,7 +17862,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H341</f>
         <v>45994</v>
@@ -17884,7 +17884,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H342</f>
         <v>45995</v>
@@ -17906,7 +17906,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H343</f>
         <v>45996</v>
@@ -17928,7 +17928,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H344</f>
         <v>45997</v>
@@ -17950,7 +17950,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H345</f>
         <v>45998</v>
@@ -17972,7 +17972,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H346</f>
         <v>45999</v>
@@ -17994,7 +17994,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H347</f>
         <v>46000</v>
@@ -18016,7 +18016,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H348</f>
         <v>46001</v>
@@ -18038,7 +18038,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H349</f>
         <v>46002</v>
@@ -18060,7 +18060,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H350</f>
         <v>46003</v>
@@ -18082,7 +18082,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H351</f>
         <v>46004</v>
@@ -18104,7 +18104,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H352</f>
         <v>46005</v>
@@ -18126,7 +18126,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H353</f>
         <v>46006</v>
@@ -18148,7 +18148,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H354</f>
         <v>46007</v>
@@ -18170,7 +18170,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H355</f>
         <v>46008</v>
@@ -18192,7 +18192,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H356</f>
         <v>46009</v>
@@ -18214,7 +18214,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H357</f>
         <v>46010</v>
@@ -18236,7 +18236,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H358</f>
         <v>46011</v>
@@ -18258,7 +18258,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H359</f>
         <v>46012</v>
@@ -18280,7 +18280,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H360</f>
         <v>46013</v>
@@ -18302,7 +18302,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H361</f>
         <v>46014</v>
@@ -18324,7 +18324,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H362</f>
         <v>46015</v>
@@ -18346,7 +18346,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H363</f>
         <v>46016</v>
@@ -18368,7 +18368,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H364</f>
         <v>46017</v>
@@ -18390,7 +18390,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H365</f>
         <v>46018</v>
@@ -18412,7 +18412,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H366</f>
         <v>46019</v>
@@ -18434,7 +18434,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H367</f>
         <v>46020</v>
@@ -18456,7 +18456,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H368</f>
         <v>46021</v>
@@ -18478,7 +18478,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H369</f>
         <v>46022</v>
@@ -18500,7 +18500,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="46">
         <f>'[1]Jumbo Bus Date to PDD'!H370</f>
         <v>46023</v>
@@ -18522,37 +18522,37 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="15"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="15"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="15"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="15"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="15"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="15"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="15"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="15"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="15"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="15"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="15"/>
     </row>
   </sheetData>
@@ -18573,13 +18573,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
@@ -18588,14 +18588,14 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="52" t="s">
         <v>5</v>
@@ -18604,7 +18604,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="54"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -18613,7 +18613,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")</f>
         <v>1/1/2025 - 3/31/2025</v>
@@ -18652,7 +18652,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")</f>
         <v>4/1/2025 - 6/30/2025</v>
@@ -18674,7 +18674,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")</f>
         <v>7/1/2025 - 9/30/2025</v>
@@ -18696,7 +18696,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,10,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,12,31),"m/d/yyyy")</f>
         <v>10/1/2025 - 12/31/2025</v>
@@ -18718,7 +18718,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="49"/>
     </row>
   </sheetData>
@@ -18740,13 +18740,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>9</v>
       </c>
@@ -18755,7 +18755,7 @@
       <c r="D1" s="61"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>38</v>
       </c>
@@ -18764,12 +18764,12 @@
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
@@ -18778,7 +18778,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -18819,7 +18819,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -18843,7 +18843,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -18867,7 +18867,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
@@ -18891,7 +18891,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -18899,7 +18899,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -18907,7 +18907,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -18917,7 +18917,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
@@ -18927,7 +18927,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -19041,7 +19041,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -19049,7 +19049,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -19059,7 +19059,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
@@ -19069,7 +19069,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
@@ -19085,7 +19085,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>0</v>
       </c>
@@ -19105,7 +19105,7 @@
       <c r="F24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -19125,7 +19125,7 @@
       <c r="F25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
@@ -19145,7 +19145,7 @@
       <c r="F26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>3</v>
       </c>
@@ -19165,7 +19165,7 @@
       <c r="F27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -19174,7 +19174,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -19185,7 +19185,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="58" t="s">
         <v>10</v>
       </c>
@@ -19196,7 +19196,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
@@ -19254,7 +19254,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -19289,7 +19289,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>2</v>
       </c>
@@ -19324,7 +19324,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
@@ -19381,193 +19381,193 @@
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="str" cm="1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="M1" s="62" t="str" cm="1">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="M1" s="66" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="64"/>
-      <c r="Y1" s="62" t="str" cm="1">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="68"/>
+      <c r="Y1" s="66" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="64"/>
-      <c r="AK1" s="62" t="str" cm="1">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="68"/>
+      <c r="AK1" s="66" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="str">
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="M2" s="65" t="str">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="M2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="67"/>
-      <c r="Y2" s="65" t="str">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="Y2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="67"/>
-      <c r="AK2" s="65" t="str">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64"/>
+      <c r="AK2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="67"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="64"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="68" t="s">
+      <c r="AL3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="42">
         <v>3</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="42">
         <v>5</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <v>6</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="42">
         <v>7</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>8</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>9</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>10</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>11</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <v>12</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="42">
         <v>13</v>
       </c>
@@ -22133,7 +22133,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <v>14</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="42">
         <v>15</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="42">
         <v>16</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="42">
         <v>17</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="42">
         <v>18</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
         <v>19</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="42">
         <v>20</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="42">
         <v>21</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="42">
         <v>22</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="42">
         <v>23</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
         <v>24</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="42">
         <v>25</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="42">
         <v>26</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="42">
         <v>27</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="42">
         <v>28</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="42">
         <v>29</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <v>30</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
         <v>37</v>
       </c>
@@ -25267,18 +25267,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AK1:AU1"/>
+    <mergeCell ref="AK2:AU2"/>
+    <mergeCell ref="AL3:AU3"/>
+    <mergeCell ref="Y1:AI1"/>
+    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="Z3:AI3"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:W1"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="N3:W3"/>
-    <mergeCell ref="AK1:AU1"/>
-    <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="AL3:AU3"/>
-    <mergeCell ref="Y1:AI1"/>
-    <mergeCell ref="Y2:AI2"/>
-    <mergeCell ref="Z3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25294,7 +25294,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <sheetProtection password="9690" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25315,7 +25315,7 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
+                <xdr:colOff>480060</xdr:colOff>
                 <xdr:row>20</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BD538D-D9DD-48C4-8D06-69BCC0F6F1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D9C921-DA3B-4A44-B64E-153A920D833C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="4188" windowWidth="22464" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -628,7 +628,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>480060</xdr:colOff>
+          <xdr:colOff>482600</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8327,17 +8327,17 @@
           <cell r="H265">
             <v>45918</v>
           </cell>
-          <cell r="I265" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J265" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K265" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L265" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I265">
+            <v>3.9199999999999999E-2</v>
+          </cell>
+          <cell r="J265">
+            <v>4.19E-2</v>
+          </cell>
+          <cell r="K265">
+            <v>4.41E-2</v>
+          </cell>
+          <cell r="L265">
+            <v>4.65E-2</v>
           </cell>
         </row>
         <row r="266">
@@ -10423,19 +10423,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
+      <selection pane="bottomLeft" activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
       <c r="B1" s="52" t="s">
         <v>4</v>
@@ -10444,7 +10444,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +10453,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H5</f>
         <v>45658</v>
@@ -10492,7 +10492,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H6</f>
         <v>45659</v>
@@ -10514,7 +10514,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H7</f>
         <v>45660</v>
@@ -10536,7 +10536,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H8</f>
         <v>45661</v>
@@ -10558,7 +10558,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H9</f>
         <v>45662</v>
@@ -10580,7 +10580,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H10</f>
         <v>45663</v>
@@ -10602,7 +10602,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H11</f>
         <v>45664</v>
@@ -10624,7 +10624,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H12</f>
         <v>45665</v>
@@ -10646,7 +10646,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H13</f>
         <v>45666</v>
@@ -10668,7 +10668,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H14</f>
         <v>45667</v>
@@ -10690,7 +10690,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H15</f>
         <v>45668</v>
@@ -10712,7 +10712,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H16</f>
         <v>45669</v>
@@ -10734,7 +10734,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H17</f>
         <v>45670</v>
@@ -10756,7 +10756,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H18</f>
         <v>45671</v>
@@ -10778,7 +10778,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H19</f>
         <v>45672</v>
@@ -10800,7 +10800,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H20</f>
         <v>45673</v>
@@ -10822,7 +10822,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H21</f>
         <v>45674</v>
@@ -10844,7 +10844,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H22</f>
         <v>45675</v>
@@ -10866,7 +10866,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H23</f>
         <v>45676</v>
@@ -10888,7 +10888,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H24</f>
         <v>45677</v>
@@ -10910,7 +10910,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H25</f>
         <v>45678</v>
@@ -10932,7 +10932,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H26</f>
         <v>45679</v>
@@ -10954,7 +10954,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H27</f>
         <v>45680</v>
@@ -10976,7 +10976,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H28</f>
         <v>45681</v>
@@ -10998,7 +10998,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H29</f>
         <v>45682</v>
@@ -11020,7 +11020,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H30</f>
         <v>45683</v>
@@ -11042,7 +11042,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H31</f>
         <v>45684</v>
@@ -11064,7 +11064,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H32</f>
         <v>45685</v>
@@ -11086,7 +11086,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H33</f>
         <v>45686</v>
@@ -11108,7 +11108,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H34</f>
         <v>45687</v>
@@ -11130,7 +11130,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H35</f>
         <v>45688</v>
@@ -11152,7 +11152,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H36</f>
         <v>45689</v>
@@ -11174,7 +11174,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H37</f>
         <v>45690</v>
@@ -11196,7 +11196,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H38</f>
         <v>45691</v>
@@ -11218,7 +11218,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H39</f>
         <v>45692</v>
@@ -11240,7 +11240,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H40</f>
         <v>45693</v>
@@ -11262,7 +11262,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H41</f>
         <v>45694</v>
@@ -11284,7 +11284,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H42</f>
         <v>45695</v>
@@ -11306,7 +11306,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H43</f>
         <v>45696</v>
@@ -11328,7 +11328,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H44</f>
         <v>45697</v>
@@ -11350,7 +11350,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H45</f>
         <v>45698</v>
@@ -11372,7 +11372,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H46</f>
         <v>45699</v>
@@ -11394,7 +11394,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H47</f>
         <v>45700</v>
@@ -11416,7 +11416,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H48</f>
         <v>45701</v>
@@ -11438,7 +11438,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H49</f>
         <v>45702</v>
@@ -11460,7 +11460,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H50</f>
         <v>45703</v>
@@ -11482,7 +11482,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H51</f>
         <v>45704</v>
@@ -11504,7 +11504,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H52</f>
         <v>45705</v>
@@ -11526,7 +11526,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H53</f>
         <v>45706</v>
@@ -11548,7 +11548,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H54</f>
         <v>45707</v>
@@ -11570,7 +11570,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H55</f>
         <v>45708</v>
@@ -11592,7 +11592,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H56</f>
         <v>45709</v>
@@ -11614,7 +11614,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H57</f>
         <v>45710</v>
@@ -11636,7 +11636,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H58</f>
         <v>45711</v>
@@ -11658,7 +11658,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H59</f>
         <v>45712</v>
@@ -11680,7 +11680,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H60</f>
         <v>45713</v>
@@ -11702,7 +11702,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H61</f>
         <v>45714</v>
@@ -11724,7 +11724,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H62</f>
         <v>45715</v>
@@ -11746,7 +11746,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H63</f>
         <v>45716</v>
@@ -11768,7 +11768,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H64</f>
         <v>45717</v>
@@ -11790,7 +11790,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H65</f>
         <v>45718</v>
@@ -11812,7 +11812,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H66</f>
         <v>45719</v>
@@ -11834,7 +11834,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H67</f>
         <v>45720</v>
@@ -11856,7 +11856,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H68</f>
         <v>45721</v>
@@ -11878,7 +11878,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H69</f>
         <v>45722</v>
@@ -11900,7 +11900,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H70</f>
         <v>45723</v>
@@ -11922,7 +11922,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H71</f>
         <v>45724</v>
@@ -11944,7 +11944,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H72</f>
         <v>45725</v>
@@ -11966,7 +11966,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H73</f>
         <v>45726</v>
@@ -11988,7 +11988,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H74</f>
         <v>45727</v>
@@ -12010,7 +12010,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H75</f>
         <v>45728</v>
@@ -12032,7 +12032,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H76</f>
         <v>45729</v>
@@ -12054,7 +12054,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H77</f>
         <v>45730</v>
@@ -12076,7 +12076,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H78</f>
         <v>45731</v>
@@ -12098,7 +12098,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H79</f>
         <v>45732</v>
@@ -12120,7 +12120,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H80</f>
         <v>45733</v>
@@ -12142,7 +12142,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H81</f>
         <v>45734</v>
@@ -12164,7 +12164,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H82</f>
         <v>45735</v>
@@ -12186,7 +12186,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H83</f>
         <v>45736</v>
@@ -12208,7 +12208,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H84</f>
         <v>45737</v>
@@ -12230,7 +12230,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H85</f>
         <v>45738</v>
@@ -12252,7 +12252,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H86</f>
         <v>45739</v>
@@ -12274,7 +12274,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H87</f>
         <v>45740</v>
@@ -12296,7 +12296,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H88</f>
         <v>45741</v>
@@ -12318,7 +12318,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H89</f>
         <v>45742</v>
@@ -12340,7 +12340,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H90</f>
         <v>45743</v>
@@ -12362,7 +12362,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H91</f>
         <v>45744</v>
@@ -12384,7 +12384,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H92</f>
         <v>45745</v>
@@ -12406,7 +12406,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H93</f>
         <v>45746</v>
@@ -12428,7 +12428,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H94</f>
         <v>45747</v>
@@ -12450,7 +12450,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H95</f>
         <v>45748</v>
@@ -12472,7 +12472,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H96</f>
         <v>45749</v>
@@ -12494,7 +12494,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H97</f>
         <v>45750</v>
@@ -12516,7 +12516,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H98</f>
         <v>45751</v>
@@ -12538,7 +12538,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H99</f>
         <v>45752</v>
@@ -12560,7 +12560,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H100</f>
         <v>45753</v>
@@ -12582,7 +12582,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H101</f>
         <v>45754</v>
@@ -12604,7 +12604,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H102</f>
         <v>45755</v>
@@ -12626,7 +12626,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H103</f>
         <v>45756</v>
@@ -12648,7 +12648,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H104</f>
         <v>45757</v>
@@ -12670,7 +12670,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H105</f>
         <v>45758</v>
@@ -12692,7 +12692,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H106</f>
         <v>45759</v>
@@ -12714,7 +12714,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H107</f>
         <v>45760</v>
@@ -12736,7 +12736,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H108</f>
         <v>45761</v>
@@ -12758,7 +12758,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H109</f>
         <v>45762</v>
@@ -12780,7 +12780,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H110</f>
         <v>45763</v>
@@ -12802,7 +12802,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H111</f>
         <v>45764</v>
@@ -12824,7 +12824,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H112</f>
         <v>45765</v>
@@ -12846,7 +12846,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H113</f>
         <v>45766</v>
@@ -12868,7 +12868,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H114</f>
         <v>45767</v>
@@ -12890,7 +12890,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H115</f>
         <v>45768</v>
@@ -12912,7 +12912,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H116</f>
         <v>45769</v>
@@ -12934,7 +12934,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H117</f>
         <v>45770</v>
@@ -12956,7 +12956,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H118</f>
         <v>45771</v>
@@ -12978,7 +12978,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H119</f>
         <v>45772</v>
@@ -13000,7 +13000,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H120</f>
         <v>45773</v>
@@ -13022,7 +13022,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H121</f>
         <v>45774</v>
@@ -13044,7 +13044,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H122</f>
         <v>45775</v>
@@ -13066,7 +13066,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H123</f>
         <v>45776</v>
@@ -13088,7 +13088,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H124</f>
         <v>45777</v>
@@ -13110,7 +13110,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H125</f>
         <v>45778</v>
@@ -13132,7 +13132,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H126</f>
         <v>45779</v>
@@ -13154,7 +13154,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H127</f>
         <v>45780</v>
@@ -13176,7 +13176,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H128</f>
         <v>45781</v>
@@ -13198,7 +13198,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H129</f>
         <v>45782</v>
@@ -13220,7 +13220,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H130</f>
         <v>45783</v>
@@ -13242,7 +13242,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H131</f>
         <v>45784</v>
@@ -13264,7 +13264,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H132</f>
         <v>45785</v>
@@ -13286,7 +13286,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H133</f>
         <v>45786</v>
@@ -13308,7 +13308,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H134</f>
         <v>45787</v>
@@ -13330,7 +13330,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H135</f>
         <v>45788</v>
@@ -13352,7 +13352,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H136</f>
         <v>45789</v>
@@ -13374,7 +13374,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H137</f>
         <v>45790</v>
@@ -13396,7 +13396,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H138</f>
         <v>45791</v>
@@ -13418,7 +13418,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H139</f>
         <v>45792</v>
@@ -13440,7 +13440,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H140</f>
         <v>45793</v>
@@ -13462,7 +13462,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H141</f>
         <v>45794</v>
@@ -13484,7 +13484,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H142</f>
         <v>45795</v>
@@ -13506,7 +13506,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H143</f>
         <v>45796</v>
@@ -13528,7 +13528,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H144</f>
         <v>45797</v>
@@ -13550,7 +13550,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H145</f>
         <v>45798</v>
@@ -13572,7 +13572,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H146</f>
         <v>45799</v>
@@ -13594,7 +13594,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H147</f>
         <v>45800</v>
@@ -13616,7 +13616,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H148</f>
         <v>45801</v>
@@ -13638,7 +13638,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H149</f>
         <v>45802</v>
@@ -13660,7 +13660,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H150</f>
         <v>45803</v>
@@ -13682,7 +13682,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H151</f>
         <v>45804</v>
@@ -13704,7 +13704,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H152</f>
         <v>45805</v>
@@ -13726,7 +13726,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H153</f>
         <v>45806</v>
@@ -13748,7 +13748,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H154</f>
         <v>45807</v>
@@ -13770,7 +13770,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H155</f>
         <v>45808</v>
@@ -13792,7 +13792,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H156</f>
         <v>45809</v>
@@ -13814,7 +13814,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H157</f>
         <v>45810</v>
@@ -13836,7 +13836,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H158</f>
         <v>45811</v>
@@ -13858,7 +13858,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H159</f>
         <v>45812</v>
@@ -13880,7 +13880,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H160</f>
         <v>45813</v>
@@ -13902,7 +13902,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H161</f>
         <v>45814</v>
@@ -13924,7 +13924,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H162</f>
         <v>45815</v>
@@ -13946,7 +13946,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H163</f>
         <v>45816</v>
@@ -13968,7 +13968,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H164</f>
         <v>45817</v>
@@ -13990,7 +13990,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H165</f>
         <v>45818</v>
@@ -14012,7 +14012,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H166</f>
         <v>45819</v>
@@ -14034,7 +14034,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H167</f>
         <v>45820</v>
@@ -14056,7 +14056,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H168</f>
         <v>45821</v>
@@ -14078,7 +14078,7 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H169</f>
         <v>45822</v>
@@ -14100,7 +14100,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H170</f>
         <v>45823</v>
@@ -14122,7 +14122,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H171</f>
         <v>45824</v>
@@ -14144,7 +14144,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H172</f>
         <v>45825</v>
@@ -14166,7 +14166,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H173</f>
         <v>45826</v>
@@ -14188,7 +14188,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H174</f>
         <v>45827</v>
@@ -14210,7 +14210,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H175</f>
         <v>45828</v>
@@ -14232,7 +14232,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H176</f>
         <v>45829</v>
@@ -14254,7 +14254,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H177</f>
         <v>45830</v>
@@ -14276,7 +14276,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H178</f>
         <v>45831</v>
@@ -14298,7 +14298,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H179</f>
         <v>45832</v>
@@ -14320,7 +14320,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H180</f>
         <v>45833</v>
@@ -14342,7 +14342,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H181</f>
         <v>45834</v>
@@ -14364,7 +14364,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H182</f>
         <v>45835</v>
@@ -14386,7 +14386,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H183</f>
         <v>45836</v>
@@ -14408,7 +14408,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H184</f>
         <v>45837</v>
@@ -14430,7 +14430,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H185</f>
         <v>45838</v>
@@ -14452,7 +14452,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H186</f>
         <v>45839</v>
@@ -14474,7 +14474,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H187</f>
         <v>45840</v>
@@ -14496,7 +14496,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H188</f>
         <v>45841</v>
@@ -14518,7 +14518,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H189</f>
         <v>45842</v>
@@ -14540,7 +14540,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H190</f>
         <v>45843</v>
@@ -14562,7 +14562,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H191</f>
         <v>45844</v>
@@ -14584,7 +14584,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H192</f>
         <v>45845</v>
@@ -14606,7 +14606,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H193</f>
         <v>45846</v>
@@ -14628,7 +14628,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H194</f>
         <v>45847</v>
@@ -14650,7 +14650,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H195</f>
         <v>45848</v>
@@ -14672,7 +14672,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H196</f>
         <v>45849</v>
@@ -14694,7 +14694,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H197</f>
         <v>45850</v>
@@ -14716,7 +14716,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H198</f>
         <v>45851</v>
@@ -14738,7 +14738,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H199</f>
         <v>45852</v>
@@ -14760,7 +14760,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H200</f>
         <v>45853</v>
@@ -14782,7 +14782,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H201</f>
         <v>45854</v>
@@ -14804,7 +14804,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H202</f>
         <v>45855</v>
@@ -14826,7 +14826,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H203</f>
         <v>45856</v>
@@ -14848,7 +14848,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H204</f>
         <v>45857</v>
@@ -14870,7 +14870,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H205</f>
         <v>45858</v>
@@ -14892,7 +14892,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H206</f>
         <v>45859</v>
@@ -14914,7 +14914,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H207</f>
         <v>45860</v>
@@ -14936,7 +14936,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H208</f>
         <v>45861</v>
@@ -14958,7 +14958,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H209</f>
         <v>45862</v>
@@ -14980,7 +14980,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H210</f>
         <v>45863</v>
@@ -15002,7 +15002,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H211</f>
         <v>45864</v>
@@ -15024,7 +15024,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H212</f>
         <v>45865</v>
@@ -15046,7 +15046,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H213</f>
         <v>45866</v>
@@ -15068,7 +15068,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H214</f>
         <v>45867</v>
@@ -15090,7 +15090,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H215</f>
         <v>45868</v>
@@ -15112,7 +15112,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H216</f>
         <v>45869</v>
@@ -15134,7 +15134,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H217</f>
         <v>45870</v>
@@ -15156,7 +15156,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H218</f>
         <v>45871</v>
@@ -15178,7 +15178,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H219</f>
         <v>45872</v>
@@ -15200,7 +15200,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H220</f>
         <v>45873</v>
@@ -15222,7 +15222,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H221</f>
         <v>45874</v>
@@ -15244,7 +15244,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H222</f>
         <v>45875</v>
@@ -15266,7 +15266,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H223</f>
         <v>45876</v>
@@ -15288,7 +15288,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H224</f>
         <v>45877</v>
@@ -15310,7 +15310,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H225</f>
         <v>45878</v>
@@ -15332,7 +15332,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H226</f>
         <v>45879</v>
@@ -15354,7 +15354,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H227</f>
         <v>45880</v>
@@ -15376,7 +15376,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H228</f>
         <v>45881</v>
@@ -15398,7 +15398,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H229</f>
         <v>45882</v>
@@ -15420,7 +15420,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H230</f>
         <v>45883</v>
@@ -15442,7 +15442,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H231</f>
         <v>45884</v>
@@ -15464,7 +15464,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H232</f>
         <v>45885</v>
@@ -15486,7 +15486,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H233</f>
         <v>45886</v>
@@ -15508,7 +15508,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H234</f>
         <v>45887</v>
@@ -15530,7 +15530,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H235</f>
         <v>45888</v>
@@ -15552,7 +15552,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H236</f>
         <v>45889</v>
@@ -15574,7 +15574,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H237</f>
         <v>45890</v>
@@ -15596,7 +15596,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H238</f>
         <v>45891</v>
@@ -15618,7 +15618,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H239</f>
         <v>45892</v>
@@ -15640,7 +15640,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H240</f>
         <v>45893</v>
@@ -15662,7 +15662,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H241</f>
         <v>45894</v>
@@ -15684,7 +15684,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H242</f>
         <v>45895</v>
@@ -15706,7 +15706,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H243</f>
         <v>45896</v>
@@ -15728,7 +15728,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H244</f>
         <v>45897</v>
@@ -15750,7 +15750,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H245</f>
         <v>45898</v>
@@ -15772,7 +15772,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H246</f>
         <v>45899</v>
@@ -15794,7 +15794,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H247</f>
         <v>45900</v>
@@ -15816,7 +15816,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H248</f>
         <v>45901</v>
@@ -15838,7 +15838,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H249</f>
         <v>45902</v>
@@ -15860,7 +15860,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H250</f>
         <v>45903</v>
@@ -15882,7 +15882,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H251</f>
         <v>45904</v>
@@ -15904,7 +15904,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H252</f>
         <v>45905</v>
@@ -15926,7 +15926,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H253</f>
         <v>45906</v>
@@ -15948,7 +15948,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H254</f>
         <v>45907</v>
@@ -15970,7 +15970,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H255</f>
         <v>45908</v>
@@ -15992,7 +15992,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H256</f>
         <v>45909</v>
@@ -16014,7 +16014,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H257</f>
         <v>45910</v>
@@ -16036,7 +16036,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H258</f>
         <v>45911</v>
@@ -16058,7 +16058,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H259</f>
         <v>45912</v>
@@ -16080,7 +16080,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H260</f>
         <v>45913</v>
@@ -16102,7 +16102,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H261</f>
         <v>45914</v>
@@ -16124,7 +16124,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H262</f>
         <v>45915</v>
@@ -16146,7 +16146,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H263</f>
         <v>45916</v>
@@ -16168,7 +16168,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H264</f>
         <v>45917</v>
@@ -16190,29 +16190,29 @@
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H265</f>
         <v>45918</v>
       </c>
-      <c r="B264" s="17" t="str">
+      <c r="B264" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I265</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C264" s="48" t="str">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="C264" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J265</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D264" s="48" t="str">
+        <v>4.19E-2</v>
+      </c>
+      <c r="D264" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K265</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E264" s="5" t="str">
+        <v>4.41E-2</v>
+      </c>
+      <c r="E264" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L265</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.65E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H266</f>
         <v>45919</v>
@@ -16234,7 +16234,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H267</f>
         <v>45920</v>
@@ -16256,7 +16256,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H268</f>
         <v>45921</v>
@@ -16278,7 +16278,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H269</f>
         <v>45922</v>
@@ -16300,7 +16300,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H270</f>
         <v>45923</v>
@@ -16322,7 +16322,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H271</f>
         <v>45924</v>
@@ -16344,7 +16344,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H272</f>
         <v>45925</v>
@@ -16366,7 +16366,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H273</f>
         <v>45926</v>
@@ -16388,7 +16388,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H274</f>
         <v>45927</v>
@@ -16410,7 +16410,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H275</f>
         <v>45928</v>
@@ -16432,7 +16432,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H276</f>
         <v>45929</v>
@@ -16454,7 +16454,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H277</f>
         <v>45930</v>
@@ -16476,7 +16476,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H278</f>
         <v>45931</v>
@@ -16498,7 +16498,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H279</f>
         <v>45932</v>
@@ -16520,7 +16520,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H280</f>
         <v>45933</v>
@@ -16542,7 +16542,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H281</f>
         <v>45934</v>
@@ -16564,7 +16564,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H282</f>
         <v>45935</v>
@@ -16586,7 +16586,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H283</f>
         <v>45936</v>
@@ -16608,7 +16608,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H284</f>
         <v>45937</v>
@@ -16630,7 +16630,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H285</f>
         <v>45938</v>
@@ -16652,7 +16652,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H286</f>
         <v>45939</v>
@@ -16674,7 +16674,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H287</f>
         <v>45940</v>
@@ -16696,7 +16696,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H288</f>
         <v>45941</v>
@@ -16718,7 +16718,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H289</f>
         <v>45942</v>
@@ -16740,7 +16740,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H290</f>
         <v>45943</v>
@@ -16762,7 +16762,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H291</f>
         <v>45944</v>
@@ -16784,7 +16784,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H292</f>
         <v>45945</v>
@@ -16806,7 +16806,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H293</f>
         <v>45946</v>
@@ -16828,7 +16828,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H294</f>
         <v>45947</v>
@@ -16850,7 +16850,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H295</f>
         <v>45948</v>
@@ -16872,7 +16872,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H296</f>
         <v>45949</v>
@@ -16894,7 +16894,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H297</f>
         <v>45950</v>
@@ -16916,7 +16916,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H298</f>
         <v>45951</v>
@@ -16938,7 +16938,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H299</f>
         <v>45952</v>
@@ -16960,7 +16960,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H300</f>
         <v>45953</v>
@@ -16982,7 +16982,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H301</f>
         <v>45954</v>
@@ -17004,7 +17004,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H302</f>
         <v>45955</v>
@@ -17026,7 +17026,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H303</f>
         <v>45956</v>
@@ -17048,7 +17048,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H304</f>
         <v>45957</v>
@@ -17070,7 +17070,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H305</f>
         <v>45958</v>
@@ -17092,7 +17092,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H306</f>
         <v>45959</v>
@@ -17114,7 +17114,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H307</f>
         <v>45960</v>
@@ -17136,7 +17136,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H308</f>
         <v>45961</v>
@@ -17158,7 +17158,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H309</f>
         <v>45962</v>
@@ -17180,7 +17180,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H310</f>
         <v>45963</v>
@@ -17202,7 +17202,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H311</f>
         <v>45964</v>
@@ -17224,7 +17224,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H312</f>
         <v>45965</v>
@@ -17246,7 +17246,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H313</f>
         <v>45966</v>
@@ -17268,7 +17268,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H314</f>
         <v>45967</v>
@@ -17290,7 +17290,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H315</f>
         <v>45968</v>
@@ -17312,7 +17312,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H316</f>
         <v>45969</v>
@@ -17334,7 +17334,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H317</f>
         <v>45970</v>
@@ -17356,7 +17356,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H318</f>
         <v>45971</v>
@@ -17378,7 +17378,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H319</f>
         <v>45972</v>
@@ -17400,7 +17400,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H320</f>
         <v>45973</v>
@@ -17422,7 +17422,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H321</f>
         <v>45974</v>
@@ -17444,7 +17444,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H322</f>
         <v>45975</v>
@@ -17466,7 +17466,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H323</f>
         <v>45976</v>
@@ -17488,7 +17488,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H324</f>
         <v>45977</v>
@@ -17510,7 +17510,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H325</f>
         <v>45978</v>
@@ -17532,7 +17532,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H326</f>
         <v>45979</v>
@@ -17554,7 +17554,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H327</f>
         <v>45980</v>
@@ -17576,7 +17576,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H328</f>
         <v>45981</v>
@@ -17598,7 +17598,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H329</f>
         <v>45982</v>
@@ -17620,7 +17620,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H330</f>
         <v>45983</v>
@@ -17642,7 +17642,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H331</f>
         <v>45984</v>
@@ -17664,7 +17664,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H332</f>
         <v>45985</v>
@@ -17686,7 +17686,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H333</f>
         <v>45986</v>
@@ -17708,7 +17708,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H334</f>
         <v>45987</v>
@@ -17730,7 +17730,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H335</f>
         <v>45988</v>
@@ -17752,7 +17752,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H336</f>
         <v>45989</v>
@@ -17774,7 +17774,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H337</f>
         <v>45990</v>
@@ -17796,7 +17796,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H338</f>
         <v>45991</v>
@@ -17818,7 +17818,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H339</f>
         <v>45992</v>
@@ -17840,7 +17840,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H340</f>
         <v>45993</v>
@@ -17862,7 +17862,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H341</f>
         <v>45994</v>
@@ -17884,7 +17884,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H342</f>
         <v>45995</v>
@@ -17906,7 +17906,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H343</f>
         <v>45996</v>
@@ -17928,7 +17928,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H344</f>
         <v>45997</v>
@@ -17950,7 +17950,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H345</f>
         <v>45998</v>
@@ -17972,7 +17972,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H346</f>
         <v>45999</v>
@@ -17994,7 +17994,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H347</f>
         <v>46000</v>
@@ -18016,7 +18016,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H348</f>
         <v>46001</v>
@@ -18038,7 +18038,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H349</f>
         <v>46002</v>
@@ -18060,7 +18060,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H350</f>
         <v>46003</v>
@@ -18082,7 +18082,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H351</f>
         <v>46004</v>
@@ -18104,7 +18104,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H352</f>
         <v>46005</v>
@@ -18126,7 +18126,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H353</f>
         <v>46006</v>
@@ -18148,7 +18148,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H354</f>
         <v>46007</v>
@@ -18170,7 +18170,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H355</f>
         <v>46008</v>
@@ -18192,7 +18192,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H356</f>
         <v>46009</v>
@@ -18214,7 +18214,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H357</f>
         <v>46010</v>
@@ -18236,7 +18236,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H358</f>
         <v>46011</v>
@@ -18258,7 +18258,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H359</f>
         <v>46012</v>
@@ -18280,7 +18280,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H360</f>
         <v>46013</v>
@@ -18302,7 +18302,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H361</f>
         <v>46014</v>
@@ -18324,7 +18324,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H362</f>
         <v>46015</v>
@@ -18346,7 +18346,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H363</f>
         <v>46016</v>
@@ -18368,7 +18368,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H364</f>
         <v>46017</v>
@@ -18390,7 +18390,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H365</f>
         <v>46018</v>
@@ -18412,7 +18412,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H366</f>
         <v>46019</v>
@@ -18434,7 +18434,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H367</f>
         <v>46020</v>
@@ -18456,7 +18456,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H368</f>
         <v>46021</v>
@@ -18478,7 +18478,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H369</f>
         <v>46022</v>
@@ -18500,7 +18500,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="46">
         <f>'[1]Jumbo Bus Date to PDD'!H370</f>
         <v>46023</v>
@@ -18522,37 +18522,37 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="15"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="15"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="15"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="15"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="15"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="15"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="15"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="15"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="15"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="15"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="15"/>
     </row>
   </sheetData>
@@ -18570,16 +18570,16 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="5" width="13.33203125" customWidth="1"/>
+    <col min="2" max="5" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
@@ -18588,14 +18588,14 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="52" t="s">
         <v>5</v>
@@ -18604,7 +18604,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="54"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -18613,7 +18613,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")</f>
         <v>1/1/2025 - 3/31/2025</v>
@@ -18652,7 +18652,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")</f>
         <v>4/1/2025 - 6/30/2025</v>
@@ -18674,7 +18674,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")</f>
         <v>7/1/2025 - 9/30/2025</v>
@@ -18696,7 +18696,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,10,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,12,31),"m/d/yyyy")</f>
         <v>10/1/2025 - 12/31/2025</v>
@@ -18718,7 +18718,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="49"/>
     </row>
   </sheetData>
@@ -18740,13 +18740,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>9</v>
       </c>
@@ -18755,7 +18755,7 @@
       <c r="D1" s="61"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
         <v>38</v>
       </c>
@@ -18764,12 +18764,12 @@
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
@@ -18778,7 +18778,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -18819,7 +18819,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -18843,7 +18843,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -18867,7 +18867,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
@@ -18891,7 +18891,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -18899,7 +18899,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -18907,7 +18907,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -18917,7 +18917,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
@@ -18927,7 +18927,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -19041,7 +19041,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -19049,7 +19049,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -19059,7 +19059,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
@@ -19069,7 +19069,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
@@ -19085,7 +19085,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>0</v>
       </c>
@@ -19105,7 +19105,7 @@
       <c r="F24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -19125,7 +19125,7 @@
       <c r="F25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
@@ -19145,7 +19145,7 @@
       <c r="F26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>3</v>
       </c>
@@ -19165,7 +19165,7 @@
       <c r="F27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -19174,7 +19174,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -19185,7 +19185,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="58" t="s">
         <v>10</v>
       </c>
@@ -19196,7 +19196,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
@@ -19254,7 +19254,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -19289,7 +19289,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>2</v>
       </c>
@@ -19324,7 +19324,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
@@ -19381,15 +19381,15 @@
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
@@ -19447,7 +19447,7 @@
       <c r="AT1" s="67"/>
       <c r="AU1" s="68"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
@@ -19505,7 +19505,7 @@
       <c r="AT2" s="63"/>
       <c r="AU2" s="64"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
@@ -19567,7 +19567,7 @@
       <c r="AT3" s="65"/>
       <c r="AU3" s="65"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="42">
         <v>3</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="42">
         <v>5</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="42">
         <v>6</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="42">
         <v>7</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="42">
         <v>8</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="42">
         <v>9</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>10</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
         <v>11</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="42">
         <v>12</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="42">
         <v>13</v>
       </c>
@@ -22133,7 +22133,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="42">
         <v>14</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="42">
         <v>15</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="42">
         <v>16</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="42">
         <v>17</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="42">
         <v>18</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="42">
         <v>19</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="42">
         <v>20</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="42">
         <v>21</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="42">
         <v>22</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="42">
         <v>23</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="42">
         <v>24</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="42">
         <v>25</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="42">
         <v>26</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="42">
         <v>27</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="42">
         <v>28</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="42">
         <v>29</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="42">
         <v>30</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="42" t="s">
         <v>37</v>
       </c>
@@ -25294,7 +25294,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <sheetProtection password="9690" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25315,7 +25315,7 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>480060</xdr:colOff>
+                <xdr:colOff>482600</xdr:colOff>
                 <xdr:row>20</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4711FA8E-BE42-47FA-828F-D730E11A5E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E22852-047E-40CC-B007-BBFC3812EF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30750" yWindow="1590" windowWidth="22395" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,15 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,6 +586,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -699,7 +699,6 @@
       <sheetName val="Jumbo Rates"/>
       <sheetName val="Check for FRED Changes"/>
       <sheetName val="Jumbo Bus Date to PDD"/>
-      <sheetName val="VM-22 2025 Valuation Rate Calc"/>
     </sheetNames>
     <definedNames>
       <definedName name="Year_of_Valuation" refersTo="='History Tables'!$D$1"/>
@@ -8430,17 +8429,17 @@
           <cell r="H271">
             <v>45924</v>
           </cell>
-          <cell r="I271" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J271" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K271" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L271" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I271">
+            <v>3.9300000000000002E-2</v>
+          </cell>
+          <cell r="J271">
+            <v>4.2099999999999999E-2</v>
+          </cell>
+          <cell r="K271">
+            <v>4.4400000000000002E-2</v>
+          </cell>
+          <cell r="L271">
+            <v>4.6899999999999997E-2</v>
           </cell>
         </row>
         <row r="272">
@@ -10127,7 +10126,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10425,7 +10423,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E271" sqref="E271"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10478,19 +10476,19 @@
         <v>45658</v>
       </c>
       <c r="B4" s="16">
-        <f>'[1]Jumbo Bus Date to PDD'!I5</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I5</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="C4" s="31">
-        <f>'[1]Jumbo Bus Date to PDD'!J5</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J5</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D4" s="31">
-        <f>'[1]Jumbo Bus Date to PDD'!K5</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K5</f>
         <v>4.9200000000000001E-2</v>
       </c>
       <c r="E4" s="32">
-        <f>'[1]Jumbo Bus Date to PDD'!L5</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L5</f>
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
@@ -10500,19 +10498,19 @@
         <v>45659</v>
       </c>
       <c r="B5" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I6</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I6</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="C5" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J6</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J6</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D5" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K6</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K6</f>
         <v>4.9200000000000001E-2</v>
       </c>
       <c r="E5" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L6</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L6</f>
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
@@ -10522,19 +10520,19 @@
         <v>45660</v>
       </c>
       <c r="B6" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I7</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I7</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="C6" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J7</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J7</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="D6" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K7</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K7</f>
         <v>4.9200000000000001E-2</v>
       </c>
       <c r="E6" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L7</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L7</f>
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
@@ -10544,19 +10542,19 @@
         <v>45661</v>
       </c>
       <c r="B7" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I8</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I8</f>
         <v>4.58E-2</v>
       </c>
       <c r="C7" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J8</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J8</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D7" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K8</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K8</f>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="E7" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L8</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L8</f>
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
@@ -10566,19 +10564,19 @@
         <v>45662</v>
       </c>
       <c r="B8" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I9</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I9</f>
         <v>4.58E-2</v>
       </c>
       <c r="C8" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J9</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J9</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D8" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K9</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K9</f>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="E8" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L9</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L9</f>
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
@@ -10588,19 +10586,19 @@
         <v>45663</v>
       </c>
       <c r="B9" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I10</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I10</f>
         <v>4.58E-2</v>
       </c>
       <c r="C9" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J10</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J10</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D9" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K10</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K10</f>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="E9" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L10</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L10</f>
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
@@ -10610,19 +10608,19 @@
         <v>45664</v>
       </c>
       <c r="B10" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I11</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I11</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="C10" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J11</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J11</f>
         <v>4.82E-2</v>
       </c>
       <c r="D10" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K11</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K11</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="E10" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L11</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L11</f>
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
@@ -10632,19 +10630,19 @@
         <v>45665</v>
       </c>
       <c r="B11" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I12</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I12</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="C11" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J12</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J12</f>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="D11" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K12</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K12</f>
         <v>5.04E-2</v>
       </c>
       <c r="E11" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L12</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L12</f>
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
@@ -10654,19 +10652,19 @@
         <v>45666</v>
       </c>
       <c r="B12" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I13</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I13</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="C12" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J13</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J13</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="D12" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K13</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K13</f>
         <v>5.0200000000000002E-2</v>
       </c>
       <c r="E12" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L13</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L13</f>
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
@@ -10676,19 +10674,19 @@
         <v>45667</v>
       </c>
       <c r="B13" s="50">
-        <f>'[1]Jumbo Bus Date to PDD'!I14</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I14</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="C13" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J14</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J14</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="D13" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K14</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K14</f>
         <v>5.0200000000000002E-2</v>
       </c>
       <c r="E13" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L14</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L14</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -10698,19 +10696,19 @@
         <v>45668</v>
       </c>
       <c r="B14" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I15</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I15</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="C14" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J15</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J15</f>
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="D14" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K15</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K15</f>
         <v>5.11E-2</v>
       </c>
       <c r="E14" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L15</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L15</f>
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
@@ -10720,19 +10718,19 @@
         <v>45669</v>
       </c>
       <c r="B15" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I16</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I16</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="C15" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J16</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J16</f>
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="D15" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K16</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K16</f>
         <v>5.11E-2</v>
       </c>
       <c r="E15" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L16</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L16</f>
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
@@ -10742,19 +10740,19 @@
         <v>45670</v>
       </c>
       <c r="B16" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I17</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I17</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="C16" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J17</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J17</f>
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="D16" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K17</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K17</f>
         <v>5.11E-2</v>
       </c>
       <c r="E16" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L17</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L17</f>
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
@@ -10764,19 +10762,19 @@
         <v>45671</v>
       </c>
       <c r="B17" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I18</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I18</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="C17" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J18</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J18</f>
         <v>4.99E-2</v>
       </c>
       <c r="D17" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K18</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K18</f>
         <v>5.1299999999999998E-2</v>
       </c>
       <c r="E17" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L18</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L18</f>
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
@@ -10786,19 +10784,19 @@
         <v>45672</v>
       </c>
       <c r="B18" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I19</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I19</f>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="C18" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J19</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J19</f>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="D18" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K19</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K19</f>
         <v>5.1299999999999998E-2</v>
       </c>
       <c r="E18" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L19</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L19</f>
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
@@ -10808,19 +10806,19 @@
         <v>45673</v>
       </c>
       <c r="B19" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I20</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I20</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="C19" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J20</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J20</f>
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="D19" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K20</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K20</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="E19" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L20</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L20</f>
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
@@ -10830,19 +10828,19 @@
         <v>45674</v>
       </c>
       <c r="B20" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I21</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I21</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="C20" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J21</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J21</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D20" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K21</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K21</f>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="E20" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L21</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L21</f>
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
@@ -10852,19 +10850,19 @@
         <v>45675</v>
       </c>
       <c r="B21" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I22</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I22</f>
         <v>4.58E-2</v>
       </c>
       <c r="C21" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J22</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J22</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D21" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K22</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K22</f>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="E21" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L22</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L22</f>
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
@@ -10874,19 +10872,19 @@
         <v>45676</v>
       </c>
       <c r="B22" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I23</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I23</f>
         <v>4.58E-2</v>
       </c>
       <c r="C22" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J23</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J23</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D22" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K23</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K23</f>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="E22" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L23</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L23</f>
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
@@ -10896,19 +10894,19 @@
         <v>45677</v>
       </c>
       <c r="B23" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I24</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I24</f>
         <v>4.58E-2</v>
       </c>
       <c r="C23" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J24</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J24</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D23" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K24</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K24</f>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="E23" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L24</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L24</f>
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
@@ -10918,19 +10916,19 @@
         <v>45678</v>
       </c>
       <c r="B24" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I25</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I25</f>
         <v>4.58E-2</v>
       </c>
       <c r="C24" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J25</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J25</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D24" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K25</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K25</f>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="E24" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L25</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L25</f>
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
@@ -10940,19 +10938,19 @@
         <v>45679</v>
       </c>
       <c r="B25" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I26</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I26</f>
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="C25" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J26</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J26</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="D25" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K26</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K26</f>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E25" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L26</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L26</f>
         <v>5.04E-2</v>
       </c>
     </row>
@@ -10962,19 +10960,19 @@
         <v>45680</v>
       </c>
       <c r="B26" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I27</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I27</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="C26" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J27</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J27</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D26" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K27</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K27</f>
         <v>4.9200000000000001E-2</v>
       </c>
       <c r="E26" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L27</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L27</f>
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
@@ -10984,19 +10982,19 @@
         <v>45681</v>
       </c>
       <c r="B27" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I28</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I28</f>
         <v>4.58E-2</v>
       </c>
       <c r="C27" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J28</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J28</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="D27" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K28</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K28</f>
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="E27" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L28</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L28</f>
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
@@ -11006,19 +11004,19 @@
         <v>45682</v>
       </c>
       <c r="B28" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I29</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I29</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="C28" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J29</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J29</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D28" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K29</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K29</f>
         <v>4.9299999999999997E-2</v>
       </c>
       <c r="E28" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L29</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L29</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -11028,19 +11026,19 @@
         <v>45683</v>
       </c>
       <c r="B29" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I30</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I30</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="C29" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J30</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J30</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D29" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K30</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K30</f>
         <v>4.9299999999999997E-2</v>
       </c>
       <c r="E29" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L30</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L30</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -11050,19 +11048,19 @@
         <v>45684</v>
       </c>
       <c r="B30" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I31</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I31</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="C30" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J31</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J31</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D30" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K31</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K31</f>
         <v>4.9299999999999997E-2</v>
       </c>
       <c r="E30" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L31</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L31</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -11072,19 +11070,19 @@
         <v>45685</v>
       </c>
       <c r="B31" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I32</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I32</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="C31" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J32</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J32</f>
         <v>4.7E-2</v>
       </c>
       <c r="D31" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K32</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K32</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E31" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L32</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L32</f>
         <v>0.05</v>
       </c>
     </row>
@@ -11094,19 +11092,19 @@
         <v>45686</v>
       </c>
       <c r="B32" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I33</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I33</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="C32" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J33</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J33</f>
         <v>4.7E-2</v>
       </c>
       <c r="D32" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K33</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K33</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="E32" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L33</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L33</f>
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
@@ -11116,19 +11114,19 @@
         <v>45687</v>
       </c>
       <c r="B33" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I34</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I34</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C33" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J34</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J34</f>
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="D33" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K34</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K34</f>
         <v>4.87E-2</v>
       </c>
       <c r="E33" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L34</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L34</f>
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
@@ -11138,19 +11136,19 @@
         <v>45688</v>
       </c>
       <c r="B34" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I35</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I35</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="C34" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J35</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J35</f>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="D34" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K35</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K35</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E34" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L35</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L35</f>
         <v>0.05</v>
       </c>
     </row>
@@ -11160,19 +11158,19 @@
         <v>45689</v>
       </c>
       <c r="B35" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I36</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I36</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C35" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J36</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J36</f>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="D35" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K36</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K36</f>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E35" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L36</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L36</f>
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
@@ -11182,19 +11180,19 @@
         <v>45690</v>
       </c>
       <c r="B36" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I37</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I37</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C36" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J37</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J37</f>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="D36" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K37</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K37</f>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E36" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L37</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L37</f>
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
@@ -11204,19 +11202,19 @@
         <v>45691</v>
       </c>
       <c r="B37" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I38</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I38</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C37" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J38</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J38</f>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="D37" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K38</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K38</f>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E37" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L38</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L38</f>
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
@@ -11226,19 +11224,19 @@
         <v>45692</v>
       </c>
       <c r="B38" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I39</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I39</f>
         <v>4.53E-2</v>
       </c>
       <c r="C38" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J39</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J39</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="D38" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K39</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K39</f>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E38" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L39</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L39</f>
         <v>5.04E-2</v>
       </c>
     </row>
@@ -11248,19 +11246,19 @@
         <v>45693</v>
       </c>
       <c r="B39" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I40</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I40</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="C39" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J40</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J40</f>
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="D39" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K40</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K40</f>
         <v>4.87E-2</v>
       </c>
       <c r="E39" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L40</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L40</f>
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
@@ -11270,19 +11268,19 @@
         <v>45694</v>
       </c>
       <c r="B40" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I41</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I41</f>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="C40" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J41</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J41</f>
         <v>4.65E-2</v>
       </c>
       <c r="D40" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K41</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K41</f>
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="E40" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L41</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L41</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -11292,19 +11290,19 @@
         <v>45695</v>
       </c>
       <c r="B41" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I42</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I42</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="C41" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J42</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J42</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="D41" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K42</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K42</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="E41" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L42</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L42</f>
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
@@ -11314,19 +11312,19 @@
         <v>45696</v>
       </c>
       <c r="B42" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I43</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I43</f>
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C42" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J43</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J43</f>
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="D42" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K43</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K43</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="E42" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L43</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L43</f>
         <v>0.05</v>
       </c>
     </row>
@@ -11336,19 +11334,19 @@
         <v>45697</v>
       </c>
       <c r="B43" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I44</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I44</f>
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C43" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J44</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J44</f>
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="D43" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K44</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K44</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="E43" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L44</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L44</f>
         <v>0.05</v>
       </c>
     </row>
@@ -11358,19 +11356,19 @@
         <v>45698</v>
       </c>
       <c r="B44" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I45</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I45</f>
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C44" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J45</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J45</f>
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="D44" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K45</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K45</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="E44" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L45</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L45</f>
         <v>0.05</v>
       </c>
     </row>
@@ -11380,19 +11378,19 @@
         <v>45699</v>
       </c>
       <c r="B45" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I46</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I46</f>
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C45" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J46</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J46</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="D45" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K46</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K46</f>
         <v>4.87E-2</v>
       </c>
       <c r="E45" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L46</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L46</f>
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
@@ -11402,19 +11400,19 @@
         <v>45700</v>
       </c>
       <c r="B46" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I47</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I47</f>
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="C46" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J47</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J47</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="D46" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K47</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K47</f>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E46" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L47</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L47</f>
         <v>5.04E-2</v>
       </c>
     </row>
@@ -11424,19 +11422,19 @@
         <v>45701</v>
       </c>
       <c r="B47" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I48</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I48</f>
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="C47" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J48</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J48</f>
         <v>4.82E-2</v>
       </c>
       <c r="D47" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K48</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K48</f>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="E47" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L48</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L48</f>
         <v>5.11E-2</v>
       </c>
     </row>
@@ -11446,19 +11444,19 @@
         <v>45702</v>
       </c>
       <c r="B48" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I49</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I49</f>
         <v>4.53E-2</v>
       </c>
       <c r="C48" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J49</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J49</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="D48" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K49</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K49</f>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="E48" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L49</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L49</f>
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
@@ -11468,19 +11466,19 @@
         <v>45703</v>
       </c>
       <c r="B49" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I50</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I50</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="C49" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J50</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J50</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="D49" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K50</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K50</f>
         <v>4.82E-2</v>
       </c>
       <c r="E49" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L50</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L50</f>
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
@@ -11490,19 +11488,19 @@
         <v>45704</v>
       </c>
       <c r="B50" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I51</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I51</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="C50" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J51</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J51</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="D50" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K51</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K51</f>
         <v>4.82E-2</v>
       </c>
       <c r="E50" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L51</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L51</f>
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
@@ -11512,19 +11510,19 @@
         <v>45705</v>
       </c>
       <c r="B51" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I52</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I52</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="C51" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J52</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J52</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="D51" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K52</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K52</f>
         <v>4.82E-2</v>
       </c>
       <c r="E51" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L52</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L52</f>
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
@@ -11534,19 +11532,19 @@
         <v>45706</v>
       </c>
       <c r="B52" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I53</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I53</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="C52" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J53</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J53</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="D52" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K53</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K53</f>
         <v>4.82E-2</v>
       </c>
       <c r="E52" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L53</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L53</f>
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
@@ -11556,19 +11554,19 @@
         <v>45707</v>
       </c>
       <c r="B53" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I54</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I54</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="C53" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J54</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J54</f>
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="D53" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K54</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K54</f>
         <v>4.87E-2</v>
       </c>
       <c r="E53" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L54</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L54</f>
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
@@ -11578,19 +11576,19 @@
         <v>45708</v>
       </c>
       <c r="B54" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I55</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I55</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="C54" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J55</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J55</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="D54" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K55</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K55</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="E54" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L55</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L55</f>
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
@@ -11600,19 +11598,19 @@
         <v>45709</v>
       </c>
       <c r="B55" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I56</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I56</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="C55" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J56</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J56</f>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="D55" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K56</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K56</f>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="E55" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L56</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L56</f>
         <v>4.99E-2</v>
       </c>
     </row>
@@ -11622,19 +11620,19 @@
         <v>45710</v>
       </c>
       <c r="B56" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I57</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I57</f>
         <v>4.41E-2</v>
       </c>
       <c r="C56" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J57</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J57</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="D56" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K57</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K57</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E56" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L57</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L57</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -11644,19 +11642,19 @@
         <v>45711</v>
       </c>
       <c r="B57" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I58</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I58</f>
         <v>4.41E-2</v>
       </c>
       <c r="C57" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J58</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J58</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="D57" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K58</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K58</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E57" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L58</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L58</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -11666,19 +11664,19 @@
         <v>45712</v>
       </c>
       <c r="B58" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I59</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I59</f>
         <v>4.41E-2</v>
       </c>
       <c r="C58" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J59</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J59</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="D58" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K59</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K59</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E58" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L59</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L59</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -11688,19 +11686,19 @@
         <v>45713</v>
       </c>
       <c r="B59" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I60</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I60</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="C59" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J60</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J60</f>
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="D59" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K60</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K60</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E59" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L60</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L60</f>
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
@@ -11710,19 +11708,19 @@
         <v>45714</v>
       </c>
       <c r="B60" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I61</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I61</f>
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="C60" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J61</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J61</f>
         <v>4.53E-2</v>
       </c>
       <c r="D60" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K61</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K61</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="E60" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L61</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L61</f>
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
@@ -11732,19 +11730,19 @@
         <v>45715</v>
       </c>
       <c r="B61" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I62</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I62</f>
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="C61" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J62</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J62</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D61" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K62</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K62</f>
         <v>4.65E-2</v>
       </c>
       <c r="E61" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L62</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L62</f>
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
@@ -11754,19 +11752,19 @@
         <v>45716</v>
       </c>
       <c r="B62" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I63</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I63</f>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="C62" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J63</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J63</f>
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="D62" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K63</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K63</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="E62" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L63</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L63</f>
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
@@ -11776,19 +11774,19 @@
         <v>45717</v>
       </c>
       <c r="B63" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I64</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I64</f>
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="C63" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J64</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J64</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D63" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K64</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K64</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="E63" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L64</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L64</f>
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
@@ -11798,19 +11796,19 @@
         <v>45718</v>
       </c>
       <c r="B64" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I65</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I65</f>
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="C64" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J65</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J65</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D64" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K65</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K65</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="E64" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L65</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L65</f>
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
@@ -11820,19 +11818,19 @@
         <v>45719</v>
       </c>
       <c r="B65" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I66</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I66</f>
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="C65" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J66</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J66</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D65" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K66</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K66</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="E65" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L66</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L66</f>
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
@@ -11842,19 +11840,19 @@
         <v>45720</v>
       </c>
       <c r="B66" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I67</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I67</f>
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="C66" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J67</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J67</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="D66" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K67</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K67</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="E66" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L67</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L67</f>
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
@@ -11864,19 +11862,19 @@
         <v>45721</v>
       </c>
       <c r="B67" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I68</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I68</f>
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="C67" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J68</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J68</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="D67" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K68</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K68</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="E67" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L68</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L68</f>
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
@@ -11886,19 +11884,19 @@
         <v>45722</v>
       </c>
       <c r="B68" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I69</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I69</f>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="C68" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J69</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J69</f>
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="D68" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K69</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K69</f>
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="E68" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L69</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L69</f>
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
@@ -11908,19 +11906,19 @@
         <v>45723</v>
       </c>
       <c r="B69" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I70</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I70</f>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="C69" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J70</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J70</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="D69" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K70</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K70</f>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="E69" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L70</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L70</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -11930,19 +11928,19 @@
         <v>45724</v>
       </c>
       <c r="B70" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I71</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I71</f>
         <v>4.36E-2</v>
       </c>
       <c r="C70" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J71</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J71</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D70" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K71</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K71</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="E70" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L71</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L71</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -11952,19 +11950,19 @@
         <v>45725</v>
       </c>
       <c r="B71" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I72</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I72</f>
         <v>4.36E-2</v>
       </c>
       <c r="C71" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J72</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J72</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D71" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K72</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K72</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="E71" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L72</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L72</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -11974,19 +11972,19 @@
         <v>45726</v>
       </c>
       <c r="B72" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I73</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I73</f>
         <v>4.36E-2</v>
       </c>
       <c r="C72" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J73</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J73</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D72" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K73</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K73</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="E72" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L73</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L73</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -11996,19 +11994,19 @@
         <v>45727</v>
       </c>
       <c r="B73" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I74</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I74</f>
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="C73" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J74</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J74</f>
         <v>4.53E-2</v>
       </c>
       <c r="D73" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K74</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K74</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="E73" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L74</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L74</f>
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
@@ -12018,19 +12016,19 @@
         <v>45728</v>
       </c>
       <c r="B74" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I75</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I75</f>
         <v>4.36E-2</v>
       </c>
       <c r="C74" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J75</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J75</f>
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="D74" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K75</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K75</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E74" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L75</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L75</f>
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
@@ -12040,19 +12038,19 @@
         <v>45729</v>
       </c>
       <c r="B75" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I76</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I76</f>
         <v>4.41E-2</v>
       </c>
       <c r="C75" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J76</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J76</f>
         <v>4.65E-2</v>
       </c>
       <c r="D75" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K76</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K76</f>
         <v>4.82E-2</v>
       </c>
       <c r="E75" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L76</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L76</f>
         <v>4.99E-2</v>
       </c>
     </row>
@@ -12062,19 +12060,19 @@
         <v>45730</v>
       </c>
       <c r="B76" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I77</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I77</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="C76" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J77</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J77</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="D76" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K77</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K77</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E76" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L77</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L77</f>
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
@@ -12084,19 +12082,19 @@
         <v>45731</v>
       </c>
       <c r="B77" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I78</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I78</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="C77" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J78</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J78</f>
         <v>4.65E-2</v>
       </c>
       <c r="D77" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K78</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K78</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="E77" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L78</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L78</f>
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
@@ -12106,19 +12104,19 @@
         <v>45732</v>
       </c>
       <c r="B78" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I79</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I79</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="C78" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J79</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J79</f>
         <v>4.65E-2</v>
       </c>
       <c r="D78" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K79</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K79</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="E78" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L79</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L79</f>
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
@@ -12128,19 +12126,19 @@
         <v>45733</v>
       </c>
       <c r="B79" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I80</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I80</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="C79" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J80</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J80</f>
         <v>4.65E-2</v>
       </c>
       <c r="D79" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K80</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K80</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="E79" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L80</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L80</f>
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
@@ -12150,19 +12148,19 @@
         <v>45734</v>
       </c>
       <c r="B80" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I81</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I81</f>
         <v>4.41E-2</v>
       </c>
       <c r="C80" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J81</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J81</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="D80" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K81</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K81</f>
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="E80" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L81</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L81</f>
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
@@ -12172,19 +12170,19 @@
         <v>45735</v>
       </c>
       <c r="B81" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I82</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I82</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="C81" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J82</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J82</f>
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="D81" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K82</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K82</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="E81" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L82</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L82</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -12194,19 +12192,19 @@
         <v>45736</v>
       </c>
       <c r="B82" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I83</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I83</f>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="C82" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J83</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J83</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D82" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K83</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K83</f>
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="E82" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L83</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L83</f>
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
@@ -12216,19 +12214,19 @@
         <v>45737</v>
       </c>
       <c r="B83" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I84</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I84</f>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="C83" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J84</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J84</f>
         <v>4.53E-2</v>
       </c>
       <c r="D83" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K84</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K84</f>
         <v>4.7E-2</v>
       </c>
       <c r="E83" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L84</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L84</f>
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
@@ -12238,19 +12236,19 @@
         <v>45738</v>
       </c>
       <c r="B84" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I85</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I85</f>
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="C84" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J85</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J85</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D84" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K85</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K85</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="E84" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L85</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L85</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -12260,19 +12258,19 @@
         <v>45739</v>
       </c>
       <c r="B85" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I86</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I86</f>
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="C85" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J86</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J86</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D85" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K86</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K86</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="E85" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L86</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L86</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -12282,19 +12280,19 @@
         <v>45740</v>
       </c>
       <c r="B86" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I87</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I87</f>
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="C86" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J87</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J87</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D86" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K87</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K87</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="E86" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L87</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L87</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -12304,19 +12302,19 @@
         <v>45741</v>
       </c>
       <c r="B87" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I88</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I88</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="C87" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J88</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J88</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="D87" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K88</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K88</f>
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="E87" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L88</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L88</f>
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
@@ -12326,19 +12324,19 @@
         <v>45742</v>
       </c>
       <c r="B88" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I89</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I89</f>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="C88" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J89</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J89</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="D88" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K89</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K89</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="E88" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L89</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L89</f>
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
@@ -12348,19 +12346,19 @@
         <v>45743</v>
       </c>
       <c r="B89" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I90</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I90</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="C89" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J90</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J90</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="D89" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K90</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K90</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="E89" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L90</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L90</f>
         <v>4.99E-2</v>
       </c>
     </row>
@@ -12370,19 +12368,19 @@
         <v>45744</v>
       </c>
       <c r="B90" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I91</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I91</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="C90" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J91</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J91</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="D90" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K91</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K91</f>
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="E90" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L91</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L91</f>
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
@@ -12392,19 +12390,19 @@
         <v>45745</v>
       </c>
       <c r="B91" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I92</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I92</f>
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="C91" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J92</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J92</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="D91" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K92</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K92</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E91" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L92</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L92</f>
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
@@ -12414,19 +12412,19 @@
         <v>45746</v>
       </c>
       <c r="B92" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I93</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I93</f>
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="C92" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J93</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J93</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="D92" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K93</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K93</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E92" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L93</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L93</f>
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
@@ -12436,19 +12434,19 @@
         <v>45747</v>
       </c>
       <c r="B93" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I94</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I94</f>
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="C93" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J94</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J94</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="D93" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K94</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K94</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E93" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L94</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L94</f>
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
@@ -12458,19 +12456,19 @@
         <v>45748</v>
       </c>
       <c r="B94" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I95</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I95</f>
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="C94" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J95</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J95</f>
         <v>4.58E-2</v>
       </c>
       <c r="D94" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K95</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K95</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E94" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L95</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L95</f>
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
@@ -12480,19 +12478,19 @@
         <v>45749</v>
       </c>
       <c r="B95" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I96</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I96</f>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="C95" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J96</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J96</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="D95" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K96</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K96</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E95" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L96</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L96</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -12502,19 +12500,19 @@
         <v>45750</v>
       </c>
       <c r="B96" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I97</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I97</f>
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="C96" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J97</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J97</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="D96" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K97</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K97</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E96" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L97</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L97</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -12524,19 +12522,19 @@
         <v>45751</v>
       </c>
       <c r="B97" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I98</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I98</f>
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="C97" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J98</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J98</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D97" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K98</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K98</f>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="E97" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L98</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L98</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -12546,19 +12544,19 @@
         <v>45752</v>
       </c>
       <c r="B98" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I99</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I99</f>
         <v>4.36E-2</v>
       </c>
       <c r="C98" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J99</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J99</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D98" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K99</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K99</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E98" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L99</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L99</f>
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
@@ -12568,19 +12566,19 @@
         <v>45753</v>
       </c>
       <c r="B99" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I100</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I100</f>
         <v>4.36E-2</v>
       </c>
       <c r="C99" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J100</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J100</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D99" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K100</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K100</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E99" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L100</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L100</f>
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
@@ -12590,19 +12588,19 @@
         <v>45754</v>
       </c>
       <c r="B100" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I101</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I101</f>
         <v>4.36E-2</v>
       </c>
       <c r="C100" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J101</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J101</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D100" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K101</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K101</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E100" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L101</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L101</f>
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
@@ -12612,19 +12610,19 @@
         <v>45755</v>
       </c>
       <c r="B101" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I102</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I102</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="C101" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J102</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J102</f>
         <v>4.82E-2</v>
       </c>
       <c r="D101" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K102</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K102</f>
         <v>0.05</v>
       </c>
       <c r="E101" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L102</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L102</f>
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
@@ -12634,19 +12632,19 @@
         <v>45756</v>
       </c>
       <c r="B102" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I103</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I103</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="C102" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J103</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J103</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="D102" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K103</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K103</f>
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="E102" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L103</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L103</f>
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
@@ -12656,19 +12654,19 @@
         <v>45757</v>
       </c>
       <c r="B103" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I104</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I104</f>
         <v>4.7E-2</v>
       </c>
       <c r="C103" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J104</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J104</f>
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="D103" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K104</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K104</f>
         <v>5.11E-2</v>
       </c>
       <c r="E103" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L104</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L104</f>
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
@@ -12678,19 +12676,19 @@
         <v>45758</v>
       </c>
       <c r="B104" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I105</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I105</f>
         <v>4.7E-2</v>
       </c>
       <c r="C104" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J105</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J105</f>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="D104" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K105</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K105</f>
         <v>5.1700000000000003E-2</v>
       </c>
       <c r="E104" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L105</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L105</f>
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
@@ -12700,19 +12698,19 @@
         <v>45759</v>
       </c>
       <c r="B105" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I106</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I106</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="C105" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J106</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J106</f>
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="D105" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K106</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K106</f>
         <v>5.21E-2</v>
       </c>
       <c r="E105" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L106</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L106</f>
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
@@ -12722,19 +12720,19 @@
         <v>45760</v>
       </c>
       <c r="B106" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I107</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I107</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="C106" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J107</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J107</f>
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="D106" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K107</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K107</f>
         <v>5.21E-2</v>
       </c>
       <c r="E106" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L107</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L107</f>
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
@@ -12744,19 +12742,19 @@
         <v>45761</v>
       </c>
       <c r="B107" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I108</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I108</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="C107" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J108</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J108</f>
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="D107" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K108</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K108</f>
         <v>5.21E-2</v>
       </c>
       <c r="E107" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L108</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L108</f>
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
@@ -12766,19 +12764,19 @@
         <v>45762</v>
       </c>
       <c r="B108" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I109</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I109</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="C108" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J109</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J109</f>
         <v>4.9099999999999998E-2</v>
       </c>
       <c r="D108" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K109</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K109</f>
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="E108" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L109</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L109</f>
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
@@ -12788,19 +12786,19 @@
         <v>45763</v>
       </c>
       <c r="B109" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I110</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I110</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="C109" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J110</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J110</f>
         <v>4.87E-2</v>
       </c>
       <c r="D109" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K110</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K110</f>
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="E109" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L110</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L110</f>
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
@@ -12810,19 +12808,19 @@
         <v>45764</v>
       </c>
       <c r="B110" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I111</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I111</f>
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="C110" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J111</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J111</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D110" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K111</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K111</f>
         <v>4.99E-2</v>
       </c>
       <c r="E110" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L111</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L111</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -12832,19 +12830,19 @@
         <v>45765</v>
       </c>
       <c r="B111" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I112</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I112</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="C111" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J112</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J112</f>
         <v>4.82E-2</v>
       </c>
       <c r="D111" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K112</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K112</f>
         <v>5.0200000000000002E-2</v>
       </c>
       <c r="E111" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L112</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L112</f>
         <v>5.21E-2</v>
       </c>
     </row>
@@ -12854,19 +12852,19 @@
         <v>45766</v>
       </c>
       <c r="B112" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I113</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I113</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="C112" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J113</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J113</f>
         <v>4.82E-2</v>
       </c>
       <c r="D112" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K113</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K113</f>
         <v>5.0200000000000002E-2</v>
       </c>
       <c r="E112" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L113</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L113</f>
         <v>5.21E-2</v>
       </c>
     </row>
@@ -12876,19 +12874,19 @@
         <v>45767</v>
       </c>
       <c r="B113" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I114</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I114</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="C113" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J114</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J114</f>
         <v>4.82E-2</v>
       </c>
       <c r="D113" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K114</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K114</f>
         <v>5.0200000000000002E-2</v>
       </c>
       <c r="E113" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L114</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L114</f>
         <v>5.21E-2</v>
       </c>
     </row>
@@ -12898,19 +12896,19 @@
         <v>45768</v>
       </c>
       <c r="B114" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I115</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I115</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="C114" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J115</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J115</f>
         <v>4.82E-2</v>
       </c>
       <c r="D114" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K115</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K115</f>
         <v>5.0200000000000002E-2</v>
       </c>
       <c r="E114" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L115</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L115</f>
         <v>5.21E-2</v>
       </c>
     </row>
@@ -12920,19 +12918,19 @@
         <v>45769</v>
       </c>
       <c r="B115" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I116</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I116</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="C115" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J116</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J116</f>
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="D115" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K116</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K116</f>
         <v>5.11E-2</v>
       </c>
       <c r="E115" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L116</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L116</f>
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
@@ -12942,19 +12940,19 @@
         <v>45770</v>
       </c>
       <c r="B116" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I117</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I117</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="C116" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J117</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J117</f>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="D116" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K117</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K117</f>
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="E116" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L117</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L117</f>
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
@@ -12964,19 +12962,19 @@
         <v>45771</v>
       </c>
       <c r="B117" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I118</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I118</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="C117" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J118</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J118</f>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="D117" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K118</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K118</f>
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="E117" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L118</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L118</f>
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
@@ -12986,19 +12984,19 @@
         <v>45772</v>
       </c>
       <c r="B118" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I119</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I119</f>
         <v>4.48E-2</v>
       </c>
       <c r="C118" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J119</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J119</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="D118" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K119</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K119</f>
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="E118" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L119</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L119</f>
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
@@ -13008,19 +13006,19 @@
         <v>45773</v>
       </c>
       <c r="B119" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I120</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I120</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="C119" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J120</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J120</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="D119" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K120</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K120</f>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="E119" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L120</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L120</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -13030,19 +13028,19 @@
         <v>45774</v>
       </c>
       <c r="B120" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I121</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I121</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="C120" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J121</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J121</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="D120" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K121</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K121</f>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="E120" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L121</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L121</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -13052,19 +13050,19 @@
         <v>45775</v>
       </c>
       <c r="B121" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I122</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I122</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="C121" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J122</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J122</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="D121" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K122</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K122</f>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="E121" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L122</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L122</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -13074,19 +13072,19 @@
         <v>45776</v>
       </c>
       <c r="B122" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I123</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I123</f>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="C122" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J123</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J123</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="D122" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K123</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K123</f>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="E122" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L123</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L123</f>
         <v>5.04E-2</v>
       </c>
     </row>
@@ -13096,19 +13094,19 @@
         <v>45777</v>
       </c>
       <c r="B123" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I124</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I124</f>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="C123" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J124</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J124</f>
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="D123" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K124</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K124</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="E123" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L124</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L124</f>
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
@@ -13118,19 +13116,19 @@
         <v>45778</v>
       </c>
       <c r="B124" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I125</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I125</f>
         <v>4.3400000000000001E-2</v>
       </c>
       <c r="C124" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J125</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J125</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="D124" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K125</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K125</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="E124" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L125</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L125</f>
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
@@ -13140,19 +13138,19 @@
         <v>45779</v>
       </c>
       <c r="B125" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I126</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I126</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="C125" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J126</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J126</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="D125" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K126</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K126</f>
         <v>4.9200000000000001E-2</v>
       </c>
       <c r="E125" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L126</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L126</f>
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
@@ -13162,19 +13160,19 @@
         <v>45780</v>
       </c>
       <c r="B126" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I127</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I127</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C126" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J127</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J127</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D126" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K127</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K127</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="E126" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L127</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L127</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13184,19 +13182,19 @@
         <v>45781</v>
       </c>
       <c r="B127" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I128</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I128</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C127" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J128</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J128</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D127" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K128</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K128</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="E127" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L128</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L128</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13206,19 +13204,19 @@
         <v>45782</v>
       </c>
       <c r="B128" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I129</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I129</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C128" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J129</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J129</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D128" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K129</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K129</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="E128" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L129</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L129</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13228,19 +13226,19 @@
         <v>45783</v>
       </c>
       <c r="B129" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I130</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I130</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C129" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J130</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J130</f>
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="D129" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K130</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K130</f>
         <v>0.05</v>
       </c>
       <c r="E129" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L130</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L130</f>
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
@@ -13250,19 +13248,19 @@
         <v>45784</v>
       </c>
       <c r="B130" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I131</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I131</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="C130" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J131</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J131</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="D130" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K131</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K131</f>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="E130" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L131</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L131</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13272,19 +13270,19 @@
         <v>45785</v>
       </c>
       <c r="B131" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I132</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I132</f>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="C131" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J132</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J132</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="D131" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K132</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K132</f>
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="E131" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L132</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L132</f>
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
@@ -13294,19 +13292,19 @@
         <v>45786</v>
       </c>
       <c r="B132" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I133</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I133</f>
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C132" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J133</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J133</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D132" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K133</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K133</f>
         <v>5.0099999999999999E-2</v>
       </c>
       <c r="E132" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L133</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L133</f>
         <v>5.21E-2</v>
       </c>
     </row>
@@ -13316,19 +13314,19 @@
         <v>45787</v>
       </c>
       <c r="B133" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I134</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I134</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="C133" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J134</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J134</f>
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="D133" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K134</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K134</f>
         <v>0.05</v>
       </c>
       <c r="E133" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L134</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L134</f>
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
@@ -13338,19 +13336,19 @@
         <v>45788</v>
       </c>
       <c r="B134" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I135</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I135</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="C134" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J135</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J135</f>
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="D134" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K135</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K135</f>
         <v>0.05</v>
       </c>
       <c r="E134" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L135</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L135</f>
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
@@ -13360,19 +13358,19 @@
         <v>45789</v>
       </c>
       <c r="B135" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I136</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I136</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="C135" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J136</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J136</f>
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="D135" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K136</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K136</f>
         <v>0.05</v>
       </c>
       <c r="E135" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L136</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L136</f>
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
@@ -13382,19 +13380,19 @@
         <v>45790</v>
       </c>
       <c r="B136" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I137</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I137</f>
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="C136" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J137</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J137</f>
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="D136" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K137</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K137</f>
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="E136" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L137</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L137</f>
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
@@ -13404,19 +13402,19 @@
         <v>45791</v>
       </c>
       <c r="B137" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I138</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I138</f>
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="C137" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J138</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J138</f>
         <v>4.82E-2</v>
       </c>
       <c r="D137" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K138</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K138</f>
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="E137" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L138</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L138</f>
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
@@ -13426,19 +13424,19 @@
         <v>45792</v>
       </c>
       <c r="B138" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I139</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I139</f>
         <v>4.58E-2</v>
       </c>
       <c r="C138" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J139</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J139</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="D138" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K139</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K139</f>
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="E138" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L139</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L139</f>
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
@@ -13448,19 +13446,19 @@
         <v>45793</v>
       </c>
       <c r="B139" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I140</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I140</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="C139" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J140</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J140</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D139" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K140</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K140</f>
         <v>4.99E-2</v>
       </c>
       <c r="E139" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L140</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L140</f>
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
@@ -13470,19 +13468,19 @@
         <v>45794</v>
       </c>
       <c r="B140" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I141</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I141</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="C140" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J141</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J141</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="D140" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K141</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K141</f>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="E140" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L141</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L141</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13492,19 +13490,19 @@
         <v>45795</v>
       </c>
       <c r="B141" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I142</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I142</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="C141" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J142</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J142</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="D141" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K142</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K142</f>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="E141" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L142</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L142</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13514,19 +13512,19 @@
         <v>45796</v>
       </c>
       <c r="B142" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I143</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I143</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="C142" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J143</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J143</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="D142" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K143</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K143</f>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="E142" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L143</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L143</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13536,19 +13534,19 @@
         <v>45797</v>
       </c>
       <c r="B143" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I144</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I144</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="C143" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J144</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J144</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="D143" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K144</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K144</f>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="E143" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L144</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L144</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13558,19 +13556,19 @@
         <v>45798</v>
       </c>
       <c r="B144" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I145</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I145</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="C144" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J145</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J145</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="D144" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K145</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K145</f>
         <v>4.99E-2</v>
       </c>
       <c r="E144" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L145</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L145</f>
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
@@ -13580,19 +13578,19 @@
         <v>45799</v>
       </c>
       <c r="B145" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I146</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I146</f>
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="C145" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J146</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J146</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="D145" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K146</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K146</f>
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="E145" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L146</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L146</f>
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
@@ -13602,19 +13600,19 @@
         <v>45800</v>
       </c>
       <c r="B146" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I147</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I147</f>
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C146" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J147</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J147</f>
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="D146" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K147</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K147</f>
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="E146" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L147</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L147</f>
         <v>5.28E-2</v>
       </c>
     </row>
@@ -13624,19 +13622,19 @@
         <v>45801</v>
       </c>
       <c r="B147" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I148</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I148</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C147" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J148</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J148</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="D147" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K148</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K148</f>
         <v>5.04E-2</v>
       </c>
       <c r="E147" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L148</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L148</f>
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
@@ -13646,19 +13644,19 @@
         <v>45802</v>
       </c>
       <c r="B148" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I149</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I149</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C148" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J149</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J149</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="D148" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K149</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K149</f>
         <v>5.04E-2</v>
       </c>
       <c r="E148" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L149</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L149</f>
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
@@ -13668,19 +13666,19 @@
         <v>45803</v>
       </c>
       <c r="B149" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I150</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I150</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C149" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J150</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J150</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="D149" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K150</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K150</f>
         <v>5.04E-2</v>
       </c>
       <c r="E149" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L150</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L150</f>
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
@@ -13690,19 +13688,19 @@
         <v>45804</v>
       </c>
       <c r="B150" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I151</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I151</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C150" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J151</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J151</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="D150" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K151</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K151</f>
         <v>5.04E-2</v>
       </c>
       <c r="E150" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L151</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L151</f>
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
@@ -13712,19 +13710,19 @@
         <v>45805</v>
       </c>
       <c r="B151" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I152</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I152</f>
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="C151" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J152</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J152</f>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="D151" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K152</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K152</f>
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="E151" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L152</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L152</f>
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
@@ -13734,19 +13732,19 @@
         <v>45806</v>
       </c>
       <c r="B152" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I153</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I153</f>
         <v>4.48E-2</v>
       </c>
       <c r="C152" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J153</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J153</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="D152" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K153</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K153</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="E152" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L153</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L153</f>
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
@@ -13756,19 +13754,19 @@
         <v>45807</v>
       </c>
       <c r="B153" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I154</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I154</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="C153" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J154</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J154</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="D153" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K154</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K154</f>
         <v>4.9299999999999997E-2</v>
       </c>
       <c r="E153" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L154</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L154</f>
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
@@ -13778,19 +13776,19 @@
         <v>45808</v>
       </c>
       <c r="B154" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I155</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I155</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="C154" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J155</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J155</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="D154" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K155</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K155</f>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E154" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L155</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L155</f>
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
@@ -13800,19 +13798,19 @@
         <v>45809</v>
       </c>
       <c r="B155" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I156</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I156</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="C155" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J156</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J156</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="D155" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K156</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K156</f>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E155" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L156</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L156</f>
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
@@ -13822,19 +13820,19 @@
         <v>45810</v>
       </c>
       <c r="B156" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I157</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I157</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="C156" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J157</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J157</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="D156" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K157</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K157</f>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="E156" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L157</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L157</f>
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
@@ -13844,19 +13842,19 @@
         <v>45811</v>
       </c>
       <c r="B157" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I158</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I158</f>
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="C157" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J158</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J158</f>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="D157" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K158</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K158</f>
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="E157" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L158</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L158</f>
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
@@ -13866,19 +13864,19 @@
         <v>45812</v>
       </c>
       <c r="B158" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I159</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I159</f>
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="C158" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J159</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J159</f>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="D158" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K159</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K159</f>
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="E158" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L159</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L159</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13888,19 +13886,19 @@
         <v>45813</v>
       </c>
       <c r="B159" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I160</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I160</f>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="C159" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J160</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J160</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="D159" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K160</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K160</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="E159" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L160</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L160</f>
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
@@ -13910,19 +13908,19 @@
         <v>45814</v>
       </c>
       <c r="B160" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I161</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I161</f>
         <v>4.41E-2</v>
       </c>
       <c r="C160" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J161</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J161</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="D160" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K161</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K161</f>
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="E160" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L161</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L161</f>
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
@@ -13932,19 +13930,19 @@
         <v>45815</v>
       </c>
       <c r="B161" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I162</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I162</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="C161" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J162</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J162</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D161" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K162</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K162</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="E161" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L162</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L162</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13954,19 +13952,19 @@
         <v>45816</v>
       </c>
       <c r="B162" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I163</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I163</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="C162" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J163</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J163</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D162" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K163</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K163</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="E162" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L163</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L163</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13976,19 +13974,19 @@
         <v>45817</v>
       </c>
       <c r="B163" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I164</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I164</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="C163" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J164</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J164</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="D163" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K164</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K164</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="E163" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L164</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L164</f>
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
@@ -13998,19 +13996,19 @@
         <v>45818</v>
       </c>
       <c r="B164" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I165</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I165</f>
         <v>4.48E-2</v>
       </c>
       <c r="C164" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J165</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J165</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="D164" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K165</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K165</f>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="E164" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L165</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L165</f>
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
@@ -14020,19 +14018,19 @@
         <v>45819</v>
       </c>
       <c r="B165" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I166</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I166</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="C165" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J166</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J166</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="D165" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K166</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K166</f>
         <v>4.9299999999999997E-2</v>
       </c>
       <c r="E165" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L166</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L166</f>
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
@@ -14042,19 +14040,19 @@
         <v>45820</v>
       </c>
       <c r="B166" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I167</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I167</f>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="C166" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J167</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J167</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="D166" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K167</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K167</f>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="E166" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L167</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L167</f>
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
@@ -14064,19 +14062,19 @@
         <v>45821</v>
       </c>
       <c r="B167" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I168</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I168</f>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="C167" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J168</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J168</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="D167" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K168</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K168</f>
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="E167" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L168</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L168</f>
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
@@ -14086,19 +14084,19 @@
         <v>45822</v>
       </c>
       <c r="B168" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I169</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I169</f>
         <v>4.41E-2</v>
       </c>
       <c r="C168" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J169</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J169</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="D168" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K169</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K169</f>
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="E168" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L169</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L169</f>
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
@@ -14108,19 +14106,19 @@
         <v>45823</v>
       </c>
       <c r="B169" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I170</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I170</f>
         <v>4.41E-2</v>
       </c>
       <c r="C169" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J170</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J170</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="D169" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K170</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K170</f>
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="E169" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L170</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L170</f>
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
@@ -14130,19 +14128,19 @@
         <v>45824</v>
       </c>
       <c r="B170" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I171</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I171</f>
         <v>4.41E-2</v>
       </c>
       <c r="C170" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J171</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J171</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="D170" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K171</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K171</f>
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="E170" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L171</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L171</f>
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
@@ -14152,19 +14150,19 @@
         <v>45825</v>
       </c>
       <c r="B171" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I172</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I172</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="C171" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J172</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J172</f>
         <v>4.7E-2</v>
       </c>
       <c r="D171" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K172</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K172</f>
         <v>4.9099999999999998E-2</v>
       </c>
       <c r="E171" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L172</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L172</f>
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
@@ -14174,19 +14172,19 @@
         <v>45826</v>
       </c>
       <c r="B172" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I173</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I173</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="C172" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J173</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J173</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="D172" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K173</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K173</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="E172" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L173</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L173</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -14196,19 +14194,19 @@
         <v>45827</v>
       </c>
       <c r="B173" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I174</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I174</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="C173" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J174</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J174</f>
         <v>4.65E-2</v>
       </c>
       <c r="D173" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K174</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K174</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="E173" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L174</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L174</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -14218,19 +14216,19 @@
         <v>45828</v>
       </c>
       <c r="B174" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I175</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I175</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="C174" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J175</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J175</f>
         <v>4.65E-2</v>
       </c>
       <c r="D174" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K175</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K175</f>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="E174" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L175</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L175</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -14240,19 +14238,19 @@
         <v>45829</v>
       </c>
       <c r="B175" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I176</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I176</f>
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="C175" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J176</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J176</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="D175" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K176</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K176</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E175" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L176</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L176</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -14262,19 +14260,19 @@
         <v>45830</v>
       </c>
       <c r="B176" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I177</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I177</f>
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="C176" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J177</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J177</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="D176" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K177</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K177</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E176" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L177</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L177</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -14284,19 +14282,19 @@
         <v>45831</v>
       </c>
       <c r="B177" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I178</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I178</f>
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="C177" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J178</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J178</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="D177" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K178</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K178</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E177" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L178</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L178</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -14306,19 +14304,19 @@
         <v>45832</v>
       </c>
       <c r="B178" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I179</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I179</f>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="C178" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J179</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J179</f>
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="D178" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K179</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K179</f>
         <v>4.82E-2</v>
       </c>
       <c r="E178" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L179</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L179</f>
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
@@ -14328,19 +14326,19 @@
         <v>45833</v>
       </c>
       <c r="B179" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I180</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I180</f>
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="C179" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J180</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J180</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D179" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K180</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K180</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="E179" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L180</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L180</f>
         <v>0.05</v>
       </c>
     </row>
@@ -14350,19 +14348,19 @@
         <v>45834</v>
       </c>
       <c r="B180" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I181</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I181</f>
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="C180" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J181</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J181</f>
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="D180" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K181</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K181</f>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="E180" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L181</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L181</f>
         <v>4.99E-2</v>
       </c>
     </row>
@@ -14372,19 +14370,19 @@
         <v>45835</v>
       </c>
       <c r="B181" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I182</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I182</f>
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="C181" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J182</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J182</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="D181" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K182</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K182</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="E181" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L182</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L182</f>
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
@@ -14394,19 +14392,19 @@
         <v>45836</v>
       </c>
       <c r="B182" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I183</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I183</f>
         <v>4.24E-2</v>
       </c>
       <c r="C182" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J183</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J183</f>
         <v>4.53E-2</v>
       </c>
       <c r="D182" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K183</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K183</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E182" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L183</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L183</f>
         <v>4.99E-2</v>
       </c>
     </row>
@@ -14416,19 +14414,19 @@
         <v>45837</v>
       </c>
       <c r="B183" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I184</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I184</f>
         <v>4.24E-2</v>
       </c>
       <c r="C183" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J184</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J184</f>
         <v>4.53E-2</v>
       </c>
       <c r="D183" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K184</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K184</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E183" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L184</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L184</f>
         <v>4.99E-2</v>
       </c>
     </row>
@@ -14438,19 +14436,19 @@
         <v>45838</v>
       </c>
       <c r="B184" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I185</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I185</f>
         <v>4.24E-2</v>
       </c>
       <c r="C184" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J185</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J185</f>
         <v>4.53E-2</v>
       </c>
       <c r="D184" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K185</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K185</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E184" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L185</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L185</f>
         <v>4.99E-2</v>
       </c>
     </row>
@@ -14460,19 +14458,19 @@
         <v>45839</v>
       </c>
       <c r="B185" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I186</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I186</f>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C185" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J186</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J186</f>
         <v>4.48E-2</v>
       </c>
       <c r="D185" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K186</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K186</f>
         <v>4.7E-2</v>
       </c>
       <c r="E185" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L186</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L186</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -14482,19 +14480,19 @@
         <v>45840</v>
       </c>
       <c r="B186" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I187</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I187</f>
         <v>4.24E-2</v>
       </c>
       <c r="C186" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J187</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J187</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D186" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K187</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K187</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="E186" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L187</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L187</f>
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
@@ -14504,19 +14502,19 @@
         <v>45841</v>
       </c>
       <c r="B187" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I188</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I188</f>
         <v>4.24E-2</v>
       </c>
       <c r="C187" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J188</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J188</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="D187" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K188</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K188</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="E187" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L188</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L188</f>
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
@@ -14526,19 +14524,19 @@
         <v>45842</v>
       </c>
       <c r="B188" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I189</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I189</f>
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="C188" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J189</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J189</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D188" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K189</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K189</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E188" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L189</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L189</f>
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
@@ -14548,19 +14546,19 @@
         <v>45843</v>
       </c>
       <c r="B189" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I190</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I190</f>
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="C189" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J190</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J190</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D189" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K190</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K190</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E189" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L190</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L190</f>
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
@@ -14570,19 +14568,19 @@
         <v>45844</v>
       </c>
       <c r="B190" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I191</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I191</f>
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="C190" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J191</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J191</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D190" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K191</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K191</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E190" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L191</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L191</f>
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
@@ -14592,19 +14590,19 @@
         <v>45845</v>
       </c>
       <c r="B191" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I192</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I192</f>
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="C191" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J192</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J192</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D191" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K192</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K192</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E191" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L192</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L192</f>
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
@@ -14614,19 +14612,19 @@
         <v>45846</v>
       </c>
       <c r="B192" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I193</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I193</f>
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="C192" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J193</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J193</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="D192" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K193</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K193</f>
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="E192" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L193</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L193</f>
         <v>5.04E-2</v>
       </c>
     </row>
@@ -14636,19 +14634,19 @@
         <v>45847</v>
       </c>
       <c r="B193" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I194</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I194</f>
         <v>4.3400000000000001E-2</v>
       </c>
       <c r="C193" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J194</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J194</f>
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="D193" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K194</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K194</f>
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="E193" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L194</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L194</f>
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
@@ -14658,19 +14656,19 @@
         <v>45848</v>
       </c>
       <c r="B194" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I195</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I195</f>
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="C194" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J195</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J195</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="D194" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K195</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K195</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E194" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L195</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L195</f>
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
@@ -14680,19 +14678,19 @@
         <v>45849</v>
       </c>
       <c r="B195" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I196</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I196</f>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="C195" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J196</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J196</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="D195" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K196</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K196</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E195" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L196</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L196</f>
         <v>0.05</v>
       </c>
     </row>
@@ -14702,19 +14700,19 @@
         <v>45850</v>
       </c>
       <c r="B196" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I197</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I197</f>
         <v>4.3400000000000001E-2</v>
       </c>
       <c r="C196" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J197</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J197</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="D196" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K197</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K197</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E196" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L197</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L197</f>
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
@@ -14724,19 +14722,19 @@
         <v>45851</v>
       </c>
       <c r="B197" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I198</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I198</f>
         <v>4.3400000000000001E-2</v>
       </c>
       <c r="C197" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J198</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J198</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="D197" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K198</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K198</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E197" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L198</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L198</f>
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
@@ -14746,19 +14744,19 @@
         <v>45852</v>
       </c>
       <c r="B198" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I199</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I199</f>
         <v>4.3400000000000001E-2</v>
       </c>
       <c r="C198" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J199</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J199</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="D198" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K199</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K199</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E198" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L199</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L199</f>
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
@@ -14768,19 +14766,19 @@
         <v>45853</v>
       </c>
       <c r="B199" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I200</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I200</f>
         <v>4.3400000000000001E-2</v>
       </c>
       <c r="C199" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J200</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J200</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="D199" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K200</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K200</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E199" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L200</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L200</f>
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
@@ -14790,19 +14788,19 @@
         <v>45854</v>
       </c>
       <c r="B200" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I201</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I201</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="C200" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J201</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J201</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="D200" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K201</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K201</f>
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="E200" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L201</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L201</f>
         <v>5.11E-2</v>
       </c>
     </row>
@@ -14812,19 +14810,19 @@
         <v>45855</v>
       </c>
       <c r="B201" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I202</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I202</f>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="C201" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J202</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J202</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="D201" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K202</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K202</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E201" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L202</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L202</f>
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
@@ -14834,19 +14832,19 @@
         <v>45856</v>
       </c>
       <c r="B202" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I203</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I203</f>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="C202" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J203</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J203</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="D202" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K203</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K203</f>
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E202" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L203</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L203</f>
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
@@ -14856,19 +14854,19 @@
         <v>45857</v>
       </c>
       <c r="B203" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I204</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I204</f>
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="C203" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J204</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J204</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="D203" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K204</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K204</f>
         <v>4.82E-2</v>
       </c>
       <c r="E203" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L204</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L204</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -14878,19 +14876,19 @@
         <v>45858</v>
       </c>
       <c r="B204" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I205</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I205</f>
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="C204" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J205</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J205</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="D204" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K205</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K205</f>
         <v>4.82E-2</v>
       </c>
       <c r="E204" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L205</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L205</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -14900,19 +14898,19 @@
         <v>45859</v>
       </c>
       <c r="B205" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I206</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I206</f>
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="C205" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J206</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J206</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="D205" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K206</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K206</f>
         <v>4.82E-2</v>
       </c>
       <c r="E205" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L206</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L206</f>
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
@@ -14922,19 +14920,19 @@
         <v>45860</v>
       </c>
       <c r="B206" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I207</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I207</f>
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="C206" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J207</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J207</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D206" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K207</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K207</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E206" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L207</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L207</f>
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
@@ -14944,19 +14942,19 @@
         <v>45861</v>
       </c>
       <c r="B207" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I208</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I208</f>
         <v>4.2299999999999997E-2</v>
       </c>
       <c r="C207" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J208</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J208</f>
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="D207" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K208</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K208</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="E207" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L208</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L208</f>
         <v>4.99E-2</v>
       </c>
     </row>
@@ -14966,19 +14964,19 @@
         <v>45862</v>
       </c>
       <c r="B208" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I209</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I209</f>
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="C208" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J209</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J209</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D208" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K209</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K209</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E208" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L209</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L209</f>
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
@@ -14988,19 +14986,19 @@
         <v>45863</v>
       </c>
       <c r="B209" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I210</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I210</f>
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="C209" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J210</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J210</f>
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="D209" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K210</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K210</f>
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="E209" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L210</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L210</f>
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
@@ -15010,19 +15008,19 @@
         <v>45864</v>
       </c>
       <c r="B210" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I211</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I211</f>
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="C210" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J211</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J211</f>
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="D210" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K211</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K211</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E210" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L211</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L211</f>
         <v>4.99E-2</v>
       </c>
     </row>
@@ -15032,19 +15030,19 @@
         <v>45865</v>
       </c>
       <c r="B211" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I212</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I212</f>
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="C211" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J212</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J212</f>
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="D211" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K212</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K212</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E211" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L212</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L212</f>
         <v>4.99E-2</v>
       </c>
     </row>
@@ -15054,19 +15052,19 @@
         <v>45866</v>
       </c>
       <c r="B212" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I213</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I213</f>
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="C212" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J213</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J213</f>
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="D212" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K213</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K213</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E212" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L213</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L213</f>
         <v>4.99E-2</v>
       </c>
     </row>
@@ -15076,19 +15074,19 @@
         <v>45867</v>
       </c>
       <c r="B213" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I214</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I214</f>
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="C213" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J214</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J214</f>
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="D213" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K214</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K214</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E213" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L214</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L214</f>
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
@@ -15098,19 +15096,19 @@
         <v>45868</v>
       </c>
       <c r="B214" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I215</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I215</f>
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="C214" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J215</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J215</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="D214" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K215</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K215</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="E214" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L215</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L215</f>
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
@@ -15120,19 +15118,19 @@
         <v>45869</v>
       </c>
       <c r="B215" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I216</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I216</f>
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="C215" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J216</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J216</f>
         <v>4.53E-2</v>
       </c>
       <c r="D215" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K216</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K216</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="E215" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L216</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L216</f>
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
@@ -15142,19 +15140,19 @@
         <v>45870</v>
       </c>
       <c r="B216" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I217</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I217</f>
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="C216" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J217</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J217</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D216" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K217</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K217</f>
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E216" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L217</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L217</f>
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
@@ -15164,19 +15162,19 @@
         <v>45871</v>
       </c>
       <c r="B217" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I218</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I218</f>
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="C217" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J218</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J218</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="D217" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K218</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K218</f>
         <v>4.65E-2</v>
       </c>
       <c r="E217" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L218</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L218</f>
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
@@ -15186,19 +15184,19 @@
         <v>45872</v>
       </c>
       <c r="B218" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I219</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I219</f>
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="C218" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J219</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J219</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="D218" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K219</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K219</f>
         <v>4.65E-2</v>
       </c>
       <c r="E218" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L219</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L219</f>
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
@@ -15208,19 +15206,19 @@
         <v>45873</v>
       </c>
       <c r="B219" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I220</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I220</f>
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="C219" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J220</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J220</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="D219" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K220</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K220</f>
         <v>4.65E-2</v>
       </c>
       <c r="E219" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L220</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L220</f>
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
@@ -15230,19 +15228,19 @@
         <v>45874</v>
       </c>
       <c r="B220" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I221</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I221</f>
         <v>4.1200000000000001E-2</v>
       </c>
       <c r="C220" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J221</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J221</f>
         <v>4.41E-2</v>
       </c>
       <c r="D220" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K221</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K221</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="E220" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L221</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L221</f>
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
@@ -15252,19 +15250,19 @@
         <v>45875</v>
       </c>
       <c r="B221" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I222</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I222</f>
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="C221" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J222</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J222</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="D221" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K222</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K222</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="E221" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L222</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L222</f>
         <v>4.87E-2</v>
       </c>
     </row>
@@ -15274,19 +15272,19 @@
         <v>45876</v>
       </c>
       <c r="B222" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I223</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I223</f>
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="C222" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J223</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J223</f>
         <v>4.41E-2</v>
       </c>
       <c r="D222" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K223</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K223</f>
         <v>4.65E-2</v>
       </c>
       <c r="E222" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L223</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L223</f>
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
@@ -15296,19 +15294,19 @@
         <v>45877</v>
       </c>
       <c r="B223" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I224</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I224</f>
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="C223" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J224</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J224</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="D223" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K224</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K224</f>
         <v>4.65E-2</v>
       </c>
       <c r="E223" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L224</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L224</f>
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
@@ -15318,19 +15316,19 @@
         <v>45878</v>
       </c>
       <c r="B224" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I225</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I225</f>
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="C224" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J225</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J225</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="D224" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K225</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K225</f>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="E224" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L225</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L225</f>
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
@@ -15340,19 +15338,19 @@
         <v>45879</v>
       </c>
       <c r="B225" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I226</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I226</f>
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="C225" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J226</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J226</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="D225" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K226</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K226</f>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="E225" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L226</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L226</f>
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
@@ -15362,19 +15360,19 @@
         <v>45880</v>
       </c>
       <c r="B226" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I227</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I227</f>
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="C226" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J227</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J227</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="D226" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K227</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K227</f>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="E226" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L227</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L227</f>
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
@@ -15384,19 +15382,19 @@
         <v>45881</v>
       </c>
       <c r="B227" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I228</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I228</f>
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="C227" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J228</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J228</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="D227" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K228</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K228</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="E227" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L228</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L228</f>
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
@@ -15406,19 +15404,19 @@
         <v>45882</v>
       </c>
       <c r="B228" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I229</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I229</f>
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="C228" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J229</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J229</f>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="D228" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K229</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K229</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="E228" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L229</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L229</f>
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
@@ -15428,19 +15426,19 @@
         <v>45883</v>
       </c>
       <c r="B229" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I230</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I230</f>
         <v>4.0899999999999999E-2</v>
       </c>
       <c r="C229" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J230</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J230</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="D229" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K230</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K230</f>
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="E229" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L230</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L230</f>
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
@@ -15450,19 +15448,19 @@
         <v>45884</v>
       </c>
       <c r="B230" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I231</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I231</f>
         <v>4.1200000000000001E-2</v>
       </c>
       <c r="C230" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J231</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J231</f>
         <v>4.41E-2</v>
       </c>
       <c r="D230" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K231</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K231</f>
         <v>4.65E-2</v>
       </c>
       <c r="E230" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L231</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L231</f>
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
@@ -15472,19 +15470,19 @@
         <v>45885</v>
       </c>
       <c r="B231" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I232</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I232</f>
         <v>4.1399999999999999E-2</v>
       </c>
       <c r="C231" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J232</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J232</f>
         <v>4.4299999999999999E-2</v>
       </c>
       <c r="D231" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K232</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K232</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="E231" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L232</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L232</f>
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
@@ -15494,19 +15492,19 @@
         <v>45886</v>
       </c>
       <c r="B232" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I233</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I233</f>
         <v>4.1399999999999999E-2</v>
       </c>
       <c r="C232" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J233</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J233</f>
         <v>4.4299999999999999E-2</v>
       </c>
       <c r="D232" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K233</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K233</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="E232" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L233</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L233</f>
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
@@ -15516,19 +15514,19 @@
         <v>45887</v>
       </c>
       <c r="B233" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I234</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I234</f>
         <v>4.1399999999999999E-2</v>
       </c>
       <c r="C233" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J234</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J234</f>
         <v>4.4299999999999999E-2</v>
       </c>
       <c r="D233" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K234</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K234</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="E233" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L234</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L234</f>
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
@@ -15538,19 +15536,19 @@
         <v>45888</v>
       </c>
       <c r="B234" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I235</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I235</f>
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="C234" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J235</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J235</f>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="D234" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K235</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K235</f>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="E234" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L235</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L235</f>
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
@@ -15560,19 +15558,19 @@
         <v>45889</v>
       </c>
       <c r="B235" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I236</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I236</f>
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="C235" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J236</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J236</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="D235" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K236</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K236</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="E235" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L236</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L236</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -15582,19 +15580,19 @@
         <v>45890</v>
       </c>
       <c r="B236" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I237</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I237</f>
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="C236" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J237</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J237</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="D236" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K237</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K237</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="E236" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L237</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L237</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -15604,19 +15602,19 @@
         <v>45891</v>
       </c>
       <c r="B237" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I238</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I238</f>
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="C237" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J238</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J238</f>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="D237" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K238</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K238</f>
         <v>4.7E-2</v>
       </c>
       <c r="E237" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L238</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L238</f>
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
@@ -15626,19 +15624,19 @@
         <v>45892</v>
       </c>
       <c r="B238" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I239</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I239</f>
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="C238" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J239</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J239</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="D238" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K239</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K239</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="E238" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L239</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L239</f>
         <v>4.87E-2</v>
       </c>
     </row>
@@ -15648,19 +15646,19 @@
         <v>45893</v>
       </c>
       <c r="B239" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I240</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I240</f>
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="C239" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J240</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J240</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="D239" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K240</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K240</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="E239" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L240</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L240</f>
         <v>4.87E-2</v>
       </c>
     </row>
@@ -15670,19 +15668,19 @@
         <v>45894</v>
       </c>
       <c r="B240" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I241</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I241</f>
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="C240" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J241</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J241</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="D240" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K241</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K241</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="E240" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L241</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L241</f>
         <v>4.87E-2</v>
       </c>
     </row>
@@ -15692,19 +15690,19 @@
         <v>45895</v>
       </c>
       <c r="B241" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I242</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I242</f>
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="C241" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J242</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J242</f>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="D241" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K242</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K242</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="E241" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L242</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L242</f>
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
@@ -15714,19 +15712,19 @@
         <v>45896</v>
       </c>
       <c r="B242" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I243</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I243</f>
         <v>4.07E-2</v>
       </c>
       <c r="C242" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J243</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J243</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="D242" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K243</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K243</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="E242" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L243</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L243</f>
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
@@ -15736,19 +15734,19 @@
         <v>45897</v>
       </c>
       <c r="B243" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I244</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I244</f>
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="C243" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J244</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J244</f>
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="D243" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K244</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K244</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="E243" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L244</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L244</f>
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
@@ -15758,19 +15756,19 @@
         <v>45898</v>
       </c>
       <c r="B244" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I245</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I245</f>
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="C244" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J245</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J245</f>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="D244" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K245</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K245</f>
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="E244" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L245</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L245</f>
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
@@ -15780,19 +15778,19 @@
         <v>45899</v>
       </c>
       <c r="B245" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I246</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I246</f>
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="C245" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J246</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J246</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="D245" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K246</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K246</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="E245" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L246</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L246</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -15802,19 +15800,19 @@
         <v>45900</v>
       </c>
       <c r="B246" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I247</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I247</f>
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="C246" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J247</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J247</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="D246" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K247</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K247</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="E246" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L247</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L247</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -15824,19 +15822,19 @@
         <v>45901</v>
       </c>
       <c r="B247" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I248</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I248</f>
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="C247" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J248</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J248</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="D247" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K248</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K248</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="E247" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L248</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L248</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -15846,19 +15844,19 @@
         <v>45902</v>
       </c>
       <c r="B248" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I249</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I249</f>
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="C248" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J249</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J249</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="D248" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K249</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K249</f>
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="E248" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L249</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L249</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -15868,19 +15866,19 @@
         <v>45903</v>
       </c>
       <c r="B249" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I250</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I250</f>
         <v>4.1200000000000001E-2</v>
       </c>
       <c r="C249" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J250</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J250</f>
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="D249" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K250</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K250</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="E249" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L250</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L250</f>
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
@@ -15890,19 +15888,19 @@
         <v>45904</v>
       </c>
       <c r="B250" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I251</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I251</f>
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="C250" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J251</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J251</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="D250" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K251</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K251</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="E250" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L251</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L251</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -15912,19 +15910,19 @@
         <v>45905</v>
       </c>
       <c r="B251" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I252</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I252</f>
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="C251" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J252</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J252</f>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="D251" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K252</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K252</f>
         <v>4.58E-2</v>
       </c>
       <c r="E251" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L252</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L252</f>
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
@@ -15934,19 +15932,19 @@
         <v>45906</v>
       </c>
       <c r="B252" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I253</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I253</f>
         <v>3.95E-2</v>
       </c>
       <c r="C252" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J253</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J253</f>
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="D252" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K253</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K253</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E252" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L253</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L253</f>
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
@@ -15956,19 +15954,19 @@
         <v>45907</v>
       </c>
       <c r="B253" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I254</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I254</f>
         <v>3.95E-2</v>
       </c>
       <c r="C253" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J254</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J254</f>
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="D253" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K254</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K254</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E253" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L254</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L254</f>
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
@@ -15978,19 +15976,19 @@
         <v>45908</v>
       </c>
       <c r="B254" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I255</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I255</f>
         <v>3.95E-2</v>
       </c>
       <c r="C254" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J255</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J255</f>
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="D254" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K255</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K255</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E254" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L255</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L255</f>
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
@@ -16000,19 +15998,19 @@
         <v>45909</v>
       </c>
       <c r="B255" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I256</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I256</f>
         <v>3.9300000000000002E-2</v>
       </c>
       <c r="C255" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J256</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J256</f>
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="D255" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K256</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K256</f>
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="E255" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L256</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L256</f>
         <v>4.7E-2</v>
       </c>
     </row>
@@ -16022,19 +16020,19 @@
         <v>45910</v>
       </c>
       <c r="B256" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I257</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I257</f>
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="C256" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J257</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J257</f>
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="D256" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K257</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K257</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="E256" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L257</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L257</f>
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
@@ -16044,19 +16042,19 @@
         <v>45911</v>
       </c>
       <c r="B257" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I258</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I258</f>
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="C257" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J258</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J258</f>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="D257" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K258</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K258</f>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="E257" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L258</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L258</f>
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
@@ -16066,19 +16064,19 @@
         <v>45912</v>
       </c>
       <c r="B258" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I259</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I259</f>
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="C258" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J259</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J259</f>
         <v>4.1799999999999997E-2</v>
       </c>
       <c r="D258" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K259</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K259</f>
         <v>4.41E-2</v>
       </c>
       <c r="E258" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L259</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L259</f>
         <v>4.65E-2</v>
       </c>
     </row>
@@ -16088,19 +16086,19 @@
         <v>45913</v>
       </c>
       <c r="B259" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I260</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I260</f>
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="C259" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J260</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J260</f>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="D259" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K260</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K260</f>
         <v>4.4299999999999999E-2</v>
       </c>
       <c r="E259" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L260</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L260</f>
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
@@ -16110,19 +16108,19 @@
         <v>45914</v>
       </c>
       <c r="B260" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I261</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I261</f>
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="C260" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J261</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J261</f>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="D260" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K261</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K261</f>
         <v>4.4299999999999999E-2</v>
       </c>
       <c r="E260" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L261</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L261</f>
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
@@ -16132,19 +16130,19 @@
         <v>45915</v>
       </c>
       <c r="B261" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I262</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I262</f>
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="C261" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J262</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J262</f>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="D261" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K262</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K262</f>
         <v>4.4299999999999999E-2</v>
       </c>
       <c r="E261" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L262</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L262</f>
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
@@ -16154,19 +16152,19 @@
         <v>45916</v>
       </c>
       <c r="B262" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I263</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I263</f>
         <v>3.9E-2</v>
       </c>
       <c r="C262" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J263</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J263</f>
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="D262" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K263</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K263</f>
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="E262" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L263</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L263</f>
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
@@ -16176,19 +16174,19 @@
         <v>45917</v>
       </c>
       <c r="B263" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I264</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I264</f>
         <v>3.8800000000000001E-2</v>
       </c>
       <c r="C263" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J264</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J264</f>
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="D263" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K264</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K264</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="E263" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L264</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L264</f>
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
@@ -16198,19 +16196,19 @@
         <v>45918</v>
       </c>
       <c r="B264" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I265</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I265</f>
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="C264" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J265</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J265</f>
         <v>4.19E-2</v>
       </c>
       <c r="D264" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K265</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K265</f>
         <v>4.41E-2</v>
       </c>
       <c r="E264" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L265</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L265</f>
         <v>4.65E-2</v>
       </c>
     </row>
@@ -16220,19 +16218,19 @@
         <v>45919</v>
       </c>
       <c r="B265" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I266</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I266</f>
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="C265" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J266</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J266</f>
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="D265" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K266</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K266</f>
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="E265" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L266</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L266</f>
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
@@ -16242,19 +16240,19 @@
         <v>45920</v>
       </c>
       <c r="B266" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I267</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I267</f>
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="C266" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J267</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J267</f>
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="D266" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K267</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K267</f>
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="E266" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L267</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L267</f>
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
@@ -16264,19 +16262,19 @@
         <v>45921</v>
       </c>
       <c r="B267" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I268</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I268</f>
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="C267" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J268</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J268</f>
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="D267" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K268</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K268</f>
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="E267" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L268</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L268</f>
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
@@ -16286,19 +16284,19 @@
         <v>45922</v>
       </c>
       <c r="B268" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I269</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I269</f>
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="C268" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J269</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J269</f>
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="D268" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K269</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K269</f>
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="E268" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L269</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L269</f>
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
@@ -16308,19 +16306,19 @@
         <v>45923</v>
       </c>
       <c r="B269" s="17">
-        <f>'[1]Jumbo Bus Date to PDD'!I270</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I270</f>
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="C269" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!J270</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J270</f>
         <v>4.24E-2</v>
       </c>
       <c r="D269" s="48">
-        <f>'[1]Jumbo Bus Date to PDD'!K270</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K270</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="E269" s="5">
-        <f>'[1]Jumbo Bus Date to PDD'!L270</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L270</f>
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
@@ -16329,21 +16327,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H271</f>
         <v>45924</v>
       </c>
-      <c r="B270" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I271</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C270" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J271</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D270" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K271</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E270" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L271</f>
-        <v xml:space="preserve"> </v>
+      <c r="B270" s="17">
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I271</f>
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="C270" s="48">
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J271</f>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="D270" s="48">
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K271</f>
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="E270" s="5">
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L271</f>
+        <v>4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -16352,19 +16350,19 @@
         <v>45925</v>
       </c>
       <c r="B271" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I272</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I272</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C271" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J272</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J272</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D271" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K272</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K272</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E271" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L272</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L272</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16374,19 +16372,19 @@
         <v>45926</v>
       </c>
       <c r="B272" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I273</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I273</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C272" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J273</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J273</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D272" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K273</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K273</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E272" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L273</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L273</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16396,19 +16394,19 @@
         <v>45927</v>
       </c>
       <c r="B273" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I274</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I274</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C273" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J274</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J274</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D273" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K274</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K274</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E273" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L274</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L274</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16418,19 +16416,19 @@
         <v>45928</v>
       </c>
       <c r="B274" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I275</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I275</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C274" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J275</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J275</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D274" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K275</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K275</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E274" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L275</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L275</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16440,19 +16438,19 @@
         <v>45929</v>
       </c>
       <c r="B275" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I276</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I276</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C275" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J276</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J276</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D275" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K276</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K276</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E275" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L276</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L276</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16462,19 +16460,19 @@
         <v>45930</v>
       </c>
       <c r="B276" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I277</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I277</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C276" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J277</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J277</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D276" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K277</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K277</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E276" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L277</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L277</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16484,19 +16482,19 @@
         <v>45931</v>
       </c>
       <c r="B277" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I278</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I278</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C277" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J278</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J278</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D277" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K278</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K278</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E277" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L278</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L278</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16506,19 +16504,19 @@
         <v>45932</v>
       </c>
       <c r="B278" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I279</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I279</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C278" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J279</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J279</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D278" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K279</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K279</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E278" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L279</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L279</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16528,19 +16526,19 @@
         <v>45933</v>
       </c>
       <c r="B279" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I280</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I280</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C279" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J280</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J280</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D279" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K280</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K280</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E279" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L280</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L280</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16550,19 +16548,19 @@
         <v>45934</v>
       </c>
       <c r="B280" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I281</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I281</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C280" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J281</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J281</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D280" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K281</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K281</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E280" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L281</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L281</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16572,19 +16570,19 @@
         <v>45935</v>
       </c>
       <c r="B281" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I282</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I282</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C281" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J282</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J282</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D281" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K282</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K282</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E281" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L282</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L282</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16594,19 +16592,19 @@
         <v>45936</v>
       </c>
       <c r="B282" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I283</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I283</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C282" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J283</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J283</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D282" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K283</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K283</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E282" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L283</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L283</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16616,19 +16614,19 @@
         <v>45937</v>
       </c>
       <c r="B283" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I284</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I284</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C283" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J284</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J284</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D283" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K284</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K284</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E283" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L284</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L284</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16638,19 +16636,19 @@
         <v>45938</v>
       </c>
       <c r="B284" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I285</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I285</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C284" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J285</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J285</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D284" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K285</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K285</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E284" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L285</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L285</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16660,19 +16658,19 @@
         <v>45939</v>
       </c>
       <c r="B285" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I286</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I286</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C285" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J286</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J286</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D285" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K286</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K286</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E285" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L286</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L286</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16682,19 +16680,19 @@
         <v>45940</v>
       </c>
       <c r="B286" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I287</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I287</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C286" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J287</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J287</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D286" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K287</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K287</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E286" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L287</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L287</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16704,19 +16702,19 @@
         <v>45941</v>
       </c>
       <c r="B287" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I288</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I288</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C287" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J288</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J288</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D287" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K288</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K288</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E287" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L288</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L288</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16726,19 +16724,19 @@
         <v>45942</v>
       </c>
       <c r="B288" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I289</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I289</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C288" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J289</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J289</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D288" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K289</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K289</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E288" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L289</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L289</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16748,19 +16746,19 @@
         <v>45943</v>
       </c>
       <c r="B289" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I290</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I290</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C289" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J290</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J290</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D289" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K290</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K290</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E289" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L290</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L290</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16770,19 +16768,19 @@
         <v>45944</v>
       </c>
       <c r="B290" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I291</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I291</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C290" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J291</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J291</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D290" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K291</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K291</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E290" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L291</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L291</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16792,19 +16790,19 @@
         <v>45945</v>
       </c>
       <c r="B291" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I292</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I292</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C291" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J292</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J292</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D291" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K292</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K292</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E291" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L292</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L292</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16814,19 +16812,19 @@
         <v>45946</v>
       </c>
       <c r="B292" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I293</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I293</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C292" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J293</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J293</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D292" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K293</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K293</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E292" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L293</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L293</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16836,19 +16834,19 @@
         <v>45947</v>
       </c>
       <c r="B293" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I294</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I294</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C293" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J294</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J294</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D293" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K294</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K294</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E293" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L294</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L294</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16858,19 +16856,19 @@
         <v>45948</v>
       </c>
       <c r="B294" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I295</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I295</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C294" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J295</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J295</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D294" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K295</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K295</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E294" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L295</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L295</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16880,19 +16878,19 @@
         <v>45949</v>
       </c>
       <c r="B295" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I296</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I296</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C295" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J296</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J296</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D295" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K296</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K296</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E295" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L296</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L296</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16902,19 +16900,19 @@
         <v>45950</v>
       </c>
       <c r="B296" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I297</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I297</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C296" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J297</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J297</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D296" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K297</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K297</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E296" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L297</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L297</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16924,19 +16922,19 @@
         <v>45951</v>
       </c>
       <c r="B297" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I298</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I298</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C297" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J298</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J298</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D297" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K298</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K298</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E297" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L298</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L298</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16946,19 +16944,19 @@
         <v>45952</v>
       </c>
       <c r="B298" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I299</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I299</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C298" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J299</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J299</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D298" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K299</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K299</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E298" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L299</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L299</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16968,19 +16966,19 @@
         <v>45953</v>
       </c>
       <c r="B299" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I300</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I300</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C299" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J300</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J300</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D299" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K300</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K300</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E299" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L300</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L300</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16990,19 +16988,19 @@
         <v>45954</v>
       </c>
       <c r="B300" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I301</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I301</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C300" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J301</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J301</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D300" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K301</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K301</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E300" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L301</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L301</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17012,19 +17010,19 @@
         <v>45955</v>
       </c>
       <c r="B301" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I302</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I302</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C301" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J302</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J302</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D301" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K302</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K302</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E301" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L302</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L302</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17034,19 +17032,19 @@
         <v>45956</v>
       </c>
       <c r="B302" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I303</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I303</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C302" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J303</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J303</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D302" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K303</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K303</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E302" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L303</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L303</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17056,19 +17054,19 @@
         <v>45957</v>
       </c>
       <c r="B303" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I304</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I304</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C303" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J304</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J304</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D303" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K304</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K304</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E303" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L304</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L304</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17078,19 +17076,19 @@
         <v>45958</v>
       </c>
       <c r="B304" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I305</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I305</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C304" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J305</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J305</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D304" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K305</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K305</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E304" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L305</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L305</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17100,19 +17098,19 @@
         <v>45959</v>
       </c>
       <c r="B305" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I306</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I306</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C305" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J306</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J306</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D305" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K306</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K306</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E305" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L306</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L306</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17122,19 +17120,19 @@
         <v>45960</v>
       </c>
       <c r="B306" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I307</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I307</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C306" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J307</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J307</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D306" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K307</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K307</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E306" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L307</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L307</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17144,19 +17142,19 @@
         <v>45961</v>
       </c>
       <c r="B307" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I308</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I308</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C307" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J308</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J308</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D307" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K308</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K308</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E307" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L308</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L308</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17166,19 +17164,19 @@
         <v>45962</v>
       </c>
       <c r="B308" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I309</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I309</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C308" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J309</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J309</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D308" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K309</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K309</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E308" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L309</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L309</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17188,19 +17186,19 @@
         <v>45963</v>
       </c>
       <c r="B309" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I310</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I310</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C309" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J310</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J310</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D309" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K310</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K310</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E309" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L310</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L310</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17210,19 +17208,19 @@
         <v>45964</v>
       </c>
       <c r="B310" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I311</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I311</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C310" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J311</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J311</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D310" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K311</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K311</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E310" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L311</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L311</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17232,19 +17230,19 @@
         <v>45965</v>
       </c>
       <c r="B311" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I312</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I312</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C311" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J312</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J312</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D311" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K312</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K312</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E311" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L312</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L312</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17254,19 +17252,19 @@
         <v>45966</v>
       </c>
       <c r="B312" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I313</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I313</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C312" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J313</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J313</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D312" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K313</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K313</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E312" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L313</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L313</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17276,19 +17274,19 @@
         <v>45967</v>
       </c>
       <c r="B313" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I314</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I314</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C313" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J314</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J314</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D313" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K314</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K314</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E313" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L314</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L314</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17298,19 +17296,19 @@
         <v>45968</v>
       </c>
       <c r="B314" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I315</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I315</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C314" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J315</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J315</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D314" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K315</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K315</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E314" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L315</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L315</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17320,19 +17318,19 @@
         <v>45969</v>
       </c>
       <c r="B315" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I316</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I316</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C315" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J316</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J316</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D315" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K316</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K316</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E315" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L316</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L316</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17342,19 +17340,19 @@
         <v>45970</v>
       </c>
       <c r="B316" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I317</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I317</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C316" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J317</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J317</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D316" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K317</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K317</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E316" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L317</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L317</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17364,19 +17362,19 @@
         <v>45971</v>
       </c>
       <c r="B317" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I318</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I318</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C317" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J318</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J318</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D317" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K318</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K318</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E317" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L318</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L318</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17386,19 +17384,19 @@
         <v>45972</v>
       </c>
       <c r="B318" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I319</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I319</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C318" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J319</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J319</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D318" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K319</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K319</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E318" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L319</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L319</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17408,19 +17406,19 @@
         <v>45973</v>
       </c>
       <c r="B319" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I320</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I320</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C319" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J320</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J320</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D319" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K320</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K320</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E319" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L320</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L320</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17430,19 +17428,19 @@
         <v>45974</v>
       </c>
       <c r="B320" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I321</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I321</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C320" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J321</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J321</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D320" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K321</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K321</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E320" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L321</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L321</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17452,19 +17450,19 @@
         <v>45975</v>
       </c>
       <c r="B321" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I322</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I322</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C321" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J322</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J322</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D321" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K322</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K322</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E321" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L322</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L322</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17474,19 +17472,19 @@
         <v>45976</v>
       </c>
       <c r="B322" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I323</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I323</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C322" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J323</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J323</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D322" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K323</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K323</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E322" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L323</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L323</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17496,19 +17494,19 @@
         <v>45977</v>
       </c>
       <c r="B323" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I324</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I324</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C323" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J324</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J324</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D323" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K324</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K324</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E323" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L324</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L324</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17518,19 +17516,19 @@
         <v>45978</v>
       </c>
       <c r="B324" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I325</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I325</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C324" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J325</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J325</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D324" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K325</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K325</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E324" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L325</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L325</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17540,19 +17538,19 @@
         <v>45979</v>
       </c>
       <c r="B325" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I326</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I326</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C325" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J326</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J326</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D325" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K326</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K326</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E325" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L326</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L326</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17562,19 +17560,19 @@
         <v>45980</v>
       </c>
       <c r="B326" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I327</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I327</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C326" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J327</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J327</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D326" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K327</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K327</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E326" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L327</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L327</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17584,19 +17582,19 @@
         <v>45981</v>
       </c>
       <c r="B327" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I328</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I328</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C327" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J328</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J328</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D327" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K328</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K328</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E327" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L328</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L328</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17606,19 +17604,19 @@
         <v>45982</v>
       </c>
       <c r="B328" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I329</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I329</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C328" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J329</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J329</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D328" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K329</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K329</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E328" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L329</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L329</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17628,19 +17626,19 @@
         <v>45983</v>
       </c>
       <c r="B329" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I330</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I330</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C329" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J330</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J330</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D329" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K330</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K330</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E329" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L330</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L330</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17650,19 +17648,19 @@
         <v>45984</v>
       </c>
       <c r="B330" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I331</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I331</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C330" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J331</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J331</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D330" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K331</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K331</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E330" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L331</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L331</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17672,19 +17670,19 @@
         <v>45985</v>
       </c>
       <c r="B331" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I332</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I332</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C331" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J332</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J332</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D331" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K332</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K332</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E331" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L332</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L332</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17694,19 +17692,19 @@
         <v>45986</v>
       </c>
       <c r="B332" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I333</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I333</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C332" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J333</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J333</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D332" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K333</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K333</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E332" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L333</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L333</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17716,19 +17714,19 @@
         <v>45987</v>
       </c>
       <c r="B333" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I334</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I334</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C333" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J334</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J334</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D333" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K334</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K334</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E333" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L334</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L334</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17738,19 +17736,19 @@
         <v>45988</v>
       </c>
       <c r="B334" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I335</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I335</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C334" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J335</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J335</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D334" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K335</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K335</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E334" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L335</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L335</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17760,19 +17758,19 @@
         <v>45989</v>
       </c>
       <c r="B335" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I336</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I336</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C335" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J336</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J336</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D335" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K336</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K336</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E335" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L336</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L336</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17782,19 +17780,19 @@
         <v>45990</v>
       </c>
       <c r="B336" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I337</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I337</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C336" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J337</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J337</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D336" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K337</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K337</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E336" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L337</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L337</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17804,19 +17802,19 @@
         <v>45991</v>
       </c>
       <c r="B337" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I338</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I338</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C337" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J338</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J338</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D337" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K338</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K338</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E337" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L338</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L338</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17826,19 +17824,19 @@
         <v>45992</v>
       </c>
       <c r="B338" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I339</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I339</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C338" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J339</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J339</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D338" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K339</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K339</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E338" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L339</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L339</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17848,19 +17846,19 @@
         <v>45993</v>
       </c>
       <c r="B339" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I340</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I340</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C339" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J340</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J340</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D339" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K340</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K340</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E339" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L340</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L340</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17870,19 +17868,19 @@
         <v>45994</v>
       </c>
       <c r="B340" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I341</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I341</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C340" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J341</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J341</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D340" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K341</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K341</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E340" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L341</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L341</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17892,19 +17890,19 @@
         <v>45995</v>
       </c>
       <c r="B341" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I342</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I342</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C341" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J342</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J342</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D341" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K342</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K342</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E341" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L342</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L342</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17914,19 +17912,19 @@
         <v>45996</v>
       </c>
       <c r="B342" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I343</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I343</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C342" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J343</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J343</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D342" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K343</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K343</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E342" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L343</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L343</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17936,19 +17934,19 @@
         <v>45997</v>
       </c>
       <c r="B343" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I344</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I344</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C343" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J344</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J344</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D343" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K344</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K344</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E343" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L344</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L344</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17958,19 +17956,19 @@
         <v>45998</v>
       </c>
       <c r="B344" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I345</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I345</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C344" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J345</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J345</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D344" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K345</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K345</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E344" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L345</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L345</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -17980,19 +17978,19 @@
         <v>45999</v>
       </c>
       <c r="B345" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I346</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I346</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C345" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J346</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J346</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D345" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K346</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K346</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E345" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L346</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L346</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18002,19 +18000,19 @@
         <v>46000</v>
       </c>
       <c r="B346" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I347</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I347</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C346" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J347</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J347</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D346" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K347</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K347</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E346" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L347</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L347</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18024,19 +18022,19 @@
         <v>46001</v>
       </c>
       <c r="B347" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I348</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I348</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C347" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J348</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J348</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D347" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K348</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K348</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E347" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L348</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L348</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18046,19 +18044,19 @@
         <v>46002</v>
       </c>
       <c r="B348" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I349</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I349</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C348" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J349</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J349</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D348" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K349</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K349</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E348" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L349</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L349</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18068,19 +18066,19 @@
         <v>46003</v>
       </c>
       <c r="B349" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I350</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I350</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C349" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J350</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J350</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D349" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K350</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K350</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E349" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L350</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L350</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18090,19 +18088,19 @@
         <v>46004</v>
       </c>
       <c r="B350" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I351</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I351</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C350" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J351</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J351</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D350" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K351</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K351</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E350" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L351</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L351</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18112,19 +18110,19 @@
         <v>46005</v>
       </c>
       <c r="B351" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I352</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I352</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C351" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J352</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J352</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D351" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K352</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K352</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E351" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L352</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L352</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18134,19 +18132,19 @@
         <v>46006</v>
       </c>
       <c r="B352" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I353</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I353</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C352" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J353</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J353</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D352" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K353</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K353</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E352" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L353</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L353</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18156,19 +18154,19 @@
         <v>46007</v>
       </c>
       <c r="B353" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I354</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I354</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C353" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J354</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J354</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D353" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K354</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K354</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E353" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L354</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L354</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18178,19 +18176,19 @@
         <v>46008</v>
       </c>
       <c r="B354" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I355</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I355</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C354" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J355</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J355</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D354" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K355</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K355</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E354" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L355</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L355</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18200,19 +18198,19 @@
         <v>46009</v>
       </c>
       <c r="B355" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I356</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I356</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C355" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J356</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J356</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D355" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K356</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K356</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E355" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L356</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L356</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18222,19 +18220,19 @@
         <v>46010</v>
       </c>
       <c r="B356" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I357</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I357</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C356" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J357</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J357</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D356" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K357</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K357</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E356" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L357</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L357</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18244,19 +18242,19 @@
         <v>46011</v>
       </c>
       <c r="B357" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I358</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I358</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C357" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J358</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J358</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D357" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K358</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K358</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E357" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L358</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L358</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18266,19 +18264,19 @@
         <v>46012</v>
       </c>
       <c r="B358" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I359</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I359</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C358" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J359</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J359</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D358" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K359</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K359</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E358" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L359</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L359</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18288,19 +18286,19 @@
         <v>46013</v>
       </c>
       <c r="B359" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I360</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I360</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C359" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J360</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J360</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D359" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K360</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K360</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E359" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L360</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L360</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18310,19 +18308,19 @@
         <v>46014</v>
       </c>
       <c r="B360" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I361</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I361</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C360" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J361</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J361</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D360" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K361</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K361</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E360" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L361</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L361</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18332,19 +18330,19 @@
         <v>46015</v>
       </c>
       <c r="B361" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I362</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I362</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C361" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J362</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J362</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D361" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K362</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K362</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E361" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L362</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L362</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18354,19 +18352,19 @@
         <v>46016</v>
       </c>
       <c r="B362" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I363</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I363</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C362" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J363</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J363</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D362" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K363</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K363</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E362" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L363</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L363</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18376,19 +18374,19 @@
         <v>46017</v>
       </c>
       <c r="B363" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I364</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I364</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C363" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J364</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J364</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D363" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K364</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K364</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E363" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L364</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L364</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18398,19 +18396,19 @@
         <v>46018</v>
       </c>
       <c r="B364" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I365</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I365</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C364" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J365</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J365</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D364" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K365</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K365</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E364" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L365</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L365</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18420,19 +18418,19 @@
         <v>46019</v>
       </c>
       <c r="B365" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I366</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I366</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C365" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J366</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J366</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D365" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K366</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K366</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E365" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L366</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L366</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18442,19 +18440,19 @@
         <v>46020</v>
       </c>
       <c r="B366" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I367</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I367</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C366" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J367</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J367</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D366" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K367</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K367</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E366" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L367</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L367</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18464,19 +18462,19 @@
         <v>46021</v>
       </c>
       <c r="B367" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I368</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I368</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C367" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J368</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J368</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D367" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K368</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K368</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E367" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L368</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L368</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18486,19 +18484,19 @@
         <v>46022</v>
       </c>
       <c r="B368" s="17" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I369</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I369</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C368" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J369</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J369</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D368" s="48" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K369</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K369</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E368" s="5" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L369</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L369</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18508,19 +18506,19 @@
         <v>46023</v>
       </c>
       <c r="B369" s="37" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!I370</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!I370</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C369" s="38" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!J370</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!J370</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D369" s="38" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!K370</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!K370</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E369" s="39" t="str">
-        <f>'[1]Jumbo Bus Date to PDD'!L370</f>
+        <f ca="1">'[1]Jumbo Bus Date to PDD'!L370</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -18660,19 +18658,19 @@
         <v>4/1/2025 - 6/30/2025</v>
       </c>
       <c r="B7" s="9">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$19),"",'[1]Non-Jumbo Rates'!$D$19)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$19),"",'[1]Non-Jumbo Rates'!$D$19)</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C7" s="9">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$20),"",'[1]Non-Jumbo Rates'!$D$20)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$20),"",'[1]Non-Jumbo Rates'!$D$20)</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="D7" s="10">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$21),"",'[1]Non-Jumbo Rates'!$D$21)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$21),"",'[1]Non-Jumbo Rates'!$D$21)</f>
         <v>0.05</v>
       </c>
       <c r="E7" s="9">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$22),"",'[1]Non-Jumbo Rates'!$D$22)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$22),"",'[1]Non-Jumbo Rates'!$D$22)</f>
         <v>0.05</v>
       </c>
     </row>
@@ -18682,19 +18680,19 @@
         <v>7/1/2025 - 9/30/2025</v>
       </c>
       <c r="B8" s="51">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$24),"",'[1]Non-Jumbo Rates'!$D$24)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$24),"",'[1]Non-Jumbo Rates'!$D$24)</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C8" s="9">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$25),"",'[1]Non-Jumbo Rates'!$D$25)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$25),"",'[1]Non-Jumbo Rates'!$D$25)</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="D8" s="10">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$26),"",'[1]Non-Jumbo Rates'!$D$26)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$26),"",'[1]Non-Jumbo Rates'!$D$26)</f>
         <v>0.05</v>
       </c>
       <c r="E8" s="9">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$27),"",'[1]Non-Jumbo Rates'!$D$27)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$27),"",'[1]Non-Jumbo Rates'!$D$27)</f>
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
@@ -18704,19 +18702,19 @@
         <v>10/1/2025 - 12/31/2025</v>
       </c>
       <c r="B9" s="11" t="str">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$29),"",'[1]Non-Jumbo Rates'!$D$29)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$29),"",'[1]Non-Jumbo Rates'!$D$29)</f>
         <v/>
       </c>
       <c r="C9" s="11" t="str">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$30),"",'[1]Non-Jumbo Rates'!$D$30)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$30),"",'[1]Non-Jumbo Rates'!$D$30)</f>
         <v/>
       </c>
       <c r="D9" s="12" t="str">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$31),"",'[1]Non-Jumbo Rates'!$D$31)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$31),"",'[1]Non-Jumbo Rates'!$D$31)</f>
         <v/>
       </c>
       <c r="E9" s="11" t="str">
-        <f>IF(ISNA('[1]Non-Jumbo Rates'!$D$32),"",'[1]Non-Jumbo Rates'!$D$32)</f>
+        <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$32),"",'[1]Non-Jumbo Rates'!$D$32)</f>
         <v/>
       </c>
     </row>
@@ -19392,182 +19390,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="str" cm="1">
+      <c r="A1" s="66" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="M1" s="62" t="str" cm="1">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="M1" s="66" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="64"/>
-      <c r="Y1" s="62" t="str" cm="1">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="68"/>
+      <c r="Y1" s="66" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="64"/>
-      <c r="AK1" s="62" t="str" cm="1">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="68"/>
+      <c r="AK1" s="66" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="str">
+      <c r="A2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="M2" s="65" t="str">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="M2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="67"/>
-      <c r="Y2" s="65" t="str">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="Y2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="67"/>
-      <c r="AK2" s="65" t="str">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64"/>
+      <c r="AK2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="67"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="64"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="68" t="s">
+      <c r="AL3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -25269,18 +25267,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AK1:AU1"/>
+    <mergeCell ref="AK2:AU2"/>
+    <mergeCell ref="AL3:AU3"/>
+    <mergeCell ref="Y1:AI1"/>
+    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="Z3:AI3"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:W1"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="N3:W3"/>
-    <mergeCell ref="AK1:AU1"/>
-    <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="AL3:AU3"/>
-    <mergeCell ref="Y1:AI1"/>
-    <mergeCell ref="Y2:AI2"/>
-    <mergeCell ref="Z3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E22852-047E-40CC-B007-BBFC3812EF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF13F8D7-D0E3-4DE2-BA85-08A6B89143AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="1590" windowWidth="22395" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2535" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,6 +576,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,15 +595,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +628,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>488950</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8446,17 +8446,17 @@
           <cell r="H272">
             <v>45925</v>
           </cell>
-          <cell r="I272" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J272" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K272" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L272" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I272">
+            <v>3.9800000000000002E-2</v>
+          </cell>
+          <cell r="J272">
+            <v>4.2599999999999999E-2</v>
+          </cell>
+          <cell r="K272">
+            <v>4.4900000000000002E-2</v>
+          </cell>
+          <cell r="L272">
+            <v>4.7300000000000002E-2</v>
           </cell>
         </row>
         <row r="273">
@@ -10426,16 +10426,16 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
       <c r="B1" s="52" t="s">
         <v>4</v>
@@ -10444,7 +10444,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +10453,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H5</f>
         <v>45658</v>
@@ -10492,7 +10492,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H6</f>
         <v>45659</v>
@@ -10514,7 +10514,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H7</f>
         <v>45660</v>
@@ -10536,7 +10536,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H8</f>
         <v>45661</v>
@@ -10558,7 +10558,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H9</f>
         <v>45662</v>
@@ -10580,7 +10580,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H10</f>
         <v>45663</v>
@@ -10602,7 +10602,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H11</f>
         <v>45664</v>
@@ -10624,7 +10624,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H12</f>
         <v>45665</v>
@@ -10646,7 +10646,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H13</f>
         <v>45666</v>
@@ -10668,7 +10668,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H14</f>
         <v>45667</v>
@@ -10690,7 +10690,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H15</f>
         <v>45668</v>
@@ -10712,7 +10712,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H16</f>
         <v>45669</v>
@@ -10734,7 +10734,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H17</f>
         <v>45670</v>
@@ -10756,7 +10756,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H18</f>
         <v>45671</v>
@@ -10778,7 +10778,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H19</f>
         <v>45672</v>
@@ -10800,7 +10800,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H20</f>
         <v>45673</v>
@@ -10822,7 +10822,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H21</f>
         <v>45674</v>
@@ -10844,7 +10844,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H22</f>
         <v>45675</v>
@@ -10866,7 +10866,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H23</f>
         <v>45676</v>
@@ -10888,7 +10888,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H24</f>
         <v>45677</v>
@@ -10910,7 +10910,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H25</f>
         <v>45678</v>
@@ -10932,7 +10932,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H26</f>
         <v>45679</v>
@@ -10954,7 +10954,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H27</f>
         <v>45680</v>
@@ -10976,7 +10976,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H28</f>
         <v>45681</v>
@@ -10998,7 +10998,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H29</f>
         <v>45682</v>
@@ -11020,7 +11020,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H30</f>
         <v>45683</v>
@@ -11042,7 +11042,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H31</f>
         <v>45684</v>
@@ -11064,7 +11064,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H32</f>
         <v>45685</v>
@@ -11086,7 +11086,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H33</f>
         <v>45686</v>
@@ -11108,7 +11108,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H34</f>
         <v>45687</v>
@@ -11130,7 +11130,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H35</f>
         <v>45688</v>
@@ -11152,7 +11152,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H36</f>
         <v>45689</v>
@@ -11174,7 +11174,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H37</f>
         <v>45690</v>
@@ -11196,7 +11196,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H38</f>
         <v>45691</v>
@@ -11218,7 +11218,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H39</f>
         <v>45692</v>
@@ -11240,7 +11240,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H40</f>
         <v>45693</v>
@@ -11262,7 +11262,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H41</f>
         <v>45694</v>
@@ -11284,7 +11284,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H42</f>
         <v>45695</v>
@@ -11306,7 +11306,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H43</f>
         <v>45696</v>
@@ -11328,7 +11328,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H44</f>
         <v>45697</v>
@@ -11350,7 +11350,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H45</f>
         <v>45698</v>
@@ -11372,7 +11372,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H46</f>
         <v>45699</v>
@@ -11394,7 +11394,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H47</f>
         <v>45700</v>
@@ -11416,7 +11416,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H48</f>
         <v>45701</v>
@@ -11438,7 +11438,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H49</f>
         <v>45702</v>
@@ -11460,7 +11460,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H50</f>
         <v>45703</v>
@@ -11482,7 +11482,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H51</f>
         <v>45704</v>
@@ -11504,7 +11504,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H52</f>
         <v>45705</v>
@@ -11526,7 +11526,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H53</f>
         <v>45706</v>
@@ -11548,7 +11548,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H54</f>
         <v>45707</v>
@@ -11570,7 +11570,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H55</f>
         <v>45708</v>
@@ -11592,7 +11592,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H56</f>
         <v>45709</v>
@@ -11614,7 +11614,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H57</f>
         <v>45710</v>
@@ -11636,7 +11636,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H58</f>
         <v>45711</v>
@@ -11658,7 +11658,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H59</f>
         <v>45712</v>
@@ -11680,7 +11680,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H60</f>
         <v>45713</v>
@@ -11702,7 +11702,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H61</f>
         <v>45714</v>
@@ -11724,7 +11724,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H62</f>
         <v>45715</v>
@@ -11746,7 +11746,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H63</f>
         <v>45716</v>
@@ -11768,7 +11768,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H64</f>
         <v>45717</v>
@@ -11790,7 +11790,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H65</f>
         <v>45718</v>
@@ -11812,7 +11812,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H66</f>
         <v>45719</v>
@@ -11834,7 +11834,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H67</f>
         <v>45720</v>
@@ -11856,7 +11856,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H68</f>
         <v>45721</v>
@@ -11878,7 +11878,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H69</f>
         <v>45722</v>
@@ -11900,7 +11900,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H70</f>
         <v>45723</v>
@@ -11922,7 +11922,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H71</f>
         <v>45724</v>
@@ -11944,7 +11944,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H72</f>
         <v>45725</v>
@@ -11966,7 +11966,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H73</f>
         <v>45726</v>
@@ -11988,7 +11988,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H74</f>
         <v>45727</v>
@@ -12010,7 +12010,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H75</f>
         <v>45728</v>
@@ -12032,7 +12032,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H76</f>
         <v>45729</v>
@@ -12054,7 +12054,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H77</f>
         <v>45730</v>
@@ -12076,7 +12076,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H78</f>
         <v>45731</v>
@@ -12098,7 +12098,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H79</f>
         <v>45732</v>
@@ -12120,7 +12120,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H80</f>
         <v>45733</v>
@@ -12142,7 +12142,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H81</f>
         <v>45734</v>
@@ -12164,7 +12164,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H82</f>
         <v>45735</v>
@@ -12186,7 +12186,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H83</f>
         <v>45736</v>
@@ -12208,7 +12208,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H84</f>
         <v>45737</v>
@@ -12230,7 +12230,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H85</f>
         <v>45738</v>
@@ -12252,7 +12252,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H86</f>
         <v>45739</v>
@@ -12274,7 +12274,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H87</f>
         <v>45740</v>
@@ -12296,7 +12296,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H88</f>
         <v>45741</v>
@@ -12318,7 +12318,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H89</f>
         <v>45742</v>
@@ -12340,7 +12340,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H90</f>
         <v>45743</v>
@@ -12362,7 +12362,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H91</f>
         <v>45744</v>
@@ -12384,7 +12384,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H92</f>
         <v>45745</v>
@@ -12406,7 +12406,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H93</f>
         <v>45746</v>
@@ -12428,7 +12428,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H94</f>
         <v>45747</v>
@@ -12450,7 +12450,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H95</f>
         <v>45748</v>
@@ -12472,7 +12472,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H96</f>
         <v>45749</v>
@@ -12494,7 +12494,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H97</f>
         <v>45750</v>
@@ -12516,7 +12516,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H98</f>
         <v>45751</v>
@@ -12538,7 +12538,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H99</f>
         <v>45752</v>
@@ -12560,7 +12560,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H100</f>
         <v>45753</v>
@@ -12582,7 +12582,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H101</f>
         <v>45754</v>
@@ -12604,7 +12604,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H102</f>
         <v>45755</v>
@@ -12626,7 +12626,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H103</f>
         <v>45756</v>
@@ -12648,7 +12648,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H104</f>
         <v>45757</v>
@@ -12670,7 +12670,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H105</f>
         <v>45758</v>
@@ -12692,7 +12692,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H106</f>
         <v>45759</v>
@@ -12714,7 +12714,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H107</f>
         <v>45760</v>
@@ -12736,7 +12736,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H108</f>
         <v>45761</v>
@@ -12758,7 +12758,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H109</f>
         <v>45762</v>
@@ -12780,7 +12780,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H110</f>
         <v>45763</v>
@@ -12802,7 +12802,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H111</f>
         <v>45764</v>
@@ -12824,7 +12824,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H112</f>
         <v>45765</v>
@@ -12846,7 +12846,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H113</f>
         <v>45766</v>
@@ -12868,7 +12868,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H114</f>
         <v>45767</v>
@@ -12890,7 +12890,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H115</f>
         <v>45768</v>
@@ -12912,7 +12912,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H116</f>
         <v>45769</v>
@@ -12934,7 +12934,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H117</f>
         <v>45770</v>
@@ -12956,7 +12956,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H118</f>
         <v>45771</v>
@@ -12978,7 +12978,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H119</f>
         <v>45772</v>
@@ -13000,7 +13000,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H120</f>
         <v>45773</v>
@@ -13022,7 +13022,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H121</f>
         <v>45774</v>
@@ -13044,7 +13044,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H122</f>
         <v>45775</v>
@@ -13066,7 +13066,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H123</f>
         <v>45776</v>
@@ -13088,7 +13088,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H124</f>
         <v>45777</v>
@@ -13110,7 +13110,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H125</f>
         <v>45778</v>
@@ -13132,7 +13132,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H126</f>
         <v>45779</v>
@@ -13154,7 +13154,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H127</f>
         <v>45780</v>
@@ -13176,7 +13176,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H128</f>
         <v>45781</v>
@@ -13198,7 +13198,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H129</f>
         <v>45782</v>
@@ -13220,7 +13220,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H130</f>
         <v>45783</v>
@@ -13242,7 +13242,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H131</f>
         <v>45784</v>
@@ -13264,7 +13264,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H132</f>
         <v>45785</v>
@@ -13286,7 +13286,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H133</f>
         <v>45786</v>
@@ -13308,7 +13308,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H134</f>
         <v>45787</v>
@@ -13330,7 +13330,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H135</f>
         <v>45788</v>
@@ -13352,7 +13352,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H136</f>
         <v>45789</v>
@@ -13374,7 +13374,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H137</f>
         <v>45790</v>
@@ -13396,7 +13396,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H138</f>
         <v>45791</v>
@@ -13418,7 +13418,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H139</f>
         <v>45792</v>
@@ -13440,7 +13440,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H140</f>
         <v>45793</v>
@@ -13462,7 +13462,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H141</f>
         <v>45794</v>
@@ -13484,7 +13484,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H142</f>
         <v>45795</v>
@@ -13506,7 +13506,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H143</f>
         <v>45796</v>
@@ -13528,7 +13528,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H144</f>
         <v>45797</v>
@@ -13550,7 +13550,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H145</f>
         <v>45798</v>
@@ -13572,7 +13572,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H146</f>
         <v>45799</v>
@@ -13594,7 +13594,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H147</f>
         <v>45800</v>
@@ -13616,7 +13616,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H148</f>
         <v>45801</v>
@@ -13638,7 +13638,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H149</f>
         <v>45802</v>
@@ -13660,7 +13660,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H150</f>
         <v>45803</v>
@@ -13682,7 +13682,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H151</f>
         <v>45804</v>
@@ -13704,7 +13704,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H152</f>
         <v>45805</v>
@@ -13726,7 +13726,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H153</f>
         <v>45806</v>
@@ -13748,7 +13748,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H154</f>
         <v>45807</v>
@@ -13770,7 +13770,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H155</f>
         <v>45808</v>
@@ -13792,7 +13792,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H156</f>
         <v>45809</v>
@@ -13814,7 +13814,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H157</f>
         <v>45810</v>
@@ -13836,7 +13836,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H158</f>
         <v>45811</v>
@@ -13858,7 +13858,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H159</f>
         <v>45812</v>
@@ -13880,7 +13880,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H160</f>
         <v>45813</v>
@@ -13902,7 +13902,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H161</f>
         <v>45814</v>
@@ -13924,7 +13924,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H162</f>
         <v>45815</v>
@@ -13946,7 +13946,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H163</f>
         <v>45816</v>
@@ -13968,7 +13968,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H164</f>
         <v>45817</v>
@@ -13990,7 +13990,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H165</f>
         <v>45818</v>
@@ -14012,7 +14012,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H166</f>
         <v>45819</v>
@@ -14034,7 +14034,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H167</f>
         <v>45820</v>
@@ -14056,7 +14056,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H168</f>
         <v>45821</v>
@@ -14078,7 +14078,7 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H169</f>
         <v>45822</v>
@@ -14100,7 +14100,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H170</f>
         <v>45823</v>
@@ -14122,7 +14122,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H171</f>
         <v>45824</v>
@@ -14144,7 +14144,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H172</f>
         <v>45825</v>
@@ -14166,7 +14166,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H173</f>
         <v>45826</v>
@@ -14188,7 +14188,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H174</f>
         <v>45827</v>
@@ -14210,7 +14210,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H175</f>
         <v>45828</v>
@@ -14232,7 +14232,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H176</f>
         <v>45829</v>
@@ -14254,7 +14254,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H177</f>
         <v>45830</v>
@@ -14276,7 +14276,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H178</f>
         <v>45831</v>
@@ -14298,7 +14298,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H179</f>
         <v>45832</v>
@@ -14320,7 +14320,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H180</f>
         <v>45833</v>
@@ -14342,7 +14342,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H181</f>
         <v>45834</v>
@@ -14364,7 +14364,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H182</f>
         <v>45835</v>
@@ -14386,7 +14386,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H183</f>
         <v>45836</v>
@@ -14408,7 +14408,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H184</f>
         <v>45837</v>
@@ -14430,7 +14430,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H185</f>
         <v>45838</v>
@@ -14452,7 +14452,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H186</f>
         <v>45839</v>
@@ -14474,7 +14474,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H187</f>
         <v>45840</v>
@@ -14496,7 +14496,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H188</f>
         <v>45841</v>
@@ -14518,7 +14518,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H189</f>
         <v>45842</v>
@@ -14540,7 +14540,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H190</f>
         <v>45843</v>
@@ -14562,7 +14562,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H191</f>
         <v>45844</v>
@@ -14584,7 +14584,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H192</f>
         <v>45845</v>
@@ -14606,7 +14606,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H193</f>
         <v>45846</v>
@@ -14628,7 +14628,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H194</f>
         <v>45847</v>
@@ -14650,7 +14650,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H195</f>
         <v>45848</v>
@@ -14672,7 +14672,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H196</f>
         <v>45849</v>
@@ -14694,7 +14694,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H197</f>
         <v>45850</v>
@@ -14716,7 +14716,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H198</f>
         <v>45851</v>
@@ -14738,7 +14738,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H199</f>
         <v>45852</v>
@@ -14760,7 +14760,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H200</f>
         <v>45853</v>
@@ -14782,7 +14782,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H201</f>
         <v>45854</v>
@@ -14804,7 +14804,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H202</f>
         <v>45855</v>
@@ -14826,7 +14826,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H203</f>
         <v>45856</v>
@@ -14848,7 +14848,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H204</f>
         <v>45857</v>
@@ -14870,7 +14870,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H205</f>
         <v>45858</v>
@@ -14892,7 +14892,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H206</f>
         <v>45859</v>
@@ -14914,7 +14914,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H207</f>
         <v>45860</v>
@@ -14936,7 +14936,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H208</f>
         <v>45861</v>
@@ -14958,7 +14958,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H209</f>
         <v>45862</v>
@@ -14980,7 +14980,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H210</f>
         <v>45863</v>
@@ -15002,7 +15002,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H211</f>
         <v>45864</v>
@@ -15024,7 +15024,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H212</f>
         <v>45865</v>
@@ -15046,7 +15046,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H213</f>
         <v>45866</v>
@@ -15068,7 +15068,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H214</f>
         <v>45867</v>
@@ -15090,7 +15090,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H215</f>
         <v>45868</v>
@@ -15112,7 +15112,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H216</f>
         <v>45869</v>
@@ -15134,7 +15134,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H217</f>
         <v>45870</v>
@@ -15156,7 +15156,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H218</f>
         <v>45871</v>
@@ -15178,7 +15178,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H219</f>
         <v>45872</v>
@@ -15200,7 +15200,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H220</f>
         <v>45873</v>
@@ -15222,7 +15222,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H221</f>
         <v>45874</v>
@@ -15244,7 +15244,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H222</f>
         <v>45875</v>
@@ -15266,7 +15266,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H223</f>
         <v>45876</v>
@@ -15288,7 +15288,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H224</f>
         <v>45877</v>
@@ -15310,7 +15310,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H225</f>
         <v>45878</v>
@@ -15332,7 +15332,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H226</f>
         <v>45879</v>
@@ -15354,7 +15354,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H227</f>
         <v>45880</v>
@@ -15376,7 +15376,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H228</f>
         <v>45881</v>
@@ -15398,7 +15398,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H229</f>
         <v>45882</v>
@@ -15420,7 +15420,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H230</f>
         <v>45883</v>
@@ -15442,7 +15442,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H231</f>
         <v>45884</v>
@@ -15464,7 +15464,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H232</f>
         <v>45885</v>
@@ -15486,7 +15486,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H233</f>
         <v>45886</v>
@@ -15508,7 +15508,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H234</f>
         <v>45887</v>
@@ -15530,7 +15530,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H235</f>
         <v>45888</v>
@@ -15552,7 +15552,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H236</f>
         <v>45889</v>
@@ -15574,7 +15574,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H237</f>
         <v>45890</v>
@@ -15596,7 +15596,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H238</f>
         <v>45891</v>
@@ -15618,7 +15618,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H239</f>
         <v>45892</v>
@@ -15640,7 +15640,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H240</f>
         <v>45893</v>
@@ -15662,7 +15662,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H241</f>
         <v>45894</v>
@@ -15684,7 +15684,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H242</f>
         <v>45895</v>
@@ -15706,7 +15706,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H243</f>
         <v>45896</v>
@@ -15728,7 +15728,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H244</f>
         <v>45897</v>
@@ -15750,7 +15750,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H245</f>
         <v>45898</v>
@@ -15772,7 +15772,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H246</f>
         <v>45899</v>
@@ -15794,7 +15794,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H247</f>
         <v>45900</v>
@@ -15816,7 +15816,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H248</f>
         <v>45901</v>
@@ -15838,7 +15838,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H249</f>
         <v>45902</v>
@@ -15860,7 +15860,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H250</f>
         <v>45903</v>
@@ -15882,7 +15882,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H251</f>
         <v>45904</v>
@@ -15904,7 +15904,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H252</f>
         <v>45905</v>
@@ -15926,7 +15926,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H253</f>
         <v>45906</v>
@@ -15948,7 +15948,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H254</f>
         <v>45907</v>
@@ -15970,7 +15970,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H255</f>
         <v>45908</v>
@@ -15992,7 +15992,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H256</f>
         <v>45909</v>
@@ -16014,7 +16014,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H257</f>
         <v>45910</v>
@@ -16036,7 +16036,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H258</f>
         <v>45911</v>
@@ -16058,7 +16058,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H259</f>
         <v>45912</v>
@@ -16080,7 +16080,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H260</f>
         <v>45913</v>
@@ -16102,7 +16102,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H261</f>
         <v>45914</v>
@@ -16124,7 +16124,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H262</f>
         <v>45915</v>
@@ -16146,7 +16146,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H263</f>
         <v>45916</v>
@@ -16168,7 +16168,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H264</f>
         <v>45917</v>
@@ -16190,7 +16190,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H265</f>
         <v>45918</v>
@@ -16212,7 +16212,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H266</f>
         <v>45919</v>
@@ -16234,7 +16234,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H267</f>
         <v>45920</v>
@@ -16256,7 +16256,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H268</f>
         <v>45921</v>
@@ -16278,7 +16278,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H269</f>
         <v>45922</v>
@@ -16300,7 +16300,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H270</f>
         <v>45923</v>
@@ -16322,7 +16322,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H271</f>
         <v>45924</v>
@@ -16344,29 +16344,29 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H272</f>
         <v>45925</v>
       </c>
-      <c r="B271" s="17" t="str">
+      <c r="B271" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I272</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C271" s="48" t="str">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="C271" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J272</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D271" s="48" t="str">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="D271" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K272</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E271" s="5" t="str">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="E271" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L272</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.7300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H273</f>
         <v>45926</v>
@@ -16388,7 +16388,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H274</f>
         <v>45927</v>
@@ -16410,7 +16410,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H275</f>
         <v>45928</v>
@@ -16432,7 +16432,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H276</f>
         <v>45929</v>
@@ -16454,7 +16454,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H277</f>
         <v>45930</v>
@@ -16476,7 +16476,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H278</f>
         <v>45931</v>
@@ -16498,7 +16498,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H279</f>
         <v>45932</v>
@@ -16520,7 +16520,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H280</f>
         <v>45933</v>
@@ -16542,7 +16542,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H281</f>
         <v>45934</v>
@@ -16564,7 +16564,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H282</f>
         <v>45935</v>
@@ -16586,7 +16586,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H283</f>
         <v>45936</v>
@@ -16608,7 +16608,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H284</f>
         <v>45937</v>
@@ -16630,7 +16630,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H285</f>
         <v>45938</v>
@@ -16652,7 +16652,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H286</f>
         <v>45939</v>
@@ -16674,7 +16674,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H287</f>
         <v>45940</v>
@@ -16696,7 +16696,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H288</f>
         <v>45941</v>
@@ -16718,7 +16718,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H289</f>
         <v>45942</v>
@@ -16740,7 +16740,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H290</f>
         <v>45943</v>
@@ -16762,7 +16762,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H291</f>
         <v>45944</v>
@@ -16784,7 +16784,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H292</f>
         <v>45945</v>
@@ -16806,7 +16806,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H293</f>
         <v>45946</v>
@@ -16828,7 +16828,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H294</f>
         <v>45947</v>
@@ -16850,7 +16850,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H295</f>
         <v>45948</v>
@@ -16872,7 +16872,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H296</f>
         <v>45949</v>
@@ -16894,7 +16894,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H297</f>
         <v>45950</v>
@@ -16916,7 +16916,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H298</f>
         <v>45951</v>
@@ -16938,7 +16938,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H299</f>
         <v>45952</v>
@@ -16960,7 +16960,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H300</f>
         <v>45953</v>
@@ -16982,7 +16982,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H301</f>
         <v>45954</v>
@@ -17004,7 +17004,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H302</f>
         <v>45955</v>
@@ -17026,7 +17026,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H303</f>
         <v>45956</v>
@@ -17048,7 +17048,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H304</f>
         <v>45957</v>
@@ -17070,7 +17070,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H305</f>
         <v>45958</v>
@@ -17092,7 +17092,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H306</f>
         <v>45959</v>
@@ -17114,7 +17114,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H307</f>
         <v>45960</v>
@@ -17136,7 +17136,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H308</f>
         <v>45961</v>
@@ -17158,7 +17158,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H309</f>
         <v>45962</v>
@@ -17180,7 +17180,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H310</f>
         <v>45963</v>
@@ -17202,7 +17202,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H311</f>
         <v>45964</v>
@@ -17224,7 +17224,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H312</f>
         <v>45965</v>
@@ -17246,7 +17246,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H313</f>
         <v>45966</v>
@@ -17268,7 +17268,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H314</f>
         <v>45967</v>
@@ -17290,7 +17290,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H315</f>
         <v>45968</v>
@@ -17312,7 +17312,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H316</f>
         <v>45969</v>
@@ -17334,7 +17334,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H317</f>
         <v>45970</v>
@@ -17356,7 +17356,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H318</f>
         <v>45971</v>
@@ -17378,7 +17378,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H319</f>
         <v>45972</v>
@@ -17400,7 +17400,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H320</f>
         <v>45973</v>
@@ -17422,7 +17422,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H321</f>
         <v>45974</v>
@@ -17444,7 +17444,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H322</f>
         <v>45975</v>
@@ -17466,7 +17466,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H323</f>
         <v>45976</v>
@@ -17488,7 +17488,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H324</f>
         <v>45977</v>
@@ -17510,7 +17510,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H325</f>
         <v>45978</v>
@@ -17532,7 +17532,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H326</f>
         <v>45979</v>
@@ -17554,7 +17554,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H327</f>
         <v>45980</v>
@@ -17576,7 +17576,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H328</f>
         <v>45981</v>
@@ -17598,7 +17598,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H329</f>
         <v>45982</v>
@@ -17620,7 +17620,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H330</f>
         <v>45983</v>
@@ -17642,7 +17642,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H331</f>
         <v>45984</v>
@@ -17664,7 +17664,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H332</f>
         <v>45985</v>
@@ -17686,7 +17686,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H333</f>
         <v>45986</v>
@@ -17708,7 +17708,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H334</f>
         <v>45987</v>
@@ -17730,7 +17730,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H335</f>
         <v>45988</v>
@@ -17752,7 +17752,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H336</f>
         <v>45989</v>
@@ -17774,7 +17774,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H337</f>
         <v>45990</v>
@@ -17796,7 +17796,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H338</f>
         <v>45991</v>
@@ -17818,7 +17818,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H339</f>
         <v>45992</v>
@@ -17840,7 +17840,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H340</f>
         <v>45993</v>
@@ -17862,7 +17862,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H341</f>
         <v>45994</v>
@@ -17884,7 +17884,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H342</f>
         <v>45995</v>
@@ -17906,7 +17906,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H343</f>
         <v>45996</v>
@@ -17928,7 +17928,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H344</f>
         <v>45997</v>
@@ -17950,7 +17950,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H345</f>
         <v>45998</v>
@@ -17972,7 +17972,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H346</f>
         <v>45999</v>
@@ -17994,7 +17994,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H347</f>
         <v>46000</v>
@@ -18016,7 +18016,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H348</f>
         <v>46001</v>
@@ -18038,7 +18038,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H349</f>
         <v>46002</v>
@@ -18060,7 +18060,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H350</f>
         <v>46003</v>
@@ -18082,7 +18082,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H351</f>
         <v>46004</v>
@@ -18104,7 +18104,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H352</f>
         <v>46005</v>
@@ -18126,7 +18126,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H353</f>
         <v>46006</v>
@@ -18148,7 +18148,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H354</f>
         <v>46007</v>
@@ -18170,7 +18170,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H355</f>
         <v>46008</v>
@@ -18192,7 +18192,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H356</f>
         <v>46009</v>
@@ -18214,7 +18214,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H357</f>
         <v>46010</v>
@@ -18236,7 +18236,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H358</f>
         <v>46011</v>
@@ -18258,7 +18258,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H359</f>
         <v>46012</v>
@@ -18280,7 +18280,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H360</f>
         <v>46013</v>
@@ -18302,7 +18302,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H361</f>
         <v>46014</v>
@@ -18324,7 +18324,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H362</f>
         <v>46015</v>
@@ -18346,7 +18346,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H363</f>
         <v>46016</v>
@@ -18368,7 +18368,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H364</f>
         <v>46017</v>
@@ -18390,7 +18390,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H365</f>
         <v>46018</v>
@@ -18412,7 +18412,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H366</f>
         <v>46019</v>
@@ -18434,7 +18434,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H367</f>
         <v>46020</v>
@@ -18456,7 +18456,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H368</f>
         <v>46021</v>
@@ -18478,7 +18478,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H369</f>
         <v>46022</v>
@@ -18500,7 +18500,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="46">
         <f>'[1]Jumbo Bus Date to PDD'!H370</f>
         <v>46023</v>
@@ -18522,37 +18522,37 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="15"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="15"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="15"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="15"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="15"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="15"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="15"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="15"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="15"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="15"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="15"/>
     </row>
   </sheetData>
@@ -18573,13 +18573,13 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="5" width="13.42578125" customWidth="1"/>
+    <col min="2" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
@@ -18588,14 +18588,14 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="52" t="s">
         <v>5</v>
@@ -18604,7 +18604,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="54"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -18613,7 +18613,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")</f>
         <v>1/1/2025 - 3/31/2025</v>
@@ -18652,7 +18652,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")</f>
         <v>4/1/2025 - 6/30/2025</v>
@@ -18674,7 +18674,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")</f>
         <v>7/1/2025 - 9/30/2025</v>
@@ -18696,7 +18696,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,10,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,12,31),"m/d/yyyy")</f>
         <v>10/1/2025 - 12/31/2025</v>
@@ -18718,7 +18718,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="49"/>
     </row>
   </sheetData>
@@ -18740,13 +18740,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>9</v>
       </c>
@@ -18755,7 +18755,7 @@
       <c r="D1" s="61"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
         <v>38</v>
       </c>
@@ -18764,12 +18764,12 @@
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
@@ -18778,7 +18778,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -18819,7 +18819,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -18843,7 +18843,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -18867,7 +18867,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
@@ -18891,7 +18891,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -18899,7 +18899,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -18907,7 +18907,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -18917,7 +18917,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
@@ -18927,7 +18927,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -19041,7 +19041,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -19049,7 +19049,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -19059,7 +19059,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
@@ -19069,7 +19069,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
@@ -19085,7 +19085,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>0</v>
       </c>
@@ -19105,7 +19105,7 @@
       <c r="F24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -19125,7 +19125,7 @@
       <c r="F25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
@@ -19145,7 +19145,7 @@
       <c r="F26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>3</v>
       </c>
@@ -19165,7 +19165,7 @@
       <c r="F27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -19174,7 +19174,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -19185,7 +19185,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="58" t="s">
         <v>10</v>
       </c>
@@ -19196,7 +19196,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
@@ -19254,7 +19254,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -19289,7 +19289,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>2</v>
       </c>
@@ -19324,7 +19324,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
@@ -19381,193 +19381,193 @@
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="str" cm="1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="M1" s="66" t="str" cm="1">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="M1" s="62" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
-      <c r="Y1" s="66" t="str" cm="1">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
+      <c r="Y1" s="62" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="68"/>
-      <c r="AK1" s="66" t="str" cm="1">
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
+      <c r="AK1" s="62" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="68"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="str">
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="M2" s="62" t="str">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="M2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64"/>
-      <c r="Y2" s="62" t="str">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
+      <c r="Y2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="64"/>
-      <c r="AK2" s="62" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AK2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="64"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="67"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="65" t="s">
+      <c r="Z3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="65" t="s">
+      <c r="AL3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="42">
         <v>3</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="42">
         <v>5</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="42">
         <v>6</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="42">
         <v>7</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="42">
         <v>8</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="42">
         <v>9</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>10</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
         <v>11</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="42">
         <v>12</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="42">
         <v>13</v>
       </c>
@@ -22133,7 +22133,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="42">
         <v>14</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="42">
         <v>15</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="42">
         <v>16</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="42">
         <v>17</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="42">
         <v>18</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="42">
         <v>19</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="42">
         <v>20</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="42">
         <v>21</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="42">
         <v>22</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="42">
         <v>23</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="42">
         <v>24</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="42">
         <v>25</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="42">
         <v>26</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="42">
         <v>27</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="42">
         <v>28</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="42">
         <v>29</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="42">
         <v>30</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="42" t="s">
         <v>37</v>
       </c>
@@ -25267,18 +25267,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AK1:AU1"/>
     <mergeCell ref="AK2:AU2"/>
     <mergeCell ref="AL3:AU3"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="Y2:AI2"/>
     <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25294,7 +25294,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <sheetProtection password="9690" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25315,7 +25315,7 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>488950</xdr:colOff>
                 <xdr:row>20</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF13F8D7-D0E3-4DE2-BA85-08A6B89143AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84164D06-BB2F-4551-BB51-BA067FB83167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2535" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,15 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,6 +586,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8463,68 +8463,68 @@
           <cell r="H273">
             <v>45926</v>
           </cell>
-          <cell r="I273" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J273" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K273" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L273" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I273">
+            <v>4.0300000000000002E-2</v>
+          </cell>
+          <cell r="J273">
+            <v>4.2999999999999997E-2</v>
+          </cell>
+          <cell r="K273">
+            <v>4.5199999999999997E-2</v>
+          </cell>
+          <cell r="L273">
+            <v>4.7600000000000003E-2</v>
           </cell>
         </row>
         <row r="274">
           <cell r="H274">
             <v>45927</v>
           </cell>
-          <cell r="I274" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J274" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K274" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L274" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I274">
+            <v>4.02E-2</v>
+          </cell>
+          <cell r="J274">
+            <v>4.2999999999999997E-2</v>
+          </cell>
+          <cell r="K274">
+            <v>4.5199999999999997E-2</v>
+          </cell>
+          <cell r="L274">
+            <v>4.7500000000000001E-2</v>
           </cell>
         </row>
         <row r="275">
           <cell r="H275">
             <v>45928</v>
           </cell>
-          <cell r="I275" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J275" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K275" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L275" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I275">
+            <v>4.02E-2</v>
+          </cell>
+          <cell r="J275">
+            <v>4.2999999999999997E-2</v>
+          </cell>
+          <cell r="K275">
+            <v>4.5199999999999997E-2</v>
+          </cell>
+          <cell r="L275">
+            <v>4.7500000000000001E-2</v>
           </cell>
         </row>
         <row r="276">
           <cell r="H276">
             <v>45929</v>
           </cell>
-          <cell r="I276" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J276" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K276" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L276" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I276">
+            <v>4.02E-2</v>
+          </cell>
+          <cell r="J276">
+            <v>4.2999999999999997E-2</v>
+          </cell>
+          <cell r="K276">
+            <v>4.5199999999999997E-2</v>
+          </cell>
+          <cell r="L276">
+            <v>4.7500000000000001E-2</v>
           </cell>
         </row>
         <row r="277">
@@ -10423,7 +10423,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16371,21 +16371,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H273</f>
         <v>45926</v>
       </c>
-      <c r="B272" s="17" t="str">
+      <c r="B272" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I273</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C272" s="48" t="str">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="C272" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J273</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D272" s="48" t="str">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D272" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K273</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E272" s="5" t="str">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="E272" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L273</f>
-        <v xml:space="preserve"> </v>
+        <v>4.7600000000000003E-2</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
@@ -16393,21 +16393,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H274</f>
         <v>45927</v>
       </c>
-      <c r="B273" s="17" t="str">
+      <c r="B273" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I274</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C273" s="48" t="str">
+        <v>4.02E-2</v>
+      </c>
+      <c r="C273" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J274</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D273" s="48" t="str">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D273" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K274</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E273" s="5" t="str">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="E273" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L274</f>
-        <v xml:space="preserve"> </v>
+        <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
@@ -16415,21 +16415,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H275</f>
         <v>45928</v>
       </c>
-      <c r="B274" s="17" t="str">
+      <c r="B274" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I275</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C274" s="48" t="str">
+        <v>4.02E-2</v>
+      </c>
+      <c r="C274" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J275</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D274" s="48" t="str">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D274" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K275</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E274" s="5" t="str">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="E274" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L275</f>
-        <v xml:space="preserve"> </v>
+        <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
@@ -16437,21 +16437,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H276</f>
         <v>45929</v>
       </c>
-      <c r="B275" s="17" t="str">
+      <c r="B275" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I276</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C275" s="48" t="str">
+        <v>4.02E-2</v>
+      </c>
+      <c r="C275" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J276</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D275" s="48" t="str">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D275" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K276</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E275" s="5" t="str">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="E275" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L276</f>
-        <v xml:space="preserve"> </v>
+        <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
@@ -19390,182 +19390,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="str" cm="1">
+      <c r="A1" s="66" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="M1" s="62" t="str" cm="1">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="M1" s="66" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="64"/>
-      <c r="Y1" s="62" t="str" cm="1">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="68"/>
+      <c r="Y1" s="66" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="64"/>
-      <c r="AK1" s="62" t="str" cm="1">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="68"/>
+      <c r="AK1" s="66" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="str">
+      <c r="A2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="M2" s="65" t="str">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="M2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="67"/>
-      <c r="Y2" s="65" t="str">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="Y2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="67"/>
-      <c r="AK2" s="65" t="str">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64"/>
+      <c r="AK2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="67"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="64"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="68" t="s">
+      <c r="AL3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
@@ -25267,18 +25267,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AK1:AU1"/>
+    <mergeCell ref="AK2:AU2"/>
+    <mergeCell ref="AL3:AU3"/>
+    <mergeCell ref="Y1:AI1"/>
+    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="Z3:AI3"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:W1"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="N3:W3"/>
-    <mergeCell ref="AK1:AU1"/>
-    <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="AL3:AU3"/>
-    <mergeCell ref="Y1:AI1"/>
-    <mergeCell ref="Y2:AI2"/>
-    <mergeCell ref="Z3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84164D06-BB2F-4551-BB51-BA067FB83167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EB6ACE-5DDA-437C-B69C-B622136142F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,6 +576,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,15 +595,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +628,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>488950</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8531,17 +8531,17 @@
           <cell r="H277">
             <v>45930</v>
           </cell>
-          <cell r="I277" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J277" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K277" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L277" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I277">
+            <v>3.9899999999999998E-2</v>
+          </cell>
+          <cell r="J277">
+            <v>4.2599999999999999E-2</v>
+          </cell>
+          <cell r="K277">
+            <v>4.4699999999999997E-2</v>
+          </cell>
+          <cell r="L277">
+            <v>4.7E-2</v>
           </cell>
         </row>
         <row r="278">
@@ -10423,19 +10423,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E273" sqref="E273"/>
+      <selection pane="bottomLeft" activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="52" t="s">
         <v>4</v>
@@ -10444,7 +10444,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +10453,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H5</f>
         <v>45658</v>
@@ -10492,7 +10492,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H6</f>
         <v>45659</v>
@@ -10514,7 +10514,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H7</f>
         <v>45660</v>
@@ -10536,7 +10536,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H8</f>
         <v>45661</v>
@@ -10558,7 +10558,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H9</f>
         <v>45662</v>
@@ -10580,7 +10580,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H10</f>
         <v>45663</v>
@@ -10602,7 +10602,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H11</f>
         <v>45664</v>
@@ -10624,7 +10624,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H12</f>
         <v>45665</v>
@@ -10646,7 +10646,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H13</f>
         <v>45666</v>
@@ -10668,7 +10668,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H14</f>
         <v>45667</v>
@@ -10690,7 +10690,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H15</f>
         <v>45668</v>
@@ -10712,7 +10712,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H16</f>
         <v>45669</v>
@@ -10734,7 +10734,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H17</f>
         <v>45670</v>
@@ -10756,7 +10756,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H18</f>
         <v>45671</v>
@@ -10778,7 +10778,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H19</f>
         <v>45672</v>
@@ -10800,7 +10800,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H20</f>
         <v>45673</v>
@@ -10822,7 +10822,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H21</f>
         <v>45674</v>
@@ -10844,7 +10844,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H22</f>
         <v>45675</v>
@@ -10866,7 +10866,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H23</f>
         <v>45676</v>
@@ -10888,7 +10888,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H24</f>
         <v>45677</v>
@@ -10910,7 +10910,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H25</f>
         <v>45678</v>
@@ -10932,7 +10932,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H26</f>
         <v>45679</v>
@@ -10954,7 +10954,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H27</f>
         <v>45680</v>
@@ -10976,7 +10976,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H28</f>
         <v>45681</v>
@@ -10998,7 +10998,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H29</f>
         <v>45682</v>
@@ -11020,7 +11020,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H30</f>
         <v>45683</v>
@@ -11042,7 +11042,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H31</f>
         <v>45684</v>
@@ -11064,7 +11064,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H32</f>
         <v>45685</v>
@@ -11086,7 +11086,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H33</f>
         <v>45686</v>
@@ -11108,7 +11108,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H34</f>
         <v>45687</v>
@@ -11130,7 +11130,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H35</f>
         <v>45688</v>
@@ -11152,7 +11152,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H36</f>
         <v>45689</v>
@@ -11174,7 +11174,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H37</f>
         <v>45690</v>
@@ -11196,7 +11196,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H38</f>
         <v>45691</v>
@@ -11218,7 +11218,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H39</f>
         <v>45692</v>
@@ -11240,7 +11240,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H40</f>
         <v>45693</v>
@@ -11262,7 +11262,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H41</f>
         <v>45694</v>
@@ -11284,7 +11284,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H42</f>
         <v>45695</v>
@@ -11306,7 +11306,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H43</f>
         <v>45696</v>
@@ -11328,7 +11328,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H44</f>
         <v>45697</v>
@@ -11350,7 +11350,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H45</f>
         <v>45698</v>
@@ -11372,7 +11372,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H46</f>
         <v>45699</v>
@@ -11394,7 +11394,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H47</f>
         <v>45700</v>
@@ -11416,7 +11416,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H48</f>
         <v>45701</v>
@@ -11438,7 +11438,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H49</f>
         <v>45702</v>
@@ -11460,7 +11460,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H50</f>
         <v>45703</v>
@@ -11482,7 +11482,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H51</f>
         <v>45704</v>
@@ -11504,7 +11504,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H52</f>
         <v>45705</v>
@@ -11526,7 +11526,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H53</f>
         <v>45706</v>
@@ -11548,7 +11548,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H54</f>
         <v>45707</v>
@@ -11570,7 +11570,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H55</f>
         <v>45708</v>
@@ -11592,7 +11592,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H56</f>
         <v>45709</v>
@@ -11614,7 +11614,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H57</f>
         <v>45710</v>
@@ -11636,7 +11636,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H58</f>
         <v>45711</v>
@@ -11658,7 +11658,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H59</f>
         <v>45712</v>
@@ -11680,7 +11680,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H60</f>
         <v>45713</v>
@@ -11702,7 +11702,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H61</f>
         <v>45714</v>
@@ -11724,7 +11724,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H62</f>
         <v>45715</v>
@@ -11746,7 +11746,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H63</f>
         <v>45716</v>
@@ -11768,7 +11768,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H64</f>
         <v>45717</v>
@@ -11790,7 +11790,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H65</f>
         <v>45718</v>
@@ -11812,7 +11812,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H66</f>
         <v>45719</v>
@@ -11834,7 +11834,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H67</f>
         <v>45720</v>
@@ -11856,7 +11856,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H68</f>
         <v>45721</v>
@@ -11878,7 +11878,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H69</f>
         <v>45722</v>
@@ -11900,7 +11900,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H70</f>
         <v>45723</v>
@@ -11922,7 +11922,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H71</f>
         <v>45724</v>
@@ -11944,7 +11944,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H72</f>
         <v>45725</v>
@@ -11966,7 +11966,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H73</f>
         <v>45726</v>
@@ -11988,7 +11988,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H74</f>
         <v>45727</v>
@@ -12010,7 +12010,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H75</f>
         <v>45728</v>
@@ -12032,7 +12032,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H76</f>
         <v>45729</v>
@@ -12054,7 +12054,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H77</f>
         <v>45730</v>
@@ -12076,7 +12076,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H78</f>
         <v>45731</v>
@@ -12098,7 +12098,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H79</f>
         <v>45732</v>
@@ -12120,7 +12120,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H80</f>
         <v>45733</v>
@@ -12142,7 +12142,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H81</f>
         <v>45734</v>
@@ -12164,7 +12164,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H82</f>
         <v>45735</v>
@@ -12186,7 +12186,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H83</f>
         <v>45736</v>
@@ -12208,7 +12208,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H84</f>
         <v>45737</v>
@@ -12230,7 +12230,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H85</f>
         <v>45738</v>
@@ -12252,7 +12252,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H86</f>
         <v>45739</v>
@@ -12274,7 +12274,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H87</f>
         <v>45740</v>
@@ -12296,7 +12296,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H88</f>
         <v>45741</v>
@@ -12318,7 +12318,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H89</f>
         <v>45742</v>
@@ -12340,7 +12340,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H90</f>
         <v>45743</v>
@@ -12362,7 +12362,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H91</f>
         <v>45744</v>
@@ -12384,7 +12384,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H92</f>
         <v>45745</v>
@@ -12406,7 +12406,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H93</f>
         <v>45746</v>
@@ -12428,7 +12428,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H94</f>
         <v>45747</v>
@@ -12450,7 +12450,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H95</f>
         <v>45748</v>
@@ -12472,7 +12472,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H96</f>
         <v>45749</v>
@@ -12494,7 +12494,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H97</f>
         <v>45750</v>
@@ -12516,7 +12516,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H98</f>
         <v>45751</v>
@@ -12538,7 +12538,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H99</f>
         <v>45752</v>
@@ -12560,7 +12560,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H100</f>
         <v>45753</v>
@@ -12582,7 +12582,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H101</f>
         <v>45754</v>
@@ -12604,7 +12604,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H102</f>
         <v>45755</v>
@@ -12626,7 +12626,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H103</f>
         <v>45756</v>
@@ -12648,7 +12648,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H104</f>
         <v>45757</v>
@@ -12670,7 +12670,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H105</f>
         <v>45758</v>
@@ -12692,7 +12692,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H106</f>
         <v>45759</v>
@@ -12714,7 +12714,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H107</f>
         <v>45760</v>
@@ -12736,7 +12736,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H108</f>
         <v>45761</v>
@@ -12758,7 +12758,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H109</f>
         <v>45762</v>
@@ -12780,7 +12780,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H110</f>
         <v>45763</v>
@@ -12802,7 +12802,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H111</f>
         <v>45764</v>
@@ -12824,7 +12824,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H112</f>
         <v>45765</v>
@@ -12846,7 +12846,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H113</f>
         <v>45766</v>
@@ -12868,7 +12868,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H114</f>
         <v>45767</v>
@@ -12890,7 +12890,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H115</f>
         <v>45768</v>
@@ -12912,7 +12912,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H116</f>
         <v>45769</v>
@@ -12934,7 +12934,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H117</f>
         <v>45770</v>
@@ -12956,7 +12956,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H118</f>
         <v>45771</v>
@@ -12978,7 +12978,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H119</f>
         <v>45772</v>
@@ -13000,7 +13000,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H120</f>
         <v>45773</v>
@@ -13022,7 +13022,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H121</f>
         <v>45774</v>
@@ -13044,7 +13044,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H122</f>
         <v>45775</v>
@@ -13066,7 +13066,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H123</f>
         <v>45776</v>
@@ -13088,7 +13088,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H124</f>
         <v>45777</v>
@@ -13110,7 +13110,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H125</f>
         <v>45778</v>
@@ -13132,7 +13132,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H126</f>
         <v>45779</v>
@@ -13154,7 +13154,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H127</f>
         <v>45780</v>
@@ -13176,7 +13176,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H128</f>
         <v>45781</v>
@@ -13198,7 +13198,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H129</f>
         <v>45782</v>
@@ -13220,7 +13220,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H130</f>
         <v>45783</v>
@@ -13242,7 +13242,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H131</f>
         <v>45784</v>
@@ -13264,7 +13264,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H132</f>
         <v>45785</v>
@@ -13286,7 +13286,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H133</f>
         <v>45786</v>
@@ -13308,7 +13308,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H134</f>
         <v>45787</v>
@@ -13330,7 +13330,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H135</f>
         <v>45788</v>
@@ -13352,7 +13352,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H136</f>
         <v>45789</v>
@@ -13374,7 +13374,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H137</f>
         <v>45790</v>
@@ -13396,7 +13396,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H138</f>
         <v>45791</v>
@@ -13418,7 +13418,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H139</f>
         <v>45792</v>
@@ -13440,7 +13440,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H140</f>
         <v>45793</v>
@@ -13462,7 +13462,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H141</f>
         <v>45794</v>
@@ -13484,7 +13484,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H142</f>
         <v>45795</v>
@@ -13506,7 +13506,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H143</f>
         <v>45796</v>
@@ -13528,7 +13528,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H144</f>
         <v>45797</v>
@@ -13550,7 +13550,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H145</f>
         <v>45798</v>
@@ -13572,7 +13572,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H146</f>
         <v>45799</v>
@@ -13594,7 +13594,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H147</f>
         <v>45800</v>
@@ -13616,7 +13616,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H148</f>
         <v>45801</v>
@@ -13638,7 +13638,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H149</f>
         <v>45802</v>
@@ -13660,7 +13660,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H150</f>
         <v>45803</v>
@@ -13682,7 +13682,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H151</f>
         <v>45804</v>
@@ -13704,7 +13704,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H152</f>
         <v>45805</v>
@@ -13726,7 +13726,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H153</f>
         <v>45806</v>
@@ -13748,7 +13748,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H154</f>
         <v>45807</v>
@@ -13770,7 +13770,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H155</f>
         <v>45808</v>
@@ -13792,7 +13792,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H156</f>
         <v>45809</v>
@@ -13814,7 +13814,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H157</f>
         <v>45810</v>
@@ -13836,7 +13836,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H158</f>
         <v>45811</v>
@@ -13858,7 +13858,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H159</f>
         <v>45812</v>
@@ -13880,7 +13880,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H160</f>
         <v>45813</v>
@@ -13902,7 +13902,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H161</f>
         <v>45814</v>
@@ -13924,7 +13924,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H162</f>
         <v>45815</v>
@@ -13946,7 +13946,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H163</f>
         <v>45816</v>
@@ -13968,7 +13968,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H164</f>
         <v>45817</v>
@@ -13990,7 +13990,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H165</f>
         <v>45818</v>
@@ -14012,7 +14012,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H166</f>
         <v>45819</v>
@@ -14034,7 +14034,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H167</f>
         <v>45820</v>
@@ -14056,7 +14056,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H168</f>
         <v>45821</v>
@@ -14078,7 +14078,7 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H169</f>
         <v>45822</v>
@@ -14100,7 +14100,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H170</f>
         <v>45823</v>
@@ -14122,7 +14122,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H171</f>
         <v>45824</v>
@@ -14144,7 +14144,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H172</f>
         <v>45825</v>
@@ -14166,7 +14166,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H173</f>
         <v>45826</v>
@@ -14188,7 +14188,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H174</f>
         <v>45827</v>
@@ -14210,7 +14210,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H175</f>
         <v>45828</v>
@@ -14232,7 +14232,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H176</f>
         <v>45829</v>
@@ -14254,7 +14254,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H177</f>
         <v>45830</v>
@@ -14276,7 +14276,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H178</f>
         <v>45831</v>
@@ -14298,7 +14298,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H179</f>
         <v>45832</v>
@@ -14320,7 +14320,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H180</f>
         <v>45833</v>
@@ -14342,7 +14342,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H181</f>
         <v>45834</v>
@@ -14364,7 +14364,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H182</f>
         <v>45835</v>
@@ -14386,7 +14386,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H183</f>
         <v>45836</v>
@@ -14408,7 +14408,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H184</f>
         <v>45837</v>
@@ -14430,7 +14430,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H185</f>
         <v>45838</v>
@@ -14452,7 +14452,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H186</f>
         <v>45839</v>
@@ -14474,7 +14474,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H187</f>
         <v>45840</v>
@@ -14496,7 +14496,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H188</f>
         <v>45841</v>
@@ -14518,7 +14518,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H189</f>
         <v>45842</v>
@@ -14540,7 +14540,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H190</f>
         <v>45843</v>
@@ -14562,7 +14562,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H191</f>
         <v>45844</v>
@@ -14584,7 +14584,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H192</f>
         <v>45845</v>
@@ -14606,7 +14606,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H193</f>
         <v>45846</v>
@@ -14628,7 +14628,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H194</f>
         <v>45847</v>
@@ -14650,7 +14650,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H195</f>
         <v>45848</v>
@@ -14672,7 +14672,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H196</f>
         <v>45849</v>
@@ -14694,7 +14694,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H197</f>
         <v>45850</v>
@@ -14716,7 +14716,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H198</f>
         <v>45851</v>
@@ -14738,7 +14738,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H199</f>
         <v>45852</v>
@@ -14760,7 +14760,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H200</f>
         <v>45853</v>
@@ -14782,7 +14782,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H201</f>
         <v>45854</v>
@@ -14804,7 +14804,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H202</f>
         <v>45855</v>
@@ -14826,7 +14826,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H203</f>
         <v>45856</v>
@@ -14848,7 +14848,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H204</f>
         <v>45857</v>
@@ -14870,7 +14870,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H205</f>
         <v>45858</v>
@@ -14892,7 +14892,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H206</f>
         <v>45859</v>
@@ -14914,7 +14914,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H207</f>
         <v>45860</v>
@@ -14936,7 +14936,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H208</f>
         <v>45861</v>
@@ -14958,7 +14958,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H209</f>
         <v>45862</v>
@@ -14980,7 +14980,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H210</f>
         <v>45863</v>
@@ -15002,7 +15002,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H211</f>
         <v>45864</v>
@@ -15024,7 +15024,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H212</f>
         <v>45865</v>
@@ -15046,7 +15046,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H213</f>
         <v>45866</v>
@@ -15068,7 +15068,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H214</f>
         <v>45867</v>
@@ -15090,7 +15090,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H215</f>
         <v>45868</v>
@@ -15112,7 +15112,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H216</f>
         <v>45869</v>
@@ -15134,7 +15134,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H217</f>
         <v>45870</v>
@@ -15156,7 +15156,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H218</f>
         <v>45871</v>
@@ -15178,7 +15178,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H219</f>
         <v>45872</v>
@@ -15200,7 +15200,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H220</f>
         <v>45873</v>
@@ -15222,7 +15222,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H221</f>
         <v>45874</v>
@@ -15244,7 +15244,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H222</f>
         <v>45875</v>
@@ -15266,7 +15266,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H223</f>
         <v>45876</v>
@@ -15288,7 +15288,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H224</f>
         <v>45877</v>
@@ -15310,7 +15310,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H225</f>
         <v>45878</v>
@@ -15332,7 +15332,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H226</f>
         <v>45879</v>
@@ -15354,7 +15354,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H227</f>
         <v>45880</v>
@@ -15376,7 +15376,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H228</f>
         <v>45881</v>
@@ -15398,7 +15398,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H229</f>
         <v>45882</v>
@@ -15420,7 +15420,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H230</f>
         <v>45883</v>
@@ -15442,7 +15442,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H231</f>
         <v>45884</v>
@@ -15464,7 +15464,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H232</f>
         <v>45885</v>
@@ -15486,7 +15486,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H233</f>
         <v>45886</v>
@@ -15508,7 +15508,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H234</f>
         <v>45887</v>
@@ -15530,7 +15530,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H235</f>
         <v>45888</v>
@@ -15552,7 +15552,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H236</f>
         <v>45889</v>
@@ -15574,7 +15574,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H237</f>
         <v>45890</v>
@@ -15596,7 +15596,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H238</f>
         <v>45891</v>
@@ -15618,7 +15618,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H239</f>
         <v>45892</v>
@@ -15640,7 +15640,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H240</f>
         <v>45893</v>
@@ -15662,7 +15662,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H241</f>
         <v>45894</v>
@@ -15684,7 +15684,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H242</f>
         <v>45895</v>
@@ -15706,7 +15706,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H243</f>
         <v>45896</v>
@@ -15728,7 +15728,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H244</f>
         <v>45897</v>
@@ -15750,7 +15750,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H245</f>
         <v>45898</v>
@@ -15772,7 +15772,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H246</f>
         <v>45899</v>
@@ -15794,7 +15794,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H247</f>
         <v>45900</v>
@@ -15816,7 +15816,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H248</f>
         <v>45901</v>
@@ -15838,7 +15838,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H249</f>
         <v>45902</v>
@@ -15860,7 +15860,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H250</f>
         <v>45903</v>
@@ -15882,7 +15882,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H251</f>
         <v>45904</v>
@@ -15904,7 +15904,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H252</f>
         <v>45905</v>
@@ -15926,7 +15926,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H253</f>
         <v>45906</v>
@@ -15948,7 +15948,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H254</f>
         <v>45907</v>
@@ -15970,7 +15970,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H255</f>
         <v>45908</v>
@@ -15992,7 +15992,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H256</f>
         <v>45909</v>
@@ -16014,7 +16014,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H257</f>
         <v>45910</v>
@@ -16036,7 +16036,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H258</f>
         <v>45911</v>
@@ -16058,7 +16058,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H259</f>
         <v>45912</v>
@@ -16080,7 +16080,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H260</f>
         <v>45913</v>
@@ -16102,7 +16102,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H261</f>
         <v>45914</v>
@@ -16124,7 +16124,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H262</f>
         <v>45915</v>
@@ -16146,7 +16146,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H263</f>
         <v>45916</v>
@@ -16168,7 +16168,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H264</f>
         <v>45917</v>
@@ -16190,7 +16190,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H265</f>
         <v>45918</v>
@@ -16212,7 +16212,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H266</f>
         <v>45919</v>
@@ -16234,7 +16234,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H267</f>
         <v>45920</v>
@@ -16256,7 +16256,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H268</f>
         <v>45921</v>
@@ -16278,7 +16278,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H269</f>
         <v>45922</v>
@@ -16300,7 +16300,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H270</f>
         <v>45923</v>
@@ -16322,7 +16322,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H271</f>
         <v>45924</v>
@@ -16344,7 +16344,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H272</f>
         <v>45925</v>
@@ -16366,7 +16366,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H273</f>
         <v>45926</v>
@@ -16388,7 +16388,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H274</f>
         <v>45927</v>
@@ -16410,7 +16410,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H275</f>
         <v>45928</v>
@@ -16432,7 +16432,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H276</f>
         <v>45929</v>
@@ -16454,29 +16454,29 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H277</f>
         <v>45930</v>
       </c>
-      <c r="B276" s="17" t="str">
+      <c r="B276" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I277</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C276" s="48" t="str">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="C276" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J277</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D276" s="48" t="str">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="D276" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K277</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E276" s="5" t="str">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="E276" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L277</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H278</f>
         <v>45931</v>
@@ -16498,7 +16498,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H279</f>
         <v>45932</v>
@@ -16520,7 +16520,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H280</f>
         <v>45933</v>
@@ -16542,7 +16542,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H281</f>
         <v>45934</v>
@@ -16564,7 +16564,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H282</f>
         <v>45935</v>
@@ -16586,7 +16586,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H283</f>
         <v>45936</v>
@@ -16608,7 +16608,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H284</f>
         <v>45937</v>
@@ -16630,7 +16630,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H285</f>
         <v>45938</v>
@@ -16652,7 +16652,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H286</f>
         <v>45939</v>
@@ -16674,7 +16674,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H287</f>
         <v>45940</v>
@@ -16696,7 +16696,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H288</f>
         <v>45941</v>
@@ -16718,7 +16718,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H289</f>
         <v>45942</v>
@@ -16740,7 +16740,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H290</f>
         <v>45943</v>
@@ -16762,7 +16762,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H291</f>
         <v>45944</v>
@@ -16784,7 +16784,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H292</f>
         <v>45945</v>
@@ -16806,7 +16806,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H293</f>
         <v>45946</v>
@@ -16828,7 +16828,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H294</f>
         <v>45947</v>
@@ -16850,7 +16850,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H295</f>
         <v>45948</v>
@@ -16872,7 +16872,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H296</f>
         <v>45949</v>
@@ -16894,7 +16894,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H297</f>
         <v>45950</v>
@@ -16916,7 +16916,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H298</f>
         <v>45951</v>
@@ -16938,7 +16938,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H299</f>
         <v>45952</v>
@@ -16960,7 +16960,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H300</f>
         <v>45953</v>
@@ -16982,7 +16982,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H301</f>
         <v>45954</v>
@@ -17004,7 +17004,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H302</f>
         <v>45955</v>
@@ -17026,7 +17026,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H303</f>
         <v>45956</v>
@@ -17048,7 +17048,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H304</f>
         <v>45957</v>
@@ -17070,7 +17070,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H305</f>
         <v>45958</v>
@@ -17092,7 +17092,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H306</f>
         <v>45959</v>
@@ -17114,7 +17114,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H307</f>
         <v>45960</v>
@@ -17136,7 +17136,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H308</f>
         <v>45961</v>
@@ -17158,7 +17158,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H309</f>
         <v>45962</v>
@@ -17180,7 +17180,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H310</f>
         <v>45963</v>
@@ -17202,7 +17202,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H311</f>
         <v>45964</v>
@@ -17224,7 +17224,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H312</f>
         <v>45965</v>
@@ -17246,7 +17246,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H313</f>
         <v>45966</v>
@@ -17268,7 +17268,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H314</f>
         <v>45967</v>
@@ -17290,7 +17290,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H315</f>
         <v>45968</v>
@@ -17312,7 +17312,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H316</f>
         <v>45969</v>
@@ -17334,7 +17334,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H317</f>
         <v>45970</v>
@@ -17356,7 +17356,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H318</f>
         <v>45971</v>
@@ -17378,7 +17378,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H319</f>
         <v>45972</v>
@@ -17400,7 +17400,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H320</f>
         <v>45973</v>
@@ -17422,7 +17422,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H321</f>
         <v>45974</v>
@@ -17444,7 +17444,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H322</f>
         <v>45975</v>
@@ -17466,7 +17466,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H323</f>
         <v>45976</v>
@@ -17488,7 +17488,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H324</f>
         <v>45977</v>
@@ -17510,7 +17510,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H325</f>
         <v>45978</v>
@@ -17532,7 +17532,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H326</f>
         <v>45979</v>
@@ -17554,7 +17554,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H327</f>
         <v>45980</v>
@@ -17576,7 +17576,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H328</f>
         <v>45981</v>
@@ -17598,7 +17598,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H329</f>
         <v>45982</v>
@@ -17620,7 +17620,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H330</f>
         <v>45983</v>
@@ -17642,7 +17642,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H331</f>
         <v>45984</v>
@@ -17664,7 +17664,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H332</f>
         <v>45985</v>
@@ -17686,7 +17686,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H333</f>
         <v>45986</v>
@@ -17708,7 +17708,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H334</f>
         <v>45987</v>
@@ -17730,7 +17730,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H335</f>
         <v>45988</v>
@@ -17752,7 +17752,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H336</f>
         <v>45989</v>
@@ -17774,7 +17774,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H337</f>
         <v>45990</v>
@@ -17796,7 +17796,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H338</f>
         <v>45991</v>
@@ -17818,7 +17818,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H339</f>
         <v>45992</v>
@@ -17840,7 +17840,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H340</f>
         <v>45993</v>
@@ -17862,7 +17862,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H341</f>
         <v>45994</v>
@@ -17884,7 +17884,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H342</f>
         <v>45995</v>
@@ -17906,7 +17906,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H343</f>
         <v>45996</v>
@@ -17928,7 +17928,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H344</f>
         <v>45997</v>
@@ -17950,7 +17950,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H345</f>
         <v>45998</v>
@@ -17972,7 +17972,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H346</f>
         <v>45999</v>
@@ -17994,7 +17994,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H347</f>
         <v>46000</v>
@@ -18016,7 +18016,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H348</f>
         <v>46001</v>
@@ -18038,7 +18038,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H349</f>
         <v>46002</v>
@@ -18060,7 +18060,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H350</f>
         <v>46003</v>
@@ -18082,7 +18082,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H351</f>
         <v>46004</v>
@@ -18104,7 +18104,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H352</f>
         <v>46005</v>
@@ -18126,7 +18126,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H353</f>
         <v>46006</v>
@@ -18148,7 +18148,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H354</f>
         <v>46007</v>
@@ -18170,7 +18170,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H355</f>
         <v>46008</v>
@@ -18192,7 +18192,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H356</f>
         <v>46009</v>
@@ -18214,7 +18214,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H357</f>
         <v>46010</v>
@@ -18236,7 +18236,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H358</f>
         <v>46011</v>
@@ -18258,7 +18258,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H359</f>
         <v>46012</v>
@@ -18280,7 +18280,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H360</f>
         <v>46013</v>
@@ -18302,7 +18302,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H361</f>
         <v>46014</v>
@@ -18324,7 +18324,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H362</f>
         <v>46015</v>
@@ -18346,7 +18346,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H363</f>
         <v>46016</v>
@@ -18368,7 +18368,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H364</f>
         <v>46017</v>
@@ -18390,7 +18390,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H365</f>
         <v>46018</v>
@@ -18412,7 +18412,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H366</f>
         <v>46019</v>
@@ -18434,7 +18434,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H367</f>
         <v>46020</v>
@@ -18456,7 +18456,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H368</f>
         <v>46021</v>
@@ -18478,7 +18478,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H369</f>
         <v>46022</v>
@@ -18500,7 +18500,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="46">
         <f>'[1]Jumbo Bus Date to PDD'!H370</f>
         <v>46023</v>
@@ -18522,37 +18522,37 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="15"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="15"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="15"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="15"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="15"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="15"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="15"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="15"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="15"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="15"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="15"/>
     </row>
   </sheetData>
@@ -18573,13 +18573,13 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="5" width="13.453125" customWidth="1"/>
+    <col min="2" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
@@ -18588,14 +18588,14 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="52" t="s">
         <v>5</v>
@@ -18604,7 +18604,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="54"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -18613,7 +18613,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")</f>
         <v>1/1/2025 - 3/31/2025</v>
@@ -18652,7 +18652,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")</f>
         <v>4/1/2025 - 6/30/2025</v>
@@ -18674,7 +18674,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")</f>
         <v>7/1/2025 - 9/30/2025</v>
@@ -18696,7 +18696,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,10,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,12,31),"m/d/yyyy")</f>
         <v>10/1/2025 - 12/31/2025</v>
@@ -18718,7 +18718,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
     </row>
   </sheetData>
@@ -18740,13 +18740,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>9</v>
       </c>
@@ -18755,7 +18755,7 @@
       <c r="D1" s="61"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>38</v>
       </c>
@@ -18764,12 +18764,12 @@
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
@@ -18778,7 +18778,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -18819,7 +18819,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -18843,7 +18843,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -18867,7 +18867,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
@@ -18891,7 +18891,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -18899,7 +18899,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -18907,7 +18907,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -18917,7 +18917,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
@@ -18927,7 +18927,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -19041,7 +19041,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -19049,7 +19049,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -19059,7 +19059,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
@@ -19069,7 +19069,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
@@ -19085,7 +19085,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>0</v>
       </c>
@@ -19105,7 +19105,7 @@
       <c r="F24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -19125,7 +19125,7 @@
       <c r="F25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
@@ -19145,7 +19145,7 @@
       <c r="F26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>3</v>
       </c>
@@ -19165,7 +19165,7 @@
       <c r="F27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -19174,7 +19174,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -19185,7 +19185,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
         <v>10</v>
       </c>
@@ -19196,7 +19196,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
@@ -19254,7 +19254,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -19289,7 +19289,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>2</v>
       </c>
@@ -19324,7 +19324,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
@@ -19381,193 +19381,193 @@
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="str" cm="1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="M1" s="66" t="str" cm="1">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="M1" s="62" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
-      <c r="Y1" s="66" t="str" cm="1">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
+      <c r="Y1" s="62" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="68"/>
-      <c r="AK1" s="66" t="str" cm="1">
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
+      <c r="AK1" s="62" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="68"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="str">
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="M2" s="62" t="str">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="M2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64"/>
-      <c r="Y2" s="62" t="str">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
+      <c r="Y2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="64"/>
-      <c r="AK2" s="62" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AK2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="64"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="67"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="65" t="s">
+      <c r="Z3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="65" t="s">
+      <c r="AL3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>3</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>5</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>6</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>7</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>8</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>9</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>10</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>11</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>12</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>13</v>
       </c>
@@ -22133,7 +22133,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>14</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>15</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>16</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>17</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>18</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>19</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>20</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>21</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>22</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>23</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>24</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>25</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>26</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>27</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>28</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>29</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>30</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>37</v>
       </c>
@@ -25267,18 +25267,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AK1:AU1"/>
     <mergeCell ref="AK2:AU2"/>
     <mergeCell ref="AL3:AU3"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="Y2:AI2"/>
     <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25294,7 +25294,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection password="9690" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25315,7 +25315,7 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>488950</xdr:colOff>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>20</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EB6ACE-5DDA-437C-B69C-B622136142F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69C1538-F965-4329-80A5-387A04BBFD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,15 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,6 +586,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1049,6 +1049,36 @@
           <cell r="AU6">
             <v>129.76</v>
           </cell>
+          <cell r="AX6">
+            <v>2.73</v>
+          </cell>
+          <cell r="AY6">
+            <v>11.99</v>
+          </cell>
+          <cell r="AZ6">
+            <v>21.24</v>
+          </cell>
+          <cell r="BA6">
+            <v>27.53</v>
+          </cell>
+          <cell r="BB6">
+            <v>33.82</v>
+          </cell>
+          <cell r="BC6">
+            <v>40.11</v>
+          </cell>
+          <cell r="BD6">
+            <v>46.87</v>
+          </cell>
+          <cell r="BE6">
+            <v>53.63</v>
+          </cell>
+          <cell r="BF6">
+            <v>60.39</v>
+          </cell>
+          <cell r="BG6">
+            <v>103.45</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="N7">
@@ -1141,6 +1171,36 @@
           <cell r="AU7">
             <v>134.85</v>
           </cell>
+          <cell r="AX7">
+            <v>10.41</v>
+          </cell>
+          <cell r="AY7">
+            <v>18.71</v>
+          </cell>
+          <cell r="AZ7">
+            <v>27</v>
+          </cell>
+          <cell r="BA7">
+            <v>33.49</v>
+          </cell>
+          <cell r="BB7">
+            <v>39.979999999999997</v>
+          </cell>
+          <cell r="BC7">
+            <v>46.47</v>
+          </cell>
+          <cell r="BD7">
+            <v>54.35</v>
+          </cell>
+          <cell r="BE7">
+            <v>62.24</v>
+          </cell>
+          <cell r="BF7">
+            <v>70.12</v>
+          </cell>
+          <cell r="BG7">
+            <v>108.31</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="N8">
@@ -1233,6 +1293,36 @@
           <cell r="AU8">
             <v>139.94</v>
           </cell>
+          <cell r="AX8">
+            <v>18.100000000000001</v>
+          </cell>
+          <cell r="AY8">
+            <v>25.43</v>
+          </cell>
+          <cell r="AZ8">
+            <v>32.76</v>
+          </cell>
+          <cell r="BA8">
+            <v>39.450000000000003</v>
+          </cell>
+          <cell r="BB8">
+            <v>46.15</v>
+          </cell>
+          <cell r="BC8">
+            <v>52.84</v>
+          </cell>
+          <cell r="BD8">
+            <v>61.84</v>
+          </cell>
+          <cell r="BE8">
+            <v>70.84</v>
+          </cell>
+          <cell r="BF8">
+            <v>79.84</v>
+          </cell>
+          <cell r="BG8">
+            <v>113.18</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="N9">
@@ -1325,6 +1415,36 @@
           <cell r="AU9">
             <v>145.04</v>
           </cell>
+          <cell r="AX9">
+            <v>25.78</v>
+          </cell>
+          <cell r="AY9">
+            <v>32.15</v>
+          </cell>
+          <cell r="AZ9">
+            <v>38.520000000000003</v>
+          </cell>
+          <cell r="BA9">
+            <v>45.41</v>
+          </cell>
+          <cell r="BB9">
+            <v>52.31</v>
+          </cell>
+          <cell r="BC9">
+            <v>59.2</v>
+          </cell>
+          <cell r="BD9">
+            <v>69.319999999999993</v>
+          </cell>
+          <cell r="BE9">
+            <v>79.44</v>
+          </cell>
+          <cell r="BF9">
+            <v>89.57</v>
+          </cell>
+          <cell r="BG9">
+            <v>118.04</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="N10">
@@ -1417,6 +1537,36 @@
           <cell r="AU10">
             <v>148.61000000000001</v>
           </cell>
+          <cell r="AX10">
+            <v>27.48</v>
+          </cell>
+          <cell r="AY10">
+            <v>33.97</v>
+          </cell>
+          <cell r="AZ10">
+            <v>40.450000000000003</v>
+          </cell>
+          <cell r="BA10">
+            <v>48.52</v>
+          </cell>
+          <cell r="BB10">
+            <v>56.58</v>
+          </cell>
+          <cell r="BC10">
+            <v>64.650000000000006</v>
+          </cell>
+          <cell r="BD10">
+            <v>74.959999999999994</v>
+          </cell>
+          <cell r="BE10">
+            <v>85.27</v>
+          </cell>
+          <cell r="BF10">
+            <v>95.58</v>
+          </cell>
+          <cell r="BG10">
+            <v>121.04</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="N11">
@@ -1509,6 +1659,36 @@
           <cell r="AU11">
             <v>152.19</v>
           </cell>
+          <cell r="AX11">
+            <v>29.18</v>
+          </cell>
+          <cell r="AY11">
+            <v>35.78</v>
+          </cell>
+          <cell r="AZ11">
+            <v>42.38</v>
+          </cell>
+          <cell r="BA11">
+            <v>51.62</v>
+          </cell>
+          <cell r="BB11">
+            <v>60.86</v>
+          </cell>
+          <cell r="BC11">
+            <v>70.09</v>
+          </cell>
+          <cell r="BD11">
+            <v>80.59</v>
+          </cell>
+          <cell r="BE11">
+            <v>91.09</v>
+          </cell>
+          <cell r="BF11">
+            <v>101.59</v>
+          </cell>
+          <cell r="BG11">
+            <v>124.05</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="N12">
@@ -1601,6 +1781,36 @@
           <cell r="AU12">
             <v>153.6</v>
           </cell>
+          <cell r="AX12">
+            <v>27.45</v>
+          </cell>
+          <cell r="AY12">
+            <v>36.67</v>
+          </cell>
+          <cell r="AZ12">
+            <v>45.88</v>
+          </cell>
+          <cell r="BA12">
+            <v>55.1</v>
+          </cell>
+          <cell r="BB12">
+            <v>64.31</v>
+          </cell>
+          <cell r="BC12">
+            <v>73.53</v>
+          </cell>
+          <cell r="BD12">
+            <v>83.99</v>
+          </cell>
+          <cell r="BE12">
+            <v>94.46</v>
+          </cell>
+          <cell r="BF12">
+            <v>104.93</v>
+          </cell>
+          <cell r="BG12">
+            <v>125.72</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="N13">
@@ -1693,6 +1903,36 @@
           <cell r="AU13">
             <v>155</v>
           </cell>
+          <cell r="AX13">
+            <v>25.73</v>
+          </cell>
+          <cell r="AY13">
+            <v>37.549999999999997</v>
+          </cell>
+          <cell r="AZ13">
+            <v>49.38</v>
+          </cell>
+          <cell r="BA13">
+            <v>58.57</v>
+          </cell>
+          <cell r="BB13">
+            <v>67.77</v>
+          </cell>
+          <cell r="BC13">
+            <v>76.959999999999994</v>
+          </cell>
+          <cell r="BD13">
+            <v>87.4</v>
+          </cell>
+          <cell r="BE13">
+            <v>97.83</v>
+          </cell>
+          <cell r="BF13">
+            <v>108.27</v>
+          </cell>
+          <cell r="BG13">
+            <v>127.39</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="N14">
@@ -1785,6 +2025,36 @@
           <cell r="AU14">
             <v>156.4</v>
           </cell>
+          <cell r="AX14">
+            <v>24</v>
+          </cell>
+          <cell r="AY14">
+            <v>38.44</v>
+          </cell>
+          <cell r="AZ14">
+            <v>52.88</v>
+          </cell>
+          <cell r="BA14">
+            <v>62.05</v>
+          </cell>
+          <cell r="BB14">
+            <v>71.22</v>
+          </cell>
+          <cell r="BC14">
+            <v>80.39</v>
+          </cell>
+          <cell r="BD14">
+            <v>90.8</v>
+          </cell>
+          <cell r="BE14">
+            <v>101.2</v>
+          </cell>
+          <cell r="BF14">
+            <v>111.61</v>
+          </cell>
+          <cell r="BG14">
+            <v>129.06</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="N15">
@@ -1877,6 +2147,36 @@
           <cell r="AU15">
             <v>156.75</v>
           </cell>
+          <cell r="AX15">
+            <v>24.94</v>
+          </cell>
+          <cell r="AY15">
+            <v>39.21</v>
+          </cell>
+          <cell r="AZ15">
+            <v>53.49</v>
+          </cell>
+          <cell r="BA15">
+            <v>62.45</v>
+          </cell>
+          <cell r="BB15">
+            <v>71.41</v>
+          </cell>
+          <cell r="BC15">
+            <v>80.36</v>
+          </cell>
+          <cell r="BD15">
+            <v>90.97</v>
+          </cell>
+          <cell r="BE15">
+            <v>101.58</v>
+          </cell>
+          <cell r="BF15">
+            <v>112.19</v>
+          </cell>
+          <cell r="BG15">
+            <v>129.35</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="N16">
@@ -1969,6 +2269,36 @@
           <cell r="AU16">
             <v>157.1</v>
           </cell>
+          <cell r="AX16">
+            <v>25.88</v>
+          </cell>
+          <cell r="AY16">
+            <v>39.99</v>
+          </cell>
+          <cell r="AZ16">
+            <v>54.1</v>
+          </cell>
+          <cell r="BA16">
+            <v>62.84</v>
+          </cell>
+          <cell r="BB16">
+            <v>71.59</v>
+          </cell>
+          <cell r="BC16">
+            <v>80.34</v>
+          </cell>
+          <cell r="BD16">
+            <v>91.15</v>
+          </cell>
+          <cell r="BE16">
+            <v>101.96</v>
+          </cell>
+          <cell r="BF16">
+            <v>112.77</v>
+          </cell>
+          <cell r="BG16">
+            <v>129.63999999999999</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="N17">
@@ -2061,6 +2391,36 @@
           <cell r="AU17">
             <v>157.44</v>
           </cell>
+          <cell r="AX17">
+            <v>26.82</v>
+          </cell>
+          <cell r="AY17">
+            <v>40.76</v>
+          </cell>
+          <cell r="AZ17">
+            <v>54.71</v>
+          </cell>
+          <cell r="BA17">
+            <v>63.24</v>
+          </cell>
+          <cell r="BB17">
+            <v>71.77</v>
+          </cell>
+          <cell r="BC17">
+            <v>80.31</v>
+          </cell>
+          <cell r="BD17">
+            <v>91.32</v>
+          </cell>
+          <cell r="BE17">
+            <v>102.34</v>
+          </cell>
+          <cell r="BF17">
+            <v>113.35</v>
+          </cell>
+          <cell r="BG17">
+            <v>129.93</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="N18">
@@ -2153,6 +2513,36 @@
           <cell r="AU18">
             <v>157.79</v>
           </cell>
+          <cell r="AX18">
+            <v>27.76</v>
+          </cell>
+          <cell r="AY18">
+            <v>41.54</v>
+          </cell>
+          <cell r="AZ18">
+            <v>55.31</v>
+          </cell>
+          <cell r="BA18">
+            <v>63.64</v>
+          </cell>
+          <cell r="BB18">
+            <v>71.959999999999994</v>
+          </cell>
+          <cell r="BC18">
+            <v>80.28</v>
+          </cell>
+          <cell r="BD18">
+            <v>91.5</v>
+          </cell>
+          <cell r="BE18">
+            <v>102.71</v>
+          </cell>
+          <cell r="BF18">
+            <v>113.93</v>
+          </cell>
+          <cell r="BG18">
+            <v>130.22</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="N19">
@@ -2245,6 +2635,36 @@
           <cell r="AU19">
             <v>158.13</v>
           </cell>
+          <cell r="AX19">
+            <v>28.7</v>
+          </cell>
+          <cell r="AY19">
+            <v>42.31</v>
+          </cell>
+          <cell r="AZ19">
+            <v>55.92</v>
+          </cell>
+          <cell r="BA19">
+            <v>64.03</v>
+          </cell>
+          <cell r="BB19">
+            <v>72.14</v>
+          </cell>
+          <cell r="BC19">
+            <v>80.25</v>
+          </cell>
+          <cell r="BD19">
+            <v>91.67</v>
+          </cell>
+          <cell r="BE19">
+            <v>103.09</v>
+          </cell>
+          <cell r="BF19">
+            <v>114.51</v>
+          </cell>
+          <cell r="BG19">
+            <v>130.51</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="N20">
@@ -2337,6 +2757,36 @@
           <cell r="AU20">
             <v>158.47999999999999</v>
           </cell>
+          <cell r="AX20">
+            <v>29.64</v>
+          </cell>
+          <cell r="AY20">
+            <v>43.09</v>
+          </cell>
+          <cell r="AZ20">
+            <v>56.53</v>
+          </cell>
+          <cell r="BA20">
+            <v>64.430000000000007</v>
+          </cell>
+          <cell r="BB20">
+            <v>72.33</v>
+          </cell>
+          <cell r="BC20">
+            <v>80.23</v>
+          </cell>
+          <cell r="BD20">
+            <v>91.85</v>
+          </cell>
+          <cell r="BE20">
+            <v>103.47</v>
+          </cell>
+          <cell r="BF20">
+            <v>115.09</v>
+          </cell>
+          <cell r="BG20">
+            <v>130.80000000000001</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="N21">
@@ -2429,6 +2879,36 @@
           <cell r="AU21">
             <v>158.83000000000001</v>
           </cell>
+          <cell r="AX21">
+            <v>30.58</v>
+          </cell>
+          <cell r="AY21">
+            <v>43.86</v>
+          </cell>
+          <cell r="AZ21">
+            <v>57.14</v>
+          </cell>
+          <cell r="BA21">
+            <v>64.819999999999993</v>
+          </cell>
+          <cell r="BB21">
+            <v>72.510000000000005</v>
+          </cell>
+          <cell r="BC21">
+            <v>80.2</v>
+          </cell>
+          <cell r="BD21">
+            <v>92.02</v>
+          </cell>
+          <cell r="BE21">
+            <v>103.85</v>
+          </cell>
+          <cell r="BF21">
+            <v>115.67</v>
+          </cell>
+          <cell r="BG21">
+            <v>131.09</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="N22">
@@ -2521,6 +3001,36 @@
           <cell r="AU22">
             <v>159.16999999999999</v>
           </cell>
+          <cell r="AX22">
+            <v>31.52</v>
+          </cell>
+          <cell r="AY22">
+            <v>44.63</v>
+          </cell>
+          <cell r="AZ22">
+            <v>57.74</v>
+          </cell>
+          <cell r="BA22">
+            <v>65.22</v>
+          </cell>
+          <cell r="BB22">
+            <v>72.69</v>
+          </cell>
+          <cell r="BC22">
+            <v>80.17</v>
+          </cell>
+          <cell r="BD22">
+            <v>92.2</v>
+          </cell>
+          <cell r="BE22">
+            <v>104.22</v>
+          </cell>
+          <cell r="BF22">
+            <v>116.25</v>
+          </cell>
+          <cell r="BG22">
+            <v>131.38</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="N23">
@@ -2613,6 +3123,36 @@
           <cell r="AU23">
             <v>159.52000000000001</v>
           </cell>
+          <cell r="AX23">
+            <v>32.46</v>
+          </cell>
+          <cell r="AY23">
+            <v>45.41</v>
+          </cell>
+          <cell r="AZ23">
+            <v>58.35</v>
+          </cell>
+          <cell r="BA23">
+            <v>65.61</v>
+          </cell>
+          <cell r="BB23">
+            <v>72.88</v>
+          </cell>
+          <cell r="BC23">
+            <v>80.14</v>
+          </cell>
+          <cell r="BD23">
+            <v>92.37</v>
+          </cell>
+          <cell r="BE23">
+            <v>104.6</v>
+          </cell>
+          <cell r="BF23">
+            <v>116.83</v>
+          </cell>
+          <cell r="BG23">
+            <v>131.66999999999999</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="N24">
@@ -2705,6 +3245,36 @@
           <cell r="AU24">
             <v>159.87</v>
           </cell>
+          <cell r="AX24">
+            <v>33.409999999999997</v>
+          </cell>
+          <cell r="AY24">
+            <v>46.18</v>
+          </cell>
+          <cell r="AZ24">
+            <v>58.96</v>
+          </cell>
+          <cell r="BA24">
+            <v>66.010000000000005</v>
+          </cell>
+          <cell r="BB24">
+            <v>73.06</v>
+          </cell>
+          <cell r="BC24">
+            <v>80.11</v>
+          </cell>
+          <cell r="BD24">
+            <v>92.55</v>
+          </cell>
+          <cell r="BE24">
+            <v>104.98</v>
+          </cell>
+          <cell r="BF24">
+            <v>117.41</v>
+          </cell>
+          <cell r="BG24">
+            <v>131.96</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="N25">
@@ -2797,6 +3367,36 @@
           <cell r="AU25">
             <v>160.21</v>
           </cell>
+          <cell r="AX25">
+            <v>34.35</v>
+          </cell>
+          <cell r="AY25">
+            <v>46.96</v>
+          </cell>
+          <cell r="AZ25">
+            <v>59.57</v>
+          </cell>
+          <cell r="BA25">
+            <v>66.41</v>
+          </cell>
+          <cell r="BB25">
+            <v>73.25</v>
+          </cell>
+          <cell r="BC25">
+            <v>80.09</v>
+          </cell>
+          <cell r="BD25">
+            <v>92.72</v>
+          </cell>
+          <cell r="BE25">
+            <v>105.36</v>
+          </cell>
+          <cell r="BF25">
+            <v>117.99</v>
+          </cell>
+          <cell r="BG25">
+            <v>132.25</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="N26">
@@ -2889,6 +3489,36 @@
           <cell r="AU26">
             <v>160.56</v>
           </cell>
+          <cell r="AX26">
+            <v>35.29</v>
+          </cell>
+          <cell r="AY26">
+            <v>47.73</v>
+          </cell>
+          <cell r="AZ26">
+            <v>60.17</v>
+          </cell>
+          <cell r="BA26">
+            <v>66.8</v>
+          </cell>
+          <cell r="BB26">
+            <v>73.430000000000007</v>
+          </cell>
+          <cell r="BC26">
+            <v>80.06</v>
+          </cell>
+          <cell r="BD26">
+            <v>92.9</v>
+          </cell>
+          <cell r="BE26">
+            <v>105.73</v>
+          </cell>
+          <cell r="BF26">
+            <v>118.57</v>
+          </cell>
+          <cell r="BG26">
+            <v>132.54</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="N27">
@@ -2981,6 +3611,36 @@
           <cell r="AU27">
             <v>160.91</v>
           </cell>
+          <cell r="AX27">
+            <v>36.229999999999997</v>
+          </cell>
+          <cell r="AY27">
+            <v>48.5</v>
+          </cell>
+          <cell r="AZ27">
+            <v>60.78</v>
+          </cell>
+          <cell r="BA27">
+            <v>67.2</v>
+          </cell>
+          <cell r="BB27">
+            <v>73.61</v>
+          </cell>
+          <cell r="BC27">
+            <v>80.03</v>
+          </cell>
+          <cell r="BD27">
+            <v>93.07</v>
+          </cell>
+          <cell r="BE27">
+            <v>106.11</v>
+          </cell>
+          <cell r="BF27">
+            <v>119.15</v>
+          </cell>
+          <cell r="BG27">
+            <v>132.83000000000001</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="N28">
@@ -3073,6 +3733,36 @@
           <cell r="AU28">
             <v>161.25</v>
           </cell>
+          <cell r="AX28">
+            <v>37.17</v>
+          </cell>
+          <cell r="AY28">
+            <v>49.28</v>
+          </cell>
+          <cell r="AZ28">
+            <v>61.39</v>
+          </cell>
+          <cell r="BA28">
+            <v>67.59</v>
+          </cell>
+          <cell r="BB28">
+            <v>73.8</v>
+          </cell>
+          <cell r="BC28">
+            <v>80</v>
+          </cell>
+          <cell r="BD28">
+            <v>93.25</v>
+          </cell>
+          <cell r="BE28">
+            <v>106.49</v>
+          </cell>
+          <cell r="BF28">
+            <v>119.73</v>
+          </cell>
+          <cell r="BG28">
+            <v>133.12</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="N29">
@@ -3165,6 +3855,36 @@
           <cell r="AU29">
             <v>161.6</v>
           </cell>
+          <cell r="AX29">
+            <v>38.11</v>
+          </cell>
+          <cell r="AY29">
+            <v>50.05</v>
+          </cell>
+          <cell r="AZ29">
+            <v>62</v>
+          </cell>
+          <cell r="BA29">
+            <v>67.989999999999995</v>
+          </cell>
+          <cell r="BB29">
+            <v>73.98</v>
+          </cell>
+          <cell r="BC29">
+            <v>79.97</v>
+          </cell>
+          <cell r="BD29">
+            <v>93.42</v>
+          </cell>
+          <cell r="BE29">
+            <v>106.87</v>
+          </cell>
+          <cell r="BF29">
+            <v>120.31</v>
+          </cell>
+          <cell r="BG29">
+            <v>133.41</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="N30">
@@ -3257,6 +3977,36 @@
           <cell r="AU30">
             <v>161.94999999999999</v>
           </cell>
+          <cell r="AX30">
+            <v>39.049999999999997</v>
+          </cell>
+          <cell r="AY30">
+            <v>50.83</v>
+          </cell>
+          <cell r="AZ30">
+            <v>62.6</v>
+          </cell>
+          <cell r="BA30">
+            <v>68.39</v>
+          </cell>
+          <cell r="BB30">
+            <v>74.17</v>
+          </cell>
+          <cell r="BC30">
+            <v>79.95</v>
+          </cell>
+          <cell r="BD30">
+            <v>93.6</v>
+          </cell>
+          <cell r="BE30">
+            <v>107.24</v>
+          </cell>
+          <cell r="BF30">
+            <v>120.89</v>
+          </cell>
+          <cell r="BG30">
+            <v>133.69999999999999</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="N31">
@@ -3349,6 +4099,36 @@
           <cell r="AU31">
             <v>162.29</v>
           </cell>
+          <cell r="AX31">
+            <v>39.99</v>
+          </cell>
+          <cell r="AY31">
+            <v>51.6</v>
+          </cell>
+          <cell r="AZ31">
+            <v>63.21</v>
+          </cell>
+          <cell r="BA31">
+            <v>68.78</v>
+          </cell>
+          <cell r="BB31">
+            <v>74.349999999999994</v>
+          </cell>
+          <cell r="BC31">
+            <v>79.92</v>
+          </cell>
+          <cell r="BD31">
+            <v>93.77</v>
+          </cell>
+          <cell r="BE31">
+            <v>107.62</v>
+          </cell>
+          <cell r="BF31">
+            <v>121.47</v>
+          </cell>
+          <cell r="BG31">
+            <v>133.99</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="N32">
@@ -3441,6 +4221,36 @@
           <cell r="AU32">
             <v>162.63999999999999</v>
           </cell>
+          <cell r="AX32">
+            <v>40.93</v>
+          </cell>
+          <cell r="AY32">
+            <v>52.38</v>
+          </cell>
+          <cell r="AZ32">
+            <v>63.82</v>
+          </cell>
+          <cell r="BA32">
+            <v>69.180000000000007</v>
+          </cell>
+          <cell r="BB32">
+            <v>74.53</v>
+          </cell>
+          <cell r="BC32">
+            <v>79.89</v>
+          </cell>
+          <cell r="BD32">
+            <v>93.94</v>
+          </cell>
+          <cell r="BE32">
+            <v>108</v>
+          </cell>
+          <cell r="BF32">
+            <v>122.05</v>
+          </cell>
+          <cell r="BG32">
+            <v>134.28</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="N33">
@@ -3533,6 +4343,36 @@
           <cell r="AU33">
             <v>162.97999999999999</v>
           </cell>
+          <cell r="AX33">
+            <v>41.87</v>
+          </cell>
+          <cell r="AY33">
+            <v>53.15</v>
+          </cell>
+          <cell r="AZ33">
+            <v>64.430000000000007</v>
+          </cell>
+          <cell r="BA33">
+            <v>69.569999999999993</v>
+          </cell>
+          <cell r="BB33">
+            <v>74.72</v>
+          </cell>
+          <cell r="BC33">
+            <v>79.86</v>
+          </cell>
+          <cell r="BD33">
+            <v>94.12</v>
+          </cell>
+          <cell r="BE33">
+            <v>108.38</v>
+          </cell>
+          <cell r="BF33">
+            <v>122.63</v>
+          </cell>
+          <cell r="BG33">
+            <v>134.57</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="N34">
@@ -3625,6 +4465,36 @@
           <cell r="AU34">
             <v>163.33000000000001</v>
           </cell>
+          <cell r="AX34">
+            <v>42.81</v>
+          </cell>
+          <cell r="AY34">
+            <v>53.92</v>
+          </cell>
+          <cell r="AZ34">
+            <v>65.040000000000006</v>
+          </cell>
+          <cell r="BA34">
+            <v>69.97</v>
+          </cell>
+          <cell r="BB34">
+            <v>74.900000000000006</v>
+          </cell>
+          <cell r="BC34">
+            <v>79.84</v>
+          </cell>
+          <cell r="BD34">
+            <v>94.29</v>
+          </cell>
+          <cell r="BE34">
+            <v>108.75</v>
+          </cell>
+          <cell r="BF34">
+            <v>123.21</v>
+          </cell>
+          <cell r="BG34">
+            <v>134.86000000000001</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="N35">
@@ -3717,6 +4587,36 @@
           <cell r="AU35">
             <v>163.68</v>
           </cell>
+          <cell r="AX35">
+            <v>43.75</v>
+          </cell>
+          <cell r="AY35">
+            <v>54.7</v>
+          </cell>
+          <cell r="AZ35">
+            <v>65.64</v>
+          </cell>
+          <cell r="BA35">
+            <v>70.36</v>
+          </cell>
+          <cell r="BB35">
+            <v>75.09</v>
+          </cell>
+          <cell r="BC35">
+            <v>79.81</v>
+          </cell>
+          <cell r="BD35">
+            <v>94.47</v>
+          </cell>
+          <cell r="BE35">
+            <v>109.13</v>
+          </cell>
+          <cell r="BF35">
+            <v>123.79</v>
+          </cell>
+          <cell r="BG35">
+            <v>135.15</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="N36">
@@ -3808,6 +4708,36 @@
           </cell>
           <cell r="AU36">
             <v>155.99566666666666</v>
+          </cell>
+          <cell r="AX36">
+            <v>30.403999999999996</v>
+          </cell>
+          <cell r="AY36">
+            <v>41.89233333333334</v>
+          </cell>
+          <cell r="AZ36">
+            <v>53.379666666666679</v>
+          </cell>
+          <cell r="BA36">
+            <v>60.542333333333332</v>
+          </cell>
+          <cell r="BB36">
+            <v>67.705666666666673</v>
+          </cell>
+          <cell r="BC36">
+            <v>74.868333333333339</v>
+          </cell>
+          <cell r="BD36">
+            <v>86.575666666666663</v>
+          </cell>
+          <cell r="BE36">
+            <v>98.282666666666657</v>
+          </cell>
+          <cell r="BF36">
+            <v>109.98966666666666</v>
+          </cell>
+          <cell r="BG36">
+            <v>128.24966666666666</v>
           </cell>
         </row>
       </sheetData>
@@ -3878,23 +4808,23 @@
           </cell>
         </row>
         <row r="29">
-          <cell r="D29" t="e">
-            <v>#N/A</v>
+          <cell r="D29">
+            <v>0.04</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="D30" t="e">
-            <v>#N/A</v>
+          <cell r="D30">
+            <v>4.4999999999999998E-2</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="D31" t="e">
-            <v>#N/A</v>
+          <cell r="D31">
+            <v>4.7500000000000001E-2</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="D32" t="e">
-            <v>#N/A</v>
+          <cell r="D32">
+            <v>0.05</v>
           </cell>
         </row>
       </sheetData>
@@ -8548,17 +9478,17 @@
           <cell r="H278">
             <v>45931</v>
           </cell>
-          <cell r="I278" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J278" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K278" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L278" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I278">
+            <v>4.02E-2</v>
+          </cell>
+          <cell r="J278">
+            <v>4.2900000000000001E-2</v>
+          </cell>
+          <cell r="K278">
+            <v>4.5100000000000001E-2</v>
+          </cell>
+          <cell r="L278">
+            <v>4.7500000000000001E-2</v>
           </cell>
         </row>
         <row r="279">
@@ -10421,9 +11351,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B276" sqref="B276"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16481,21 +17411,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H278</f>
         <v>45931</v>
       </c>
-      <c r="B277" s="17" t="str">
+      <c r="B277" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I278</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C277" s="48" t="str">
+        <v>4.02E-2</v>
+      </c>
+      <c r="C277" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J278</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D277" s="48" t="str">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="D277" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K278</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E277" s="5" t="str">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="E277" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L278</f>
-        <v xml:space="preserve"> </v>
+        <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -18569,7 +19499,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -18701,21 +19631,21 @@
         <f>TEXT(DATE([1]!Year_of_Valuation,10,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,12,31),"m/d/yyyy")</f>
         <v>10/1/2025 - 12/31/2025</v>
       </c>
-      <c r="B9" s="11" t="str">
+      <c r="B9" s="11">
         <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$29),"",'[1]Non-Jumbo Rates'!$D$29)</f>
-        <v/>
-      </c>
-      <c r="C9" s="11" t="str">
+        <v>0.04</v>
+      </c>
+      <c r="C9" s="11">
         <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$30),"",'[1]Non-Jumbo Rates'!$D$30)</f>
-        <v/>
-      </c>
-      <c r="D9" s="12" t="str">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D9" s="12">
         <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$31),"",'[1]Non-Jumbo Rates'!$D$31)</f>
-        <v/>
-      </c>
-      <c r="E9" s="11" t="str">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="E9" s="11">
         <f ca="1">IF(ISNA('[1]Non-Jumbo Rates'!$D$32),"",'[1]Non-Jumbo Rates'!$D$32)</f>
-        <v/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -19378,7 +20308,7 @@
   <dimension ref="A1:AU36"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19390,182 +20320,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="str" cm="1">
+      <c r="A1" s="66" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="M1" s="62" t="str" cm="1">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="M1" s="66" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="64"/>
-      <c r="Y1" s="62" t="str" cm="1">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="68"/>
+      <c r="Y1" s="66" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="64"/>
-      <c r="AK1" s="62" t="str" cm="1">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="68"/>
+      <c r="AK1" s="66" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="str">
+      <c r="A2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="M2" s="65" t="str">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="M2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="67"/>
-      <c r="Y2" s="65" t="str">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="Y2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="67"/>
-      <c r="AK2" s="65" t="str">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64"/>
+      <c r="AK2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="67"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="64"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="68" t="s">
+      <c r="AL3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -20004,45 +20934,45 @@
       <c r="AK6" s="42">
         <v>1</v>
       </c>
-      <c r="AL6" s="44" t="str">
+      <c r="AL6" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX6=0,"",'[1]Spreads VM-22 Table X'!AX6)</f>
-        <v/>
-      </c>
-      <c r="AM6" s="44" t="str">
+        <v>2.73</v>
+      </c>
+      <c r="AM6" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY6=0,"",'[1]Spreads VM-22 Table X'!AY6)</f>
-        <v/>
-      </c>
-      <c r="AN6" s="44" t="str">
+        <v>11.99</v>
+      </c>
+      <c r="AN6" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ6=0,"",'[1]Spreads VM-22 Table X'!AZ6)</f>
-        <v/>
-      </c>
-      <c r="AO6" s="44" t="str">
+        <v>21.24</v>
+      </c>
+      <c r="AO6" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA6=0,"",'[1]Spreads VM-22 Table X'!BA6)</f>
-        <v/>
-      </c>
-      <c r="AP6" s="44" t="str">
+        <v>27.53</v>
+      </c>
+      <c r="AP6" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB6=0,"",'[1]Spreads VM-22 Table X'!BB6)</f>
-        <v/>
-      </c>
-      <c r="AQ6" s="44" t="str">
+        <v>33.82</v>
+      </c>
+      <c r="AQ6" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC6=0,"",'[1]Spreads VM-22 Table X'!BC6)</f>
-        <v/>
-      </c>
-      <c r="AR6" s="44" t="str">
+        <v>40.11</v>
+      </c>
+      <c r="AR6" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD6=0,"",'[1]Spreads VM-22 Table X'!BD6)</f>
-        <v/>
-      </c>
-      <c r="AS6" s="44" t="str">
+        <v>46.87</v>
+      </c>
+      <c r="AS6" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE6=0,"",'[1]Spreads VM-22 Table X'!BE6)</f>
-        <v/>
-      </c>
-      <c r="AT6" s="44" t="str">
+        <v>53.63</v>
+      </c>
+      <c r="AT6" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF6=0,"",'[1]Spreads VM-22 Table X'!BF6)</f>
-        <v/>
-      </c>
-      <c r="AU6" s="45" t="str">
+        <v>60.39</v>
+      </c>
+      <c r="AU6" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG6=0,"",'[1]Spreads VM-22 Table X'!BG6)</f>
-        <v/>
+        <v>103.45</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -20178,45 +21108,45 @@
       <c r="AK7" s="42">
         <v>2</v>
       </c>
-      <c r="AL7" s="44" t="str">
+      <c r="AL7" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX7=0,"",'[1]Spreads VM-22 Table X'!AX7)</f>
-        <v/>
-      </c>
-      <c r="AM7" s="44" t="str">
+        <v>10.41</v>
+      </c>
+      <c r="AM7" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY7=0,"",'[1]Spreads VM-22 Table X'!AY7)</f>
-        <v/>
-      </c>
-      <c r="AN7" s="44" t="str">
+        <v>18.71</v>
+      </c>
+      <c r="AN7" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ7=0,"",'[1]Spreads VM-22 Table X'!AZ7)</f>
-        <v/>
-      </c>
-      <c r="AO7" s="44" t="str">
+        <v>27</v>
+      </c>
+      <c r="AO7" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA7=0,"",'[1]Spreads VM-22 Table X'!BA7)</f>
-        <v/>
-      </c>
-      <c r="AP7" s="44" t="str">
+        <v>33.49</v>
+      </c>
+      <c r="AP7" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB7=0,"",'[1]Spreads VM-22 Table X'!BB7)</f>
-        <v/>
-      </c>
-      <c r="AQ7" s="44" t="str">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="AQ7" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC7=0,"",'[1]Spreads VM-22 Table X'!BC7)</f>
-        <v/>
-      </c>
-      <c r="AR7" s="44" t="str">
+        <v>46.47</v>
+      </c>
+      <c r="AR7" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD7=0,"",'[1]Spreads VM-22 Table X'!BD7)</f>
-        <v/>
-      </c>
-      <c r="AS7" s="44" t="str">
+        <v>54.35</v>
+      </c>
+      <c r="AS7" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE7=0,"",'[1]Spreads VM-22 Table X'!BE7)</f>
-        <v/>
-      </c>
-      <c r="AT7" s="44" t="str">
+        <v>62.24</v>
+      </c>
+      <c r="AT7" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF7=0,"",'[1]Spreads VM-22 Table X'!BF7)</f>
-        <v/>
-      </c>
-      <c r="AU7" s="45" t="str">
+        <v>70.12</v>
+      </c>
+      <c r="AU7" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG7=0,"",'[1]Spreads VM-22 Table X'!BG7)</f>
-        <v/>
+        <v>108.31</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -20352,45 +21282,45 @@
       <c r="AK8" s="42">
         <v>3</v>
       </c>
-      <c r="AL8" s="44" t="str">
+      <c r="AL8" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX8=0,"",'[1]Spreads VM-22 Table X'!AX8)</f>
-        <v/>
-      </c>
-      <c r="AM8" s="44" t="str">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AM8" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY8=0,"",'[1]Spreads VM-22 Table X'!AY8)</f>
-        <v/>
-      </c>
-      <c r="AN8" s="44" t="str">
+        <v>25.43</v>
+      </c>
+      <c r="AN8" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ8=0,"",'[1]Spreads VM-22 Table X'!AZ8)</f>
-        <v/>
-      </c>
-      <c r="AO8" s="44" t="str">
+        <v>32.76</v>
+      </c>
+      <c r="AO8" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA8=0,"",'[1]Spreads VM-22 Table X'!BA8)</f>
-        <v/>
-      </c>
-      <c r="AP8" s="44" t="str">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="AP8" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB8=0,"",'[1]Spreads VM-22 Table X'!BB8)</f>
-        <v/>
-      </c>
-      <c r="AQ8" s="44" t="str">
+        <v>46.15</v>
+      </c>
+      <c r="AQ8" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC8=0,"",'[1]Spreads VM-22 Table X'!BC8)</f>
-        <v/>
-      </c>
-      <c r="AR8" s="44" t="str">
+        <v>52.84</v>
+      </c>
+      <c r="AR8" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD8=0,"",'[1]Spreads VM-22 Table X'!BD8)</f>
-        <v/>
-      </c>
-      <c r="AS8" s="44" t="str">
+        <v>61.84</v>
+      </c>
+      <c r="AS8" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE8=0,"",'[1]Spreads VM-22 Table X'!BE8)</f>
-        <v/>
-      </c>
-      <c r="AT8" s="44" t="str">
+        <v>70.84</v>
+      </c>
+      <c r="AT8" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF8=0,"",'[1]Spreads VM-22 Table X'!BF8)</f>
-        <v/>
-      </c>
-      <c r="AU8" s="45" t="str">
+        <v>79.84</v>
+      </c>
+      <c r="AU8" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG8=0,"",'[1]Spreads VM-22 Table X'!BG8)</f>
-        <v/>
+        <v>113.18</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -20526,45 +21456,45 @@
       <c r="AK9" s="42">
         <v>4</v>
       </c>
-      <c r="AL9" s="44" t="str">
+      <c r="AL9" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX9=0,"",'[1]Spreads VM-22 Table X'!AX9)</f>
-        <v/>
-      </c>
-      <c r="AM9" s="44" t="str">
+        <v>25.78</v>
+      </c>
+      <c r="AM9" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY9=0,"",'[1]Spreads VM-22 Table X'!AY9)</f>
-        <v/>
-      </c>
-      <c r="AN9" s="44" t="str">
+        <v>32.15</v>
+      </c>
+      <c r="AN9" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ9=0,"",'[1]Spreads VM-22 Table X'!AZ9)</f>
-        <v/>
-      </c>
-      <c r="AO9" s="44" t="str">
+        <v>38.520000000000003</v>
+      </c>
+      <c r="AO9" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA9=0,"",'[1]Spreads VM-22 Table X'!BA9)</f>
-        <v/>
-      </c>
-      <c r="AP9" s="44" t="str">
+        <v>45.41</v>
+      </c>
+      <c r="AP9" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB9=0,"",'[1]Spreads VM-22 Table X'!BB9)</f>
-        <v/>
-      </c>
-      <c r="AQ9" s="44" t="str">
+        <v>52.31</v>
+      </c>
+      <c r="AQ9" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC9=0,"",'[1]Spreads VM-22 Table X'!BC9)</f>
-        <v/>
-      </c>
-      <c r="AR9" s="44" t="str">
+        <v>59.2</v>
+      </c>
+      <c r="AR9" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD9=0,"",'[1]Spreads VM-22 Table X'!BD9)</f>
-        <v/>
-      </c>
-      <c r="AS9" s="44" t="str">
+        <v>69.319999999999993</v>
+      </c>
+      <c r="AS9" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE9=0,"",'[1]Spreads VM-22 Table X'!BE9)</f>
-        <v/>
-      </c>
-      <c r="AT9" s="44" t="str">
+        <v>79.44</v>
+      </c>
+      <c r="AT9" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF9=0,"",'[1]Spreads VM-22 Table X'!BF9)</f>
-        <v/>
-      </c>
-      <c r="AU9" s="45" t="str">
+        <v>89.57</v>
+      </c>
+      <c r="AU9" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG9=0,"",'[1]Spreads VM-22 Table X'!BG9)</f>
-        <v/>
+        <v>118.04</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -20700,45 +21630,45 @@
       <c r="AK10" s="42">
         <v>5</v>
       </c>
-      <c r="AL10" s="44" t="str">
+      <c r="AL10" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX10=0,"",'[1]Spreads VM-22 Table X'!AX10)</f>
-        <v/>
-      </c>
-      <c r="AM10" s="44" t="str">
+        <v>27.48</v>
+      </c>
+      <c r="AM10" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY10=0,"",'[1]Spreads VM-22 Table X'!AY10)</f>
-        <v/>
-      </c>
-      <c r="AN10" s="44" t="str">
+        <v>33.97</v>
+      </c>
+      <c r="AN10" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ10=0,"",'[1]Spreads VM-22 Table X'!AZ10)</f>
-        <v/>
-      </c>
-      <c r="AO10" s="44" t="str">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="AO10" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA10=0,"",'[1]Spreads VM-22 Table X'!BA10)</f>
-        <v/>
-      </c>
-      <c r="AP10" s="44" t="str">
+        <v>48.52</v>
+      </c>
+      <c r="AP10" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB10=0,"",'[1]Spreads VM-22 Table X'!BB10)</f>
-        <v/>
-      </c>
-      <c r="AQ10" s="44" t="str">
+        <v>56.58</v>
+      </c>
+      <c r="AQ10" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC10=0,"",'[1]Spreads VM-22 Table X'!BC10)</f>
-        <v/>
-      </c>
-      <c r="AR10" s="44" t="str">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="AR10" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD10=0,"",'[1]Spreads VM-22 Table X'!BD10)</f>
-        <v/>
-      </c>
-      <c r="AS10" s="44" t="str">
+        <v>74.959999999999994</v>
+      </c>
+      <c r="AS10" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE10=0,"",'[1]Spreads VM-22 Table X'!BE10)</f>
-        <v/>
-      </c>
-      <c r="AT10" s="44" t="str">
+        <v>85.27</v>
+      </c>
+      <c r="AT10" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF10=0,"",'[1]Spreads VM-22 Table X'!BF10)</f>
-        <v/>
-      </c>
-      <c r="AU10" s="45" t="str">
+        <v>95.58</v>
+      </c>
+      <c r="AU10" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG10=0,"",'[1]Spreads VM-22 Table X'!BG10)</f>
-        <v/>
+        <v>121.04</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -20874,45 +21804,45 @@
       <c r="AK11" s="42">
         <v>6</v>
       </c>
-      <c r="AL11" s="44" t="str">
+      <c r="AL11" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX11=0,"",'[1]Spreads VM-22 Table X'!AX11)</f>
-        <v/>
-      </c>
-      <c r="AM11" s="44" t="str">
+        <v>29.18</v>
+      </c>
+      <c r="AM11" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY11=0,"",'[1]Spreads VM-22 Table X'!AY11)</f>
-        <v/>
-      </c>
-      <c r="AN11" s="44" t="str">
+        <v>35.78</v>
+      </c>
+      <c r="AN11" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ11=0,"",'[1]Spreads VM-22 Table X'!AZ11)</f>
-        <v/>
-      </c>
-      <c r="AO11" s="44" t="str">
+        <v>42.38</v>
+      </c>
+      <c r="AO11" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA11=0,"",'[1]Spreads VM-22 Table X'!BA11)</f>
-        <v/>
-      </c>
-      <c r="AP11" s="44" t="str">
+        <v>51.62</v>
+      </c>
+      <c r="AP11" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB11=0,"",'[1]Spreads VM-22 Table X'!BB11)</f>
-        <v/>
-      </c>
-      <c r="AQ11" s="44" t="str">
+        <v>60.86</v>
+      </c>
+      <c r="AQ11" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC11=0,"",'[1]Spreads VM-22 Table X'!BC11)</f>
-        <v/>
-      </c>
-      <c r="AR11" s="44" t="str">
+        <v>70.09</v>
+      </c>
+      <c r="AR11" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD11=0,"",'[1]Spreads VM-22 Table X'!BD11)</f>
-        <v/>
-      </c>
-      <c r="AS11" s="44" t="str">
+        <v>80.59</v>
+      </c>
+      <c r="AS11" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE11=0,"",'[1]Spreads VM-22 Table X'!BE11)</f>
-        <v/>
-      </c>
-      <c r="AT11" s="44" t="str">
+        <v>91.09</v>
+      </c>
+      <c r="AT11" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF11=0,"",'[1]Spreads VM-22 Table X'!BF11)</f>
-        <v/>
-      </c>
-      <c r="AU11" s="45" t="str">
+        <v>101.59</v>
+      </c>
+      <c r="AU11" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG11=0,"",'[1]Spreads VM-22 Table X'!BG11)</f>
-        <v/>
+        <v>124.05</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -21048,45 +21978,45 @@
       <c r="AK12" s="42">
         <v>7</v>
       </c>
-      <c r="AL12" s="44" t="str">
+      <c r="AL12" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX12=0,"",'[1]Spreads VM-22 Table X'!AX12)</f>
-        <v/>
-      </c>
-      <c r="AM12" s="44" t="str">
+        <v>27.45</v>
+      </c>
+      <c r="AM12" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY12=0,"",'[1]Spreads VM-22 Table X'!AY12)</f>
-        <v/>
-      </c>
-      <c r="AN12" s="44" t="str">
+        <v>36.67</v>
+      </c>
+      <c r="AN12" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ12=0,"",'[1]Spreads VM-22 Table X'!AZ12)</f>
-        <v/>
-      </c>
-      <c r="AO12" s="44" t="str">
+        <v>45.88</v>
+      </c>
+      <c r="AO12" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA12=0,"",'[1]Spreads VM-22 Table X'!BA12)</f>
-        <v/>
-      </c>
-      <c r="AP12" s="44" t="str">
+        <v>55.1</v>
+      </c>
+      <c r="AP12" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB12=0,"",'[1]Spreads VM-22 Table X'!BB12)</f>
-        <v/>
-      </c>
-      <c r="AQ12" s="44" t="str">
+        <v>64.31</v>
+      </c>
+      <c r="AQ12" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC12=0,"",'[1]Spreads VM-22 Table X'!BC12)</f>
-        <v/>
-      </c>
-      <c r="AR12" s="44" t="str">
+        <v>73.53</v>
+      </c>
+      <c r="AR12" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD12=0,"",'[1]Spreads VM-22 Table X'!BD12)</f>
-        <v/>
-      </c>
-      <c r="AS12" s="44" t="str">
+        <v>83.99</v>
+      </c>
+      <c r="AS12" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE12=0,"",'[1]Spreads VM-22 Table X'!BE12)</f>
-        <v/>
-      </c>
-      <c r="AT12" s="44" t="str">
+        <v>94.46</v>
+      </c>
+      <c r="AT12" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF12=0,"",'[1]Spreads VM-22 Table X'!BF12)</f>
-        <v/>
-      </c>
-      <c r="AU12" s="45" t="str">
+        <v>104.93</v>
+      </c>
+      <c r="AU12" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG12=0,"",'[1]Spreads VM-22 Table X'!BG12)</f>
-        <v/>
+        <v>125.72</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -21222,45 +22152,45 @@
       <c r="AK13" s="42">
         <v>8</v>
       </c>
-      <c r="AL13" s="44" t="str">
+      <c r="AL13" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX13=0,"",'[1]Spreads VM-22 Table X'!AX13)</f>
-        <v/>
-      </c>
-      <c r="AM13" s="44" t="str">
+        <v>25.73</v>
+      </c>
+      <c r="AM13" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY13=0,"",'[1]Spreads VM-22 Table X'!AY13)</f>
-        <v/>
-      </c>
-      <c r="AN13" s="44" t="str">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="AN13" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ13=0,"",'[1]Spreads VM-22 Table X'!AZ13)</f>
-        <v/>
-      </c>
-      <c r="AO13" s="44" t="str">
+        <v>49.38</v>
+      </c>
+      <c r="AO13" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA13=0,"",'[1]Spreads VM-22 Table X'!BA13)</f>
-        <v/>
-      </c>
-      <c r="AP13" s="44" t="str">
+        <v>58.57</v>
+      </c>
+      <c r="AP13" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB13=0,"",'[1]Spreads VM-22 Table X'!BB13)</f>
-        <v/>
-      </c>
-      <c r="AQ13" s="44" t="str">
+        <v>67.77</v>
+      </c>
+      <c r="AQ13" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC13=0,"",'[1]Spreads VM-22 Table X'!BC13)</f>
-        <v/>
-      </c>
-      <c r="AR13" s="44" t="str">
+        <v>76.959999999999994</v>
+      </c>
+      <c r="AR13" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD13=0,"",'[1]Spreads VM-22 Table X'!BD13)</f>
-        <v/>
-      </c>
-      <c r="AS13" s="44" t="str">
+        <v>87.4</v>
+      </c>
+      <c r="AS13" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE13=0,"",'[1]Spreads VM-22 Table X'!BE13)</f>
-        <v/>
-      </c>
-      <c r="AT13" s="44" t="str">
+        <v>97.83</v>
+      </c>
+      <c r="AT13" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF13=0,"",'[1]Spreads VM-22 Table X'!BF13)</f>
-        <v/>
-      </c>
-      <c r="AU13" s="45" t="str">
+        <v>108.27</v>
+      </c>
+      <c r="AU13" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG13=0,"",'[1]Spreads VM-22 Table X'!BG13)</f>
-        <v/>
+        <v>127.39</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -21396,45 +22326,45 @@
       <c r="AK14" s="42">
         <v>9</v>
       </c>
-      <c r="AL14" s="44" t="str">
+      <c r="AL14" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX14=0,"",'[1]Spreads VM-22 Table X'!AX14)</f>
-        <v/>
-      </c>
-      <c r="AM14" s="44" t="str">
+        <v>24</v>
+      </c>
+      <c r="AM14" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY14=0,"",'[1]Spreads VM-22 Table X'!AY14)</f>
-        <v/>
-      </c>
-      <c r="AN14" s="44" t="str">
+        <v>38.44</v>
+      </c>
+      <c r="AN14" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ14=0,"",'[1]Spreads VM-22 Table X'!AZ14)</f>
-        <v/>
-      </c>
-      <c r="AO14" s="44" t="str">
+        <v>52.88</v>
+      </c>
+      <c r="AO14" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA14=0,"",'[1]Spreads VM-22 Table X'!BA14)</f>
-        <v/>
-      </c>
-      <c r="AP14" s="44" t="str">
+        <v>62.05</v>
+      </c>
+      <c r="AP14" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB14=0,"",'[1]Spreads VM-22 Table X'!BB14)</f>
-        <v/>
-      </c>
-      <c r="AQ14" s="44" t="str">
+        <v>71.22</v>
+      </c>
+      <c r="AQ14" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC14=0,"",'[1]Spreads VM-22 Table X'!BC14)</f>
-        <v/>
-      </c>
-      <c r="AR14" s="44" t="str">
+        <v>80.39</v>
+      </c>
+      <c r="AR14" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD14=0,"",'[1]Spreads VM-22 Table X'!BD14)</f>
-        <v/>
-      </c>
-      <c r="AS14" s="44" t="str">
+        <v>90.8</v>
+      </c>
+      <c r="AS14" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE14=0,"",'[1]Spreads VM-22 Table X'!BE14)</f>
-        <v/>
-      </c>
-      <c r="AT14" s="44" t="str">
+        <v>101.2</v>
+      </c>
+      <c r="AT14" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF14=0,"",'[1]Spreads VM-22 Table X'!BF14)</f>
-        <v/>
-      </c>
-      <c r="AU14" s="45" t="str">
+        <v>111.61</v>
+      </c>
+      <c r="AU14" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG14=0,"",'[1]Spreads VM-22 Table X'!BG14)</f>
-        <v/>
+        <v>129.06</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -21570,45 +22500,45 @@
       <c r="AK15" s="42">
         <v>10</v>
       </c>
-      <c r="AL15" s="44" t="str">
+      <c r="AL15" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX15=0,"",'[1]Spreads VM-22 Table X'!AX15)</f>
-        <v/>
-      </c>
-      <c r="AM15" s="44" t="str">
+        <v>24.94</v>
+      </c>
+      <c r="AM15" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY15=0,"",'[1]Spreads VM-22 Table X'!AY15)</f>
-        <v/>
-      </c>
-      <c r="AN15" s="44" t="str">
+        <v>39.21</v>
+      </c>
+      <c r="AN15" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ15=0,"",'[1]Spreads VM-22 Table X'!AZ15)</f>
-        <v/>
-      </c>
-      <c r="AO15" s="44" t="str">
+        <v>53.49</v>
+      </c>
+      <c r="AO15" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA15=0,"",'[1]Spreads VM-22 Table X'!BA15)</f>
-        <v/>
-      </c>
-      <c r="AP15" s="44" t="str">
+        <v>62.45</v>
+      </c>
+      <c r="AP15" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB15=0,"",'[1]Spreads VM-22 Table X'!BB15)</f>
-        <v/>
-      </c>
-      <c r="AQ15" s="44" t="str">
+        <v>71.41</v>
+      </c>
+      <c r="AQ15" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC15=0,"",'[1]Spreads VM-22 Table X'!BC15)</f>
-        <v/>
-      </c>
-      <c r="AR15" s="44" t="str">
+        <v>80.36</v>
+      </c>
+      <c r="AR15" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD15=0,"",'[1]Spreads VM-22 Table X'!BD15)</f>
-        <v/>
-      </c>
-      <c r="AS15" s="44" t="str">
+        <v>90.97</v>
+      </c>
+      <c r="AS15" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE15=0,"",'[1]Spreads VM-22 Table X'!BE15)</f>
-        <v/>
-      </c>
-      <c r="AT15" s="44" t="str">
+        <v>101.58</v>
+      </c>
+      <c r="AT15" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF15=0,"",'[1]Spreads VM-22 Table X'!BF15)</f>
-        <v/>
-      </c>
-      <c r="AU15" s="45" t="str">
+        <v>112.19</v>
+      </c>
+      <c r="AU15" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG15=0,"",'[1]Spreads VM-22 Table X'!BG15)</f>
-        <v/>
+        <v>129.35</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -21744,45 +22674,45 @@
       <c r="AK16" s="42">
         <v>11</v>
       </c>
-      <c r="AL16" s="44" t="str">
+      <c r="AL16" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX16=0,"",'[1]Spreads VM-22 Table X'!AX16)</f>
-        <v/>
-      </c>
-      <c r="AM16" s="44" t="str">
+        <v>25.88</v>
+      </c>
+      <c r="AM16" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY16=0,"",'[1]Spreads VM-22 Table X'!AY16)</f>
-        <v/>
-      </c>
-      <c r="AN16" s="44" t="str">
+        <v>39.99</v>
+      </c>
+      <c r="AN16" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ16=0,"",'[1]Spreads VM-22 Table X'!AZ16)</f>
-        <v/>
-      </c>
-      <c r="AO16" s="44" t="str">
+        <v>54.1</v>
+      </c>
+      <c r="AO16" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA16=0,"",'[1]Spreads VM-22 Table X'!BA16)</f>
-        <v/>
-      </c>
-      <c r="AP16" s="44" t="str">
+        <v>62.84</v>
+      </c>
+      <c r="AP16" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB16=0,"",'[1]Spreads VM-22 Table X'!BB16)</f>
-        <v/>
-      </c>
-      <c r="AQ16" s="44" t="str">
+        <v>71.59</v>
+      </c>
+      <c r="AQ16" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC16=0,"",'[1]Spreads VM-22 Table X'!BC16)</f>
-        <v/>
-      </c>
-      <c r="AR16" s="44" t="str">
+        <v>80.34</v>
+      </c>
+      <c r="AR16" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD16=0,"",'[1]Spreads VM-22 Table X'!BD16)</f>
-        <v/>
-      </c>
-      <c r="AS16" s="44" t="str">
+        <v>91.15</v>
+      </c>
+      <c r="AS16" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE16=0,"",'[1]Spreads VM-22 Table X'!BE16)</f>
-        <v/>
-      </c>
-      <c r="AT16" s="44" t="str">
+        <v>101.96</v>
+      </c>
+      <c r="AT16" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF16=0,"",'[1]Spreads VM-22 Table X'!BF16)</f>
-        <v/>
-      </c>
-      <c r="AU16" s="45" t="str">
+        <v>112.77</v>
+      </c>
+      <c r="AU16" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG16=0,"",'[1]Spreads VM-22 Table X'!BG16)</f>
-        <v/>
+        <v>129.63999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -21918,45 +22848,45 @@
       <c r="AK17" s="42">
         <v>12</v>
       </c>
-      <c r="AL17" s="44" t="str">
+      <c r="AL17" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX17=0,"",'[1]Spreads VM-22 Table X'!AX17)</f>
-        <v/>
-      </c>
-      <c r="AM17" s="44" t="str">
+        <v>26.82</v>
+      </c>
+      <c r="AM17" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY17=0,"",'[1]Spreads VM-22 Table X'!AY17)</f>
-        <v/>
-      </c>
-      <c r="AN17" s="44" t="str">
+        <v>40.76</v>
+      </c>
+      <c r="AN17" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ17=0,"",'[1]Spreads VM-22 Table X'!AZ17)</f>
-        <v/>
-      </c>
-      <c r="AO17" s="44" t="str">
+        <v>54.71</v>
+      </c>
+      <c r="AO17" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA17=0,"",'[1]Spreads VM-22 Table X'!BA17)</f>
-        <v/>
-      </c>
-      <c r="AP17" s="44" t="str">
+        <v>63.24</v>
+      </c>
+      <c r="AP17" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB17=0,"",'[1]Spreads VM-22 Table X'!BB17)</f>
-        <v/>
-      </c>
-      <c r="AQ17" s="44" t="str">
+        <v>71.77</v>
+      </c>
+      <c r="AQ17" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC17=0,"",'[1]Spreads VM-22 Table X'!BC17)</f>
-        <v/>
-      </c>
-      <c r="AR17" s="44" t="str">
+        <v>80.31</v>
+      </c>
+      <c r="AR17" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD17=0,"",'[1]Spreads VM-22 Table X'!BD17)</f>
-        <v/>
-      </c>
-      <c r="AS17" s="44" t="str">
+        <v>91.32</v>
+      </c>
+      <c r="AS17" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE17=0,"",'[1]Spreads VM-22 Table X'!BE17)</f>
-        <v/>
-      </c>
-      <c r="AT17" s="44" t="str">
+        <v>102.34</v>
+      </c>
+      <c r="AT17" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF17=0,"",'[1]Spreads VM-22 Table X'!BF17)</f>
-        <v/>
-      </c>
-      <c r="AU17" s="45" t="str">
+        <v>113.35</v>
+      </c>
+      <c r="AU17" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG17=0,"",'[1]Spreads VM-22 Table X'!BG17)</f>
-        <v/>
+        <v>129.93</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -22092,45 +23022,45 @@
       <c r="AK18" s="42">
         <v>13</v>
       </c>
-      <c r="AL18" s="44" t="str">
+      <c r="AL18" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX18=0,"",'[1]Spreads VM-22 Table X'!AX18)</f>
-        <v/>
-      </c>
-      <c r="AM18" s="44" t="str">
+        <v>27.76</v>
+      </c>
+      <c r="AM18" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY18=0,"",'[1]Spreads VM-22 Table X'!AY18)</f>
-        <v/>
-      </c>
-      <c r="AN18" s="44" t="str">
+        <v>41.54</v>
+      </c>
+      <c r="AN18" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ18=0,"",'[1]Spreads VM-22 Table X'!AZ18)</f>
-        <v/>
-      </c>
-      <c r="AO18" s="44" t="str">
+        <v>55.31</v>
+      </c>
+      <c r="AO18" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA18=0,"",'[1]Spreads VM-22 Table X'!BA18)</f>
-        <v/>
-      </c>
-      <c r="AP18" s="44" t="str">
+        <v>63.64</v>
+      </c>
+      <c r="AP18" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB18=0,"",'[1]Spreads VM-22 Table X'!BB18)</f>
-        <v/>
-      </c>
-      <c r="AQ18" s="44" t="str">
+        <v>71.959999999999994</v>
+      </c>
+      <c r="AQ18" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC18=0,"",'[1]Spreads VM-22 Table X'!BC18)</f>
-        <v/>
-      </c>
-      <c r="AR18" s="44" t="str">
+        <v>80.28</v>
+      </c>
+      <c r="AR18" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD18=0,"",'[1]Spreads VM-22 Table X'!BD18)</f>
-        <v/>
-      </c>
-      <c r="AS18" s="44" t="str">
+        <v>91.5</v>
+      </c>
+      <c r="AS18" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE18=0,"",'[1]Spreads VM-22 Table X'!BE18)</f>
-        <v/>
-      </c>
-      <c r="AT18" s="44" t="str">
+        <v>102.71</v>
+      </c>
+      <c r="AT18" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF18=0,"",'[1]Spreads VM-22 Table X'!BF18)</f>
-        <v/>
-      </c>
-      <c r="AU18" s="45" t="str">
+        <v>113.93</v>
+      </c>
+      <c r="AU18" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG18=0,"",'[1]Spreads VM-22 Table X'!BG18)</f>
-        <v/>
+        <v>130.22</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
@@ -22266,45 +23196,45 @@
       <c r="AK19" s="42">
         <v>14</v>
       </c>
-      <c r="AL19" s="44" t="str">
+      <c r="AL19" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX19=0,"",'[1]Spreads VM-22 Table X'!AX19)</f>
-        <v/>
-      </c>
-      <c r="AM19" s="44" t="str">
+        <v>28.7</v>
+      </c>
+      <c r="AM19" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY19=0,"",'[1]Spreads VM-22 Table X'!AY19)</f>
-        <v/>
-      </c>
-      <c r="AN19" s="44" t="str">
+        <v>42.31</v>
+      </c>
+      <c r="AN19" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ19=0,"",'[1]Spreads VM-22 Table X'!AZ19)</f>
-        <v/>
-      </c>
-      <c r="AO19" s="44" t="str">
+        <v>55.92</v>
+      </c>
+      <c r="AO19" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA19=0,"",'[1]Spreads VM-22 Table X'!BA19)</f>
-        <v/>
-      </c>
-      <c r="AP19" s="44" t="str">
+        <v>64.03</v>
+      </c>
+      <c r="AP19" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB19=0,"",'[1]Spreads VM-22 Table X'!BB19)</f>
-        <v/>
-      </c>
-      <c r="AQ19" s="44" t="str">
+        <v>72.14</v>
+      </c>
+      <c r="AQ19" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC19=0,"",'[1]Spreads VM-22 Table X'!BC19)</f>
-        <v/>
-      </c>
-      <c r="AR19" s="44" t="str">
+        <v>80.25</v>
+      </c>
+      <c r="AR19" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD19=0,"",'[1]Spreads VM-22 Table X'!BD19)</f>
-        <v/>
-      </c>
-      <c r="AS19" s="44" t="str">
+        <v>91.67</v>
+      </c>
+      <c r="AS19" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE19=0,"",'[1]Spreads VM-22 Table X'!BE19)</f>
-        <v/>
-      </c>
-      <c r="AT19" s="44" t="str">
+        <v>103.09</v>
+      </c>
+      <c r="AT19" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF19=0,"",'[1]Spreads VM-22 Table X'!BF19)</f>
-        <v/>
-      </c>
-      <c r="AU19" s="45" t="str">
+        <v>114.51</v>
+      </c>
+      <c r="AU19" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG19=0,"",'[1]Spreads VM-22 Table X'!BG19)</f>
-        <v/>
+        <v>130.51</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
@@ -22440,45 +23370,45 @@
       <c r="AK20" s="42">
         <v>15</v>
       </c>
-      <c r="AL20" s="44" t="str">
+      <c r="AL20" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX20=0,"",'[1]Spreads VM-22 Table X'!AX20)</f>
-        <v/>
-      </c>
-      <c r="AM20" s="44" t="str">
+        <v>29.64</v>
+      </c>
+      <c r="AM20" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY20=0,"",'[1]Spreads VM-22 Table X'!AY20)</f>
-        <v/>
-      </c>
-      <c r="AN20" s="44" t="str">
+        <v>43.09</v>
+      </c>
+      <c r="AN20" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ20=0,"",'[1]Spreads VM-22 Table X'!AZ20)</f>
-        <v/>
-      </c>
-      <c r="AO20" s="44" t="str">
+        <v>56.53</v>
+      </c>
+      <c r="AO20" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA20=0,"",'[1]Spreads VM-22 Table X'!BA20)</f>
-        <v/>
-      </c>
-      <c r="AP20" s="44" t="str">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="AP20" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB20=0,"",'[1]Spreads VM-22 Table X'!BB20)</f>
-        <v/>
-      </c>
-      <c r="AQ20" s="44" t="str">
+        <v>72.33</v>
+      </c>
+      <c r="AQ20" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC20=0,"",'[1]Spreads VM-22 Table X'!BC20)</f>
-        <v/>
-      </c>
-      <c r="AR20" s="44" t="str">
+        <v>80.23</v>
+      </c>
+      <c r="AR20" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD20=0,"",'[1]Spreads VM-22 Table X'!BD20)</f>
-        <v/>
-      </c>
-      <c r="AS20" s="44" t="str">
+        <v>91.85</v>
+      </c>
+      <c r="AS20" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE20=0,"",'[1]Spreads VM-22 Table X'!BE20)</f>
-        <v/>
-      </c>
-      <c r="AT20" s="44" t="str">
+        <v>103.47</v>
+      </c>
+      <c r="AT20" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF20=0,"",'[1]Spreads VM-22 Table X'!BF20)</f>
-        <v/>
-      </c>
-      <c r="AU20" s="45" t="str">
+        <v>115.09</v>
+      </c>
+      <c r="AU20" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG20=0,"",'[1]Spreads VM-22 Table X'!BG20)</f>
-        <v/>
+        <v>130.80000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
@@ -22614,45 +23544,45 @@
       <c r="AK21" s="42">
         <v>16</v>
       </c>
-      <c r="AL21" s="44" t="str">
+      <c r="AL21" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX21=0,"",'[1]Spreads VM-22 Table X'!AX21)</f>
-        <v/>
-      </c>
-      <c r="AM21" s="44" t="str">
+        <v>30.58</v>
+      </c>
+      <c r="AM21" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY21=0,"",'[1]Spreads VM-22 Table X'!AY21)</f>
-        <v/>
-      </c>
-      <c r="AN21" s="44" t="str">
+        <v>43.86</v>
+      </c>
+      <c r="AN21" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ21=0,"",'[1]Spreads VM-22 Table X'!AZ21)</f>
-        <v/>
-      </c>
-      <c r="AO21" s="44" t="str">
+        <v>57.14</v>
+      </c>
+      <c r="AO21" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA21=0,"",'[1]Spreads VM-22 Table X'!BA21)</f>
-        <v/>
-      </c>
-      <c r="AP21" s="44" t="str">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="AP21" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB21=0,"",'[1]Spreads VM-22 Table X'!BB21)</f>
-        <v/>
-      </c>
-      <c r="AQ21" s="44" t="str">
+        <v>72.510000000000005</v>
+      </c>
+      <c r="AQ21" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC21=0,"",'[1]Spreads VM-22 Table X'!BC21)</f>
-        <v/>
-      </c>
-      <c r="AR21" s="44" t="str">
+        <v>80.2</v>
+      </c>
+      <c r="AR21" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD21=0,"",'[1]Spreads VM-22 Table X'!BD21)</f>
-        <v/>
-      </c>
-      <c r="AS21" s="44" t="str">
+        <v>92.02</v>
+      </c>
+      <c r="AS21" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE21=0,"",'[1]Spreads VM-22 Table X'!BE21)</f>
-        <v/>
-      </c>
-      <c r="AT21" s="44" t="str">
+        <v>103.85</v>
+      </c>
+      <c r="AT21" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF21=0,"",'[1]Spreads VM-22 Table X'!BF21)</f>
-        <v/>
-      </c>
-      <c r="AU21" s="45" t="str">
+        <v>115.67</v>
+      </c>
+      <c r="AU21" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG21=0,"",'[1]Spreads VM-22 Table X'!BG21)</f>
-        <v/>
+        <v>131.09</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.25">
@@ -22788,45 +23718,45 @@
       <c r="AK22" s="42">
         <v>17</v>
       </c>
-      <c r="AL22" s="44" t="str">
+      <c r="AL22" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX22=0,"",'[1]Spreads VM-22 Table X'!AX22)</f>
-        <v/>
-      </c>
-      <c r="AM22" s="44" t="str">
+        <v>31.52</v>
+      </c>
+      <c r="AM22" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY22=0,"",'[1]Spreads VM-22 Table X'!AY22)</f>
-        <v/>
-      </c>
-      <c r="AN22" s="44" t="str">
+        <v>44.63</v>
+      </c>
+      <c r="AN22" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ22=0,"",'[1]Spreads VM-22 Table X'!AZ22)</f>
-        <v/>
-      </c>
-      <c r="AO22" s="44" t="str">
+        <v>57.74</v>
+      </c>
+      <c r="AO22" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA22=0,"",'[1]Spreads VM-22 Table X'!BA22)</f>
-        <v/>
-      </c>
-      <c r="AP22" s="44" t="str">
+        <v>65.22</v>
+      </c>
+      <c r="AP22" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB22=0,"",'[1]Spreads VM-22 Table X'!BB22)</f>
-        <v/>
-      </c>
-      <c r="AQ22" s="44" t="str">
+        <v>72.69</v>
+      </c>
+      <c r="AQ22" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC22=0,"",'[1]Spreads VM-22 Table X'!BC22)</f>
-        <v/>
-      </c>
-      <c r="AR22" s="44" t="str">
+        <v>80.17</v>
+      </c>
+      <c r="AR22" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD22=0,"",'[1]Spreads VM-22 Table X'!BD22)</f>
-        <v/>
-      </c>
-      <c r="AS22" s="44" t="str">
+        <v>92.2</v>
+      </c>
+      <c r="AS22" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE22=0,"",'[1]Spreads VM-22 Table X'!BE22)</f>
-        <v/>
-      </c>
-      <c r="AT22" s="44" t="str">
+        <v>104.22</v>
+      </c>
+      <c r="AT22" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF22=0,"",'[1]Spreads VM-22 Table X'!BF22)</f>
-        <v/>
-      </c>
-      <c r="AU22" s="45" t="str">
+        <v>116.25</v>
+      </c>
+      <c r="AU22" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG22=0,"",'[1]Spreads VM-22 Table X'!BG22)</f>
-        <v/>
+        <v>131.38</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
@@ -22962,45 +23892,45 @@
       <c r="AK23" s="42">
         <v>18</v>
       </c>
-      <c r="AL23" s="44" t="str">
+      <c r="AL23" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX23=0,"",'[1]Spreads VM-22 Table X'!AX23)</f>
-        <v/>
-      </c>
-      <c r="AM23" s="44" t="str">
+        <v>32.46</v>
+      </c>
+      <c r="AM23" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY23=0,"",'[1]Spreads VM-22 Table X'!AY23)</f>
-        <v/>
-      </c>
-      <c r="AN23" s="44" t="str">
+        <v>45.41</v>
+      </c>
+      <c r="AN23" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ23=0,"",'[1]Spreads VM-22 Table X'!AZ23)</f>
-        <v/>
-      </c>
-      <c r="AO23" s="44" t="str">
+        <v>58.35</v>
+      </c>
+      <c r="AO23" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA23=0,"",'[1]Spreads VM-22 Table X'!BA23)</f>
-        <v/>
-      </c>
-      <c r="AP23" s="44" t="str">
+        <v>65.61</v>
+      </c>
+      <c r="AP23" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB23=0,"",'[1]Spreads VM-22 Table X'!BB23)</f>
-        <v/>
-      </c>
-      <c r="AQ23" s="44" t="str">
+        <v>72.88</v>
+      </c>
+      <c r="AQ23" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC23=0,"",'[1]Spreads VM-22 Table X'!BC23)</f>
-        <v/>
-      </c>
-      <c r="AR23" s="44" t="str">
+        <v>80.14</v>
+      </c>
+      <c r="AR23" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD23=0,"",'[1]Spreads VM-22 Table X'!BD23)</f>
-        <v/>
-      </c>
-      <c r="AS23" s="44" t="str">
+        <v>92.37</v>
+      </c>
+      <c r="AS23" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE23=0,"",'[1]Spreads VM-22 Table X'!BE23)</f>
-        <v/>
-      </c>
-      <c r="AT23" s="44" t="str">
+        <v>104.6</v>
+      </c>
+      <c r="AT23" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF23=0,"",'[1]Spreads VM-22 Table X'!BF23)</f>
-        <v/>
-      </c>
-      <c r="AU23" s="45" t="str">
+        <v>116.83</v>
+      </c>
+      <c r="AU23" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG23=0,"",'[1]Spreads VM-22 Table X'!BG23)</f>
-        <v/>
+        <v>131.66999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
@@ -23136,45 +24066,45 @@
       <c r="AK24" s="42">
         <v>19</v>
       </c>
-      <c r="AL24" s="44" t="str">
+      <c r="AL24" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX24=0,"",'[1]Spreads VM-22 Table X'!AX24)</f>
-        <v/>
-      </c>
-      <c r="AM24" s="44" t="str">
+        <v>33.409999999999997</v>
+      </c>
+      <c r="AM24" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY24=0,"",'[1]Spreads VM-22 Table X'!AY24)</f>
-        <v/>
-      </c>
-      <c r="AN24" s="44" t="str">
+        <v>46.18</v>
+      </c>
+      <c r="AN24" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ24=0,"",'[1]Spreads VM-22 Table X'!AZ24)</f>
-        <v/>
-      </c>
-      <c r="AO24" s="44" t="str">
+        <v>58.96</v>
+      </c>
+      <c r="AO24" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA24=0,"",'[1]Spreads VM-22 Table X'!BA24)</f>
-        <v/>
-      </c>
-      <c r="AP24" s="44" t="str">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="AP24" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB24=0,"",'[1]Spreads VM-22 Table X'!BB24)</f>
-        <v/>
-      </c>
-      <c r="AQ24" s="44" t="str">
+        <v>73.06</v>
+      </c>
+      <c r="AQ24" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC24=0,"",'[1]Spreads VM-22 Table X'!BC24)</f>
-        <v/>
-      </c>
-      <c r="AR24" s="44" t="str">
+        <v>80.11</v>
+      </c>
+      <c r="AR24" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD24=0,"",'[1]Spreads VM-22 Table X'!BD24)</f>
-        <v/>
-      </c>
-      <c r="AS24" s="44" t="str">
+        <v>92.55</v>
+      </c>
+      <c r="AS24" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE24=0,"",'[1]Spreads VM-22 Table X'!BE24)</f>
-        <v/>
-      </c>
-      <c r="AT24" s="44" t="str">
+        <v>104.98</v>
+      </c>
+      <c r="AT24" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF24=0,"",'[1]Spreads VM-22 Table X'!BF24)</f>
-        <v/>
-      </c>
-      <c r="AU24" s="45" t="str">
+        <v>117.41</v>
+      </c>
+      <c r="AU24" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG24=0,"",'[1]Spreads VM-22 Table X'!BG24)</f>
-        <v/>
+        <v>131.96</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
@@ -23310,45 +24240,45 @@
       <c r="AK25" s="42">
         <v>20</v>
       </c>
-      <c r="AL25" s="44" t="str">
+      <c r="AL25" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX25=0,"",'[1]Spreads VM-22 Table X'!AX25)</f>
-        <v/>
-      </c>
-      <c r="AM25" s="44" t="str">
+        <v>34.35</v>
+      </c>
+      <c r="AM25" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY25=0,"",'[1]Spreads VM-22 Table X'!AY25)</f>
-        <v/>
-      </c>
-      <c r="AN25" s="44" t="str">
+        <v>46.96</v>
+      </c>
+      <c r="AN25" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ25=0,"",'[1]Spreads VM-22 Table X'!AZ25)</f>
-        <v/>
-      </c>
-      <c r="AO25" s="44" t="str">
+        <v>59.57</v>
+      </c>
+      <c r="AO25" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA25=0,"",'[1]Spreads VM-22 Table X'!BA25)</f>
-        <v/>
-      </c>
-      <c r="AP25" s="44" t="str">
+        <v>66.41</v>
+      </c>
+      <c r="AP25" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB25=0,"",'[1]Spreads VM-22 Table X'!BB25)</f>
-        <v/>
-      </c>
-      <c r="AQ25" s="44" t="str">
+        <v>73.25</v>
+      </c>
+      <c r="AQ25" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC25=0,"",'[1]Spreads VM-22 Table X'!BC25)</f>
-        <v/>
-      </c>
-      <c r="AR25" s="44" t="str">
+        <v>80.09</v>
+      </c>
+      <c r="AR25" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD25=0,"",'[1]Spreads VM-22 Table X'!BD25)</f>
-        <v/>
-      </c>
-      <c r="AS25" s="44" t="str">
+        <v>92.72</v>
+      </c>
+      <c r="AS25" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE25=0,"",'[1]Spreads VM-22 Table X'!BE25)</f>
-        <v/>
-      </c>
-      <c r="AT25" s="44" t="str">
+        <v>105.36</v>
+      </c>
+      <c r="AT25" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF25=0,"",'[1]Spreads VM-22 Table X'!BF25)</f>
-        <v/>
-      </c>
-      <c r="AU25" s="45" t="str">
+        <v>117.99</v>
+      </c>
+      <c r="AU25" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG25=0,"",'[1]Spreads VM-22 Table X'!BG25)</f>
-        <v/>
+        <v>132.25</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
@@ -23484,45 +24414,45 @@
       <c r="AK26" s="42">
         <v>21</v>
       </c>
-      <c r="AL26" s="44" t="str">
+      <c r="AL26" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX26=0,"",'[1]Spreads VM-22 Table X'!AX26)</f>
-        <v/>
-      </c>
-      <c r="AM26" s="44" t="str">
+        <v>35.29</v>
+      </c>
+      <c r="AM26" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY26=0,"",'[1]Spreads VM-22 Table X'!AY26)</f>
-        <v/>
-      </c>
-      <c r="AN26" s="44" t="str">
+        <v>47.73</v>
+      </c>
+      <c r="AN26" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ26=0,"",'[1]Spreads VM-22 Table X'!AZ26)</f>
-        <v/>
-      </c>
-      <c r="AO26" s="44" t="str">
+        <v>60.17</v>
+      </c>
+      <c r="AO26" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA26=0,"",'[1]Spreads VM-22 Table X'!BA26)</f>
-        <v/>
-      </c>
-      <c r="AP26" s="44" t="str">
+        <v>66.8</v>
+      </c>
+      <c r="AP26" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB26=0,"",'[1]Spreads VM-22 Table X'!BB26)</f>
-        <v/>
-      </c>
-      <c r="AQ26" s="44" t="str">
+        <v>73.430000000000007</v>
+      </c>
+      <c r="AQ26" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC26=0,"",'[1]Spreads VM-22 Table X'!BC26)</f>
-        <v/>
-      </c>
-      <c r="AR26" s="44" t="str">
+        <v>80.06</v>
+      </c>
+      <c r="AR26" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD26=0,"",'[1]Spreads VM-22 Table X'!BD26)</f>
-        <v/>
-      </c>
-      <c r="AS26" s="44" t="str">
+        <v>92.9</v>
+      </c>
+      <c r="AS26" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE26=0,"",'[1]Spreads VM-22 Table X'!BE26)</f>
-        <v/>
-      </c>
-      <c r="AT26" s="44" t="str">
+        <v>105.73</v>
+      </c>
+      <c r="AT26" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF26=0,"",'[1]Spreads VM-22 Table X'!BF26)</f>
-        <v/>
-      </c>
-      <c r="AU26" s="45" t="str">
+        <v>118.57</v>
+      </c>
+      <c r="AU26" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG26=0,"",'[1]Spreads VM-22 Table X'!BG26)</f>
-        <v/>
+        <v>132.54</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
@@ -23658,45 +24588,45 @@
       <c r="AK27" s="42">
         <v>22</v>
       </c>
-      <c r="AL27" s="44" t="str">
+      <c r="AL27" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX27=0,"",'[1]Spreads VM-22 Table X'!AX27)</f>
-        <v/>
-      </c>
-      <c r="AM27" s="44" t="str">
+        <v>36.229999999999997</v>
+      </c>
+      <c r="AM27" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY27=0,"",'[1]Spreads VM-22 Table X'!AY27)</f>
-        <v/>
-      </c>
-      <c r="AN27" s="44" t="str">
+        <v>48.5</v>
+      </c>
+      <c r="AN27" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ27=0,"",'[1]Spreads VM-22 Table X'!AZ27)</f>
-        <v/>
-      </c>
-      <c r="AO27" s="44" t="str">
+        <v>60.78</v>
+      </c>
+      <c r="AO27" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA27=0,"",'[1]Spreads VM-22 Table X'!BA27)</f>
-        <v/>
-      </c>
-      <c r="AP27" s="44" t="str">
+        <v>67.2</v>
+      </c>
+      <c r="AP27" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB27=0,"",'[1]Spreads VM-22 Table X'!BB27)</f>
-        <v/>
-      </c>
-      <c r="AQ27" s="44" t="str">
+        <v>73.61</v>
+      </c>
+      <c r="AQ27" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC27=0,"",'[1]Spreads VM-22 Table X'!BC27)</f>
-        <v/>
-      </c>
-      <c r="AR27" s="44" t="str">
+        <v>80.03</v>
+      </c>
+      <c r="AR27" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD27=0,"",'[1]Spreads VM-22 Table X'!BD27)</f>
-        <v/>
-      </c>
-      <c r="AS27" s="44" t="str">
+        <v>93.07</v>
+      </c>
+      <c r="AS27" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE27=0,"",'[1]Spreads VM-22 Table X'!BE27)</f>
-        <v/>
-      </c>
-      <c r="AT27" s="44" t="str">
+        <v>106.11</v>
+      </c>
+      <c r="AT27" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF27=0,"",'[1]Spreads VM-22 Table X'!BF27)</f>
-        <v/>
-      </c>
-      <c r="AU27" s="45" t="str">
+        <v>119.15</v>
+      </c>
+      <c r="AU27" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG27=0,"",'[1]Spreads VM-22 Table X'!BG27)</f>
-        <v/>
+        <v>132.83000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
@@ -23832,45 +24762,45 @@
       <c r="AK28" s="42">
         <v>23</v>
       </c>
-      <c r="AL28" s="44" t="str">
+      <c r="AL28" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX28=0,"",'[1]Spreads VM-22 Table X'!AX28)</f>
-        <v/>
-      </c>
-      <c r="AM28" s="44" t="str">
+        <v>37.17</v>
+      </c>
+      <c r="AM28" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY28=0,"",'[1]Spreads VM-22 Table X'!AY28)</f>
-        <v/>
-      </c>
-      <c r="AN28" s="44" t="str">
+        <v>49.28</v>
+      </c>
+      <c r="AN28" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ28=0,"",'[1]Spreads VM-22 Table X'!AZ28)</f>
-        <v/>
-      </c>
-      <c r="AO28" s="44" t="str">
+        <v>61.39</v>
+      </c>
+      <c r="AO28" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA28=0,"",'[1]Spreads VM-22 Table X'!BA28)</f>
-        <v/>
-      </c>
-      <c r="AP28" s="44" t="str">
+        <v>67.59</v>
+      </c>
+      <c r="AP28" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB28=0,"",'[1]Spreads VM-22 Table X'!BB28)</f>
-        <v/>
-      </c>
-      <c r="AQ28" s="44" t="str">
+        <v>73.8</v>
+      </c>
+      <c r="AQ28" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC28=0,"",'[1]Spreads VM-22 Table X'!BC28)</f>
-        <v/>
-      </c>
-      <c r="AR28" s="44" t="str">
+        <v>80</v>
+      </c>
+      <c r="AR28" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD28=0,"",'[1]Spreads VM-22 Table X'!BD28)</f>
-        <v/>
-      </c>
-      <c r="AS28" s="44" t="str">
+        <v>93.25</v>
+      </c>
+      <c r="AS28" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE28=0,"",'[1]Spreads VM-22 Table X'!BE28)</f>
-        <v/>
-      </c>
-      <c r="AT28" s="44" t="str">
+        <v>106.49</v>
+      </c>
+      <c r="AT28" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF28=0,"",'[1]Spreads VM-22 Table X'!BF28)</f>
-        <v/>
-      </c>
-      <c r="AU28" s="45" t="str">
+        <v>119.73</v>
+      </c>
+      <c r="AU28" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG28=0,"",'[1]Spreads VM-22 Table X'!BG28)</f>
-        <v/>
+        <v>133.12</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
@@ -24006,45 +24936,45 @@
       <c r="AK29" s="42">
         <v>24</v>
       </c>
-      <c r="AL29" s="44" t="str">
+      <c r="AL29" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX29=0,"",'[1]Spreads VM-22 Table X'!AX29)</f>
-        <v/>
-      </c>
-      <c r="AM29" s="44" t="str">
+        <v>38.11</v>
+      </c>
+      <c r="AM29" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY29=0,"",'[1]Spreads VM-22 Table X'!AY29)</f>
-        <v/>
-      </c>
-      <c r="AN29" s="44" t="str">
+        <v>50.05</v>
+      </c>
+      <c r="AN29" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ29=0,"",'[1]Spreads VM-22 Table X'!AZ29)</f>
-        <v/>
-      </c>
-      <c r="AO29" s="44" t="str">
+        <v>62</v>
+      </c>
+      <c r="AO29" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA29=0,"",'[1]Spreads VM-22 Table X'!BA29)</f>
-        <v/>
-      </c>
-      <c r="AP29" s="44" t="str">
+        <v>67.989999999999995</v>
+      </c>
+      <c r="AP29" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB29=0,"",'[1]Spreads VM-22 Table X'!BB29)</f>
-        <v/>
-      </c>
-      <c r="AQ29" s="44" t="str">
+        <v>73.98</v>
+      </c>
+      <c r="AQ29" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC29=0,"",'[1]Spreads VM-22 Table X'!BC29)</f>
-        <v/>
-      </c>
-      <c r="AR29" s="44" t="str">
+        <v>79.97</v>
+      </c>
+      <c r="AR29" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD29=0,"",'[1]Spreads VM-22 Table X'!BD29)</f>
-        <v/>
-      </c>
-      <c r="AS29" s="44" t="str">
+        <v>93.42</v>
+      </c>
+      <c r="AS29" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE29=0,"",'[1]Spreads VM-22 Table X'!BE29)</f>
-        <v/>
-      </c>
-      <c r="AT29" s="44" t="str">
+        <v>106.87</v>
+      </c>
+      <c r="AT29" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF29=0,"",'[1]Spreads VM-22 Table X'!BF29)</f>
-        <v/>
-      </c>
-      <c r="AU29" s="45" t="str">
+        <v>120.31</v>
+      </c>
+      <c r="AU29" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG29=0,"",'[1]Spreads VM-22 Table X'!BG29)</f>
-        <v/>
+        <v>133.41</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
@@ -24180,45 +25110,45 @@
       <c r="AK30" s="42">
         <v>25</v>
       </c>
-      <c r="AL30" s="44" t="str">
+      <c r="AL30" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX30=0,"",'[1]Spreads VM-22 Table X'!AX30)</f>
-        <v/>
-      </c>
-      <c r="AM30" s="44" t="str">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="AM30" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY30=0,"",'[1]Spreads VM-22 Table X'!AY30)</f>
-        <v/>
-      </c>
-      <c r="AN30" s="44" t="str">
+        <v>50.83</v>
+      </c>
+      <c r="AN30" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ30=0,"",'[1]Spreads VM-22 Table X'!AZ30)</f>
-        <v/>
-      </c>
-      <c r="AO30" s="44" t="str">
+        <v>62.6</v>
+      </c>
+      <c r="AO30" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA30=0,"",'[1]Spreads VM-22 Table X'!BA30)</f>
-        <v/>
-      </c>
-      <c r="AP30" s="44" t="str">
+        <v>68.39</v>
+      </c>
+      <c r="AP30" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB30=0,"",'[1]Spreads VM-22 Table X'!BB30)</f>
-        <v/>
-      </c>
-      <c r="AQ30" s="44" t="str">
+        <v>74.17</v>
+      </c>
+      <c r="AQ30" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC30=0,"",'[1]Spreads VM-22 Table X'!BC30)</f>
-        <v/>
-      </c>
-      <c r="AR30" s="44" t="str">
+        <v>79.95</v>
+      </c>
+      <c r="AR30" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD30=0,"",'[1]Spreads VM-22 Table X'!BD30)</f>
-        <v/>
-      </c>
-      <c r="AS30" s="44" t="str">
+        <v>93.6</v>
+      </c>
+      <c r="AS30" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE30=0,"",'[1]Spreads VM-22 Table X'!BE30)</f>
-        <v/>
-      </c>
-      <c r="AT30" s="44" t="str">
+        <v>107.24</v>
+      </c>
+      <c r="AT30" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF30=0,"",'[1]Spreads VM-22 Table X'!BF30)</f>
-        <v/>
-      </c>
-      <c r="AU30" s="45" t="str">
+        <v>120.89</v>
+      </c>
+      <c r="AU30" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG30=0,"",'[1]Spreads VM-22 Table X'!BG30)</f>
-        <v/>
+        <v>133.69999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
@@ -24354,45 +25284,45 @@
       <c r="AK31" s="42">
         <v>26</v>
       </c>
-      <c r="AL31" s="44" t="str">
+      <c r="AL31" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX31=0,"",'[1]Spreads VM-22 Table X'!AX31)</f>
-        <v/>
-      </c>
-      <c r="AM31" s="44" t="str">
+        <v>39.99</v>
+      </c>
+      <c r="AM31" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY31=0,"",'[1]Spreads VM-22 Table X'!AY31)</f>
-        <v/>
-      </c>
-      <c r="AN31" s="44" t="str">
+        <v>51.6</v>
+      </c>
+      <c r="AN31" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ31=0,"",'[1]Spreads VM-22 Table X'!AZ31)</f>
-        <v/>
-      </c>
-      <c r="AO31" s="44" t="str">
+        <v>63.21</v>
+      </c>
+      <c r="AO31" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA31=0,"",'[1]Spreads VM-22 Table X'!BA31)</f>
-        <v/>
-      </c>
-      <c r="AP31" s="44" t="str">
+        <v>68.78</v>
+      </c>
+      <c r="AP31" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB31=0,"",'[1]Spreads VM-22 Table X'!BB31)</f>
-        <v/>
-      </c>
-      <c r="AQ31" s="44" t="str">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="AQ31" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC31=0,"",'[1]Spreads VM-22 Table X'!BC31)</f>
-        <v/>
-      </c>
-      <c r="AR31" s="44" t="str">
+        <v>79.92</v>
+      </c>
+      <c r="AR31" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD31=0,"",'[1]Spreads VM-22 Table X'!BD31)</f>
-        <v/>
-      </c>
-      <c r="AS31" s="44" t="str">
+        <v>93.77</v>
+      </c>
+      <c r="AS31" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE31=0,"",'[1]Spreads VM-22 Table X'!BE31)</f>
-        <v/>
-      </c>
-      <c r="AT31" s="44" t="str">
+        <v>107.62</v>
+      </c>
+      <c r="AT31" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF31=0,"",'[1]Spreads VM-22 Table X'!BF31)</f>
-        <v/>
-      </c>
-      <c r="AU31" s="45" t="str">
+        <v>121.47</v>
+      </c>
+      <c r="AU31" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG31=0,"",'[1]Spreads VM-22 Table X'!BG31)</f>
-        <v/>
+        <v>133.99</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
@@ -24528,45 +25458,45 @@
       <c r="AK32" s="42">
         <v>27</v>
       </c>
-      <c r="AL32" s="44" t="str">
+      <c r="AL32" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX32=0,"",'[1]Spreads VM-22 Table X'!AX32)</f>
-        <v/>
-      </c>
-      <c r="AM32" s="44" t="str">
+        <v>40.93</v>
+      </c>
+      <c r="AM32" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY32=0,"",'[1]Spreads VM-22 Table X'!AY32)</f>
-        <v/>
-      </c>
-      <c r="AN32" s="44" t="str">
+        <v>52.38</v>
+      </c>
+      <c r="AN32" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ32=0,"",'[1]Spreads VM-22 Table X'!AZ32)</f>
-        <v/>
-      </c>
-      <c r="AO32" s="44" t="str">
+        <v>63.82</v>
+      </c>
+      <c r="AO32" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA32=0,"",'[1]Spreads VM-22 Table X'!BA32)</f>
-        <v/>
-      </c>
-      <c r="AP32" s="44" t="str">
+        <v>69.180000000000007</v>
+      </c>
+      <c r="AP32" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB32=0,"",'[1]Spreads VM-22 Table X'!BB32)</f>
-        <v/>
-      </c>
-      <c r="AQ32" s="44" t="str">
+        <v>74.53</v>
+      </c>
+      <c r="AQ32" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC32=0,"",'[1]Spreads VM-22 Table X'!BC32)</f>
-        <v/>
-      </c>
-      <c r="AR32" s="44" t="str">
+        <v>79.89</v>
+      </c>
+      <c r="AR32" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD32=0,"",'[1]Spreads VM-22 Table X'!BD32)</f>
-        <v/>
-      </c>
-      <c r="AS32" s="44" t="str">
+        <v>93.94</v>
+      </c>
+      <c r="AS32" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE32=0,"",'[1]Spreads VM-22 Table X'!BE32)</f>
-        <v/>
-      </c>
-      <c r="AT32" s="44" t="str">
+        <v>108</v>
+      </c>
+      <c r="AT32" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF32=0,"",'[1]Spreads VM-22 Table X'!BF32)</f>
-        <v/>
-      </c>
-      <c r="AU32" s="45" t="str">
+        <v>122.05</v>
+      </c>
+      <c r="AU32" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG32=0,"",'[1]Spreads VM-22 Table X'!BG32)</f>
-        <v/>
+        <v>134.28</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.25">
@@ -24702,45 +25632,45 @@
       <c r="AK33" s="42">
         <v>28</v>
       </c>
-      <c r="AL33" s="44" t="str">
+      <c r="AL33" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX33=0,"",'[1]Spreads VM-22 Table X'!AX33)</f>
-        <v/>
-      </c>
-      <c r="AM33" s="44" t="str">
+        <v>41.87</v>
+      </c>
+      <c r="AM33" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY33=0,"",'[1]Spreads VM-22 Table X'!AY33)</f>
-        <v/>
-      </c>
-      <c r="AN33" s="44" t="str">
+        <v>53.15</v>
+      </c>
+      <c r="AN33" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ33=0,"",'[1]Spreads VM-22 Table X'!AZ33)</f>
-        <v/>
-      </c>
-      <c r="AO33" s="44" t="str">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="AO33" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA33=0,"",'[1]Spreads VM-22 Table X'!BA33)</f>
-        <v/>
-      </c>
-      <c r="AP33" s="44" t="str">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="AP33" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB33=0,"",'[1]Spreads VM-22 Table X'!BB33)</f>
-        <v/>
-      </c>
-      <c r="AQ33" s="44" t="str">
+        <v>74.72</v>
+      </c>
+      <c r="AQ33" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC33=0,"",'[1]Spreads VM-22 Table X'!BC33)</f>
-        <v/>
-      </c>
-      <c r="AR33" s="44" t="str">
+        <v>79.86</v>
+      </c>
+      <c r="AR33" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD33=0,"",'[1]Spreads VM-22 Table X'!BD33)</f>
-        <v/>
-      </c>
-      <c r="AS33" s="44" t="str">
+        <v>94.12</v>
+      </c>
+      <c r="AS33" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE33=0,"",'[1]Spreads VM-22 Table X'!BE33)</f>
-        <v/>
-      </c>
-      <c r="AT33" s="44" t="str">
+        <v>108.38</v>
+      </c>
+      <c r="AT33" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF33=0,"",'[1]Spreads VM-22 Table X'!BF33)</f>
-        <v/>
-      </c>
-      <c r="AU33" s="45" t="str">
+        <v>122.63</v>
+      </c>
+      <c r="AU33" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG33=0,"",'[1]Spreads VM-22 Table X'!BG33)</f>
-        <v/>
+        <v>134.57</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.25">
@@ -24876,45 +25806,45 @@
       <c r="AK34" s="42">
         <v>29</v>
       </c>
-      <c r="AL34" s="44" t="str">
+      <c r="AL34" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX34=0,"",'[1]Spreads VM-22 Table X'!AX34)</f>
-        <v/>
-      </c>
-      <c r="AM34" s="44" t="str">
+        <v>42.81</v>
+      </c>
+      <c r="AM34" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY34=0,"",'[1]Spreads VM-22 Table X'!AY34)</f>
-        <v/>
-      </c>
-      <c r="AN34" s="44" t="str">
+        <v>53.92</v>
+      </c>
+      <c r="AN34" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ34=0,"",'[1]Spreads VM-22 Table X'!AZ34)</f>
-        <v/>
-      </c>
-      <c r="AO34" s="44" t="str">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="AO34" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA34=0,"",'[1]Spreads VM-22 Table X'!BA34)</f>
-        <v/>
-      </c>
-      <c r="AP34" s="44" t="str">
+        <v>69.97</v>
+      </c>
+      <c r="AP34" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB34=0,"",'[1]Spreads VM-22 Table X'!BB34)</f>
-        <v/>
-      </c>
-      <c r="AQ34" s="44" t="str">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AQ34" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC34=0,"",'[1]Spreads VM-22 Table X'!BC34)</f>
-        <v/>
-      </c>
-      <c r="AR34" s="44" t="str">
+        <v>79.84</v>
+      </c>
+      <c r="AR34" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD34=0,"",'[1]Spreads VM-22 Table X'!BD34)</f>
-        <v/>
-      </c>
-      <c r="AS34" s="44" t="str">
+        <v>94.29</v>
+      </c>
+      <c r="AS34" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE34=0,"",'[1]Spreads VM-22 Table X'!BE34)</f>
-        <v/>
-      </c>
-      <c r="AT34" s="44" t="str">
+        <v>108.75</v>
+      </c>
+      <c r="AT34" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF34=0,"",'[1]Spreads VM-22 Table X'!BF34)</f>
-        <v/>
-      </c>
-      <c r="AU34" s="45" t="str">
+        <v>123.21</v>
+      </c>
+      <c r="AU34" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG34=0,"",'[1]Spreads VM-22 Table X'!BG34)</f>
-        <v/>
+        <v>134.86000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.25">
@@ -25050,45 +25980,45 @@
       <c r="AK35" s="42">
         <v>30</v>
       </c>
-      <c r="AL35" s="44" t="str">
+      <c r="AL35" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX35=0,"",'[1]Spreads VM-22 Table X'!AX35)</f>
-        <v/>
-      </c>
-      <c r="AM35" s="44" t="str">
+        <v>43.75</v>
+      </c>
+      <c r="AM35" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY35=0,"",'[1]Spreads VM-22 Table X'!AY35)</f>
-        <v/>
-      </c>
-      <c r="AN35" s="44" t="str">
+        <v>54.7</v>
+      </c>
+      <c r="AN35" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ35=0,"",'[1]Spreads VM-22 Table X'!AZ35)</f>
-        <v/>
-      </c>
-      <c r="AO35" s="44" t="str">
+        <v>65.64</v>
+      </c>
+      <c r="AO35" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA35=0,"",'[1]Spreads VM-22 Table X'!BA35)</f>
-        <v/>
-      </c>
-      <c r="AP35" s="44" t="str">
+        <v>70.36</v>
+      </c>
+      <c r="AP35" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB35=0,"",'[1]Spreads VM-22 Table X'!BB35)</f>
-        <v/>
-      </c>
-      <c r="AQ35" s="44" t="str">
+        <v>75.09</v>
+      </c>
+      <c r="AQ35" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC35=0,"",'[1]Spreads VM-22 Table X'!BC35)</f>
-        <v/>
-      </c>
-      <c r="AR35" s="44" t="str">
+        <v>79.81</v>
+      </c>
+      <c r="AR35" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD35=0,"",'[1]Spreads VM-22 Table X'!BD35)</f>
-        <v/>
-      </c>
-      <c r="AS35" s="44" t="str">
+        <v>94.47</v>
+      </c>
+      <c r="AS35" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE35=0,"",'[1]Spreads VM-22 Table X'!BE35)</f>
-        <v/>
-      </c>
-      <c r="AT35" s="44" t="str">
+        <v>109.13</v>
+      </c>
+      <c r="AT35" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF35=0,"",'[1]Spreads VM-22 Table X'!BF35)</f>
-        <v/>
-      </c>
-      <c r="AU35" s="45" t="str">
+        <v>123.79</v>
+      </c>
+      <c r="AU35" s="45">
         <f>IF('[1]Spreads VM-22 Table X'!BG35=0,"",'[1]Spreads VM-22 Table X'!BG35)</f>
-        <v/>
+        <v>135.15</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.25">
@@ -25224,61 +26154,61 @@
       <c r="AK36" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AL36" s="44" t="str">
+      <c r="AL36" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AX36=0,"",'[1]Spreads VM-22 Table X'!AX36)</f>
-        <v/>
-      </c>
-      <c r="AM36" s="44" t="str">
+        <v>30.403999999999996</v>
+      </c>
+      <c r="AM36" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AY36=0,"",'[1]Spreads VM-22 Table X'!AY36)</f>
-        <v/>
-      </c>
-      <c r="AN36" s="44" t="str">
+        <v>41.89233333333334</v>
+      </c>
+      <c r="AN36" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!AZ36=0,"",'[1]Spreads VM-22 Table X'!AZ36)</f>
-        <v/>
-      </c>
-      <c r="AO36" s="44" t="str">
+        <v>53.379666666666679</v>
+      </c>
+      <c r="AO36" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BA36=0,"",'[1]Spreads VM-22 Table X'!BA36)</f>
-        <v/>
-      </c>
-      <c r="AP36" s="44" t="str">
+        <v>60.542333333333332</v>
+      </c>
+      <c r="AP36" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BB36=0,"",'[1]Spreads VM-22 Table X'!BB36)</f>
-        <v/>
-      </c>
-      <c r="AQ36" s="44" t="str">
+        <v>67.705666666666673</v>
+      </c>
+      <c r="AQ36" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BC36=0,"",'[1]Spreads VM-22 Table X'!BC36)</f>
-        <v/>
-      </c>
-      <c r="AR36" s="44" t="str">
+        <v>74.868333333333339</v>
+      </c>
+      <c r="AR36" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BD36=0,"",'[1]Spreads VM-22 Table X'!BD36)</f>
-        <v/>
-      </c>
-      <c r="AS36" s="44" t="str">
+        <v>86.575666666666663</v>
+      </c>
+      <c r="AS36" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BE36=0,"",'[1]Spreads VM-22 Table X'!BE36)</f>
-        <v/>
-      </c>
-      <c r="AT36" s="44" t="str">
+        <v>98.282666666666657</v>
+      </c>
+      <c r="AT36" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BF36=0,"",'[1]Spreads VM-22 Table X'!BF36)</f>
-        <v/>
-      </c>
-      <c r="AU36" s="44" t="str">
+        <v>109.98966666666666</v>
+      </c>
+      <c r="AU36" s="44">
         <f>IF('[1]Spreads VM-22 Table X'!BG36=0,"",'[1]Spreads VM-22 Table X'!BG36)</f>
-        <v/>
+        <v>128.24966666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AK1:AU1"/>
+    <mergeCell ref="AK2:AU2"/>
+    <mergeCell ref="AL3:AU3"/>
+    <mergeCell ref="Y1:AI1"/>
+    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="Z3:AI3"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:W1"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="N3:W3"/>
-    <mergeCell ref="AK1:AU1"/>
-    <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="AL3:AU3"/>
-    <mergeCell ref="Y1:AI1"/>
-    <mergeCell ref="Y2:AI2"/>
-    <mergeCell ref="Z3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69C1538-F965-4329-80A5-387A04BBFD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D3C53B-6634-4FF7-9AFF-6D401008C44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,6 +576,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,15 +595,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +628,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>488950</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -9495,17 +9495,17 @@
           <cell r="H279">
             <v>45932</v>
           </cell>
-          <cell r="I279" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J279" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K279" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L279" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I279">
+            <v>3.9199999999999999E-2</v>
+          </cell>
+          <cell r="J279">
+            <v>4.2200000000000001E-2</v>
+          </cell>
+          <cell r="K279">
+            <v>4.4600000000000001E-2</v>
+          </cell>
+          <cell r="L279">
+            <v>4.7100000000000003E-2</v>
           </cell>
         </row>
         <row r="280">
@@ -11351,21 +11351,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
       <c r="B1" s="52" t="s">
         <v>4</v>
@@ -11374,7 +11374,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -11383,7 +11383,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H5</f>
         <v>45658</v>
@@ -11422,7 +11422,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H6</f>
         <v>45659</v>
@@ -11444,7 +11444,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H7</f>
         <v>45660</v>
@@ -11466,7 +11466,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H8</f>
         <v>45661</v>
@@ -11488,7 +11488,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H9</f>
         <v>45662</v>
@@ -11510,7 +11510,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H10</f>
         <v>45663</v>
@@ -11532,7 +11532,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H11</f>
         <v>45664</v>
@@ -11554,7 +11554,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H12</f>
         <v>45665</v>
@@ -11576,7 +11576,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H13</f>
         <v>45666</v>
@@ -11598,7 +11598,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H14</f>
         <v>45667</v>
@@ -11620,7 +11620,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H15</f>
         <v>45668</v>
@@ -11642,7 +11642,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H16</f>
         <v>45669</v>
@@ -11664,7 +11664,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H17</f>
         <v>45670</v>
@@ -11686,7 +11686,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H18</f>
         <v>45671</v>
@@ -11708,7 +11708,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H19</f>
         <v>45672</v>
@@ -11730,7 +11730,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H20</f>
         <v>45673</v>
@@ -11752,7 +11752,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H21</f>
         <v>45674</v>
@@ -11774,7 +11774,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H22</f>
         <v>45675</v>
@@ -11796,7 +11796,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H23</f>
         <v>45676</v>
@@ -11818,7 +11818,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H24</f>
         <v>45677</v>
@@ -11840,7 +11840,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H25</f>
         <v>45678</v>
@@ -11862,7 +11862,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H26</f>
         <v>45679</v>
@@ -11884,7 +11884,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H27</f>
         <v>45680</v>
@@ -11906,7 +11906,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H28</f>
         <v>45681</v>
@@ -11928,7 +11928,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H29</f>
         <v>45682</v>
@@ -11950,7 +11950,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H30</f>
         <v>45683</v>
@@ -11972,7 +11972,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H31</f>
         <v>45684</v>
@@ -11994,7 +11994,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H32</f>
         <v>45685</v>
@@ -12016,7 +12016,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H33</f>
         <v>45686</v>
@@ -12038,7 +12038,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H34</f>
         <v>45687</v>
@@ -12060,7 +12060,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H35</f>
         <v>45688</v>
@@ -12082,7 +12082,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H36</f>
         <v>45689</v>
@@ -12104,7 +12104,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H37</f>
         <v>45690</v>
@@ -12126,7 +12126,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H38</f>
         <v>45691</v>
@@ -12148,7 +12148,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H39</f>
         <v>45692</v>
@@ -12170,7 +12170,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H40</f>
         <v>45693</v>
@@ -12192,7 +12192,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H41</f>
         <v>45694</v>
@@ -12214,7 +12214,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H42</f>
         <v>45695</v>
@@ -12236,7 +12236,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H43</f>
         <v>45696</v>
@@ -12258,7 +12258,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H44</f>
         <v>45697</v>
@@ -12280,7 +12280,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H45</f>
         <v>45698</v>
@@ -12302,7 +12302,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H46</f>
         <v>45699</v>
@@ -12324,7 +12324,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H47</f>
         <v>45700</v>
@@ -12346,7 +12346,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H48</f>
         <v>45701</v>
@@ -12368,7 +12368,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H49</f>
         <v>45702</v>
@@ -12390,7 +12390,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H50</f>
         <v>45703</v>
@@ -12412,7 +12412,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H51</f>
         <v>45704</v>
@@ -12434,7 +12434,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H52</f>
         <v>45705</v>
@@ -12456,7 +12456,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H53</f>
         <v>45706</v>
@@ -12478,7 +12478,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H54</f>
         <v>45707</v>
@@ -12500,7 +12500,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H55</f>
         <v>45708</v>
@@ -12522,7 +12522,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H56</f>
         <v>45709</v>
@@ -12544,7 +12544,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H57</f>
         <v>45710</v>
@@ -12566,7 +12566,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H58</f>
         <v>45711</v>
@@ -12588,7 +12588,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H59</f>
         <v>45712</v>
@@ -12610,7 +12610,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H60</f>
         <v>45713</v>
@@ -12632,7 +12632,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H61</f>
         <v>45714</v>
@@ -12654,7 +12654,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H62</f>
         <v>45715</v>
@@ -12676,7 +12676,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H63</f>
         <v>45716</v>
@@ -12698,7 +12698,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H64</f>
         <v>45717</v>
@@ -12720,7 +12720,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H65</f>
         <v>45718</v>
@@ -12742,7 +12742,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H66</f>
         <v>45719</v>
@@ -12764,7 +12764,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H67</f>
         <v>45720</v>
@@ -12786,7 +12786,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H68</f>
         <v>45721</v>
@@ -12808,7 +12808,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H69</f>
         <v>45722</v>
@@ -12830,7 +12830,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H70</f>
         <v>45723</v>
@@ -12852,7 +12852,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H71</f>
         <v>45724</v>
@@ -12874,7 +12874,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H72</f>
         <v>45725</v>
@@ -12896,7 +12896,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H73</f>
         <v>45726</v>
@@ -12918,7 +12918,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H74</f>
         <v>45727</v>
@@ -12940,7 +12940,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H75</f>
         <v>45728</v>
@@ -12962,7 +12962,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H76</f>
         <v>45729</v>
@@ -12984,7 +12984,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H77</f>
         <v>45730</v>
@@ -13006,7 +13006,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H78</f>
         <v>45731</v>
@@ -13028,7 +13028,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H79</f>
         <v>45732</v>
@@ -13050,7 +13050,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H80</f>
         <v>45733</v>
@@ -13072,7 +13072,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H81</f>
         <v>45734</v>
@@ -13094,7 +13094,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H82</f>
         <v>45735</v>
@@ -13116,7 +13116,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H83</f>
         <v>45736</v>
@@ -13138,7 +13138,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H84</f>
         <v>45737</v>
@@ -13160,7 +13160,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H85</f>
         <v>45738</v>
@@ -13182,7 +13182,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H86</f>
         <v>45739</v>
@@ -13204,7 +13204,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H87</f>
         <v>45740</v>
@@ -13226,7 +13226,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H88</f>
         <v>45741</v>
@@ -13248,7 +13248,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H89</f>
         <v>45742</v>
@@ -13270,7 +13270,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H90</f>
         <v>45743</v>
@@ -13292,7 +13292,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H91</f>
         <v>45744</v>
@@ -13314,7 +13314,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H92</f>
         <v>45745</v>
@@ -13336,7 +13336,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H93</f>
         <v>45746</v>
@@ -13358,7 +13358,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H94</f>
         <v>45747</v>
@@ -13380,7 +13380,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H95</f>
         <v>45748</v>
@@ -13402,7 +13402,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H96</f>
         <v>45749</v>
@@ -13424,7 +13424,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H97</f>
         <v>45750</v>
@@ -13446,7 +13446,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H98</f>
         <v>45751</v>
@@ -13468,7 +13468,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H99</f>
         <v>45752</v>
@@ -13490,7 +13490,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H100</f>
         <v>45753</v>
@@ -13512,7 +13512,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H101</f>
         <v>45754</v>
@@ -13534,7 +13534,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H102</f>
         <v>45755</v>
@@ -13556,7 +13556,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H103</f>
         <v>45756</v>
@@ -13578,7 +13578,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H104</f>
         <v>45757</v>
@@ -13600,7 +13600,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H105</f>
         <v>45758</v>
@@ -13622,7 +13622,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H106</f>
         <v>45759</v>
@@ -13644,7 +13644,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H107</f>
         <v>45760</v>
@@ -13666,7 +13666,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H108</f>
         <v>45761</v>
@@ -13688,7 +13688,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H109</f>
         <v>45762</v>
@@ -13710,7 +13710,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H110</f>
         <v>45763</v>
@@ -13732,7 +13732,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H111</f>
         <v>45764</v>
@@ -13754,7 +13754,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H112</f>
         <v>45765</v>
@@ -13776,7 +13776,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H113</f>
         <v>45766</v>
@@ -13798,7 +13798,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H114</f>
         <v>45767</v>
@@ -13820,7 +13820,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H115</f>
         <v>45768</v>
@@ -13842,7 +13842,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H116</f>
         <v>45769</v>
@@ -13864,7 +13864,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H117</f>
         <v>45770</v>
@@ -13886,7 +13886,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H118</f>
         <v>45771</v>
@@ -13908,7 +13908,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H119</f>
         <v>45772</v>
@@ -13930,7 +13930,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H120</f>
         <v>45773</v>
@@ -13952,7 +13952,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H121</f>
         <v>45774</v>
@@ -13974,7 +13974,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H122</f>
         <v>45775</v>
@@ -13996,7 +13996,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H123</f>
         <v>45776</v>
@@ -14018,7 +14018,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H124</f>
         <v>45777</v>
@@ -14040,7 +14040,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H125</f>
         <v>45778</v>
@@ -14062,7 +14062,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H126</f>
         <v>45779</v>
@@ -14084,7 +14084,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H127</f>
         <v>45780</v>
@@ -14106,7 +14106,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H128</f>
         <v>45781</v>
@@ -14128,7 +14128,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H129</f>
         <v>45782</v>
@@ -14150,7 +14150,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H130</f>
         <v>45783</v>
@@ -14172,7 +14172,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H131</f>
         <v>45784</v>
@@ -14194,7 +14194,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H132</f>
         <v>45785</v>
@@ -14216,7 +14216,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H133</f>
         <v>45786</v>
@@ -14238,7 +14238,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H134</f>
         <v>45787</v>
@@ -14260,7 +14260,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H135</f>
         <v>45788</v>
@@ -14282,7 +14282,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H136</f>
         <v>45789</v>
@@ -14304,7 +14304,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H137</f>
         <v>45790</v>
@@ -14326,7 +14326,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H138</f>
         <v>45791</v>
@@ -14348,7 +14348,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H139</f>
         <v>45792</v>
@@ -14370,7 +14370,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H140</f>
         <v>45793</v>
@@ -14392,7 +14392,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H141</f>
         <v>45794</v>
@@ -14414,7 +14414,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H142</f>
         <v>45795</v>
@@ -14436,7 +14436,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H143</f>
         <v>45796</v>
@@ -14458,7 +14458,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H144</f>
         <v>45797</v>
@@ -14480,7 +14480,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H145</f>
         <v>45798</v>
@@ -14502,7 +14502,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H146</f>
         <v>45799</v>
@@ -14524,7 +14524,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H147</f>
         <v>45800</v>
@@ -14546,7 +14546,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H148</f>
         <v>45801</v>
@@ -14568,7 +14568,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H149</f>
         <v>45802</v>
@@ -14590,7 +14590,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H150</f>
         <v>45803</v>
@@ -14612,7 +14612,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H151</f>
         <v>45804</v>
@@ -14634,7 +14634,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H152</f>
         <v>45805</v>
@@ -14656,7 +14656,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H153</f>
         <v>45806</v>
@@ -14678,7 +14678,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H154</f>
         <v>45807</v>
@@ -14700,7 +14700,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H155</f>
         <v>45808</v>
@@ -14722,7 +14722,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H156</f>
         <v>45809</v>
@@ -14744,7 +14744,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H157</f>
         <v>45810</v>
@@ -14766,7 +14766,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H158</f>
         <v>45811</v>
@@ -14788,7 +14788,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H159</f>
         <v>45812</v>
@@ -14810,7 +14810,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H160</f>
         <v>45813</v>
@@ -14832,7 +14832,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H161</f>
         <v>45814</v>
@@ -14854,7 +14854,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H162</f>
         <v>45815</v>
@@ -14876,7 +14876,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H163</f>
         <v>45816</v>
@@ -14898,7 +14898,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H164</f>
         <v>45817</v>
@@ -14920,7 +14920,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H165</f>
         <v>45818</v>
@@ -14942,7 +14942,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H166</f>
         <v>45819</v>
@@ -14964,7 +14964,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H167</f>
         <v>45820</v>
@@ -14986,7 +14986,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H168</f>
         <v>45821</v>
@@ -15008,7 +15008,7 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H169</f>
         <v>45822</v>
@@ -15030,7 +15030,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H170</f>
         <v>45823</v>
@@ -15052,7 +15052,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H171</f>
         <v>45824</v>
@@ -15074,7 +15074,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H172</f>
         <v>45825</v>
@@ -15096,7 +15096,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H173</f>
         <v>45826</v>
@@ -15118,7 +15118,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H174</f>
         <v>45827</v>
@@ -15140,7 +15140,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H175</f>
         <v>45828</v>
@@ -15162,7 +15162,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H176</f>
         <v>45829</v>
@@ -15184,7 +15184,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H177</f>
         <v>45830</v>
@@ -15206,7 +15206,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H178</f>
         <v>45831</v>
@@ -15228,7 +15228,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H179</f>
         <v>45832</v>
@@ -15250,7 +15250,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H180</f>
         <v>45833</v>
@@ -15272,7 +15272,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H181</f>
         <v>45834</v>
@@ -15294,7 +15294,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H182</f>
         <v>45835</v>
@@ -15316,7 +15316,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H183</f>
         <v>45836</v>
@@ -15338,7 +15338,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H184</f>
         <v>45837</v>
@@ -15360,7 +15360,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H185</f>
         <v>45838</v>
@@ -15382,7 +15382,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H186</f>
         <v>45839</v>
@@ -15404,7 +15404,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H187</f>
         <v>45840</v>
@@ -15426,7 +15426,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H188</f>
         <v>45841</v>
@@ -15448,7 +15448,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H189</f>
         <v>45842</v>
@@ -15470,7 +15470,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H190</f>
         <v>45843</v>
@@ -15492,7 +15492,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H191</f>
         <v>45844</v>
@@ -15514,7 +15514,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H192</f>
         <v>45845</v>
@@ -15536,7 +15536,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H193</f>
         <v>45846</v>
@@ -15558,7 +15558,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H194</f>
         <v>45847</v>
@@ -15580,7 +15580,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H195</f>
         <v>45848</v>
@@ -15602,7 +15602,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H196</f>
         <v>45849</v>
@@ -15624,7 +15624,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H197</f>
         <v>45850</v>
@@ -15646,7 +15646,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H198</f>
         <v>45851</v>
@@ -15668,7 +15668,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H199</f>
         <v>45852</v>
@@ -15690,7 +15690,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H200</f>
         <v>45853</v>
@@ -15712,7 +15712,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H201</f>
         <v>45854</v>
@@ -15734,7 +15734,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H202</f>
         <v>45855</v>
@@ -15756,7 +15756,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H203</f>
         <v>45856</v>
@@ -15778,7 +15778,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H204</f>
         <v>45857</v>
@@ -15800,7 +15800,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H205</f>
         <v>45858</v>
@@ -15822,7 +15822,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H206</f>
         <v>45859</v>
@@ -15844,7 +15844,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H207</f>
         <v>45860</v>
@@ -15866,7 +15866,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H208</f>
         <v>45861</v>
@@ -15888,7 +15888,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H209</f>
         <v>45862</v>
@@ -15910,7 +15910,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H210</f>
         <v>45863</v>
@@ -15932,7 +15932,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H211</f>
         <v>45864</v>
@@ -15954,7 +15954,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H212</f>
         <v>45865</v>
@@ -15976,7 +15976,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H213</f>
         <v>45866</v>
@@ -15998,7 +15998,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H214</f>
         <v>45867</v>
@@ -16020,7 +16020,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H215</f>
         <v>45868</v>
@@ -16042,7 +16042,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H216</f>
         <v>45869</v>
@@ -16064,7 +16064,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H217</f>
         <v>45870</v>
@@ -16086,7 +16086,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H218</f>
         <v>45871</v>
@@ -16108,7 +16108,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H219</f>
         <v>45872</v>
@@ -16130,7 +16130,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H220</f>
         <v>45873</v>
@@ -16152,7 +16152,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H221</f>
         <v>45874</v>
@@ -16174,7 +16174,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H222</f>
         <v>45875</v>
@@ -16196,7 +16196,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H223</f>
         <v>45876</v>
@@ -16218,7 +16218,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H224</f>
         <v>45877</v>
@@ -16240,7 +16240,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H225</f>
         <v>45878</v>
@@ -16262,7 +16262,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H226</f>
         <v>45879</v>
@@ -16284,7 +16284,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H227</f>
         <v>45880</v>
@@ -16306,7 +16306,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H228</f>
         <v>45881</v>
@@ -16328,7 +16328,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H229</f>
         <v>45882</v>
@@ -16350,7 +16350,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H230</f>
         <v>45883</v>
@@ -16372,7 +16372,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H231</f>
         <v>45884</v>
@@ -16394,7 +16394,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H232</f>
         <v>45885</v>
@@ -16416,7 +16416,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H233</f>
         <v>45886</v>
@@ -16438,7 +16438,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H234</f>
         <v>45887</v>
@@ -16460,7 +16460,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H235</f>
         <v>45888</v>
@@ -16482,7 +16482,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H236</f>
         <v>45889</v>
@@ -16504,7 +16504,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H237</f>
         <v>45890</v>
@@ -16526,7 +16526,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H238</f>
         <v>45891</v>
@@ -16548,7 +16548,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H239</f>
         <v>45892</v>
@@ -16570,7 +16570,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H240</f>
         <v>45893</v>
@@ -16592,7 +16592,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H241</f>
         <v>45894</v>
@@ -16614,7 +16614,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H242</f>
         <v>45895</v>
@@ -16636,7 +16636,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H243</f>
         <v>45896</v>
@@ -16658,7 +16658,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H244</f>
         <v>45897</v>
@@ -16680,7 +16680,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H245</f>
         <v>45898</v>
@@ -16702,7 +16702,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H246</f>
         <v>45899</v>
@@ -16724,7 +16724,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H247</f>
         <v>45900</v>
@@ -16746,7 +16746,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H248</f>
         <v>45901</v>
@@ -16768,7 +16768,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H249</f>
         <v>45902</v>
@@ -16790,7 +16790,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H250</f>
         <v>45903</v>
@@ -16812,7 +16812,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H251</f>
         <v>45904</v>
@@ -16834,7 +16834,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H252</f>
         <v>45905</v>
@@ -16856,7 +16856,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H253</f>
         <v>45906</v>
@@ -16878,7 +16878,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H254</f>
         <v>45907</v>
@@ -16900,7 +16900,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H255</f>
         <v>45908</v>
@@ -16922,7 +16922,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H256</f>
         <v>45909</v>
@@ -16944,7 +16944,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H257</f>
         <v>45910</v>
@@ -16966,7 +16966,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H258</f>
         <v>45911</v>
@@ -16988,7 +16988,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H259</f>
         <v>45912</v>
@@ -17010,7 +17010,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H260</f>
         <v>45913</v>
@@ -17032,7 +17032,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H261</f>
         <v>45914</v>
@@ -17054,7 +17054,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H262</f>
         <v>45915</v>
@@ -17076,7 +17076,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H263</f>
         <v>45916</v>
@@ -17098,7 +17098,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H264</f>
         <v>45917</v>
@@ -17120,7 +17120,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H265</f>
         <v>45918</v>
@@ -17142,7 +17142,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H266</f>
         <v>45919</v>
@@ -17164,7 +17164,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H267</f>
         <v>45920</v>
@@ -17186,7 +17186,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H268</f>
         <v>45921</v>
@@ -17208,7 +17208,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H269</f>
         <v>45922</v>
@@ -17230,7 +17230,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H270</f>
         <v>45923</v>
@@ -17252,7 +17252,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H271</f>
         <v>45924</v>
@@ -17274,7 +17274,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H272</f>
         <v>45925</v>
@@ -17296,7 +17296,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H273</f>
         <v>45926</v>
@@ -17318,7 +17318,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H274</f>
         <v>45927</v>
@@ -17340,7 +17340,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H275</f>
         <v>45928</v>
@@ -17362,7 +17362,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H276</f>
         <v>45929</v>
@@ -17384,7 +17384,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H277</f>
         <v>45930</v>
@@ -17406,7 +17406,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H278</f>
         <v>45931</v>
@@ -17428,29 +17428,29 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H279</f>
         <v>45932</v>
       </c>
-      <c r="B278" s="17" t="str">
+      <c r="B278" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I279</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C278" s="48" t="str">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="C278" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J279</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D278" s="48" t="str">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="D278" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K279</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E278" s="5" t="str">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="E278" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L279</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.7100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H280</f>
         <v>45933</v>
@@ -17472,7 +17472,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H281</f>
         <v>45934</v>
@@ -17494,7 +17494,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H282</f>
         <v>45935</v>
@@ -17516,7 +17516,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H283</f>
         <v>45936</v>
@@ -17538,7 +17538,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H284</f>
         <v>45937</v>
@@ -17560,7 +17560,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H285</f>
         <v>45938</v>
@@ -17582,7 +17582,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H286</f>
         <v>45939</v>
@@ -17604,7 +17604,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H287</f>
         <v>45940</v>
@@ -17626,7 +17626,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H288</f>
         <v>45941</v>
@@ -17648,7 +17648,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H289</f>
         <v>45942</v>
@@ -17670,7 +17670,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H290</f>
         <v>45943</v>
@@ -17692,7 +17692,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H291</f>
         <v>45944</v>
@@ -17714,7 +17714,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H292</f>
         <v>45945</v>
@@ -17736,7 +17736,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H293</f>
         <v>45946</v>
@@ -17758,7 +17758,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H294</f>
         <v>45947</v>
@@ -17780,7 +17780,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H295</f>
         <v>45948</v>
@@ -17802,7 +17802,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H296</f>
         <v>45949</v>
@@ -17824,7 +17824,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H297</f>
         <v>45950</v>
@@ -17846,7 +17846,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H298</f>
         <v>45951</v>
@@ -17868,7 +17868,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H299</f>
         <v>45952</v>
@@ -17890,7 +17890,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H300</f>
         <v>45953</v>
@@ -17912,7 +17912,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H301</f>
         <v>45954</v>
@@ -17934,7 +17934,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H302</f>
         <v>45955</v>
@@ -17956,7 +17956,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H303</f>
         <v>45956</v>
@@ -17978,7 +17978,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H304</f>
         <v>45957</v>
@@ -18000,7 +18000,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H305</f>
         <v>45958</v>
@@ -18022,7 +18022,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H306</f>
         <v>45959</v>
@@ -18044,7 +18044,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H307</f>
         <v>45960</v>
@@ -18066,7 +18066,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H308</f>
         <v>45961</v>
@@ -18088,7 +18088,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H309</f>
         <v>45962</v>
@@ -18110,7 +18110,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H310</f>
         <v>45963</v>
@@ -18132,7 +18132,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H311</f>
         <v>45964</v>
@@ -18154,7 +18154,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H312</f>
         <v>45965</v>
@@ -18176,7 +18176,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H313</f>
         <v>45966</v>
@@ -18198,7 +18198,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H314</f>
         <v>45967</v>
@@ -18220,7 +18220,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H315</f>
         <v>45968</v>
@@ -18242,7 +18242,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H316</f>
         <v>45969</v>
@@ -18264,7 +18264,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H317</f>
         <v>45970</v>
@@ -18286,7 +18286,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H318</f>
         <v>45971</v>
@@ -18308,7 +18308,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H319</f>
         <v>45972</v>
@@ -18330,7 +18330,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H320</f>
         <v>45973</v>
@@ -18352,7 +18352,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H321</f>
         <v>45974</v>
@@ -18374,7 +18374,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H322</f>
         <v>45975</v>
@@ -18396,7 +18396,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H323</f>
         <v>45976</v>
@@ -18418,7 +18418,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H324</f>
         <v>45977</v>
@@ -18440,7 +18440,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H325</f>
         <v>45978</v>
@@ -18462,7 +18462,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H326</f>
         <v>45979</v>
@@ -18484,7 +18484,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H327</f>
         <v>45980</v>
@@ -18506,7 +18506,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H328</f>
         <v>45981</v>
@@ -18528,7 +18528,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H329</f>
         <v>45982</v>
@@ -18550,7 +18550,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H330</f>
         <v>45983</v>
@@ -18572,7 +18572,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H331</f>
         <v>45984</v>
@@ -18594,7 +18594,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H332</f>
         <v>45985</v>
@@ -18616,7 +18616,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H333</f>
         <v>45986</v>
@@ -18638,7 +18638,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H334</f>
         <v>45987</v>
@@ -18660,7 +18660,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H335</f>
         <v>45988</v>
@@ -18682,7 +18682,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H336</f>
         <v>45989</v>
@@ -18704,7 +18704,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H337</f>
         <v>45990</v>
@@ -18726,7 +18726,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H338</f>
         <v>45991</v>
@@ -18748,7 +18748,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H339</f>
         <v>45992</v>
@@ -18770,7 +18770,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H340</f>
         <v>45993</v>
@@ -18792,7 +18792,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H341</f>
         <v>45994</v>
@@ -18814,7 +18814,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H342</f>
         <v>45995</v>
@@ -18836,7 +18836,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H343</f>
         <v>45996</v>
@@ -18858,7 +18858,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H344</f>
         <v>45997</v>
@@ -18880,7 +18880,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H345</f>
         <v>45998</v>
@@ -18902,7 +18902,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H346</f>
         <v>45999</v>
@@ -18924,7 +18924,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H347</f>
         <v>46000</v>
@@ -18946,7 +18946,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H348</f>
         <v>46001</v>
@@ -18968,7 +18968,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H349</f>
         <v>46002</v>
@@ -18990,7 +18990,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H350</f>
         <v>46003</v>
@@ -19012,7 +19012,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H351</f>
         <v>46004</v>
@@ -19034,7 +19034,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H352</f>
         <v>46005</v>
@@ -19056,7 +19056,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H353</f>
         <v>46006</v>
@@ -19078,7 +19078,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H354</f>
         <v>46007</v>
@@ -19100,7 +19100,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H355</f>
         <v>46008</v>
@@ -19122,7 +19122,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H356</f>
         <v>46009</v>
@@ -19144,7 +19144,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H357</f>
         <v>46010</v>
@@ -19166,7 +19166,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H358</f>
         <v>46011</v>
@@ -19188,7 +19188,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H359</f>
         <v>46012</v>
@@ -19210,7 +19210,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H360</f>
         <v>46013</v>
@@ -19232,7 +19232,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H361</f>
         <v>46014</v>
@@ -19254,7 +19254,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H362</f>
         <v>46015</v>
@@ -19276,7 +19276,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H363</f>
         <v>46016</v>
@@ -19298,7 +19298,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H364</f>
         <v>46017</v>
@@ -19320,7 +19320,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H365</f>
         <v>46018</v>
@@ -19342,7 +19342,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H366</f>
         <v>46019</v>
@@ -19364,7 +19364,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H367</f>
         <v>46020</v>
@@ -19386,7 +19386,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H368</f>
         <v>46021</v>
@@ -19408,7 +19408,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H369</f>
         <v>46022</v>
@@ -19430,7 +19430,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="46">
         <f>'[1]Jumbo Bus Date to PDD'!H370</f>
         <v>46023</v>
@@ -19452,37 +19452,37 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="15"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="15"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="15"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="15"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="15"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="15"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="15"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="15"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="15"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="15"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="15"/>
     </row>
   </sheetData>
@@ -19499,17 +19499,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="5" width="13.42578125" customWidth="1"/>
+    <col min="2" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
@@ -19518,14 +19518,14 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="52" t="s">
         <v>5</v>
@@ -19534,7 +19534,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="54"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -19543,7 +19543,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")</f>
         <v>1/1/2025 - 3/31/2025</v>
@@ -19582,7 +19582,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")</f>
         <v>4/1/2025 - 6/30/2025</v>
@@ -19604,7 +19604,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")</f>
         <v>7/1/2025 - 9/30/2025</v>
@@ -19626,7 +19626,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,10,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,12,31),"m/d/yyyy")</f>
         <v>10/1/2025 - 12/31/2025</v>
@@ -19648,7 +19648,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="49"/>
     </row>
   </sheetData>
@@ -19670,13 +19670,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>9</v>
       </c>
@@ -19685,7 +19685,7 @@
       <c r="D1" s="61"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
         <v>38</v>
       </c>
@@ -19694,12 +19694,12 @@
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
@@ -19708,7 +19708,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -19749,7 +19749,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -19773,7 +19773,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -19797,7 +19797,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
@@ -19821,7 +19821,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -19829,7 +19829,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -19837,7 +19837,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -19847,7 +19847,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
@@ -19857,7 +19857,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -19897,7 +19897,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
@@ -19919,7 +19919,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -19941,7 +19941,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -19963,7 +19963,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -19971,7 +19971,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -19979,7 +19979,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -19989,7 +19989,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
@@ -19999,7 +19999,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
@@ -20015,7 +20015,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>0</v>
       </c>
@@ -20035,7 +20035,7 @@
       <c r="F24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -20055,7 +20055,7 @@
       <c r="F25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
@@ -20075,7 +20075,7 @@
       <c r="F26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>3</v>
       </c>
@@ -20095,7 +20095,7 @@
       <c r="F27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -20104,7 +20104,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -20115,7 +20115,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="58" t="s">
         <v>10</v>
       </c>
@@ -20126,7 +20126,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
@@ -20184,7 +20184,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -20219,7 +20219,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>2</v>
       </c>
@@ -20254,7 +20254,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
@@ -20311,193 +20311,193 @@
       <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="str" cm="1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="M1" s="66" t="str" cm="1">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="M1" s="62" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
-      <c r="Y1" s="66" t="str" cm="1">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
+      <c r="Y1" s="62" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="68"/>
-      <c r="AK1" s="66" t="str" cm="1">
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
+      <c r="AK1" s="62" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="68"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="str">
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="M2" s="62" t="str">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="M2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64"/>
-      <c r="Y2" s="62" t="str">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
+      <c r="Y2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="64"/>
-      <c r="AK2" s="62" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AK2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="64"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="67"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="65" t="s">
+      <c r="Z3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="65" t="s">
+      <c r="AL3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>103.45</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>108.31</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="42">
         <v>3</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>113.18</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -21497,7 +21497,7 @@
         <v>118.04</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="42">
         <v>5</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>121.04</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="42">
         <v>6</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>124.05</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="42">
         <v>7</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>125.72</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="42">
         <v>8</v>
       </c>
@@ -22193,7 +22193,7 @@
         <v>127.39</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="42">
         <v>9</v>
       </c>
@@ -22367,7 +22367,7 @@
         <v>129.06</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>10</v>
       </c>
@@ -22541,7 +22541,7 @@
         <v>129.35</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
         <v>11</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>129.63999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="42">
         <v>12</v>
       </c>
@@ -22889,7 +22889,7 @@
         <v>129.93</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="42">
         <v>13</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>130.22</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="42">
         <v>14</v>
       </c>
@@ -23237,7 +23237,7 @@
         <v>130.51</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="42">
         <v>15</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>130.80000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="42">
         <v>16</v>
       </c>
@@ -23585,7 +23585,7 @@
         <v>131.09</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="42">
         <v>17</v>
       </c>
@@ -23759,7 +23759,7 @@
         <v>131.38</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="42">
         <v>18</v>
       </c>
@@ -23933,7 +23933,7 @@
         <v>131.66999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="42">
         <v>19</v>
       </c>
@@ -24107,7 +24107,7 @@
         <v>131.96</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="42">
         <v>20</v>
       </c>
@@ -24281,7 +24281,7 @@
         <v>132.25</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="42">
         <v>21</v>
       </c>
@@ -24455,7 +24455,7 @@
         <v>132.54</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="42">
         <v>22</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>132.83000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="42">
         <v>23</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>133.12</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="42">
         <v>24</v>
       </c>
@@ -24977,7 +24977,7 @@
         <v>133.41</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="42">
         <v>25</v>
       </c>
@@ -25151,7 +25151,7 @@
         <v>133.69999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="42">
         <v>26</v>
       </c>
@@ -25325,7 +25325,7 @@
         <v>133.99</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="42">
         <v>27</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>134.28</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="42">
         <v>28</v>
       </c>
@@ -25673,7 +25673,7 @@
         <v>134.57</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="42">
         <v>29</v>
       </c>
@@ -25847,7 +25847,7 @@
         <v>134.86000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="42">
         <v>30</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>135.15</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="42" t="s">
         <v>37</v>
       </c>
@@ -26197,18 +26197,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AK1:AU1"/>
     <mergeCell ref="AK2:AU2"/>
     <mergeCell ref="AL3:AU3"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="Y2:AI2"/>
     <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26224,7 +26224,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <sheetProtection password="9690" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26245,7 +26245,7 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>488950</xdr:colOff>
                 <xdr:row>20</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EA3C8C-0C62-47E1-82BB-57B7A4B78691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB39B4-671D-4E9F-B246-EB26AA9E3D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,15 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,6 +586,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +628,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>488950</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -9580,17 +9580,17 @@
           <cell r="H284">
             <v>45937</v>
           </cell>
-          <cell r="I284" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J284" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K284" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L284" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I284">
+            <v>3.9699999999999999E-2</v>
+          </cell>
+          <cell r="J284">
+            <v>4.2599999999999999E-2</v>
+          </cell>
+          <cell r="K284">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="L284">
+            <v>4.7399999999999998E-2</v>
           </cell>
         </row>
         <row r="285">
@@ -11352,20 +11352,20 @@
   <dimension ref="A1:E380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E281" sqref="E281"/>
+      <pane ySplit="3" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="52" t="s">
         <v>4</v>
@@ -11374,7 +11374,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -11383,7 +11383,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H5</f>
         <v>45658</v>
@@ -11422,7 +11422,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H6</f>
         <v>45659</v>
@@ -11444,7 +11444,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H7</f>
         <v>45660</v>
@@ -11466,7 +11466,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H8</f>
         <v>45661</v>
@@ -11488,7 +11488,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H9</f>
         <v>45662</v>
@@ -11510,7 +11510,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H10</f>
         <v>45663</v>
@@ -11532,7 +11532,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H11</f>
         <v>45664</v>
@@ -11554,7 +11554,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H12</f>
         <v>45665</v>
@@ -11576,7 +11576,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H13</f>
         <v>45666</v>
@@ -11598,7 +11598,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H14</f>
         <v>45667</v>
@@ -11620,7 +11620,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H15</f>
         <v>45668</v>
@@ -11642,7 +11642,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H16</f>
         <v>45669</v>
@@ -11664,7 +11664,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H17</f>
         <v>45670</v>
@@ -11686,7 +11686,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H18</f>
         <v>45671</v>
@@ -11708,7 +11708,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H19</f>
         <v>45672</v>
@@ -11730,7 +11730,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H20</f>
         <v>45673</v>
@@ -11752,7 +11752,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H21</f>
         <v>45674</v>
@@ -11774,7 +11774,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H22</f>
         <v>45675</v>
@@ -11796,7 +11796,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H23</f>
         <v>45676</v>
@@ -11818,7 +11818,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H24</f>
         <v>45677</v>
@@ -11840,7 +11840,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H25</f>
         <v>45678</v>
@@ -11862,7 +11862,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H26</f>
         <v>45679</v>
@@ -11884,7 +11884,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H27</f>
         <v>45680</v>
@@ -11906,7 +11906,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H28</f>
         <v>45681</v>
@@ -11928,7 +11928,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H29</f>
         <v>45682</v>
@@ -11950,7 +11950,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H30</f>
         <v>45683</v>
@@ -11972,7 +11972,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H31</f>
         <v>45684</v>
@@ -11994,7 +11994,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H32</f>
         <v>45685</v>
@@ -12016,7 +12016,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H33</f>
         <v>45686</v>
@@ -12038,7 +12038,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H34</f>
         <v>45687</v>
@@ -12060,7 +12060,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H35</f>
         <v>45688</v>
@@ -12082,7 +12082,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H36</f>
         <v>45689</v>
@@ -12104,7 +12104,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H37</f>
         <v>45690</v>
@@ -12126,7 +12126,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H38</f>
         <v>45691</v>
@@ -12148,7 +12148,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H39</f>
         <v>45692</v>
@@ -12170,7 +12170,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H40</f>
         <v>45693</v>
@@ -12192,7 +12192,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H41</f>
         <v>45694</v>
@@ -12214,7 +12214,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H42</f>
         <v>45695</v>
@@ -12236,7 +12236,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H43</f>
         <v>45696</v>
@@ -12258,7 +12258,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H44</f>
         <v>45697</v>
@@ -12280,7 +12280,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H45</f>
         <v>45698</v>
@@ -12302,7 +12302,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H46</f>
         <v>45699</v>
@@ -12324,7 +12324,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H47</f>
         <v>45700</v>
@@ -12346,7 +12346,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H48</f>
         <v>45701</v>
@@ -12368,7 +12368,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H49</f>
         <v>45702</v>
@@ -12390,7 +12390,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H50</f>
         <v>45703</v>
@@ -12412,7 +12412,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H51</f>
         <v>45704</v>
@@ -12434,7 +12434,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H52</f>
         <v>45705</v>
@@ -12456,7 +12456,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H53</f>
         <v>45706</v>
@@ -12478,7 +12478,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H54</f>
         <v>45707</v>
@@ -12500,7 +12500,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H55</f>
         <v>45708</v>
@@ -12522,7 +12522,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H56</f>
         <v>45709</v>
@@ -12544,7 +12544,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H57</f>
         <v>45710</v>
@@ -12566,7 +12566,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H58</f>
         <v>45711</v>
@@ -12588,7 +12588,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H59</f>
         <v>45712</v>
@@ -12610,7 +12610,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H60</f>
         <v>45713</v>
@@ -12632,7 +12632,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H61</f>
         <v>45714</v>
@@ -12654,7 +12654,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H62</f>
         <v>45715</v>
@@ -12676,7 +12676,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H63</f>
         <v>45716</v>
@@ -12698,7 +12698,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H64</f>
         <v>45717</v>
@@ -12720,7 +12720,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H65</f>
         <v>45718</v>
@@ -12742,7 +12742,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H66</f>
         <v>45719</v>
@@ -12764,7 +12764,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H67</f>
         <v>45720</v>
@@ -12786,7 +12786,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H68</f>
         <v>45721</v>
@@ -12808,7 +12808,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H69</f>
         <v>45722</v>
@@ -12830,7 +12830,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H70</f>
         <v>45723</v>
@@ -12852,7 +12852,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H71</f>
         <v>45724</v>
@@ -12874,7 +12874,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H72</f>
         <v>45725</v>
@@ -12896,7 +12896,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H73</f>
         <v>45726</v>
@@ -12918,7 +12918,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H74</f>
         <v>45727</v>
@@ -12940,7 +12940,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H75</f>
         <v>45728</v>
@@ -12962,7 +12962,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H76</f>
         <v>45729</v>
@@ -12984,7 +12984,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H77</f>
         <v>45730</v>
@@ -13006,7 +13006,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H78</f>
         <v>45731</v>
@@ -13028,7 +13028,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H79</f>
         <v>45732</v>
@@ -13050,7 +13050,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H80</f>
         <v>45733</v>
@@ -13072,7 +13072,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H81</f>
         <v>45734</v>
@@ -13094,7 +13094,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H82</f>
         <v>45735</v>
@@ -13116,7 +13116,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H83</f>
         <v>45736</v>
@@ -13138,7 +13138,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H84</f>
         <v>45737</v>
@@ -13160,7 +13160,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H85</f>
         <v>45738</v>
@@ -13182,7 +13182,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H86</f>
         <v>45739</v>
@@ -13204,7 +13204,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H87</f>
         <v>45740</v>
@@ -13226,7 +13226,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H88</f>
         <v>45741</v>
@@ -13248,7 +13248,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H89</f>
         <v>45742</v>
@@ -13270,7 +13270,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H90</f>
         <v>45743</v>
@@ -13292,7 +13292,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H91</f>
         <v>45744</v>
@@ -13314,7 +13314,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H92</f>
         <v>45745</v>
@@ -13336,7 +13336,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H93</f>
         <v>45746</v>
@@ -13358,7 +13358,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H94</f>
         <v>45747</v>
@@ -13380,7 +13380,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H95</f>
         <v>45748</v>
@@ -13402,7 +13402,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H96</f>
         <v>45749</v>
@@ -13424,7 +13424,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H97</f>
         <v>45750</v>
@@ -13446,7 +13446,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H98</f>
         <v>45751</v>
@@ -13468,7 +13468,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H99</f>
         <v>45752</v>
@@ -13490,7 +13490,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H100</f>
         <v>45753</v>
@@ -13512,7 +13512,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H101</f>
         <v>45754</v>
@@ -13534,7 +13534,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H102</f>
         <v>45755</v>
@@ -13556,7 +13556,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H103</f>
         <v>45756</v>
@@ -13578,7 +13578,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H104</f>
         <v>45757</v>
@@ -13600,7 +13600,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H105</f>
         <v>45758</v>
@@ -13622,7 +13622,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H106</f>
         <v>45759</v>
@@ -13644,7 +13644,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H107</f>
         <v>45760</v>
@@ -13666,7 +13666,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H108</f>
         <v>45761</v>
@@ -13688,7 +13688,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H109</f>
         <v>45762</v>
@@ -13710,7 +13710,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H110</f>
         <v>45763</v>
@@ -13732,7 +13732,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H111</f>
         <v>45764</v>
@@ -13754,7 +13754,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H112</f>
         <v>45765</v>
@@ -13776,7 +13776,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H113</f>
         <v>45766</v>
@@ -13798,7 +13798,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H114</f>
         <v>45767</v>
@@ -13820,7 +13820,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H115</f>
         <v>45768</v>
@@ -13842,7 +13842,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H116</f>
         <v>45769</v>
@@ -13864,7 +13864,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H117</f>
         <v>45770</v>
@@ -13886,7 +13886,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H118</f>
         <v>45771</v>
@@ -13908,7 +13908,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H119</f>
         <v>45772</v>
@@ -13930,7 +13930,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H120</f>
         <v>45773</v>
@@ -13952,7 +13952,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H121</f>
         <v>45774</v>
@@ -13974,7 +13974,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H122</f>
         <v>45775</v>
@@ -13996,7 +13996,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H123</f>
         <v>45776</v>
@@ -14018,7 +14018,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H124</f>
         <v>45777</v>
@@ -14040,7 +14040,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H125</f>
         <v>45778</v>
@@ -14062,7 +14062,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H126</f>
         <v>45779</v>
@@ -14084,7 +14084,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H127</f>
         <v>45780</v>
@@ -14106,7 +14106,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H128</f>
         <v>45781</v>
@@ -14128,7 +14128,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H129</f>
         <v>45782</v>
@@ -14150,7 +14150,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H130</f>
         <v>45783</v>
@@ -14172,7 +14172,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H131</f>
         <v>45784</v>
@@ -14194,7 +14194,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H132</f>
         <v>45785</v>
@@ -14216,7 +14216,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H133</f>
         <v>45786</v>
@@ -14238,7 +14238,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H134</f>
         <v>45787</v>
@@ -14260,7 +14260,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H135</f>
         <v>45788</v>
@@ -14282,7 +14282,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H136</f>
         <v>45789</v>
@@ -14304,7 +14304,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H137</f>
         <v>45790</v>
@@ -14326,7 +14326,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H138</f>
         <v>45791</v>
@@ -14348,7 +14348,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H139</f>
         <v>45792</v>
@@ -14370,7 +14370,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H140</f>
         <v>45793</v>
@@ -14392,7 +14392,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H141</f>
         <v>45794</v>
@@ -14414,7 +14414,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H142</f>
         <v>45795</v>
@@ -14436,7 +14436,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H143</f>
         <v>45796</v>
@@ -14458,7 +14458,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H144</f>
         <v>45797</v>
@@ -14480,7 +14480,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H145</f>
         <v>45798</v>
@@ -14502,7 +14502,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H146</f>
         <v>45799</v>
@@ -14524,7 +14524,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H147</f>
         <v>45800</v>
@@ -14546,7 +14546,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H148</f>
         <v>45801</v>
@@ -14568,7 +14568,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H149</f>
         <v>45802</v>
@@ -14590,7 +14590,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H150</f>
         <v>45803</v>
@@ -14612,7 +14612,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H151</f>
         <v>45804</v>
@@ -14634,7 +14634,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H152</f>
         <v>45805</v>
@@ -14656,7 +14656,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H153</f>
         <v>45806</v>
@@ -14678,7 +14678,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H154</f>
         <v>45807</v>
@@ -14700,7 +14700,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H155</f>
         <v>45808</v>
@@ -14722,7 +14722,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H156</f>
         <v>45809</v>
@@ -14744,7 +14744,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H157</f>
         <v>45810</v>
@@ -14766,7 +14766,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H158</f>
         <v>45811</v>
@@ -14788,7 +14788,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H159</f>
         <v>45812</v>
@@ -14810,7 +14810,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H160</f>
         <v>45813</v>
@@ -14832,7 +14832,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H161</f>
         <v>45814</v>
@@ -14854,7 +14854,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H162</f>
         <v>45815</v>
@@ -14876,7 +14876,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H163</f>
         <v>45816</v>
@@ -14898,7 +14898,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H164</f>
         <v>45817</v>
@@ -14920,7 +14920,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H165</f>
         <v>45818</v>
@@ -14942,7 +14942,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H166</f>
         <v>45819</v>
@@ -14964,7 +14964,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H167</f>
         <v>45820</v>
@@ -14986,7 +14986,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H168</f>
         <v>45821</v>
@@ -15008,7 +15008,7 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H169</f>
         <v>45822</v>
@@ -15030,7 +15030,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H170</f>
         <v>45823</v>
@@ -15052,7 +15052,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H171</f>
         <v>45824</v>
@@ -15074,7 +15074,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H172</f>
         <v>45825</v>
@@ -15096,7 +15096,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H173</f>
         <v>45826</v>
@@ -15118,7 +15118,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H174</f>
         <v>45827</v>
@@ -15140,7 +15140,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H175</f>
         <v>45828</v>
@@ -15162,7 +15162,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H176</f>
         <v>45829</v>
@@ -15184,7 +15184,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H177</f>
         <v>45830</v>
@@ -15206,7 +15206,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H178</f>
         <v>45831</v>
@@ -15228,7 +15228,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H179</f>
         <v>45832</v>
@@ -15250,7 +15250,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H180</f>
         <v>45833</v>
@@ -15272,7 +15272,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H181</f>
         <v>45834</v>
@@ -15294,7 +15294,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H182</f>
         <v>45835</v>
@@ -15316,7 +15316,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H183</f>
         <v>45836</v>
@@ -15338,7 +15338,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H184</f>
         <v>45837</v>
@@ -15360,7 +15360,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H185</f>
         <v>45838</v>
@@ -15382,7 +15382,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H186</f>
         <v>45839</v>
@@ -15404,7 +15404,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H187</f>
         <v>45840</v>
@@ -15426,7 +15426,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H188</f>
         <v>45841</v>
@@ -15448,7 +15448,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H189</f>
         <v>45842</v>
@@ -15470,7 +15470,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H190</f>
         <v>45843</v>
@@ -15492,7 +15492,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H191</f>
         <v>45844</v>
@@ -15514,7 +15514,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H192</f>
         <v>45845</v>
@@ -15536,7 +15536,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H193</f>
         <v>45846</v>
@@ -15558,7 +15558,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H194</f>
         <v>45847</v>
@@ -15580,7 +15580,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H195</f>
         <v>45848</v>
@@ -15602,7 +15602,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H196</f>
         <v>45849</v>
@@ -15624,7 +15624,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H197</f>
         <v>45850</v>
@@ -15646,7 +15646,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H198</f>
         <v>45851</v>
@@ -15668,7 +15668,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H199</f>
         <v>45852</v>
@@ -15690,7 +15690,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H200</f>
         <v>45853</v>
@@ -15712,7 +15712,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H201</f>
         <v>45854</v>
@@ -15734,7 +15734,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H202</f>
         <v>45855</v>
@@ -15756,7 +15756,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H203</f>
         <v>45856</v>
@@ -15778,7 +15778,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H204</f>
         <v>45857</v>
@@ -15800,7 +15800,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H205</f>
         <v>45858</v>
@@ -15822,7 +15822,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H206</f>
         <v>45859</v>
@@ -15844,7 +15844,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H207</f>
         <v>45860</v>
@@ -15866,7 +15866,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H208</f>
         <v>45861</v>
@@ -15888,7 +15888,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H209</f>
         <v>45862</v>
@@ -15910,7 +15910,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H210</f>
         <v>45863</v>
@@ -15932,7 +15932,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H211</f>
         <v>45864</v>
@@ -15954,7 +15954,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H212</f>
         <v>45865</v>
@@ -15976,7 +15976,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H213</f>
         <v>45866</v>
@@ -15998,7 +15998,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H214</f>
         <v>45867</v>
@@ -16020,7 +16020,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H215</f>
         <v>45868</v>
@@ -16042,7 +16042,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H216</f>
         <v>45869</v>
@@ -16064,7 +16064,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H217</f>
         <v>45870</v>
@@ -16086,7 +16086,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H218</f>
         <v>45871</v>
@@ -16108,7 +16108,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H219</f>
         <v>45872</v>
@@ -16130,7 +16130,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H220</f>
         <v>45873</v>
@@ -16152,7 +16152,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H221</f>
         <v>45874</v>
@@ -16174,7 +16174,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H222</f>
         <v>45875</v>
@@ -16196,7 +16196,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H223</f>
         <v>45876</v>
@@ -16218,7 +16218,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H224</f>
         <v>45877</v>
@@ -16240,7 +16240,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H225</f>
         <v>45878</v>
@@ -16262,7 +16262,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H226</f>
         <v>45879</v>
@@ -16284,7 +16284,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H227</f>
         <v>45880</v>
@@ -16306,7 +16306,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H228</f>
         <v>45881</v>
@@ -16328,7 +16328,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H229</f>
         <v>45882</v>
@@ -16350,7 +16350,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H230</f>
         <v>45883</v>
@@ -16372,7 +16372,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H231</f>
         <v>45884</v>
@@ -16394,7 +16394,7 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H232</f>
         <v>45885</v>
@@ -16416,7 +16416,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H233</f>
         <v>45886</v>
@@ -16438,7 +16438,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H234</f>
         <v>45887</v>
@@ -16460,7 +16460,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H235</f>
         <v>45888</v>
@@ -16482,7 +16482,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H236</f>
         <v>45889</v>
@@ -16504,7 +16504,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H237</f>
         <v>45890</v>
@@ -16526,7 +16526,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H238</f>
         <v>45891</v>
@@ -16548,7 +16548,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H239</f>
         <v>45892</v>
@@ -16570,7 +16570,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H240</f>
         <v>45893</v>
@@ -16592,7 +16592,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H241</f>
         <v>45894</v>
@@ -16614,7 +16614,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H242</f>
         <v>45895</v>
@@ -16636,7 +16636,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H243</f>
         <v>45896</v>
@@ -16658,7 +16658,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H244</f>
         <v>45897</v>
@@ -16680,7 +16680,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H245</f>
         <v>45898</v>
@@ -16702,7 +16702,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H246</f>
         <v>45899</v>
@@ -16724,7 +16724,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H247</f>
         <v>45900</v>
@@ -16746,7 +16746,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H248</f>
         <v>45901</v>
@@ -16768,7 +16768,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H249</f>
         <v>45902</v>
@@ -16790,7 +16790,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H250</f>
         <v>45903</v>
@@ -16812,7 +16812,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H251</f>
         <v>45904</v>
@@ -16834,7 +16834,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H252</f>
         <v>45905</v>
@@ -16856,7 +16856,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H253</f>
         <v>45906</v>
@@ -16878,7 +16878,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H254</f>
         <v>45907</v>
@@ -16900,7 +16900,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H255</f>
         <v>45908</v>
@@ -16922,7 +16922,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H256</f>
         <v>45909</v>
@@ -16944,7 +16944,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H257</f>
         <v>45910</v>
@@ -16966,7 +16966,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H258</f>
         <v>45911</v>
@@ -16988,7 +16988,7 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H259</f>
         <v>45912</v>
@@ -17010,7 +17010,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H260</f>
         <v>45913</v>
@@ -17032,7 +17032,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H261</f>
         <v>45914</v>
@@ -17054,7 +17054,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H262</f>
         <v>45915</v>
@@ -17076,7 +17076,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H263</f>
         <v>45916</v>
@@ -17098,7 +17098,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H264</f>
         <v>45917</v>
@@ -17120,7 +17120,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H265</f>
         <v>45918</v>
@@ -17142,7 +17142,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H266</f>
         <v>45919</v>
@@ -17164,7 +17164,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H267</f>
         <v>45920</v>
@@ -17186,7 +17186,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H268</f>
         <v>45921</v>
@@ -17208,7 +17208,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H269</f>
         <v>45922</v>
@@ -17230,7 +17230,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H270</f>
         <v>45923</v>
@@ -17252,7 +17252,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H271</f>
         <v>45924</v>
@@ -17274,7 +17274,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H272</f>
         <v>45925</v>
@@ -17296,7 +17296,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H273</f>
         <v>45926</v>
@@ -17318,7 +17318,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H274</f>
         <v>45927</v>
@@ -17340,7 +17340,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H275</f>
         <v>45928</v>
@@ -17362,7 +17362,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H276</f>
         <v>45929</v>
@@ -17384,7 +17384,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H277</f>
         <v>45930</v>
@@ -17406,7 +17406,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H278</f>
         <v>45931</v>
@@ -17428,7 +17428,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H279</f>
         <v>45932</v>
@@ -17450,7 +17450,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H280</f>
         <v>45933</v>
@@ -17472,7 +17472,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H281</f>
         <v>45934</v>
@@ -17494,7 +17494,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H282</f>
         <v>45935</v>
@@ -17516,7 +17516,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H283</f>
         <v>45936</v>
@@ -17538,29 +17538,29 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H284</f>
         <v>45937</v>
       </c>
-      <c r="B283" s="17" t="str">
+      <c r="B283" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I284</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C283" s="48" t="str">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="C283" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J284</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D283" s="48" t="str">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="D283" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K284</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E283" s="5" t="str">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E283" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L284</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.7399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H285</f>
         <v>45938</v>
@@ -17582,7 +17582,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H286</f>
         <v>45939</v>
@@ -17604,7 +17604,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H287</f>
         <v>45940</v>
@@ -17626,7 +17626,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H288</f>
         <v>45941</v>
@@ -17648,7 +17648,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H289</f>
         <v>45942</v>
@@ -17670,7 +17670,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H290</f>
         <v>45943</v>
@@ -17692,7 +17692,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H291</f>
         <v>45944</v>
@@ -17714,7 +17714,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H292</f>
         <v>45945</v>
@@ -17736,7 +17736,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H293</f>
         <v>45946</v>
@@ -17758,7 +17758,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H294</f>
         <v>45947</v>
@@ -17780,7 +17780,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H295</f>
         <v>45948</v>
@@ -17802,7 +17802,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H296</f>
         <v>45949</v>
@@ -17824,7 +17824,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H297</f>
         <v>45950</v>
@@ -17846,7 +17846,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H298</f>
         <v>45951</v>
@@ -17868,7 +17868,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H299</f>
         <v>45952</v>
@@ -17890,7 +17890,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H300</f>
         <v>45953</v>
@@ -17912,7 +17912,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H301</f>
         <v>45954</v>
@@ -17934,7 +17934,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H302</f>
         <v>45955</v>
@@ -17956,7 +17956,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H303</f>
         <v>45956</v>
@@ -17978,7 +17978,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H304</f>
         <v>45957</v>
@@ -18000,7 +18000,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H305</f>
         <v>45958</v>
@@ -18022,7 +18022,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H306</f>
         <v>45959</v>
@@ -18044,7 +18044,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H307</f>
         <v>45960</v>
@@ -18066,7 +18066,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H308</f>
         <v>45961</v>
@@ -18088,7 +18088,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H309</f>
         <v>45962</v>
@@ -18110,7 +18110,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H310</f>
         <v>45963</v>
@@ -18132,7 +18132,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H311</f>
         <v>45964</v>
@@ -18154,7 +18154,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H312</f>
         <v>45965</v>
@@ -18176,7 +18176,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H313</f>
         <v>45966</v>
@@ -18198,7 +18198,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H314</f>
         <v>45967</v>
@@ -18220,7 +18220,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H315</f>
         <v>45968</v>
@@ -18242,7 +18242,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H316</f>
         <v>45969</v>
@@ -18264,7 +18264,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H317</f>
         <v>45970</v>
@@ -18286,7 +18286,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H318</f>
         <v>45971</v>
@@ -18308,7 +18308,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H319</f>
         <v>45972</v>
@@ -18330,7 +18330,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H320</f>
         <v>45973</v>
@@ -18352,7 +18352,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H321</f>
         <v>45974</v>
@@ -18374,7 +18374,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H322</f>
         <v>45975</v>
@@ -18396,7 +18396,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H323</f>
         <v>45976</v>
@@ -18418,7 +18418,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H324</f>
         <v>45977</v>
@@ -18440,7 +18440,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H325</f>
         <v>45978</v>
@@ -18462,7 +18462,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H326</f>
         <v>45979</v>
@@ -18484,7 +18484,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H327</f>
         <v>45980</v>
@@ -18506,7 +18506,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H328</f>
         <v>45981</v>
@@ -18528,7 +18528,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H329</f>
         <v>45982</v>
@@ -18550,7 +18550,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H330</f>
         <v>45983</v>
@@ -18572,7 +18572,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H331</f>
         <v>45984</v>
@@ -18594,7 +18594,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H332</f>
         <v>45985</v>
@@ -18616,7 +18616,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H333</f>
         <v>45986</v>
@@ -18638,7 +18638,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H334</f>
         <v>45987</v>
@@ -18660,7 +18660,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H335</f>
         <v>45988</v>
@@ -18682,7 +18682,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H336</f>
         <v>45989</v>
@@ -18704,7 +18704,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H337</f>
         <v>45990</v>
@@ -18726,7 +18726,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H338</f>
         <v>45991</v>
@@ -18748,7 +18748,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H339</f>
         <v>45992</v>
@@ -18770,7 +18770,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H340</f>
         <v>45993</v>
@@ -18792,7 +18792,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H341</f>
         <v>45994</v>
@@ -18814,7 +18814,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H342</f>
         <v>45995</v>
@@ -18836,7 +18836,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H343</f>
         <v>45996</v>
@@ -18858,7 +18858,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H344</f>
         <v>45997</v>
@@ -18880,7 +18880,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H345</f>
         <v>45998</v>
@@ -18902,7 +18902,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H346</f>
         <v>45999</v>
@@ -18924,7 +18924,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H347</f>
         <v>46000</v>
@@ -18946,7 +18946,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H348</f>
         <v>46001</v>
@@ -18968,7 +18968,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H349</f>
         <v>46002</v>
@@ -18990,7 +18990,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H350</f>
         <v>46003</v>
@@ -19012,7 +19012,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H351</f>
         <v>46004</v>
@@ -19034,7 +19034,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H352</f>
         <v>46005</v>
@@ -19056,7 +19056,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H353</f>
         <v>46006</v>
@@ -19078,7 +19078,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H354</f>
         <v>46007</v>
@@ -19100,7 +19100,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H355</f>
         <v>46008</v>
@@ -19122,7 +19122,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H356</f>
         <v>46009</v>
@@ -19144,7 +19144,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H357</f>
         <v>46010</v>
@@ -19166,7 +19166,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H358</f>
         <v>46011</v>
@@ -19188,7 +19188,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H359</f>
         <v>46012</v>
@@ -19210,7 +19210,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H360</f>
         <v>46013</v>
@@ -19232,7 +19232,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H361</f>
         <v>46014</v>
@@ -19254,7 +19254,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H362</f>
         <v>46015</v>
@@ -19276,7 +19276,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H363</f>
         <v>46016</v>
@@ -19298,7 +19298,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H364</f>
         <v>46017</v>
@@ -19320,7 +19320,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H365</f>
         <v>46018</v>
@@ -19342,7 +19342,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H366</f>
         <v>46019</v>
@@ -19364,7 +19364,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H367</f>
         <v>46020</v>
@@ -19386,7 +19386,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H368</f>
         <v>46021</v>
@@ -19408,7 +19408,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H369</f>
         <v>46022</v>
@@ -19430,7 +19430,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="46">
         <f>'[1]Jumbo Bus Date to PDD'!H370</f>
         <v>46023</v>
@@ -19452,37 +19452,37 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="15"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="15"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="15"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="15"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="15"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="15"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="15"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="15"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="15"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="15"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="15"/>
     </row>
   </sheetData>
@@ -19503,13 +19503,13 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="5" width="13.453125" customWidth="1"/>
+    <col min="2" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
@@ -19518,14 +19518,14 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="52" t="s">
         <v>5</v>
@@ -19534,7 +19534,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="54"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -19543,7 +19543,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")</f>
         <v>1/1/2025 - 3/31/2025</v>
@@ -19582,7 +19582,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")</f>
         <v>4/1/2025 - 6/30/2025</v>
@@ -19604,7 +19604,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")</f>
         <v>7/1/2025 - 9/30/2025</v>
@@ -19626,7 +19626,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,10,1),"m/d/yyyy") &amp;" - " &amp;TEXT(DATE([1]!Year_of_Valuation,12,31),"m/d/yyyy")</f>
         <v>10/1/2025 - 12/31/2025</v>
@@ -19648,7 +19648,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
     </row>
   </sheetData>
@@ -19670,13 +19670,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>9</v>
       </c>
@@ -19685,7 +19685,7 @@
       <c r="D1" s="61"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>38</v>
       </c>
@@ -19694,12 +19694,12 @@
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
@@ -19708,7 +19708,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -19749,7 +19749,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
@@ -19773,7 +19773,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -19797,7 +19797,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
@@ -19821,7 +19821,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -19829,7 +19829,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -19837,7 +19837,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -19847,7 +19847,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>10</v>
       </c>
@@ -19857,7 +19857,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -19897,7 +19897,7 @@
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
@@ -19919,7 +19919,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -19941,7 +19941,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>3</v>
       </c>
@@ -19963,7 +19963,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -19971,7 +19971,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -19979,7 +19979,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -19989,7 +19989,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
@@ -19999,7 +19999,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
@@ -20015,7 +20015,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>0</v>
       </c>
@@ -20035,7 +20035,7 @@
       <c r="F24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -20055,7 +20055,7 @@
       <c r="F25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
@@ -20075,7 +20075,7 @@
       <c r="F26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>3</v>
       </c>
@@ -20095,7 +20095,7 @@
       <c r="F27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -20104,7 +20104,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -20115,7 +20115,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
         <v>10</v>
       </c>
@@ -20126,7 +20126,7 @@
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
@@ -20184,7 +20184,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -20219,7 +20219,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>2</v>
       </c>
@@ -20254,7 +20254,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
@@ -20311,193 +20311,193 @@
       <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="str" cm="1">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="M1" s="62" t="str" cm="1">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="M1" s="66" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="64"/>
-      <c r="Y1" s="62" t="str" cm="1">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="68"/>
+      <c r="Y1" s="66" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="64"/>
-      <c r="AK1" s="62" t="str" cm="1">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="68"/>
+      <c r="AK1" s="66" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="str">
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="M2" s="65" t="str">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="M2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="67"/>
-      <c r="Y2" s="65" t="str">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="Y2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="67"/>
-      <c r="AK2" s="65" t="str">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64"/>
+      <c r="AK2" s="62" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="67"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="64"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="68" t="s">
+      <c r="AL3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>103.45</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>108.31</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>3</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>113.18</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -21497,7 +21497,7 @@
         <v>118.04</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>5</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>121.04</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>6</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>124.05</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>7</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>125.72</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>8</v>
       </c>
@@ -22193,7 +22193,7 @@
         <v>127.39</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>9</v>
       </c>
@@ -22367,7 +22367,7 @@
         <v>129.06</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>10</v>
       </c>
@@ -22541,7 +22541,7 @@
         <v>129.35</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>11</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>129.63999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>12</v>
       </c>
@@ -22889,7 +22889,7 @@
         <v>129.93</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>13</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>130.22</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>14</v>
       </c>
@@ -23237,7 +23237,7 @@
         <v>130.51</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>15</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>130.80000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>16</v>
       </c>
@@ -23585,7 +23585,7 @@
         <v>131.09</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>17</v>
       </c>
@@ -23759,7 +23759,7 @@
         <v>131.38</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>18</v>
       </c>
@@ -23933,7 +23933,7 @@
         <v>131.66999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>19</v>
       </c>
@@ -24107,7 +24107,7 @@
         <v>131.96</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>20</v>
       </c>
@@ -24281,7 +24281,7 @@
         <v>132.25</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>21</v>
       </c>
@@ -24455,7 +24455,7 @@
         <v>132.54</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>22</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>132.83000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>23</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>133.12</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>24</v>
       </c>
@@ -24977,7 +24977,7 @@
         <v>133.41</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>25</v>
       </c>
@@ -25151,7 +25151,7 @@
         <v>133.69999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>26</v>
       </c>
@@ -25325,7 +25325,7 @@
         <v>133.99</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>27</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>134.28</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>28</v>
       </c>
@@ -25673,7 +25673,7 @@
         <v>134.57</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>29</v>
       </c>
@@ -25847,7 +25847,7 @@
         <v>134.86000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>30</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>135.15</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>37</v>
       </c>
@@ -26197,18 +26197,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AK1:AU1"/>
+    <mergeCell ref="AK2:AU2"/>
+    <mergeCell ref="AL3:AU3"/>
+    <mergeCell ref="Y1:AI1"/>
+    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="Z3:AI3"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:W1"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="N3:W3"/>
-    <mergeCell ref="AK1:AU1"/>
-    <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="AL3:AU3"/>
-    <mergeCell ref="Y1:AI1"/>
-    <mergeCell ref="Y2:AI2"/>
-    <mergeCell ref="Z3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26224,7 +26224,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection password="9690" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26245,7 +26245,7 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>488950</xdr:colOff>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>20</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB39B4-671D-4E9F-B246-EB26AA9E3D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2CF033-CCCA-43EA-BCC0-49D64092325D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31425" yWindow="0" windowWidth="24675" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,6 +576,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,15 +595,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9597,17 +9597,17 @@
           <cell r="H285">
             <v>45938</v>
           </cell>
-          <cell r="I285" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J285" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K285" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L285" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I285">
+            <v>3.9399999999999998E-2</v>
+          </cell>
+          <cell r="J285">
+            <v>4.24E-2</v>
+          </cell>
+          <cell r="K285">
+            <v>4.4699999999999997E-2</v>
+          </cell>
+          <cell r="L285">
+            <v>4.7199999999999999E-2</v>
           </cell>
         </row>
         <row r="286">
@@ -17565,21 +17565,21 @@
         <f>'[1]Jumbo Bus Date to PDD'!H285</f>
         <v>45938</v>
       </c>
-      <c r="B284" s="17" t="str">
+      <c r="B284" s="17">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!I285</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C284" s="48" t="str">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="C284" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!J285</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D284" s="48" t="str">
+        <v>4.24E-2</v>
+      </c>
+      <c r="D284" s="48">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!K285</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E284" s="5" t="str">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="E284" s="5">
         <f ca="1">'[1]Jumbo Bus Date to PDD'!L285</f>
-        <v xml:space="preserve"> </v>
+        <v>4.7199999999999999E-2</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -20320,182 +20320,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="str" cm="1">
+      <c r="A1" s="62" t="str" cm="1">
         <f t="array" ref="A1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q1 VM - 22 Table X"</f>
         <v>2025 Q1 VM - 22 Table X</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="M1" s="66" t="str" cm="1">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="M1" s="62" t="str" cm="1">
         <f t="array" ref="M1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q2 VM - 22 Table X"</f>
         <v>2025 Q2 VM - 22 Table X</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
-      <c r="Y1" s="66" t="str" cm="1">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
+      <c r="Y1" s="62" t="str" cm="1">
         <f t="array" ref="Y1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q3 VM - 22 Table X"</f>
         <v>2025 Q3 VM - 22 Table X</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="68"/>
-      <c r="AK1" s="66" t="str" cm="1">
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
+      <c r="AK1" s="62" t="str" cm="1">
         <f t="array" ref="AK1">TEXT([1]!Year_of_Valuation,"0000")&amp; " Q4 VM - 22 Table X"</f>
         <v>2025 Q4 VM - 22 Table X</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="68"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="str">
+      <c r="A2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation-1,10,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation-1,12,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>10/1/2024 thru 12/31/2024 Quarterly Average Spread Data</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="M2" s="62" t="str">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="M2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,1,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,3,31),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>1/1/2025 thru 3/31/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64"/>
-      <c r="Y2" s="62" t="str">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
+      <c r="Y2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,4,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,6,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>4/1/2025 thru 6/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="64"/>
-      <c r="AK2" s="62" t="str">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AK2" s="65" t="str">
         <f>TEXT(DATE([1]!Year_of_Valuation,7,1),"m/d/yyyy")&amp; " thru " &amp; TEXT(DATE([1]!Year_of_Valuation,9,30),"m/d/yyyy")&amp; " Quarterly Average Spread Data"</f>
         <v>7/1/2025 thru 9/30/2025 Quarterly Average Spread Data</v>
       </c>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="64"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="67"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
       <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
       <c r="Y3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="65" t="s">
+      <c r="Z3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
       <c r="AK3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="65" t="s">
+      <c r="AL3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -26197,18 +26197,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AK1:AU1"/>
     <mergeCell ref="AK2:AU2"/>
     <mergeCell ref="AL3:AU3"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="Y2:AI2"/>
     <mergeCell ref="Z3:AI3"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
+++ b/docs/content_history/pbr-2025-vm22-nonjumbo-jumbo-valuation-rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2CF033-CCCA-43EA-BCC0-49D64092325D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0DE82D-D99C-4ED7-A059-F0077C0ADCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="0" windowWidth="24675" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jumbo Rates" sheetId="4" r:id="rId1"/>
@@ -576,15 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,6 +586,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +628,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>488950</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -9614,17 +9614,17 @@
           <cell r="H286">
             <v>45939</v>
           </cell>
-          <cell r="I286" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="J286" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="K286" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="L286" t="str">
-            <v xml:space="preserve"> </v>
+          <cell r="I286">
+            <v>3.95E-2</v>
+          </cell>
+          <cell r="J286">
+            <v>4.24E-2</v>
+          </cell>
+          <cell r="K286">
+            <v>4.48E-2</v>
+          </cell>
+          <cell r="L286">
+            <v>4.7199999999999999E-2</v>
           </cell>
         </row>
         <row r="287">
@@ -11353,19 +11353,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B283" sqref="B283"/>
+      <selection pane="bottomLeft" activeCell="H279" sqref="H279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
       <c r="B1" s="52" t="s">
         <v>4</v>
@@ -11374,7 +11374,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -11383,7 +11383,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H5</f>
         <v>45658</v>
@@ -11422,7 +11422,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H6</f>
         <v>45659</v>
@@ -11444,7 +11444,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H7</f>
         <v>45660</v>
@@ -11466,7 +11466,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H8</f>
         <v>45661</v>
@@ -11488,7 +11488,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H9</f>
         <v>45662</v>
@@ -11510,7 +11510,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H10</f>
         <v>45663</v>
@@ -11532,7 +11532,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H11</f>
         <v>45664</v>
@@ -11554,7 +11554,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H12</f>
         <v>45665</v>
@@ -11576,7 +11576,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H13</f>
         <v>45666</v>
@@ -11598,7 +11598,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H14</f>
         <v>45667</v>
@@ -11620,7 +11620,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H15</f>
         <v>45668</v>
@@ -11642,7 +11642,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H16</f>
         <v>45669</v>
@@ -11664,7 +11664,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H17</f>
         <v>45670</v>
@@ -11686,7 +11686,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H18</f>
         <v>45671</v>
@@ -11708,7 +11708,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H19</f>
         <v>45672</v>
@@ -11730,7 +11730,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H20</f>
         <v>45673</v>
@@ -11752,7 +11752,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H21</f>
         <v>45674</v>
@@ -11774,7 +11774,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H22</f>
         <v>45675</v>
@@ -11796,7 +11796,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H23</f>
         <v>45676</v>
@@ -11818,7 +11818,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H24</f>
         <v>45677</v>
@@ -11840,7 +11840,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H25</f>
         <v>45678</v>
@@ -11862,7 +11862,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H26</f>
         <v>45679</v>
@@ -11884,7 +11884,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H27</f>
         <v>45680</v>
@@ -11906,7 +11906,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H28</f>
         <v>45681</v>
@@ -11928,7 +11928,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H29</f>
         <v>45682</v>
@@ -11950,7 +11950,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H30</f>
         <v>45683</v>
@@ -11972,7 +11972,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H31</f>
         <v>45684</v>
@@ -11994,7 +11994,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H32</f>
         <v>45685</v>
@@ -12016,7 +12016,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H33</f>
         <v>45686</v>
@@ -12038,7 +12038,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H34</f>
         <v>45687</v>
@@ -12060,7 +12060,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H35</f>
         <v>45688</v>
@@ -12082,7 +12082,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H36</f>
         <v>45689</v>
@@ -12104,7 +12104,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H37</f>
         <v>45690</v>
@@ -12126,7 +12126,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H38</f>
         <v>45691</v>
@@ -12148,7 +12148,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H39</f>
         <v>45692</v>
@@ -12170,7 +12170,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H40</f>
         <v>45693</v>
@@ -12192,7 +12192,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H41</f>
         <v>45694</v>
@@ -12214,7 +12214,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H42</f>
         <v>45695</v>
@@ -12236,7 +12236,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H43</f>
         <v>45696</v>
@@ -12258,7 +12258,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H44</f>
         <v>45697</v>
@@ -12280,7 +12280,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H45</f>
         <v>45698</v>
@@ -12302,7 +12302,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H46</f>
         <v>45699</v>
@@ -12324,7 +12324,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H47</f>
         <v>45700</v>
@@ -12346,7 +12346,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H48</f>
         <v>45701</v>
@@ -12368,7 +12368,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H49</f>
         <v>45702</v>
@@ -12390,7 +12390,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H50</f>
         <v>45703</v>
@@ -12412,7 +12412,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H51</f>
         <v>45704</v>
@@ -12434,7 +12434,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H52</f>
         <v>45705</v>
@@ -12456,7 +12456,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H53</f>
         <v>45706</v>
@@ -12478,7 +12478,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H54</f>
         <v>45707</v>
@@ -12500,7 +12500,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H55</f>
         <v>45708</v>
@@ -12522,7 +12522,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H56</f>
         <v>45709</v>
@@ -12544,7 +12544,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H57</f>
         <v>45710</v>
@@ -12566,7 +12566,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H58</f>
         <v>45711</v>
@@ -12588,7 +12588,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H59</f>
         <v>45712</v>
@@ -12610,7 +12610,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H60</f>
         <v>45713</v>
@@ -12632,7 +12632,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H61</f>
         <v>45714</v>
@@ -12654,7 +12654,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H62</f>
         <v>45715</v>
@@ -12676,7 +12676,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H63</f>
         <v>45716</v>
@@ -12698,7 +12698,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H64</f>
         <v>45717</v>
@@ -12720,7 +12720,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H65</f>
         <v>45718</v>
@@ -12742,7 +12742,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H66</f>
         <v>45719</v>
@@ -12764,7 +12764,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H67</f>
         <v>45720</v>
@@ -12786,7 +12786,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H68</f>
         <v>45721</v>
@@ -12808,7 +12808,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H69</f>
         <v>45722</v>
@@ -12830,7 +12830,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H70</f>
         <v>45723</v>
@@ -12852,7 +12852,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H71</f>
         <v>45724</v>
@@ -12874,7 +12874,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H72</f>
         <v>45725</v>
@@ -12896,7 +12896,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H73</f>
         <v>45726</v>
@@ -12918,7 +12918,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H74</f>
         <v>45727</v>
@@ -12940,7 +12940,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H75</f>
         <v>45728</v>
@@ -12962,7 +12962,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H76</f>
         <v>45729</v>
@@ -12984,7 +12984,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H77</f>
         <v>45730</v>
@@ -13006,7 +13006,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H78</f>
         <v>45731</v>
@@ -13028,7 +13028,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H79</f>
         <v>45732</v>
@@ -13050,7 +13050,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H80</f>
         <v>45733</v>
@@ -13072,7 +13072,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H81</f>
         <v>45734</v>
@@ -13094,7 +13094,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H82</f>
         <v>45735</v>
@@ -13116,7 +13116,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H83</f>
         <v>45736</v>
@@ -13138,7 +13138,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H84</f>
         <v>45737</v>
@@ -13160,7 +13160,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H85</f>
         <v>45738</v>
@@ -13182,7 +13182,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H86</f>
         <v>45739</v>
@@ -13204,7 +13204,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H87</f>
         <v>45740</v>
@@ -13226,7 +13226,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H88</f>
         <v>45741</v>
@@ -13248,7 +13248,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H89</f>
         <v>45742</v>
@@ -13270,7 +13270,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H90</f>
         <v>45743</v>
@@ -13292,7 +13292,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H91</f>
         <v>45744</v>
@@ -13314,7 +13314,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H92</f>
         <v>45745</v>
@@ -13336,7 +13336,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H93</f>
         <v>45746</v>
@@ -13358,7 +13358,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H94</f>
         <v>45747</v>
@@ -13380,7 +13380,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H95</f>
         <v>45748</v>
@@ -13402,7 +13402,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H96</f>
         <v>45749</v>
@@ -13424,7 +13424,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H97</f>
         <v>45750</v>
@@ -13446,7 +13446,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H98</f>
         <v>45751</v>
@@ -13468,7 +13468,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H99</f>
         <v>45752</v>
@@ -13490,7 +13490,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H100</f>
         <v>45753</v>
@@ -13512,7 +13512,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H101</f>
         <v>45754</v>
@@ -13534,7 +13534,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H102</f>
         <v>45755</v>
@@ -13556,7 +13556,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H103</f>
         <v>45756</v>
@@ -13578,7 +13578,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H104</f>
         <v>45757</v>
@@ -13600,7 +13600,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H105</f>
         <v>45758</v>
@@ -13622,7 +13622,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H106</f>
         <v>45759</v>
@@ -13644,7 +13644,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H107</f>
         <v>45760</v>
@@ -13666,7 +13666,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H108</f>
         <v>45761</v>
@@ -13688,7 +13688,7 @@
         <v>5.3800000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H109</f>
         <v>45762</v>
@@ -13710,7 +13710,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H110</f>
         <v>45763</v>
@@ -13732,7 +13732,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H111</f>
         <v>45764</v>
@@ -13754,7 +13754,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H112</f>
         <v>45765</v>
@@ -13776,7 +13776,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H113</f>
         <v>45766</v>
@@ -13798,7 +13798,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H114</f>
         <v>45767</v>
@@ -13820,7 +13820,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H115</f>
         <v>45768</v>
@@ -13842,7 +13842,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H116</f>
         <v>45769</v>
@@ -13864,7 +13864,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H117</f>
         <v>45770</v>
@@ -13886,7 +13886,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H118</f>
         <v>45771</v>
@@ -13908,7 +13908,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H119</f>
         <v>45772</v>
@@ -13930,7 +13930,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H120</f>
         <v>45773</v>
@@ -13952,7 +13952,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H121</f>
         <v>45774</v>
@@ -13974,7 +13974,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H122</f>
         <v>45775</v>
@@ -13996,7 +13996,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H123</f>
         <v>45776</v>
@@ -14018,7 +14018,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H124</f>
         <v>45777</v>
@@ -14040,7 +14040,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H125</f>
         <v>45778</v>
@@ -14062,7 +14062,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H126</f>
         <v>45779</v>
@@ -14084,7 +14084,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H127</f>
         <v>45780</v>
@@ -14106,7 +14106,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H128</f>
         <v>45781</v>
@@ -14128,7 +14128,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H129</f>
         <v>45782</v>
@@ -14150,7 +14150,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H130</f>
         <v>45783</v>
@@ -14172,7 +14172,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H131</f>
         <v>45784</v>
@@ -14194,7 +14194,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H132</f>
         <v>45785</v>
@@ -14216,7 +14216,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H133</f>
         <v>45786</v>
@@ -14238,7 +14238,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H134</f>
         <v>45787</v>
@@ -14260,7 +14260,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H135</f>
         <v>45788</v>
@@ -14282,7 +14282,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H136</f>
         <v>45789</v>
@@ -14304,7 +14304,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H137</f>
         <v>45790</v>
@@ -14326,7 +14326,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H138</f>
         <v>45791</v>
@@ -14348,7 +14348,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H139</f>
         <v>45792</v>
@@ -14370,7 +14370,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H140</f>
         <v>45793</v>
@@ -14392,7 +14392,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H141</f>
         <v>45794</v>
@@ -14414,7 +14414,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H142</f>
         <v>45795</v>
@@ -14436,7 +14436,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H143</f>
         <v>45796</v>
@@ -14458,7 +14458,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H144</f>
         <v>45797</v>
@@ -14480,7 +14480,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H145</f>
         <v>45798</v>
@@ -14502,7 +14502,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H146</f>
         <v>45799</v>
@@ -14524,7 +14524,7 @@
         <v>5.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H147</f>
         <v>45800</v>
@@ -14546,7 +14546,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H148</f>
         <v>45801</v>
@@ -14568,7 +14568,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H149</f>
         <v>45802</v>
@@ -14590,7 +14590,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H150</f>
         <v>45803</v>
@@ -14612,7 +14612,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H151</f>
         <v>45804</v>
@@ -14634,7 +14634,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H152</f>
         <v>45805</v>
@@ -14656,7 +14656,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H153</f>
         <v>45806</v>
@@ -14678,7 +14678,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H154</f>
         <v>45807</v>
@@ -14700,7 +14700,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H155</f>
         <v>45808</v>
@@ -14722,7 +14722,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H156</f>
         <v>45809</v>
@@ -14744,7 +14744,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H157</f>
         <v>45810</v>
@@ -14766,7 +14766,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H158</f>
         <v>45811</v>
@@ -14788,7 +14788,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H159</f>
         <v>45812</v>
@@ -14810,7 +14810,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H160</f>
         <v>45813</v>
@@ -14832,7 +14832,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H161</f>
         <v>45814</v>
@@ -14854,7 +14854,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H162</f>
         <v>45815</v>
@@ -14876,7 +14876,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H163</f>
         <v>45816</v>
@@ -14898,7 +14898,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H164</f>
         <v>45817</v>
@@ -14920,7 +14920,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H165</f>
         <v>45818</v>
@@ -14942,7 +14942,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H166</f>
         <v>45819</v>
@@ -14964,7 +14964,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H167</f>
         <v>45820</v>
@@ -14986,7 +14986,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H168</f>
         <v>45821</v>
@@ -15008,7 +15008,7 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H169</f>
         <v>45822</v>
@@ -15030,7 +15030,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H170</f>
         <v>45823</v>
@@ -15052,7 +15052,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H171</f>
         <v>45824</v>
@@ -15074,7 +15074,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H172</f>
         <v>45825</v>
@@ -15096,7 +15096,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H173</f>
         <v>45826</v>
@@ -15118,7 +15118,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H174</f>
         <v>45827</v>
@@ -15140,7 +15140,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H175</f>
         <v>45828</v>
@@ -15162,7 +15162,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H176</f>
         <v>45829</v>
@@ -15184,7 +15184,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H177</f>
         <v>45830</v>
@@ -15206,7 +15206,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H178</f>
         <v>45831</v>
@@ -15228,7 +15228,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H179</f>
         <v>45832</v>
@@ -15250,7 +15250,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H180</f>
         <v>45833</v>
@@ -15272,7 +15272,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H181</f>
         <v>45834</v>
@@ -15294,7 +15294,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H182</f>
         <v>45835</v>
@@ -15316,7 +15316,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H183</f>
         <v>45836</v>
@@ -15338,7 +15338,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H184</f>
         <v>45837</v>
@@ -15360,7 +15360,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H185</f>
         <v>45838</v>
@@ -15382,7 +15382,7 @@
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H186</f>
         <v>45839</v>
@@ -15404,7 +15404,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H187</f>
         <v>45840</v>
@@ -15426,7 +15426,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H188</f>
         <v>45841</v>
@@ -15448,7 +15448,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H189</f>
         <v>45842</v>
@@ -15470,7 +15470,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H190</f>
         <v>45843</v>
@@ -15492,7 +15492,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H191</f>
         <v>45844</v>
@@ -15514,7 +15514,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H192</f>
         <v>45845</v>
@@ -15536,7 +15536,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H193</f>
         <v>45846</v>
@@ -15558,7 +15558,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H194</f>
         <v>45847</v>
@@ -15580,7 +15580,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H195</f>
         <v>45848</v>
@@ -15602,7 +15602,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H196</f>
         <v>45849</v>
@@ -15624,7 +15624,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H197</f>
         <v>45850</v>
@@ -15646,7 +15646,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H198</f>
         <v>45851</v>
@@ -15668,7 +15668,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H199</f>
         <v>45852</v>
@@ -15690,7 +15690,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="15">
         <f>'[1]Jumbo Bus Date to PDD'!H200</f>
         <v>45853</v>
@@ -15712,7 +15712,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
      